--- a/정보처리기사/필기.xlsx
+++ b/정보처리기사/필기.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bacbd6586d17699e/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\유미\자격증\정처기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A928370-387A-4B2A-9CE9-6A3531886F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB650B70-9379-4388-9271-EE3697F913BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
   </bookViews>
   <sheets>
     <sheet name="1과목" sheetId="1" r:id="rId1"/>
+    <sheet name="2과목" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1과목'!$B$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2과목'!$B$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="265">
   <si>
     <t>문제</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -986,6 +988,738 @@
   </si>
   <si>
     <t>ㄹㄱㄷㄴㅁ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;목적에 따른 테스트&gt;
+- ㅇㅇ 테스트; 시스템에 여러 가지 결함을 주어 실패하도록 한 후 올바르게 복구되는지를 확인하는 테스트
+- ㅇㅇ 테스트; 시스템에 설치된 시스템 보호 도구가 불법적인 침입으로부터 시스템을 보호할 수 있는지를 확인하는 테스트
+- ㅇㅇ 테스트; 시스템에 과도한 정보량이나 빈도 등을 부과하여 과부화 시에도 소프트웨어가 정상적으로 실행되는지를 확인하는 테스트
+- ㅇㅇ 테스트; 소프트웨어의 실시간 성능이나 전체적인 효율성을 진단하는 테스트로, 소프트웨어의 응답 시간, 처리량 등을 테스트
+- ㅇㅇ 테스트; 소프트웨어 내부의 논리적인 경로, 소스 코드의 복잡도 등을 평가하는 테스트
+- ㅇㅇ 테스트; 소프트웨어의 변경 또는 수정된 코드에 새로운 결함이 없음을 확인하는 테스트
+- ㅇㅇ 테스트; 변경된 소프트웨어와 기존 소프트웨어에 동일한 데이터를 입력하여 결과를 비교하는 테스트
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복, 안전, 강도, 성능, 구조, 회귀, 병행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">버블 정렬을 이용하여 [9, 6, 7, 3, 5]를 오름차순으로 정렬할 경우 PASS 3의 결과는?    정답 기입 예시) 9, 6, 7, 3
+-&gt; ㅇ, ㅇ, ㅇ, ㅇ, 9
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 5, 6, 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">깊이 우선 탐색(DFS); 정점에서 ㅇㅇ 노드 방향으로 운행하면서 형제 노드와 자식 노드가 있을 때 ㅇㅇ 노드를 우선 탐색하는 기법으로 모든 노드를 한 번씩 방문함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자식, 자식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ㅇㅇ&gt;
+- 소프트웨어 구조를 이루며, 다른 것들과 구별될 수 있는 독립적인 기능을 갖는 단위
+- 하나 또는 몇 개의 논리적인 기능을 수행하기 위한 명령어들의 집합
+- 서로 모여 하나의 완전함 프로그램으로 만들어질 수 있음.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;테스트 드라이버&gt;
+- 시험대상 모듈을 호출하는 간이 소프트웨어 (O/X)
+- 필요에 따라 매개 변수를 전달하고 모듈을 수행한 후의 결과를 보여줄 수 있음. (O/X)
+- 상향식 통합 테스트에서 사용됨. (O/X)
+- 테스트 대상 모듈이 호출하는 하위 모듈의 역할을 함. (O/X)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선형, 비선형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스택의 자료 삭제 알고리즘에서 괄호에 들어갈 내용은? (단, TOP: 스택포인터, S: 스택의 이름)
+-----------------------------------
+If Top = 0 Then
+  (               )
+Else {
+  remove S(Top)
+    Top = Top - 1
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Underflow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;자료 구조의 분류&gt;                               정답 기입 예시) 선형, 선형
+- (선형/비선형) 구조; 배열, 스택, 큐, 데크
+- (선형/비선형) 구조; 트리, 그래프
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;제품 소프트웨어의 사용자 매뉴얼 작성 절차&gt;
+작성 ㅇㅇ 정의 -&gt; 사용 ㅇㅇ서 구성 요소 정의 -&gt; 구성 요소별 ㅇㅇ 작성 -&gt; 사용 설명서 ㅇㅇ
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지침, 설명, 내용, 검토</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">순서가 A, B, C, D로 정해진 입력 자료를 스택에 입력한 후 출력한 결과로 불가능한 것은?
+1)D, C, B, A    2)B, C, D, A    3)C, B, A, D    4)D, B, C, A
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결함, 검증, 확인, 검증, 확인, 검증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;소프트웨어 테스트에서 검증과 확인&gt;                                  정답 기입 예시) 유미, 검증, 검증, 검증, 검증, 검증
+- 소프트웨어 테스트에서 검증과 확인을 구별하면 찾고자 하는 ㅇㅇ 유형을 명확하게 하는 데 도움이 됨.
+- (검증/확인)은 소프트웨어 개발 과정을 테스트하는 것이고, (검증/확인)은 소프트웨어 결과를 테스트하는 것
+- (검증/확인)은 작업 제품이 요구 명세의 기능, 비기능 요구사항을 얼마나 잘 준수하는지 측정하는 것
+- (검증/확인)은 작업 제품이 사용자의 요구에 적합한지 측정하며, (검증/확인)은 작업 제품이 개발자의 기대를 충족시키는지를 측정함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;테스트&gt;
+- ㅇㅇ 테스트; 개별 모듈을 시험하는 것으로 모듈이 정확하게 구현되었는지, 예정한 기능이 제대로 수행되는지를 점검
+- ㅇㅇ 테스트; 단위 테스트가 완료된 모듈들을 결합하여 하나의 시스템으로 완성시키는 과정에서의 테스트
+- ㅇㅇㅇ 테스트; 개발된 소프트웨어가 해당 컴퓨터 시스템에서 완벽하게 수행되는가를 점검하는 테스트
+- ㅇㅇ 테스트; 개발한 소프트웨어가 사용자의 요구사항을 충족하는지에 중점을 두고 테스트하는 방법
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위, 통합, 시스템, 인수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;형상 관리 기능의 종류&gt;
+- 형상 ㅇㅇ; 형상 관리 계획을 근거로 형상 관리의 대상이 무엇인지 식별하는 과정
+- ㅇㅇ 제어; 소프트웨어 업그레이드나 유지 보수 과정에서 생성된 다른 버전의 형상 항목을 관리하고, 이를 위해 특정 절차와 도구를 결합
+- 형상 ㅇㅇ; 식별된 형상 항목에 대한 변경 요구를 검토하여 현재의 기준선이 잘 반영될 수 있도록 조정
+- 형상 ㅇㅇ; 기준선의 무결성을 평가하기 위해 확인, 검증, 검열 과정을 통해 공식적으로 승인하는 작업
+- 형상 ㅇㅇ;형상의 식별, 통제, 감사 작업의 결과를 기록/관리하고 보고서를 작성하는 작업
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별, 버전, 통제, 감사, 기록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;소스코드 정적 분석&gt;
+- 소스 코드를 실행시키지 않고 분석함. (O/X)
+- 코드에 있는 오류나 잠재적인 오류를 찾아내기 위한 활동임. (O/X)
+- 하드웨어적인 방법으로만 코드 분석이 가능함. (O/X)
+- 자료 흐름이나 논리 흐름을 분석하여 비정상적인 패턴을 찾을 수 있음. (O/X)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소프트웨어 개발 활동을 수행함에 있어 시스템이 고장을 이르키게 하며, 오류가 있는 경우 발생하는 것은?
+1)Fault 2)Testcase 3)Mistake 4)Inspection
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;클린 코드 작성 원칙&gt;
+- ㅇㅇ성; 누구든지 코드를 쉽게 읽을 수 있도록 작성하며, 쉬운 용어와 들여쓰기 기능 사용
+- ㅇㅇ성; 한 번에 한 가지를 처리하도록 코드를 간단하게 작성함. 클래스/메소드/함수 등을 최소 단위로 분리함.
+- ㅇㅇ성 배제; 코드가 다른 모듈에 미치는 영향을 최소화하고 코드 변경 시 다른 부분에 영향이 없도록 작성함.
+- ㅇㅇ성 최소화; 중복된 코드는 삭제하고 공통된 코드를 사용함.
+- ㅇㅇ화; 상위 클래스/메소드/함수에서는 간략하게 애플리케이션의 특성을 나타내며 상세 내용은 하위 클래스/메소드/함수에서 구현함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가독, 단순, 의존, 중복, 추상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소프트웨어 품질 목표 중 하나 이상의 하드웨어 환경에서 운용되기 위해 쉽게 수정될 수 있는 시스템의 능력은?
+1)Portability    2)Efficiency    3)Usability   4)Correctness
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최악의 경우 검색 효율이 가장 나쁜 트리 구조는?
+1)이진 탐색 트리    2)AVL 트리    3)2-3 트리    4)레드-블랙 트리
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;테스트 케이스 생성 도구&gt;
+- 자료 ㅇㅇ도; 자료 원시 프로그램을 입력 받아 파싱한 후 작성함.
+- ㅇㅇ 테스트; 주어진 기능을 구동시키는 모든 가능한 상태를 파악하여 이에 대한 입력을 작성함.
+- 입력 ㅇㅇㅇ 분석; 원시 코드의 내부에 참조하지 않고 입력 변수와 도메인을 분석하여 테스트 데이터를 작성함.
+- ㅇㅇ 테스트; 입력 값을 무작위로 추출하여 테스트함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐름, 기능, 도메인, 랜덤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;디지털 저작권 관리(DRM) 용어&gt;
+- ㅇㅇㅇㅇ 하우스; 저작권에 대한 사용 권한, 라이선스 발급, 사용량에 따른 결제 관리 등을 수행하는 곳
+- 콘텐츠 제공자; 콘텐츠를 제공하는 ㅇㅇㅇㅇ
+- ㅇㅇㅇ; 콘텐츠를 메타 데이터와 함께 배포 가능한 단위로 묶어 암호화하는 프로그램
+- 콘텐츠 ㅇㅇ자; 암호화된 콘텐츠를 유통하는 곳이나 사람
+- 콘텐츠 ㅇㅇ자; 콘텐츠를 구매해서 사용하는 주체
+- DRM ㅇㅇㅇ러; 배포된 콘텐츠의 이용 권한을 통제하는 프로그램
+- 보안 컨테이너; 콘텐츠 ㅇㅇ을 안전하게 유통하기 위한 전자적 보안 장치
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리어링, 저작권자, 패키저, 분배, 소비, 컨트롤, 원본</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;힙 정렬&gt;
+- 정렬한 입력 레코드들로 힙을 구성하고 가장 큰 키 값을 갖는 루트 노드를 제거하는 과정을 반복하여 정렬하는 기법 (O/X)
+- 평균 수행 시간은 O(nlog2n) (O/X)
+- 완전 이진트리(complete binary tree)로 입력 자료의 레코드를 구성 (O/X)
+- 최악의 수행 시간은 O(2n^4) (O/X)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;단위 테스트를 통해 발견할 수 있는 오류&gt;
+- 알고리즘 오류에 따른 원치 않는 결과 (O/X)
+- 탈출구가 없는 반복문의 사용 (O/X)
+- 모듈 간의 비정상적 상호작용으로 인한 원치 않는 결과 (O/X)
+- 틀린 계산 수식에 의한 잘못된 결과 (O/X)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;소프트웨어 버전 등록 관련 주요 용어&gt;
+- ㅇㅇㅇ; 최신 버전의 파일들과 변경 내역에 대한 정보들이 저장되어 있는 곳
+- 가져오기; 버전 관리가 되고 있지 않은 아무것도 없는 저장소에 처음으로 파일을 ㅇㅇ함.
+- 체크아웃; 저장소에서 ㅇㅇ 파일과 함께 버전 관리를 위한 파일들을 받아옴.
+- 체크인; 체크아웃한 파일의 수정을 완료한 후 저장소의 파일을 새로운 버전으로 ㅇㅇ함.
+- ㅇㅇ; 체크인을 수행할 때 이전에 갱신된 내용이 있는 경우에 충돌을 알리고 diff 도구를 이용해 수정한 후 갱신을 완료함.
+- ㅇㅇ화; 저장소에 있는 최신 버전으로 자신의 작업 공간을 동기화함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장소, 복사, 소스, 갱신, 커밋, 동기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;소프트웨어 테스트&gt;            
+- 화이트 박스 테스트는 모듈의 논리적인 구조를 체계적으로 점검 (O/X)
+- 블랙 박스 테스트는 프로그램의 구조를 고려하지 않음. (O/X)
+- 화이트 박스 테스트에서 기본 경로란 흐름 그래프의 시작 노드에서 종료 노드까지의 서로 독립된 경로로 싸이클을 허용하지 않는 경로를 말함. (O/X)
+- 테스트 케이스는 일반적으로 시험 조건, 테스트 데이터, 예상 결과가 포함되어야 함. (O/X)
+ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;소프트웨어 형상 관리&gt;
+- 소프트웨어에 가해지는 변경을 제어하고 관리함. (O/X)
+- 프로젝트 계획, 분석서, 설계서, 프로그램, 테스트 케이스 모두 관리 대상 (O/X)
+- 대표적인 형상 관리 도구로 Ant, Maven, Gradle 등이 있음. (O/X)
+- 유지 보수 단계뿐만 아니라 개발 단계에도 적용할 수 있음. (O/X)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유, 중앙, 분산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;소프트웨어 버전 관리 도구&gt;
+- ㅇㅇ 폴더 방식; 버전 관리 자료가 로컬 컴퓨터의 공유 폴더에 저장되어 관리되는 방식. SCCS, RCS, PVCS, QVCS 등이 있음.
+- 클라이언트-서버 방식; 버전 관리 자료가 ㅇㅇ 시스템에 저장되어 관리되는 방식. CVS, SVN, CNSNT, Clear Case, CMVC, Perforce 등
+- ㅇㅇ 저장소 방식; 버전 관리 자료가 하나의 원격 저장소와 분산된 개발자 PC의 로컬 저장소에서 함께 저장되어 관리되는 방식. Git, DCVS 등
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙, 블랙, 화이트, 블랙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;블랙/화이트 박스 테스트를 이용하여 발견할 수 있는 오류&gt;                            정답 기입 예시) 블랙, 블랙, 블랙, 블랙
+- 비정상적인 자료를 입력해도 오류 처리를 수행하지 않는 경우; (블랙/화이트) 박스 테스트
+- 정상적인 자료를 입력해도 요규된 기능이 제대로 수행되지 않는 경우; (블랙/화이트) 박스 테스트
+- 반복 조건을 만족하는데도 루프 내의 문장이 수행되지 않는 경우; (블랙/화이트) 박스 테스트
+- 경계값을 입력할 경우 요구된 출력 결과가 나오지 않는 경우; (블랙/화이트) 박스 테스트
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;화이트 박스 테스트의 제어 구조 검사&gt;
+- 조건 검사; 프로그램 ㅇㅇ 내에 있는 논리적 조건을 테스트하는 테스트 케이스 설계 기법
+- ㅇㅇ 검사; 프로그램의 반복 구조에 초점을 맞춰 실시하는 테스트 케이스 설계 기법
+- ㅇㅇㅇ 흐름 검사; 프로그램에서 변수의 정의와 변수 사용의 위치에 초점을 맞춰 실시하는 테스트 케이스 설계 기법
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈, 루프, 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;블랙박스 테스트의 종류&gt;
+- ㅇㅇ 분할 검사; 입력 자료에 초점을 맞춰 테스크 테이스를 만들고 검사하는 방법으로 동등 분할 기법이라고도 함.
+- ㅇㅇㅇ 분석; 입력 자료에만 치중한 동치 분할 기법을 보완하기 위한 기법
+- 원인-ㅇㅇ 그래프 검사; 입력 데이터 간의 관계와 출력에 영향을 미치는 상황을 체계적으로 분석한 다음 효용성이 높은 테스트 케이스를 선정하여 검사
+- ㅇㅇ 예측 검사; 과거의 경험이나 확인자의 감각으로 테스트하는 기법
+- ㅇㅇ 검사; 여러 버전의 프로그램에 동일한 테스트 자료를 제공하여 동일한 결과가 출력되는지 테스트하는 기법
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동치, 경계값, 효과, 오류, 비교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정렬된 N개의 데이터를 처리하는 데 O(Nlog2N)의 시간이 소요되는 정렬 알고리즘은?
+1)합병정렬    2)버블정렬    3)선택정렬    4)삽입정렬
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;EAI 구축 유형&gt;
+- Point-to-Point; 가장 기본적인 애플리케이션 통합 방식으로, 애플리케이션을 1:ㅇ로 연결하며 변경 및 재사용이 어려움.
+- Hub&amp;Spoke; 단일 접점인 허브 시스템을 통해 데이터를 전송하는 ㅇㅇ 집중형 방식으로, 확장 및 유지 보수가 용이하지만 허브 장애 발생시 시스템 전체에 영향을 미침.
+- Message Bus; 애플리케이션 사이에 ㅇㅇ웨어를 두어 처리하는 방식으로 확장성이 뛰어나며 대용량 처리가 가능함.
+- Hybrid; Hub&amp;Spoke와 Message Bus의 혼합 방식으로 그룹 ㅇ부에서는 Hub&amp;Spoke 방식을, 그룹 ㅇ부에는 Message Bus 방식을 사용함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 중앙, 미들, 내, 외</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;소프트웨어 패키징&gt;
+- 패키징은 개발자 중심으로 진행함. (O/X)
+- 신규 및 변경 개발소스를 식별하고, 이를 모듈화하여 상용제품으로 패키징함. (O/X)
+- 고객의 편의성을 위해 매뉴얼 및 버전 관리를 지속적으로 함. (O/X)
+- 범용 환경에서 사용이 가능하도록 일반적인 배포 형태로 패키징이 진행됨. (O/X)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOOO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;테스트와 디버그&gt;
+- (테스트/디버깅); 오류를 찾는 작업
+- (테스트/디버깅); 오류를 수정하는 작업
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트, 디버깅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스택을 이용한 연산과 거리가 먼 것은?
+1)선택 정렬    2)재귀 호출    3)후위 표현의 연산    4)깊이 우선 탐색
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4, 7, 9, 8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Selection Sort를 사용하여 [8, 3, 4, 9, 7]을 오름차순 정렬한 경우 PASS 3의 결과는?      정답 기입 예시) 8, 3, 4, 9
+-&gt; 3, ㅇ, ㅇ, ㅇ, ㅇ
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하향식 통합 시험을 위해 일시적으로 필요한 조건만을 가지고 임시로 제공되는 시험용 모듈은?
+1)Stub    2)Driver    3)Procedure    4)Function
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그래프의 특수한 형태로 노드와 선분으로 되어 있고, 정점 사이에 사이클이 형성되어 있지 않으며, 자료 사이의 관계성이 계층 형식으로 나타나는 비선형 구조는?
+1)tree    2)network    3)stack    4)distributed
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;디지털 저작권 관리(DRM)의 기술 요소&gt;
+- ㅇㅇ화; 콘텐츠 및 라이선스를 암호화하고 전자 서명을 할 수 있는 기술
+- ㅇ 관리; 콘텐츠를 암호화한 키에 대한 저장 및 분배 기술
+- 암호화 ㅇㅇ 생성; 콘텐츠를 암호화된 콘텐츠로 생성하기 위한 기술
+- ㅇㅇ 기술; 콘텐츠에 대한 식별 체계 표현 기술
+- ㅇㅇㅇ 표현; 라이선스의 내용 표현 기술
+- ㅇㅇ 관리; 라이선스 발급 및 사용에 대한 정책 표현 및 관리 기술
+- ㅇㅇ 방지; 크랙에 의한 콘텐츠 사용 방지 기술
+- ㅇㅇ; 라이선스 발급 및 사용의 기준이 되는 사용자 인증 기술
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호, 키, 파일, 식별, 저작권, 정책, 크랙, 인증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;이진 검색 알고리즘&gt;
+- 탐색 효율이 좋고 탐색 시간이 적게 소요됨. (O/X)
+- 검색할 데이터가 정렬되지 않아도 됨. (O/X)
+- 피보나치 수열에 따라 다음에 비교할 대상을 선정하여 검색함. (O/X)
+- 비교 횟수를 거듭할 때마다 검색 대상이 되는 데이터의 수가 절반으로 줄어듬. (O/X)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OXXO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;소프트웨어 설치 매뉴얼의 기본 사항&gt;
+- 소프트웨어 ㅇㅇ; 소프트웨어의 주요 기능 및 UI 설명
+- ㅇㅇ 관련 파일; 소프트웨어 설치에 필요한 파일 설명
+- 설치 ㅇㅇㅇ; 설치 아이콘 설명
+- 프로그램 ㅇㅇ; 설체된 소프트웨어의 삭제 방법 설명
+- 관련 추가 정보; 소프트웨어 이외의 관련 ㅇㅇ 프로그램 정보, 소프트웨어 제작사 등의 추가 정보 기술
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개요, 설치, 아이콘, 삭제, 설치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;정렬&gt;
+- ㅇㅇ 정렬; 가장 간단한 정렬 방식으로 이미 순서화된 파일에 새로운 하나의 레코드를 순서에 맞게 삽입시켜 정렬함.
+- ㅇ 정렬; 삽입 정렬을 확장한 개념으로 입력 파일을 어떤 매개변수의 값으로 서브파일을 구성하고, 각 서브파일을 삽입 정렬 방식으로 순서 배열하는 과정을 반복
+- ㅇㅇ 정렬; n개의 레코드 중에서 최소값을 찾아 첫 번째 레코드 위치에 놓고, 나머지 (n-1)개 중 다시 최소값을 찾아 두 번째 레코드 위치에 놓는 방식을 반복
+- ㅇㅇ 정렬; 주어진 파일에서 인접한 두 개의 레코드 키 값을 비교하여 그 크기에 따라 레코드 위치를 서로 교환하는 정렬 방식
+- ㅇ 정렬; 레코드의 많은 자료 이동을 없애고 하나의 파일을 부분적으로 나누어 가면서 정렬하는 방법으로 키를 기준으로 작은 값은 왼 쪽에, 큰 값은 오른 쪽 서브파일로 분해
+- ㅇ 정렬; 전이진 트리를 이용한 정렬 방식
+- 2-Way ㅇㅇ정렬; 이미 정렬되어 있는 두 개의 파일을 한 개의 파일로 합병하는 정렬 방식
+- ㅇㅇ 정렬; Queue를 이요하여 자릿수 별로 정렬하는 방식으로, 레코드의 키 값을 분석하여 같은 수 또는 같은 문자끼리 그 순서에 맞는 버킷에 분배하였다가 버킷의 순서대로 레코드를 꺼내어 정렬함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삽입, 쉘, 선택, 버블, 퀵, 힙, 합병, 기수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;해싱 함수&gt;
+- ㅇㅇ법; 레코드 키를 해시표의 크기보다 큰 수 중에서 가장 작은 소수로 나눈 나머지를 홈 주소로 삼는 방식
+- ㅇㅇ법; 레코드 키 값을 제곱한 후 그 중간 부분의 값을 홈 주소로 삼는 방식
+- ㅇㅇ법; 레코드 키 값을 여러 부분으로 나눈 후 각 부분의 값을 더하거나 XOR(배타적 논리합)한 값을 홈 주소로 삼는 방식
+- ㅇㅇ 변환법; 키 숫자의 진수를 다른 진수로 변환시켜 주소 크기를 초과한 높은 자릿수는 절단하고 이를 다시 주소 범위에 맞게 조정하는 방법
+- ㅇㅇ적 코딩법; 키 값을 이루고 있는 각 자리의 비트 수를 한 다항식의 계수로 간주하고, 이 다항식을 ㅐㅎ시표의 크기에 의해 정의된 다항식으로 나누어 얻은 나머지 다항식의 계수를 홈 주소로 삼는 방식
+- ㅇㅇ 분석법; 키 값을 이루는 숫자의 분포를 분석하여 비교적 고른 자리를 필요한 만큼 택해서 홈 주소로 삼는 방식
+- ㅇㅇㅇ법; 난수를 발생시켜 나온 값을 홈 주소로 삼는 방식
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제산, 제곱, 폴딩, 기수, 대수, 숫자, 무작위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;인수 테스트&gt;
+- ㅇㅇㅇ 인수 테스트; 사용자가 시스템 사용의 적절성 여부를 확인
+- ㅇㅇ상의 인수 테스트; 시스템 관리자가 시스템 인수 시 수행하는 테스트 기법으로, 백업/복원 시스템, 재난 복구, 사용자 관리 등을 확인
+- ㅇㅇ 인수 테스트; 계약상의 인수/검수 조건을 준수하는지 여부를 확인
+- ㅇㅇ 인수 테스트; 소프트웨어가 정부 지침, 법규, 규정 등 규정에 맞게 개발되었는지 확인
+- ㅇㅇ 테스트; 개발자의 장소에서 사용자가 개발자 앞에서 행하는 테스트 기법으로, 통제된 환경에서 행해지며, 오류와 사용상의 문제점을 사용자와 개발자가 함께 확인하면서 기록함.
+- ㅇㅇ 테스트; 필드 테스팅이라고도 불리며 개발자 없이 고객의 사용 환경에 소프트웨어를 설치하여 검사를 수행하는 인수검사 기법
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자, 운영, 계약, 규정, 알파, 베타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;제품 소프트웨어 패키징 도구&gt;
+- 반드시 내부 콘텐츠에 대한 암호화 및 보안을 고려 (O/X)
+- 보안을 위하여 이기종 연동을 고려하지 않아도 됨. (O/X)
+- 사용자 편의성을 위한 복잡성 및 비효율성 문제를 고려함. (O/X)
+- 제품 소프트웨어 종류에 적합한 암호화 알고리즘을 적용함. (O/X)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;EAI 구축 유형 중 Hybrid&gt;
+- Hub &amp; Spoke와 Message Bus의 혼합 방식 (O/X)
+- 필요한 경우 한 가지 방식으로 EAI 구현이 가능함. (O/X)
+- 데이터 병목 현상을 최소화할 수 있음. (O/X)
+- 중간에 미들웨어를 두지 않고 각 애플리케이션을 point to point로 연결함. (O/X)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소스 코드 품질 분석 도구 중 정적 분석 도구가 아닌 것은?
+1)pmd    2)checkstyle    3)valance    4)cppcheck
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">인터페이스 보안을 위해 네트워크 영역에 적용될 수 있는 것으로 거리가 먼 것은?
+1)IPSec    2)SSL    3)SMTP    4)S-HTTP
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[8, 3, 4, 9, 7]을 삽입 정렬로 오름차순 정렬할 경우 1회전 후의 결과는?       정답 기입 예시) 8, 3, 4, 9
+-&gt; 3, ㅇ, ㅇ, ㅇ, ㅇ
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8, 4, 9, 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;인터페이스 구현 검증 도구&gt;
+- xUnit; 자바, C++, .Net 등 다양한 언어를 지원하는 ㅇㅇ 테스트 프레임워크
+- STAF; 서비스 ㅇㅇ 및 컴포넌트 재사용 등 다양한 환경을 지원하는 테스트 프레임워크
+- FitNesse; ㅇ 기반 테스트케이스 설계, 실행, 결과 확인 등을 지원하는 테스트 프레임 워크
+- NTAF; FitNesse의 장점인 협업 기능과 STAF의 장점인 ㅇㅇㅇ 및 확장성을 통합한 NHN의 테스트 자동화 프레임워크
+- Selenium; 다양한 브라우저 및 개발 ㅇㅇ를 지원하는 웹 애플리케이션 테스트 프레임워크
+- watir; Ruby를 사용하는 애플리케이션 테스트 프레임워크
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위, 호출, 웹, 재사용, 언어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;스키마의 종류&gt;
+- ㅇㅇ 스키마; 물리적 저장 장치의 입장에서 본 데이터베이스 구조로서 실제 데이터베이스에 저장될 레코드의 형식을 정의하고 데이터 항목의 표현 방법, 내부 레코드의 물리적 순서 등을 나타냄.
+- ㅇㅇ 스키마; 개인 또는 응용 개발자 입장에서 보는 데이터베이스
+- ㅇㅇ 스키마; 모든 응용 프로그램 또는 사용자들이 필요로 하는 조직 전체 데이터베이스로 단 하나만 존재함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부, 외부, 개념</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최대 간선수는?                                   정답 기입 예시) ㄱ, ㄱ
+- 정점이 n개인 무방향 그래프에서 최대 간선수;
+- 정점이 n개인 방향 그래프에서 최대 간선수;
+ㄱ)n-1    ㄴ)n/2    ㄷ)n(n-1)/2    ㄹ)n(n-1)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄷ, ㄹ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;테스크 ㅇㅇㅇ&gt;
+- 테스트의 결과가 참인지 거짓인지를 판단하기 위해서 사전에 정의된 참값을 입력하여 비교하는 기법 및 활동을 말함.
+- 종류에는 참, 샘플링, 휴리스틱, 일관성 검사가 존재함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오라클</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;빌드 자동화 도구&gt;                               정답 기입 예시) 유미, Gradle, Gradle
+- 빌드 자동화 도구는 지속적인 ㅇㅇ 개발 환경에서 유용하게 활용됨.
+- (Gradle/Jenkins)는 실행할 처리 명령들을 모아 태스크로 만든 후 태스크 단위로 실행함.
+- (Gradle/Jenkins)는 Groovy 기반으로 한 오픈소스로 안드로이드 앱 개발 환경에서 사용됨.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합, Gradle, Gradle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;디지털 저작권 관리(DRM) 기술&gt;
+- 콘텐츠 암호화 및 키 관리 (O/X)
+- 콘텐츠 식별 체계 표현 (O/X)
+- 콘텐츠 오류 감지 및 복구 (O/X)
+- 라이선스 발급 및 관리 (O/X)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;소프트웨어 품질 표준&gt;
+- ISO/IEC 9126; 소프트웨어의 품질 특성과 ㅇㅇ를 위한 표준 지침
+- ISO/IEC 12119; 패키지 소프트웨어의 일반적인 제품 품질 요구사항 및 ㅇㅇㅇ를 위한 국제 표준
+- ISO/IEC 14598; 소프트웨어 품질의 측정, 평가에 필요 절차를 규정한 표준으로 개발자, 구매자, ㅇㅇ자 별로 제품 평가 활동을 규정함.
+- ISO/IEC 25010; ISO/IEC 9126을 개정하여 만든 소프트웨어 제품에 대한 국제 표준으로 ㅇㅇ성과 보안성이 강화됨.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가, 테스트, 평가, 호환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[37, 14, 17, 40, 35]를 선택 정렬로 오름차순 정렬하고자 함. 3회전 후의 결과는?         정답 기입 예시) 37, 14, 17, 40
+-&gt; 14, ㅇㅇ, ㅇㅇ, ㅇㅇ, ㅇㅇ
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17, 35, 40, 37</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;알고리즘 설계 기법&gt;
+- ㅇㅇ 정복(Divide and Conquer); 큰 문제를 보다 작은 문제로 분할하여 해결하는 전략
+- ㅇㅇ 계획법(Dynamic Programming); 아래 단계의 간단한 문제부터 해결하면서 점차 상위로 나아가는 상향식 접근 방식
+- ㅇㅇ 알고리즘(Greedy Algorithm); 완벽한 해결책 보다는 차선책을 목표로 하며, 상황에 맞는 해결책을 즉석에서 모색하는 방식
+- ㅇㅇㅇㅇ(Backtracking); 깊이 우선 탐색 알고리즘을 이용한 기법으로 문제 해결을 위한 모든 가능성을 트리로 구축
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분할, 동적, 탐욕, 백트래킹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;파티션의 종류&gt;
+- ㅇㅇ 분할; 지정한 열의 값을 기준으로 분할
+- ㅇㅇ 분할; 해시 함수를 적용한 결과 값에 따라 데이터를 분할함.
+- ㅇㅇ 분할; 범위 분할로 분할한 다음 해시 함수를 적용하여 다시 분할하는 방식
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위, 해쉬, 조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>많은, X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;트리의 차수&gt;                              정답 기입 예시) 적은, O
+- 전체 트리 중에서 가장 (적은/많은) 차수
+- 최상단은 차수로 포함됨. (O/X)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;White Box Testing&gt;
+- Base Path Testing, Boundary Value Analysis가 대표적인 기법 (O/X)
+- Source Code의 모든 문장을 한 번 이상 수행함으로서 진행됨. (O/X)
+- 모듈 안의 작동을 직접 관찰할 수 있음. (O/X)
+- 산출물의 각 기능별로 적절한 프로그램의 제어구조에 따라 선택, 반복 등의 부분들을 수행함으로써 논리적 경로를 점검함. (O/X)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소프트웨어 품질 측정을 위해 개발자 관점에서 고려해야할 항목은?
+-&gt; ㅇ확성, 신뢰성, ㅇ율성, ㅇ결성, ㅇ연성, ㅇ식성, ㅇㅇㅇ성, 상호ㅇㅇ성
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정, 효, 무, 유, 재사용, 운용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">인터페이스 구현 검증 도구가 아닌 것은?
+1)Foxbase    2)STAF    3)watir    4)xUnit
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">인터페이스 구현 검증 도구 중 아래에서 설명하는 것은?
+- 서비스 호출, 컴포넌트 재사용 등 다양한 환경을 지원하는 테스트 프레임워크
+- 각 테스트 대상 분산 환경에 데몬을 사용하여 테스트 대상 프로그램을 통해 테스트를 수행하고, 통합하여 자동화하는 검증 도구
+1)xUnit    2)STAF    3)FitNesse    4)RubyNode
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경계, 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;경계값 분석 기법&gt;                                        정답 기입 예시) 유미, 있음
+- ㅇㅇ가 되는 값을 테스트 케이스의 입력 값으로 사용
+- 범위를 초과하는 값은 넣을 수 (있음/없음).
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;반정규화 유형 중 중복 테이블을 추가하는 방법&gt;
+- ㅇㅇ 테이블의 추가
+- ㅇ계 테이블의 추가
+- ㅇㅇ 부분만을 포함하는 테이블 추가
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행, 집, 특정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소프트 웨어 테스트에서 오류의 80%는 전체 모듈의 20% 내에서 발견된다는 법칙은?
+1)Brooks의 법칙    2)Boehm의 법칙    3)Parato의 법칙    4)Jackson의 법칙
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;알고리즘 시간 복잡도&gt;
+- O(1); 알고리즘 수행 시간이 입력 데이터 수와 관계없이 ㅇㅇ
+- O(log2^n); ㅇㅇ에 비례
+- O(n); ㅇ비례
+- O(nlog2^n); 로그*ㅇㅇ에 비례
+- O(n^2); ㅇㅇ에 비례
+- O(2^n); ㅇㅇ에 비례
+- O(n!); ㅇㅇㅇㅇ에 비례
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정, 로그, 정, 변수, 제곱, 지수, 팩토리얼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇㅇ 코드; 아주 오래되거나 참고 문서 또는 개발자가 없어 유지보수 작업이 어려운 프로그램을 의미함.
+ㅇㅇㅇㅇ 코드; 프로그램의 로직이 복잡하여 이해하기 어려운 프로그램을 의미함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외계인, 스파게티</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1392,8 +2126,8 @@
   </sheetPr>
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
@@ -1428,7 +2162,7 @@
     <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A33" ca="1" si="0">RAND()</f>
-        <v>0.77834557849647024</v>
+        <v>0.40964499010484168</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B33" si="1">IF(C2=D2,"O","X")</f>
@@ -1450,7 +2184,7 @@
     <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12768720181348192</v>
+        <v>0.58342281340583835</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1472,7 +2206,7 @@
     <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38545933147402978</v>
+        <v>0.13062974755517709</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1494,7 +2228,7 @@
     <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19853425501092048</v>
+        <v>0.16088065206356628</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1516,7 +2250,7 @@
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30878769773163839</v>
+        <v>0.58154565575297945</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1538,7 +2272,7 @@
     <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67135707636440778</v>
+        <v>0.69830965924919886</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1560,7 +2294,7 @@
     <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52741330811414433</v>
+        <v>0.66436408640001143</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1582,7 +2316,7 @@
     <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83128361136836093</v>
+        <v>0.43576979572862662</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1604,7 +2338,7 @@
     <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86079579261713957</v>
+        <v>0.81200918991170068</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1626,7 +2360,7 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20269766429313929</v>
+        <v>0.64333784331323596</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1648,7 +2382,7 @@
     <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98495469953170312</v>
+        <v>0.73953446014448898</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1670,7 +2404,7 @@
     <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95639399839963557</v>
+        <v>0.34131633964179553</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1692,7 +2426,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29643897030859412</v>
+        <v>0.44031396552099</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1714,7 +2448,7 @@
     <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19436081442852904</v>
+        <v>0.1870913464373184</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1736,7 +2470,7 @@
     <row r="16" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46549639310963931</v>
+        <v>0.70807259956127233</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1758,7 +2492,7 @@
     <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19739601340233215</v>
+        <v>0.55864605858735972</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1780,7 +2514,7 @@
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16475357182262063</v>
+        <v>0.95622068878099964</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1802,7 +2536,7 @@
     <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27021120128881537</v>
+        <v>0.33959986188094438</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1824,7 +2558,7 @@
     <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51540740415572805</v>
+        <v>0.30787365378056963</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1846,7 +2580,7 @@
     <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2360956836129835</v>
+        <v>0.86196955668044972</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1868,7 +2602,7 @@
     <row r="22" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25743449919989281</v>
+        <v>0.14989053210599057</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1890,7 +2624,7 @@
     <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19822412284580004</v>
+        <v>0.56945965655215103</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1912,7 +2646,7 @@
     <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32731857816766652</v>
+        <v>0.36501161552059669</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1934,7 +2668,7 @@
     <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62199505381500031</v>
+        <v>0.35455848967172376</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1956,7 +2690,7 @@
     <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1373578145123906E-2</v>
+        <v>0.50812184721006892</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1978,7 +2712,7 @@
     <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68349942926415952</v>
+        <v>0.13848128459857678</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2000,7 +2734,7 @@
     <row r="28" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0172050934274339E-2</v>
+        <v>0.28368242699387558</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2022,7 +2756,7 @@
     <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8633603399822124</v>
+        <v>0.40253974783593482</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2044,7 +2778,7 @@
     <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89736509292285982</v>
+        <v>6.3368440141236659E-2</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2066,7 +2800,7 @@
     <row r="31" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83209698380063868</v>
+        <v>0.26941599444993258</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2088,7 +2822,7 @@
     <row r="32" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39597708696710321</v>
+        <v>0.17064379242144412</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2110,7 +2844,7 @@
     <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29151240982803117</v>
+        <v>0.99554162668216184</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2132,7 +2866,7 @@
     <row r="34" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" ref="A34:A97" ca="1" si="2">RAND()</f>
-        <v>0.68095037243037204</v>
+        <v>0.23108437955938443</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" ref="B34:B49" si="3">IF(C34=D34,"O","X")</f>
@@ -2154,7 +2888,7 @@
     <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54202812539624035</v>
+        <v>7.1346026739015356E-2</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2176,7 +2910,7 @@
     <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9.6217939929068574E-2</v>
+        <v>0.48767712540641794</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2198,7 +2932,7 @@
     <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55332381899082272</v>
+        <v>0.22708336421414033</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2220,7 +2954,7 @@
     <row r="38" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81293604721536539</v>
+        <v>0.78308979006941493</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2242,7 +2976,7 @@
     <row r="39" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90637323799079128</v>
+        <v>0.65412117264640801</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2264,7 +2998,7 @@
     <row r="40" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78282059514733071</v>
+        <v>0.53611078491290587</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2286,7 +3020,7 @@
     <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72798728789931733</v>
+        <v>0.68639804459705667</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2308,7 +3042,7 @@
     <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53456677632323624</v>
+        <v>0.94276440292358099</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2330,7 +3064,7 @@
     <row r="43" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81614029600952676</v>
+        <v>0.89088459476493831</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2352,7 +3086,7 @@
     <row r="44" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71789078558229724</v>
+        <v>0.86810142537514012</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2374,7 +3108,7 @@
     <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15130008221030078</v>
+        <v>0.48969315849802431</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2396,7 +3130,7 @@
     <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46980123657393991</v>
+        <v>0.83932804211664447</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2418,7 +3152,7 @@
     <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37612822277569335</v>
+        <v>0.17632112673953637</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2440,7 +3174,7 @@
     <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57923641545020854</v>
+        <v>0.31852630603684817</v>
       </c>
       <c r="B48" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2462,7 +3196,7 @@
     <row r="49" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38306626461913895</v>
+        <v>0.7385251530751209</v>
       </c>
       <c r="B49" s="3" t="str">
         <f t="shared" si="3"/>
@@ -2484,10 +3218,10 @@
     <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12054487283551774</v>
+        <v>0.89580720636891409</v>
       </c>
       <c r="B50" s="3" t="str">
-        <f t="shared" ref="B50:B66" si="4">IF(C50=D50,"O","X")</f>
+        <f t="shared" ref="B50:B65" si="4">IF(C50=D50,"O","X")</f>
         <v>X</v>
       </c>
       <c r="C50" s="2">
@@ -2506,7 +3240,7 @@
     <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90021466921977944</v>
+        <v>2.4766172506018869E-5</v>
       </c>
       <c r="B51" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2528,7 +3262,7 @@
     <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72155735978782354</v>
+        <v>0.16327166581090646</v>
       </c>
       <c r="B52" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2550,7 +3284,7 @@
     <row r="53" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3239822813311299E-4</v>
+        <v>0.23657279633742068</v>
       </c>
       <c r="B53" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2572,7 +3306,7 @@
     <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44312389681255504</v>
+        <v>6.2135782655780458E-2</v>
       </c>
       <c r="B54" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2594,7 +3328,7 @@
     <row r="55" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94491857943870128</v>
+        <v>0.57163427168343173</v>
       </c>
       <c r="B55" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2616,7 +3350,7 @@
     <row r="56" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30742371625588649</v>
+        <v>5.5555858675693792E-2</v>
       </c>
       <c r="B56" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2638,7 +3372,7 @@
     <row r="57" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71982436948671935</v>
+        <v>0.21308320457135299</v>
       </c>
       <c r="B57" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2660,7 +3394,7 @@
     <row r="58" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84722222697659599</v>
+        <v>0.89012875741344466</v>
       </c>
       <c r="B58" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2682,7 +3416,7 @@
     <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94784140712891485</v>
+        <v>0.30145925523810557</v>
       </c>
       <c r="B59" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2704,7 +3438,7 @@
     <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94105922489646021</v>
+        <v>0.50323485074570984</v>
       </c>
       <c r="B60" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2726,7 +3460,7 @@
     <row r="61" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40737054021416685</v>
+        <v>0.21754938550312708</v>
       </c>
       <c r="B61" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2748,7 +3482,7 @@
     <row r="62" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21035103830228474</v>
+        <v>0.58795416336931206</v>
       </c>
       <c r="B62" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2770,7 +3504,7 @@
     <row r="63" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70915499172712293</v>
+        <v>0.292040280599837</v>
       </c>
       <c r="B63" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2792,7 +3526,7 @@
     <row r="64" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61782551212979775</v>
+        <v>0.29905887898814487</v>
       </c>
       <c r="B64" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2814,7 +3548,7 @@
     <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40014475430051</v>
+        <v>0.44140640684829668</v>
       </c>
       <c r="B65" s="3" t="str">
         <f t="shared" si="4"/>
@@ -2836,7 +3570,7 @@
     <row r="66" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41787690430866054</v>
+        <v>0.93769937413744375</v>
       </c>
       <c r="B66" s="3" t="str">
         <f t="shared" ref="B66:B97" si="5">IF(C66=D66,"O","X")</f>
@@ -2858,7 +3592,7 @@
     <row r="67" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83045994084167796</v>
+        <v>0.20636394370755407</v>
       </c>
       <c r="B67" s="3" t="str">
         <f t="shared" si="5"/>
@@ -2880,7 +3614,7 @@
     <row r="68" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24094341694400434</v>
+        <v>0.24193436611735053</v>
       </c>
       <c r="B68" s="3" t="str">
         <f t="shared" si="5"/>
@@ -2902,7 +3636,7 @@
     <row r="69" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86200280513083749</v>
+        <v>4.6904108486929275E-2</v>
       </c>
       <c r="B69" s="3" t="str">
         <f t="shared" si="5"/>
@@ -2924,7 +3658,7 @@
     <row r="70" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5754650562089707</v>
+        <v>0.25270277021318499</v>
       </c>
       <c r="B70" s="3" t="str">
         <f t="shared" si="5"/>
@@ -2946,7 +3680,7 @@
     <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47481121937865545</v>
+        <v>0.27823492065026745</v>
       </c>
       <c r="B71" s="3" t="str">
         <f t="shared" si="5"/>
@@ -2968,7 +3702,7 @@
     <row r="72" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6829639850684086E-2</v>
+        <v>0.19244247180098595</v>
       </c>
       <c r="B72" s="3" t="str">
         <f t="shared" si="5"/>
@@ -2990,7 +3724,7 @@
     <row r="73" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87111679513164852</v>
+        <v>1.8390520247535291E-2</v>
       </c>
       <c r="B73" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3012,7 +3746,7 @@
     <row r="74" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70999402479033635</v>
+        <v>0.54383597177485932</v>
       </c>
       <c r="B74" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3034,7 +3768,7 @@
     <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7.2392417687843436E-2</v>
+        <v>0.56218737324611523</v>
       </c>
       <c r="B75" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3056,7 +3790,7 @@
     <row r="76" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82203134019945745</v>
+        <v>0.55082536326645182</v>
       </c>
       <c r="B76" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3078,7 +3812,7 @@
     <row r="77" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36793309053287537</v>
+        <v>0.43978879076128874</v>
       </c>
       <c r="B77" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3100,7 +3834,7 @@
     <row r="78" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96961932584141342</v>
+        <v>0.21062477720041783</v>
       </c>
       <c r="B78" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3122,7 +3856,7 @@
     <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65277469501207741</v>
+        <v>0.11293199976046187</v>
       </c>
       <c r="B79" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3144,7 +3878,7 @@
     <row r="80" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59740968421167562</v>
+        <v>0.85832871587231019</v>
       </c>
       <c r="B80" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3166,7 +3900,7 @@
     <row r="81" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6318589697910193</v>
+        <v>0.10697194287330203</v>
       </c>
       <c r="B81" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3188,7 +3922,7 @@
     <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91732005833489527</v>
+        <v>0.64570041465548611</v>
       </c>
       <c r="B82" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3210,7 +3944,7 @@
     <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65356968342875987</v>
+        <v>0.88996078846593385</v>
       </c>
       <c r="B83" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3232,7 +3966,7 @@
     <row r="84" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8810537202208345</v>
+        <v>4.3349198839998326E-2</v>
       </c>
       <c r="B84" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3254,7 +3988,7 @@
     <row r="85" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11228720253266067</v>
+        <v>0.73151234732276926</v>
       </c>
       <c r="B85" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3276,7 +4010,7 @@
     <row r="86" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15928386899786628</v>
+        <v>0.34351662517099679</v>
       </c>
       <c r="B86" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3298,7 +4032,7 @@
     <row r="87" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82667527236113914</v>
+        <v>0.33854934219192945</v>
       </c>
       <c r="B87" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3320,7 +4054,7 @@
     <row r="88" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82623268878214429</v>
+        <v>0.4290206832988428</v>
       </c>
       <c r="B88" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3342,7 +4076,7 @@
     <row r="89" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57046015506953729</v>
+        <v>0.37906931821868661</v>
       </c>
       <c r="B89" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3364,7 +4098,7 @@
     <row r="90" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42995563928940872</v>
+        <v>0.72619228154824333</v>
       </c>
       <c r="B90" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3386,7 +4120,7 @@
     <row r="91" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79896713713603629</v>
+        <v>0.48315962020383196</v>
       </c>
       <c r="B91" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3408,7 +4142,7 @@
     <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8079083328724338</v>
+        <v>0.23777154444301751</v>
       </c>
       <c r="B92" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3430,7 +4164,7 @@
     <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76119351176956995</v>
+        <v>0.97784848856224715</v>
       </c>
       <c r="B93" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3452,7 +4186,7 @@
     <row r="94" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86088898837071359</v>
+        <v>0.24345838083237425</v>
       </c>
       <c r="B94" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3474,7 +4208,7 @@
     <row r="95" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42824188554245324</v>
+        <v>0.49211087920930652</v>
       </c>
       <c r="B95" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3496,7 +4230,7 @@
     <row r="96" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17227573776571969</v>
+        <v>0.2017180801612416</v>
       </c>
       <c r="B96" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3518,7 +4252,7 @@
     <row r="97" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61023434122450848</v>
+        <v>1.9124689779738691E-2</v>
       </c>
       <c r="B97" s="3" t="str">
         <f t="shared" si="5"/>
@@ -3546,4 +4280,1513 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA91B73-AD65-40ED-99F5-771C5AB25AB1}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:G68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="127.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.59765625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <f t="shared" ref="A2:A55" ca="1" si="0">RAND()</f>
+        <v>0.10835814731798221</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:B55" si="1">IF(C2=D2,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G2" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7642214512034737E-3</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f t="shared" ref="B3" si="2">IF(C3=D3,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G3" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47158607000213248</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G4" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4955404019027099E-2</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G5" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67519841825846683</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G6" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18392819904983204</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G7" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72834029301981296</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G8" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.3331422095605392E-2</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G9" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87648676788369595</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G10" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93706888896244145</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G11" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G12" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G13" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.58132718455673271</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G14" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30425922670622152</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G15" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80077555222608865</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G16" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72916620553548017</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G17" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1732341892992548E-2</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G18" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G19" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75805079720594948</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G20" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11124304276128694</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G21" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95802072754264345</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G22" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96284169950758014</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G23" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.66525085262202122</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G24" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79104597045610536</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G25" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6128504449513783</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G26" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A27" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63677577698919974</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f t="shared" ref="B27:B28" si="3">IF(C27=D27,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G27" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
+      <c r="A28" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12324443847392919</v>
+      </c>
+      <c r="B28" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G28" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A29" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69090335459966656</v>
+      </c>
+      <c r="B29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G29" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A30" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.66692451021461086</v>
+      </c>
+      <c r="B30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G30" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A31" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79327602227031657</v>
+      </c>
+      <c r="B31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G31" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A32" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60831056547375295</v>
+      </c>
+      <c r="B32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F32" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G32" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A33" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31316491087086862</v>
+      </c>
+      <c r="B33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G33" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A34" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39657741646426703</v>
+      </c>
+      <c r="B34" s="3" t="str">
+        <f t="shared" ref="B34" si="4">IF(C34=D34,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G34" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A35" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90214592861358267</v>
+      </c>
+      <c r="B35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F35" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G35" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A36" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43738501889955272</v>
+      </c>
+      <c r="B36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G36" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A37" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84711602988285761</v>
+      </c>
+      <c r="B37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G37" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A38" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25452300230928238</v>
+      </c>
+      <c r="B38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G38" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="144" x14ac:dyDescent="0.4">
+      <c r="A39" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.97902813083655216</v>
+      </c>
+      <c r="B39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F39" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G39" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A40" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.1268980900684658E-2</v>
+      </c>
+      <c r="B40" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G40" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A41" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45209182704959239</v>
+      </c>
+      <c r="B41" s="3" t="str">
+        <f t="shared" ref="B41:B42" si="5">IF(C41=D41,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F41" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G41" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="201.6" x14ac:dyDescent="0.4">
+      <c r="A42" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72817372614244247</v>
+      </c>
+      <c r="B42" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>X</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F42" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G42" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="144" x14ac:dyDescent="0.4">
+      <c r="A43" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.52069603658298524</v>
+      </c>
+      <c r="B43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F43" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G43" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
+      <c r="A44" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14690089743631007</v>
+      </c>
+      <c r="B44" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F44" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G44" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A45" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70341023716012341</v>
+      </c>
+      <c r="B45" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F45" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G45" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A46" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1782421987019378</v>
+      </c>
+      <c r="B46" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G46" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A47" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35275414160393126</v>
+      </c>
+      <c r="B47" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C47" s="2">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F47" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G47" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A48" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3737510392209068</v>
+      </c>
+      <c r="B48" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F48" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G48" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A49" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.94571881702853033</v>
+      </c>
+      <c r="B49" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F49" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G49" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
+      <c r="A50" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5810318116087696</v>
+      </c>
+      <c r="B50" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F50" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G50" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A51" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57270711643271577</v>
+      </c>
+      <c r="B51" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F51" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G51" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A52" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68033523623926473</v>
+      </c>
+      <c r="B52" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F52" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G52" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A53" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.52865996143392224</v>
+      </c>
+      <c r="B53" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F53" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G53" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A54" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64898761058518495</v>
+      </c>
+      <c r="B54" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F54" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G54" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A55" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70148542619030152</v>
+      </c>
+      <c r="B55" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F55" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G55" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A56" s="3">
+        <f t="shared" ref="A56:A68" ca="1" si="6">RAND()</f>
+        <v>0.84132871671232934</v>
+      </c>
+      <c r="B56" s="3" t="str">
+        <f t="shared" ref="B56:B68" si="7">IF(C56=D56,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F56" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G56" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A57" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.80729002099765701</v>
+      </c>
+      <c r="B57" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F57" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G57" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A58" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.9797518849136676</v>
+      </c>
+      <c r="B58" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F58" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G58" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A59" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.19029651592081731</v>
+      </c>
+      <c r="B59" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F59" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G59" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A60" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.94478551564176738</v>
+      </c>
+      <c r="B60" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F60" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G60" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A61" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.38672187558332471</v>
+      </c>
+      <c r="B61" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F61" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G61" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A62" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.64273331102679798</v>
+      </c>
+      <c r="B62" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F62" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G62" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A63" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.5792247058769489E-2</v>
+      </c>
+      <c r="B63" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F63" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G63" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A64" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.57717302500089973</v>
+      </c>
+      <c r="B64" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F64" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G64" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A65" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.71321729529634526</v>
+      </c>
+      <c r="B65" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F65" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G65" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A66" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.24111271740256124</v>
+      </c>
+      <c r="B66" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="C66" s="2">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F66" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G66" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
+      <c r="A67" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.69551942675767009</v>
+      </c>
+      <c r="B67" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F67" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G67" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A68" s="3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.63525379634370982</v>
+      </c>
+      <c r="B68" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>X</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F68" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G68" s="1">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/정보처리기사/필기.xlsx
+++ b/정보처리기사/필기.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\유미\자격증\정처기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65CFCAA-646A-4226-83B5-45724145B008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99913C2C-CF24-4494-B8C9-6DFEA6884329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
   </bookViews>
   <sheets>
     <sheet name="1과목" sheetId="1" r:id="rId1"/>
     <sheet name="2과목" sheetId="2" r:id="rId2"/>
+    <sheet name="3과목" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1과목'!$B$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2과목'!$B$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3과목'!$B$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="327">
   <si>
     <t>문제</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -19660,12 +19662,418 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">&lt;물리적 데이터 베이스 설계&gt;
+- 물리적 설계의 목적은 효울적인 방법으로 데이터를 저장하는 것 (O/X)
+- 트랜잭션 처리량과 응답 시간, 디스크 용량 등을 고려 (O/X)
+- 저장 레코드의 형식, 순서, 접근 경로와 같은 정보를 사용하여 설계 (O/X)
+- 트랜잭션의 인터페이스를 설계하며, 데이터 타입 및 데이터 타입들 간의 관계로 표현 (O/X)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;무결성 제약 조건&gt;
+- ㅇㅇ 무결성; 기본 테이블의 기본키를 구성하는 어떤 속성도 Null 값이나 중복 값을 가질 수 없음.
+- ㅇㅇㅇ 무결성; 주어진 속성 값이 정의된 도메인에 속한 값이어야 한다는 규정
+- ㅇㅇ 무결성; 외래키 값은 Null이거나 참조 릴레이션의 기본키 값과 동일해야 하고, 릴레이션은 참조할 수 없는 외래키 값을 가질 수 없다는 규정
+- ㅇㅇㅇ 정의 무결성; 속성 값들이 사용자가 정의한 제약 조건에 만족
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개체, 도메인, 참조, 사용자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">관계 데이터베이스에 있어서 관계 대수 연산이 아닌 것은?
+1)디비전(Division) 2)프로젝트(Project) 3)조인(Join) 4)포크(Fork)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>병행, 있다, 병행, 오버헤드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;로킹 단위&gt;                                                      정답 기입 예시) 유미, 있다, 개발, 이클립스
+- ㅇㅇ제어에서 한꺼번에 로킹할 수 있는 객체의 크기
+- 데이터베이스, 파일, 레코드, 필드 등은 로킹 단위가 될 수 (있다/없다).
+- 로킹 단위가 크면 로크 수가 작아 관리하기 쉽지만 ㅇㅇ성 수준이 낮아지고 데이터베이스 공유도가 저하됨.
+- 로킹 단위가 작으면 로크 수가 많아 관리하기 복잡해 ㅇㅇㅇㅇ가 증가함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비절차, 릴레이션, 순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;관계 대수&gt;                                                          정답 기입 예시) 비절차, 고구마켓, 감자
+- 원하는 릴레이션을 정의하는 방법을 제공하며 (비절차/절차)적 언어
+- 릴레이션 조작을 위한 연산의 집합으로 피연산자와 결과가 모두 ㅇㅇㅇㅇ임.
+- 일반 집합 연산과 순수 관계 연산으로 구분됨.
+- 질의에 대한 해를 구하기 위해 수행해야 할 연산의 ㅇㅇ를 명시
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇㅇㅇㅇ 기법; 동시성 제어를 위한 직렬화 기법으로 트랜잭션 간의 처리 순서를 미리 정하는 방법
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임스탬프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자, 부분, 이행, 결정, 다치, 조인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;정규화 과정&gt;
+- 제1정규형; 도메인이 ㅇㅇ값
+- 제2정규형; ㅇㅇ적 함수 종속 제거로 기본키가 아닌 모든 속성이 기본키에 완전 함수 종속
+- 제3정규형; ㅇㅇ적 함수 종속 제거
+- 보이스/코드 정규형; ㅇㅇ자이면서 후보키가 아닌 것 제거
+- 제4정규형; ㅇㅇ 종속 제거
+- 제5정규형; 후보키를 통하지 않는 ㅇㅇ 종속 제거
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">어떤 릴레이션 R에서 X와 Y를 각각 R의 애트리뷰트 집합의 부분 집합이라고 할 경우 애트리뷰트 X의 값 각각에 대해 시간에 관계 없이 항상 애트리뷰트 Y의 값이 오직 하나만 연관되어 있을 때 Y는 X에 함수 종속이라고 함. 이 함수 종속의 표기로 옳은 것은?
+1)Y → X    2)X → Y    3)Y ⊂ X    4)X ⊂ Y
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;파티션(분할)의 종류&gt;
+- ㅇㅇ 분할; 지정한 열 값의 기준으로 범위 지정하여 분할
+- ㅇㅇ 분할; 지정한 열 값에 대한 목록을 만들어 이를 기준으로 분할
+- ㅇㅇ 분할; 해시 함수를 적용한 결과 값에 따라 분할하는 것으로 특정 데이터가 어디에 있는지 판단 불가능
+- ㅇㅇ 분할; 범위 분할로 분할한 다음 해시 함수를 적용하여 다시 분할하는 방식
+- 라운드 로빈 분할; ㅇㅇㅇ를 균일하게 분배하는 방식임.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위, 목록, 해시, 조합, 레코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;시스템 카탈로그&gt;
+- 사용자가 직접 시스템 카탈로그의 내용을 갱신하여 데이터베이스 무결성을 유지함. (O/X)
+- 시스템 자신이 필요로 하는 스키마 및 여러 가지 객체에 관한 정보를 포함하고 있는 시스템 데이터베이스 (O/X)
+- 시스템 카탈로그에 저장되는 내용을 메타데이터라고도 함. (O/X)
+- 시스템 카탈로그는 DBMS가 스스로 생성하고 유지함. (O/X)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DDL의 명령어 중 스키마, 도메인, 인덱스 등을 정의할 때 사용하는 SQL문은?
+1)ALTER    2)SELECT    3)CREATE    4)INSERT
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insersect; 테이블을 ㅇㅇㅇ
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교집합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;물리적 설계 단계&gt;
+- 레코드 집중의 분석 및 설계 (O/X)
+- 접근 경로 설계 (O/X)
+- 저장 레코드의 양식 설계 (O/X)
+- 목표 DBMS에 맞는 스키마 설계 (O/X)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇ 무결성; 기본 키를 구성하는 속성은 Null 값이나 중복 값을 가질 수 없다는 제약 조건
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">릴레이션 R의 차수가 4이고 카디널리티가 5이며, 릴레이션 S의 차수가 6이고 카디널리티가 7일 때, 두 개의 릴레이션을 카티션 프로덕트한 결과의 새로운 릴레이션의 차수와 카디널리티는 얼마인가?                                정답 기입 예시) 45, 67
+-&gt; 차수: ㅇㅇ, 카디널리티: ㅇㅇ
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10, 35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성, 논리, 차수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;속성&gt;
+- 개체의 ㅇㅇ을 기술
+- 데이터베이스를 구성하는 가장 작은 ㅇㅇ적 단위
+- 파일 구조상 데이터 항목 또는 데이터 필드에 해당됨.
+- 속성의 수를 ㅇㅇ(Degree)라고 함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;튜플&gt;
+- 릴레이션을 구성하는 각각의 ㅇ을 말함.
+- ㅇㅇ의 모임으로 구성
+- 파일 구조에서 ㅇㅇㅇ와 같은 의미
+- 튜플의 수를 카디널리티 또는 ㅇㅇ라고 함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행, 속성, 레코드, 기수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;E-R 다이어그램&gt;
+- 사각형; ㅇㅇ 타입
+- 다이아몬드(마름모); ㅇㅇ 타입
+- 타원; ㅇㅇ
+- 이중 타원; ㅇㅇ값 속성
+- 밑줄 타원; ㅇㅇ 키 속성
+- 복수 타원; ㅇㅇ 속성
+- 선, 링크; 개체 타입과 속성을 ㅇㅇ
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개체, 관계, 속성, 다중, 기본, 복합, 연결</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇ 스키마; 데이터베이스 전체를 정의한 것으로 데이터 개체, 관계, 제약 조건, 접근 권한, 무결성 규칙 등을 명세한 것
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개념</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;로킹 단위&gt;
+- 데이터베이스, 파일, 레코드 등은 로킹 단위가 될 수 있음. (O/X)
+- 로킹 단위가 작아지면 로킹 오버헤드가 증가함. (O/X)
+- 한 번에 로킹할 수 있는 단위를 로킹 단위라고 함. (O/X)
+- 로킹 단위가 작아지면 병행성 수준이 낮아짐. (O/X) 
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>조건을 만족하는 릴레이션의 수평적 부분 집합으로 구성하며, 연산자의 기호는 그리스 문자 시그마(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)를 사용하는 관계 대수 연산은?
+1)Select    2)Project    3)Join    4)Division
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;이상의 종류&gt;
+- ㅇㅇ 이상; 릴레이션에서 한 튜플을 삭제할 때 의도와는 상관없는 값들로 함께 삭제되는 연쇄 삭제 현상
+- ㅇㅇ 이상; 릴레이션에서 데이터를 삽입할 때 의도와는 상관 없이 원하지 않는 값들로 함께 삽입되는 모순 현상
+- ㅇㅇ 이상; 릴레이션에서 튜플에 있는 속성 값을 갱신할 때 일부 튜플의 정보만 갱신되어 정보에 모순이 생기는 현상
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제, 삽입, 갱신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;릴레이션&gt;
+- 릴레이션의 각 행을 ㅇㅇ이라 함.
+- 릴레이션의 각 열을 ㅇㅇㅇ라 하며, 각 속성에서 정의된 값을 이용하여 구성됨.
+- ㅇㅇㅇ은 하나의 속성이 가질 수 있는 같은 타입의 모든 값의 집합으로 원자값을 가짐.
+- 릴레이션의 논리적인 구조를 정의한 것으로 릴레이션에 포함된 속성들의 집합을 ㅇㅇㅇㅇ 스키마라고 함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜플, 스키마, 도메인, 릴레이션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇㅇ; 데이터베이스 성능에 많은 영향을 주는 DBMS 구성 요소로 테이블과 클리스터에 연관되어 독립적인 저장 공간을 보유하며, 데이터베이스에 저장된 자료를 더욱 빠르게 조회하기 위해서 사용되는 것
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회원 테이블 생성 후 주소 필드가 누락되어 이를 추가하려고 한다. 이에 적합한 SQL 명령어는?
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;트랜잭션의 특징&gt;
+- Atomicity(ㅇㅇ성); 트랜잭션의 연산은 데이터베이스에 모두 반영되든지 아니면 전혀 반영되지 않아야 함.
+- Consistency(ㅇㅇ성); 트랜잭션이 그 실행을 성공적으로 완료하면 언제나 일관성 있는 데이터베이스 상태로 변환함.
+- Isolation(ㅇㅇ성); 둘 이상의 트랜잭션이 동시에 병행 실행되는 경우 어느 하나의 트랜잭션 실행 중에 다른 트랜잭션 연산이 끼어들 수 없음.
+- Durability(ㅇㅇ성); 성공적으로 완료된 트랜잭션의 결과는 영구적으로 반영되어야 함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자, 일관, 독립, 영속</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;키의 개념&gt;
+- ㅇㅇ키; 한 릴레이션 내에 있는 속성들의 집합으로 구성된 키로, 릴레이션을 구성하는 모든 튜플에 대해 유일성은 만족하지만 최소성은 만족하지 못함.
+- ㅇㅇ키; 릴레이션을 구성하는 속성들 중에서 튜플을 유일하게 식별하기 위해 사용되는 속성들의 부분 집합으로, 유일성과 최소성 모두 만족
+- ㅇㅇ키; 후보키 중에서 특별히 선정된 키로 중복된 값과 NULL 값을 가질 수 없음.
+- ㅇㅇ키; 후보키 중에서 선정된 기본키를 제외한 나머지 후보키를 의미
+- ㅇㅇ키; 다른 릴레이션의 기본키를 참조하는 속성 또는 속성들의 집합을 의미하며, 릴레이션 간의 관계를 표현할 때 사용함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼, 후보, 기본, 대체, 외래</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;뷰&gt;
+- 뷰 위에 또 다른 뷰를 정의할 수 있음. (O/X)
+- 뷰에 대한 조작에서 삽입, 갱신, 삭제 연산은 제약이 따름. (O/X)
+- 뷰의 정의는 기본 테이블과 같이 ALTER문을 이용하여 변경함. (O/X)
+- 뷰가 정의된 기본 테이블이 제거되면 뷰도 자동적으로 제거됨. (O/X)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터웨어하우스의 기본적인 OLAP(on-line analytical processing) 연산이 아닌 것은?
+1)translate    2)roll-up    3)dicing    4)drill-down
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇ성; Commit과 Rollback 명령어에 의해 보장 받는 트랜잭션의 특징
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;분산 데이터베이스&gt;
+- ㅇㅇ 투명성(Location Transparency); 접근하려는 데이터베이스의 실제 위치를 알 필요 없이 단지 데이터베이스의 논리적인 명칭으로만 접근 가능
+- ㅇㅇ 투명성(Replication Transparency); 동일한 데이터가 여러 곳에 중복되어 있더라도 사용자는 마치 하나의 데이터만 존재하는 것처럼 사용
+- ㅇㅇ 투명성(Concurrency Transparency); 분산 데이터베이스와 관련된 다수의 트랜잭션들이 동시에 실행되더라도 그 트랜잭션들이 수행 결과는 서로 영향을 받지 않음.
+- ㅇㅇ 투명성(Failure Transparency); 트랜잭션, DBMS, 네트워크, 컴퓨터 장애에도 불구하고 트랜잭션은 정확하게 수행됨.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치, 중복, 병행, 장애</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;정규화의 목적&gt;
+- 어떠한 릴레이션이라도 데이터베이스 내에서 표현 가능하게 만듦. (O/X)
+- 데이터 삽입시 릴레이션을 재구성할 필요성을 줄임. (O/X)
+- 중복을 배제하여 삽입, 삭제, 갱신 이상의 발생을 야기함. (O/X)
+- 효과적인 검색 알고리즘을 생성할 수 있음. (O/X)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제외</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Division; Y ⊂ X인 두 개의 릴레이션 R(X), S(Y)이 있을 때, R의 속성이 S의 속성 값을 모두 가진 튜플에서 S가 가진 속성을 ㅇㅇ한 속성만을 구함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇ ㅇㅇ 기법; 데이터베이스 로그(log)를 필요로 하는 회복 기법
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉각 갱신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;논리적 설계&gt;
+- ㅇㅇ적 데이터베이스 구조로 매핑
+- ㅇㅇㅇㅇ 인터페이스 설계
+- ㅇㅇㅇ의 평가 및 정제
+- 특정 목표 DBMS에 따른 ㅇㅇㅇ 설계
+- 관계형 데이터베이스에서 ㅇㅇㅇ 설계
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리, 트랜잭션, 스키마, 스키마, 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리, 레코드, 경로, 접근, 양식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;물리적 설계&gt;
+- ㅇㅇ적 구조의 데이터로 변환
+- ㅇㅇㅇ 집중의 분석 및 설계
+- 데이터 베이스 파일의 저장 구조 및 멕세스 ㅇㅇ 결정
+- ㅇㅇ 경로 설계
+- 저장 레코드의 ㅇㅇ 설계
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">트랜잭션의 연산은 데이터베이스에 모두 반영되든지 아니면 전혀 반영되지 않아야 한다는 트랜잭션 특성은?
+1)Durability    2)Share    3)Consistency    3)Atomicity
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -19700,6 +20108,13 @@
       <name val="D2Coding"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="161"/>
     </font>
   </fonts>
   <fills count="3">
@@ -20077,8 +20492,8 @@
   </sheetPr>
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
@@ -20113,7 +20528,7 @@
     <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A33" ca="1" si="0">RAND()</f>
-        <v>0.3308008768881795</v>
+        <v>0.71918734252069028</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B33" si="1">IF(C2=D2,"O","X")</f>
@@ -20135,7 +20550,7 @@
     <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65267792012638548</v>
+        <v>0.49808745909397867</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20157,7 +20572,7 @@
     <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7394778447624597</v>
+        <v>0.89907248626969294</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20179,7 +20594,7 @@
     <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73365673975455747</v>
+        <v>7.1174880997970202E-2</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20201,7 +20616,7 @@
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31739604671276889</v>
+        <v>0.60855430226324447</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20223,7 +20638,7 @@
     <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28070240593094964</v>
+        <v>6.5913560081553024E-3</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20245,7 +20660,7 @@
     <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7327786259343871E-2</v>
+        <v>9.6547317212366535E-2</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20267,7 +20682,7 @@
     <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42723132087218907</v>
+        <v>0.33086535238723713</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20289,7 +20704,7 @@
     <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75556897793521205</v>
+        <v>0.21867882053837939</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20311,7 +20726,7 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76944229933793817</v>
+        <v>0.26366923906949136</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20333,7 +20748,7 @@
     <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29575238210531729</v>
+        <v>0.92478788800008438</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20355,7 +20770,7 @@
     <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49191643662825546</v>
+        <v>0.48937455977248989</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20377,7 +20792,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43647968805526438</v>
+        <v>6.9414834402912629E-2</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20399,7 +20814,7 @@
     <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6140685653418871E-2</v>
+        <v>0.21972396994384902</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20421,7 +20836,7 @@
     <row r="16" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58075089665889845</v>
+        <v>0.14862478672281731</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20443,7 +20858,7 @@
     <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14021681817810927</v>
+        <v>0.56280371576595856</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20465,7 +20880,7 @@
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89445502616482475</v>
+        <v>0.81257238443884949</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20487,7 +20902,7 @@
     <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62769826194030542</v>
+        <v>2.4138660401152645E-2</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20509,7 +20924,7 @@
     <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80423169584410337</v>
+        <v>0.5486514499035231</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20531,7 +20946,7 @@
     <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91908952106492336</v>
+        <v>0.3594879276038544</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20553,7 +20968,7 @@
     <row r="22" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.487130887205796</v>
+        <v>0.5211256146813269</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20575,7 +20990,7 @@
     <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12933589319052319</v>
+        <v>0.76190957433529694</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20597,7 +21012,7 @@
     <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11326020833768968</v>
+        <v>0.69370503640513881</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20619,7 +21034,7 @@
     <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19870579254185661</v>
+        <v>0.28291967059894674</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20641,7 +21056,7 @@
     <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64587234270970861</v>
+        <v>0.84173455229098415</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20663,7 +21078,7 @@
     <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95497085995881625</v>
+        <v>6.4580172314565587E-2</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20685,7 +21100,7 @@
     <row r="28" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34949499315728882</v>
+        <v>0.14510185257423225</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20707,7 +21122,7 @@
     <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62346017272971221</v>
+        <v>0.16189940346484444</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20729,7 +21144,7 @@
     <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71191444625074141</v>
+        <v>0.28926576300287399</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20751,7 +21166,7 @@
     <row r="31" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3217403347228226</v>
+        <v>0.65389747273056675</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20773,7 +21188,7 @@
     <row r="32" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39268188024712181</v>
+        <v>0.24305305861314674</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20795,7 +21210,7 @@
     <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27914726179174976</v>
+        <v>0.24140504791505479</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -20817,7 +21232,7 @@
     <row r="34" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" ref="A34:A97" ca="1" si="2">RAND()</f>
-        <v>0.84593313587190078</v>
+        <v>0.39179175012017631</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" ref="B34:B49" si="3">IF(C34=D34,"O","X")</f>
@@ -20839,7 +21254,7 @@
     <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60099016633876146</v>
+        <v>0.50308460531262778</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="3"/>
@@ -20861,7 +21276,7 @@
     <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64208695946197192</v>
+        <v>7.7444607571282464E-2</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="3"/>
@@ -20883,7 +21298,7 @@
     <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41238364304657849</v>
+        <v>0.96681419913548872</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="3"/>
@@ -20905,7 +21320,7 @@
     <row r="38" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93926237717090766</v>
+        <v>0.90133677211176022</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="3"/>
@@ -20927,7 +21342,7 @@
     <row r="39" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15246632661959703</v>
+        <v>0.74778229100478266</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="3"/>
@@ -20949,7 +21364,7 @@
     <row r="40" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9691183915002739</v>
+        <v>8.2914264763704337E-2</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" si="3"/>
@@ -20971,7 +21386,7 @@
     <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73190130766618944</v>
+        <v>0.90187012856335502</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" si="3"/>
@@ -20993,7 +21408,7 @@
     <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54399565887672907</v>
+        <v>0.74789782231985402</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="3"/>
@@ -21015,7 +21430,7 @@
     <row r="43" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36373650613311048</v>
+        <v>0.72500777832367291</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="3"/>
@@ -21037,7 +21452,7 @@
     <row r="44" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6019762925258028E-2</v>
+        <v>0.46803445394663956</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="3"/>
@@ -21059,7 +21474,7 @@
     <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97826166285798488</v>
+        <v>0.82737922013830412</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="3"/>
@@ -21081,7 +21496,7 @@
     <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37959847262028523</v>
+        <v>0.8415971732258638</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" si="3"/>
@@ -21103,7 +21518,7 @@
     <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41124374661268759</v>
+        <v>0.45296257668518969</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="3"/>
@@ -21125,7 +21540,7 @@
     <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21517123678821115</v>
+        <v>0.49631231139850795</v>
       </c>
       <c r="B48" s="3" t="str">
         <f t="shared" si="3"/>
@@ -21147,7 +21562,7 @@
     <row r="49" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67351822630530755</v>
+        <v>7.8197881421137039E-3</v>
       </c>
       <c r="B49" s="3" t="str">
         <f t="shared" si="3"/>
@@ -21169,7 +21584,7 @@
     <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80504115216670269</v>
+        <v>0.14669435689347943</v>
       </c>
       <c r="B50" s="3" t="str">
         <f t="shared" ref="B50:B65" si="4">IF(C50=D50,"O","X")</f>
@@ -21191,7 +21606,7 @@
     <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11708740520251626</v>
+        <v>0.479701952460314</v>
       </c>
       <c r="B51" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21213,7 +21628,7 @@
     <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41057347908762509</v>
+        <v>0.49340026123062564</v>
       </c>
       <c r="B52" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21235,7 +21650,7 @@
     <row r="53" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85198276609948043</v>
+        <v>0.1650936832414257</v>
       </c>
       <c r="B53" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21257,7 +21672,7 @@
     <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71687894750642567</v>
+        <v>0.43092068013765206</v>
       </c>
       <c r="B54" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21279,7 +21694,7 @@
     <row r="55" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57015447586546697</v>
+        <v>0.56300996637921019</v>
       </c>
       <c r="B55" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21301,7 +21716,7 @@
     <row r="56" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19788921736812448</v>
+        <v>0.20046390870642228</v>
       </c>
       <c r="B56" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21323,7 +21738,7 @@
     <row r="57" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52324182771118188</v>
+        <v>0.65583006696383284</v>
       </c>
       <c r="B57" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21345,7 +21760,7 @@
     <row r="58" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3546462587767261E-2</v>
+        <v>0.13236018554097861</v>
       </c>
       <c r="B58" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21367,7 +21782,7 @@
     <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4.4525721943295959E-3</v>
+        <v>0.7308099774301593</v>
       </c>
       <c r="B59" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21389,7 +21804,7 @@
     <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98462266530369713</v>
+        <v>0.72085677200098353</v>
       </c>
       <c r="B60" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21411,7 +21826,7 @@
     <row r="61" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79453699083562734</v>
+        <v>0.51524161538480329</v>
       </c>
       <c r="B61" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21433,7 +21848,7 @@
     <row r="62" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.046330056702538E-2</v>
+        <v>0.67075336595596124</v>
       </c>
       <c r="B62" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21455,7 +21870,7 @@
     <row r="63" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53748393729183475</v>
+        <v>0.52656364895089824</v>
       </c>
       <c r="B63" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21477,7 +21892,7 @@
     <row r="64" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68005542745470327</v>
+        <v>0.14539504921138702</v>
       </c>
       <c r="B64" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21499,7 +21914,7 @@
     <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4.8164804943916617E-2</v>
+        <v>0.65812593208337555</v>
       </c>
       <c r="B65" s="3" t="str">
         <f t="shared" si="4"/>
@@ -21521,7 +21936,7 @@
     <row r="66" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86373029429747461</v>
+        <v>0.95325031134022997</v>
       </c>
       <c r="B66" s="3" t="str">
         <f t="shared" ref="B66:B97" si="5">IF(C66=D66,"O","X")</f>
@@ -21543,7 +21958,7 @@
     <row r="67" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19580355126515481</v>
+        <v>0.17078600244828224</v>
       </c>
       <c r="B67" s="3" t="str">
         <f t="shared" si="5"/>
@@ -21565,7 +21980,7 @@
     <row r="68" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84493204486649265</v>
+        <v>6.169981342062103E-2</v>
       </c>
       <c r="B68" s="3" t="str">
         <f t="shared" si="5"/>
@@ -21587,7 +22002,7 @@
     <row r="69" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67982036575975979</v>
+        <v>0.75856060694909155</v>
       </c>
       <c r="B69" s="3" t="str">
         <f t="shared" si="5"/>
@@ -21609,7 +22024,7 @@
     <row r="70" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61887071299376917</v>
+        <v>0.77118920700431992</v>
       </c>
       <c r="B70" s="3" t="str">
         <f t="shared" si="5"/>
@@ -21631,7 +22046,7 @@
     <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61047348013453173</v>
+        <v>0.37610241310828751</v>
       </c>
       <c r="B71" s="3" t="str">
         <f t="shared" si="5"/>
@@ -21653,7 +22068,7 @@
     <row r="72" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59967451184232512</v>
+        <v>0.98719017475064141</v>
       </c>
       <c r="B72" s="3" t="str">
         <f t="shared" si="5"/>
@@ -21675,7 +22090,7 @@
     <row r="73" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97757384334794217</v>
+        <v>0.15263954008032765</v>
       </c>
       <c r="B73" s="3" t="str">
         <f t="shared" si="5"/>
@@ -21697,7 +22112,7 @@
     <row r="74" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96710821433875016</v>
+        <v>0.47453898791824611</v>
       </c>
       <c r="B74" s="3" t="str">
         <f t="shared" si="5"/>
@@ -21719,7 +22134,7 @@
     <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54469286636416492</v>
+        <v>0.15814708062071547</v>
       </c>
       <c r="B75" s="3" t="str">
         <f t="shared" si="5"/>
@@ -21741,7 +22156,7 @@
     <row r="76" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79153744118098668</v>
+        <v>0.86662008799976997</v>
       </c>
       <c r="B76" s="3" t="str">
         <f t="shared" si="5"/>
@@ -21763,7 +22178,7 @@
     <row r="77" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56862810289925647</v>
+        <v>0.26023659912421948</v>
       </c>
       <c r="B77" s="3" t="str">
         <f t="shared" si="5"/>
@@ -21785,7 +22200,7 @@
     <row r="78" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96628962822094155</v>
+        <v>0.47299126722307638</v>
       </c>
       <c r="B78" s="3" t="str">
         <f t="shared" si="5"/>
@@ -21807,7 +22222,7 @@
     <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50894589637468357</v>
+        <v>0.21799518019370712</v>
       </c>
       <c r="B79" s="3" t="str">
         <f t="shared" si="5"/>
@@ -21829,7 +22244,7 @@
     <row r="80" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70417335956348759</v>
+        <v>4.4815820296713049E-2</v>
       </c>
       <c r="B80" s="3" t="str">
         <f t="shared" si="5"/>
@@ -21851,7 +22266,7 @@
     <row r="81" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13784393600524514</v>
+        <v>0.31618217896777601</v>
       </c>
       <c r="B81" s="3" t="str">
         <f t="shared" si="5"/>
@@ -21873,7 +22288,7 @@
     <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13077846081513711</v>
+        <v>0.16936372330714478</v>
       </c>
       <c r="B82" s="3" t="str">
         <f t="shared" si="5"/>
@@ -21895,7 +22310,7 @@
     <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23746332102163115</v>
+        <v>0.20140131631107117</v>
       </c>
       <c r="B83" s="3" t="str">
         <f t="shared" si="5"/>
@@ -21917,7 +22332,7 @@
     <row r="84" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89047612486560557</v>
+        <v>0.87670061890723339</v>
       </c>
       <c r="B84" s="3" t="str">
         <f t="shared" si="5"/>
@@ -21939,7 +22354,7 @@
     <row r="85" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11744290927394418</v>
+        <v>0.31791582746287417</v>
       </c>
       <c r="B85" s="3" t="str">
         <f t="shared" si="5"/>
@@ -21961,7 +22376,7 @@
     <row r="86" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12183677142665206</v>
+        <v>0.48656364166363719</v>
       </c>
       <c r="B86" s="3" t="str">
         <f t="shared" si="5"/>
@@ -21983,7 +22398,7 @@
     <row r="87" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66362172145762155</v>
+        <v>0.16841673019180092</v>
       </c>
       <c r="B87" s="3" t="str">
         <f t="shared" si="5"/>
@@ -22005,7 +22420,7 @@
     <row r="88" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96945910171795568</v>
+        <v>0.78412255092631633</v>
       </c>
       <c r="B88" s="3" t="str">
         <f t="shared" si="5"/>
@@ -22027,7 +22442,7 @@
     <row r="89" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95702610852289405</v>
+        <v>0.1404285343636249</v>
       </c>
       <c r="B89" s="3" t="str">
         <f t="shared" si="5"/>
@@ -22049,7 +22464,7 @@
     <row r="90" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56846859958491314</v>
+        <v>0.38278143720672364</v>
       </c>
       <c r="B90" s="3" t="str">
         <f t="shared" si="5"/>
@@ -22071,7 +22486,7 @@
     <row r="91" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53604095300456922</v>
+        <v>1.8367255193345033E-2</v>
       </c>
       <c r="B91" s="3" t="str">
         <f t="shared" si="5"/>
@@ -22093,7 +22508,7 @@
     <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71954442668578822</v>
+        <v>5.1735089298902137E-2</v>
       </c>
       <c r="B92" s="3" t="str">
         <f t="shared" si="5"/>
@@ -22115,7 +22530,7 @@
     <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71793761637671505</v>
+        <v>0.3963095740473368</v>
       </c>
       <c r="B93" s="3" t="str">
         <f t="shared" si="5"/>
@@ -22137,7 +22552,7 @@
     <row r="94" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90420142442357154</v>
+        <v>0.63379517991233669</v>
       </c>
       <c r="B94" s="3" t="str">
         <f t="shared" si="5"/>
@@ -22159,7 +22574,7 @@
     <row r="95" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80538674416640699</v>
+        <v>0.65248130284168304</v>
       </c>
       <c r="B95" s="3" t="str">
         <f t="shared" si="5"/>
@@ -22181,7 +22596,7 @@
     <row r="96" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10296233099566943</v>
+        <v>0.47675636471268734</v>
       </c>
       <c r="B96" s="3" t="str">
         <f t="shared" si="5"/>
@@ -22203,7 +22618,7 @@
     <row r="97" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96178262893740629</v>
+        <v>0.32013048563769875</v>
       </c>
       <c r="B97" s="3" t="str">
         <f t="shared" si="5"/>
@@ -22240,7 +22655,7 @@
   </sheetPr>
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
@@ -22276,7 +22691,7 @@
     <row r="2" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A55" ca="1" si="0">RAND()</f>
-        <v>0.67990712910762319</v>
+        <v>4.4498167386412879E-2</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B55" si="1">IF(C2=D2,"O","X")</f>
@@ -22298,7 +22713,7 @@
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72810383803039225</v>
+        <v>0.61366881014066343</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3" si="2">IF(C3=D3,"O","X")</f>
@@ -22320,7 +22735,7 @@
     <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29070366658439106</v>
+        <v>0.33832272219389747</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22342,7 +22757,7 @@
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58357569263096232</v>
+        <v>0.21267023758104087</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22364,7 +22779,7 @@
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46718069649503868</v>
+        <v>0.83838910988985693</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22386,7 +22801,7 @@
     <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59170757416131892</v>
+        <v>0.76934389256616342</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22408,7 +22823,7 @@
     <row r="8" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74473698002672795</v>
+        <v>0.62033778387333161</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22430,7 +22845,7 @@
     <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84106349326534235</v>
+        <v>0.73808691620777034</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22452,7 +22867,7 @@
     <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8434653888494892E-2</v>
+        <v>0.47097313161912824</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22474,7 +22889,7 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.114955345987096E-2</v>
+        <v>0.24896345455756552</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22534,7 +22949,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40764595768739287</v>
+        <v>0.37499054860238623</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22556,7 +22971,7 @@
     <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99758733996256699</v>
+        <v>0.23842586378517794</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22578,7 +22993,7 @@
     <row r="16" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54126777972051199</v>
+        <v>0.41049443761448146</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22600,7 +23015,7 @@
     <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76541137351633792</v>
+        <v>0.84028129610614444</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22622,7 +23037,7 @@
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29313200065940348</v>
+        <v>0.64311654809385776</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22660,7 +23075,7 @@
     <row r="20" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80564779880570714</v>
+        <v>4.0758669481379406E-2</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22682,7 +23097,7 @@
     <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74415448506698623</v>
+        <v>0.23350893541451179</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22704,7 +23119,7 @@
     <row r="22" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65759259141492232</v>
+        <v>9.5392311866836943E-2</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22726,7 +23141,7 @@
     <row r="23" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52225483704238462</v>
+        <v>0.92531699110680521</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22748,7 +23163,7 @@
     <row r="24" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25170436592766776</v>
+        <v>0.91720618966128431</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22770,7 +23185,7 @@
     <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45437219490730341</v>
+        <v>0.52517283588731356</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22792,7 +23207,7 @@
     <row r="26" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19993914134053459</v>
+        <v>0.55203729412273328</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22814,7 +23229,7 @@
     <row r="27" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15795343419000873</v>
+        <v>0.88591849071787954</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ref="B27:B28" si="3">IF(C27=D27,"O","X")</f>
@@ -22836,7 +23251,7 @@
     <row r="28" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29438767825530276</v>
+        <v>0.53484703013278556</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="3"/>
@@ -22858,7 +23273,7 @@
     <row r="29" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0688182610929111E-2</v>
+        <v>0.63255559121391591</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22880,7 +23295,7 @@
     <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39292884182868737</v>
+        <v>0.43671734155053632</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22902,7 +23317,7 @@
     <row r="31" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0256167600652417E-2</v>
+        <v>0.18083450988375804</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22924,7 +23339,7 @@
     <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81840662442744205</v>
+        <v>4.269326099145454E-2</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22946,7 +23361,7 @@
     <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77815549490143388</v>
+        <v>0.27815973006050843</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -22968,7 +23383,7 @@
     <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60347394899159157</v>
+        <v>0.29072809923072651</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" ref="B34" si="4">IF(C34=D34,"O","X")</f>
@@ -22990,7 +23405,7 @@
     <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60203120966626911</v>
+        <v>0.10313986170849343</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="1"/>
@@ -23012,7 +23427,7 @@
     <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23857646121350173</v>
+        <v>0.27274230552536571</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="1"/>
@@ -23034,7 +23449,7 @@
     <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47159706600527962</v>
+        <v>0.93201087686525896</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="1"/>
@@ -23056,7 +23471,7 @@
     <row r="38" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47742171295875679</v>
+        <v>0.31449228377979033</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="1"/>
@@ -23078,7 +23493,7 @@
     <row r="39" spans="1:7" ht="144" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64015025090877775</v>
+        <v>0.86158823190510636</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="1"/>
@@ -23100,7 +23515,7 @@
     <row r="40" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92214822456828094</v>
+        <v>0.75503187269052408</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" si="1"/>
@@ -23122,7 +23537,7 @@
     <row r="41" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3234181770658853E-2</v>
+        <v>0.95544880501942864</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" ref="B41:B42" si="5">IF(C41=D41,"O","X")</f>
@@ -23144,7 +23559,7 @@
     <row r="42" spans="1:7" ht="201.6" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83739367259250952</v>
+        <v>0.9625812350441183</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="5"/>
@@ -23166,7 +23581,7 @@
     <row r="43" spans="1:7" ht="144" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63446357259025243</v>
+        <v>0.10225080696182098</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="1"/>
@@ -23188,7 +23603,7 @@
     <row r="44" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21947241097794401</v>
+        <v>0.66388304989362368</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="1"/>
@@ -23210,7 +23625,7 @@
     <row r="45" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3496270285689187</v>
+        <v>0.95536979903019437</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="1"/>
@@ -23232,7 +23647,7 @@
     <row r="46" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52989918734881436</v>
+        <v>0.61061804845805401</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" si="1"/>
@@ -23254,7 +23669,7 @@
     <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66577493524501441</v>
+        <v>0.57478392167988768</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="1"/>
@@ -23276,7 +23691,7 @@
     <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27479578133326965</v>
+        <v>0.22982998570562063</v>
       </c>
       <c r="B48" s="3" t="str">
         <f t="shared" si="1"/>
@@ -23298,7 +23713,7 @@
     <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98990170598046356</v>
+        <v>0.536464383742698</v>
       </c>
       <c r="B49" s="3" t="str">
         <f t="shared" si="1"/>
@@ -23320,7 +23735,7 @@
     <row r="50" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2925092389244518</v>
+        <v>0.95474348672070986</v>
       </c>
       <c r="B50" s="3" t="str">
         <f t="shared" si="1"/>
@@ -23342,7 +23757,7 @@
     <row r="51" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71991295949056022</v>
+        <v>0.68984382397722088</v>
       </c>
       <c r="B51" s="3" t="str">
         <f t="shared" si="1"/>
@@ -23364,7 +23779,7 @@
     <row r="52" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41137898805542206</v>
+        <v>0.88096483015891069</v>
       </c>
       <c r="B52" s="3" t="str">
         <f t="shared" si="1"/>
@@ -23386,7 +23801,7 @@
     <row r="53" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30949039591980121</v>
+        <v>0.65267763686268787</v>
       </c>
       <c r="B53" s="3" t="str">
         <f t="shared" si="1"/>
@@ -23408,7 +23823,7 @@
     <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53799339559400494</v>
+        <v>0.28511953948713364</v>
       </c>
       <c r="B54" s="3" t="str">
         <f t="shared" si="1"/>
@@ -23430,7 +23845,7 @@
     <row r="55" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7722442526342489</v>
+        <v>0.52856202706945166</v>
       </c>
       <c r="B55" s="3" t="str">
         <f t="shared" si="1"/>
@@ -23452,7 +23867,7 @@
     <row r="56" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" ref="A56:A68" ca="1" si="6">RAND()</f>
-        <v>0.57054544894910586</v>
+        <v>0.6363606683558779</v>
       </c>
       <c r="B56" s="3" t="str">
         <f t="shared" ref="B56:B68" si="7">IF(C56=D56,"O","X")</f>
@@ -23474,7 +23889,7 @@
     <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.4654268736817998</v>
+        <v>0.75809660293703141</v>
       </c>
       <c r="B57" s="3" t="str">
         <f t="shared" si="7"/>
@@ -23496,7 +23911,7 @@
     <row r="58" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.99829395489435502</v>
+        <v>0.86922942708240047</v>
       </c>
       <c r="B58" s="3" t="str">
         <f t="shared" si="7"/>
@@ -23518,7 +23933,7 @@
     <row r="59" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.75302703673498139</v>
+        <v>0.60380930495748308</v>
       </c>
       <c r="B59" s="3" t="str">
         <f t="shared" si="7"/>
@@ -23540,7 +23955,7 @@
     <row r="60" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.63119738619951449</v>
+        <v>0.47059850925319102</v>
       </c>
       <c r="B60" s="3" t="str">
         <f t="shared" si="7"/>
@@ -23562,7 +23977,7 @@
     <row r="61" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.31667880105844692</v>
+        <v>2.6938553765564421E-2</v>
       </c>
       <c r="B61" s="3" t="str">
         <f t="shared" si="7"/>
@@ -23584,7 +23999,7 @@
     <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.2338009579409559</v>
+        <v>0.64095663330443731</v>
       </c>
       <c r="B62" s="3" t="str">
         <f t="shared" si="7"/>
@@ -23606,7 +24021,7 @@
     <row r="63" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.91322292276131267</v>
+        <v>0.89418112881712464</v>
       </c>
       <c r="B63" s="3" t="str">
         <f t="shared" si="7"/>
@@ -23628,7 +24043,7 @@
     <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49608325620806137</v>
+        <v>0.42129518088953943</v>
       </c>
       <c r="B64" s="3" t="str">
         <f t="shared" si="7"/>
@@ -23650,7 +24065,7 @@
     <row r="65" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.3833373019195162</v>
+        <v>0.98222964903154208</v>
       </c>
       <c r="B65" s="3" t="str">
         <f t="shared" si="7"/>
@@ -23672,7 +24087,7 @@
     <row r="66" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.38136391047033125</v>
+        <v>0.41275815144784522</v>
       </c>
       <c r="B66" s="3" t="str">
         <f t="shared" si="7"/>
@@ -23694,7 +24109,7 @@
     <row r="67" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.85852048694670025</v>
+        <v>0.33982080131834169</v>
       </c>
       <c r="B67" s="3" t="str">
         <f t="shared" si="7"/>
@@ -23716,7 +24131,7 @@
     <row r="68" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.86825497441258936</v>
+        <v>0.85455636511347066</v>
       </c>
       <c r="B68" s="3" t="str">
         <f t="shared" si="7"/>
@@ -23733,6 +24148,867 @@
       </c>
       <c r="G68" s="1">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB56A3F-8578-4688-80D3-7DDB99E8268F}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="127.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.59765625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <f t="shared" ref="A2:A38" ca="1" si="0">RAND()</f>
+        <v>0.13031444637016554</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:B38" si="1">IF(C2=D2,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44004916802136596</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41561860376025206</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G4" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65853210436253073</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G5" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16931937466508995</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F6" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G6" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39297907774942176</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F7" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G7" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47519329649710218</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F8" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G8" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.55285396694282107</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F9" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G9" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.92713787397363334</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G10" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32013900342855639</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G11" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49182316481958599</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G12" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43029878604893423</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F13" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G13" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.82473998825281469</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F14" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G14" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53020042272153289</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F15" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G15" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95549305893167469</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F16" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G16" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36615514067942379</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F17" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G17" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8846222835197435E-2</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F18" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G18" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19488967504822463</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F19" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G19" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.71049711651188829</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F20" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G20" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5387406780410635E-2</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F21" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G21" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.52696109582393436</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F22" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G22" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65121691710237395</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F23" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G23" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45540245383954603</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F24" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G24" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83757141294203519</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F25" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G25" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26494732285577161</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F26" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G26" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A27" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5287501970980757E-2</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F27" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G27" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
+      <c r="A28" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79396634316759007</v>
+      </c>
+      <c r="B28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F28" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G28" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A29" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70547300100954713</v>
+      </c>
+      <c r="B29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F29" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G29" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A30" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47855023692249055</v>
+      </c>
+      <c r="B30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F30" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G30" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A31" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87752942140892021</v>
+      </c>
+      <c r="B31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F31" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G31" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A32" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42341826187452891</v>
+      </c>
+      <c r="B32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F32" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G32" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A33" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23960644189496694</v>
+      </c>
+      <c r="B33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F33" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G33" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A34" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4209673844178734</v>
+      </c>
+      <c r="B34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F34" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G34" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A35" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69854092510195809</v>
+      </c>
+      <c r="B35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F35" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G35" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A36" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31010729734995823</v>
+      </c>
+      <c r="B36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F36" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G36" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A37" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46054190009688778</v>
+      </c>
+      <c r="B37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F37" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G37" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A38" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45374959530606729</v>
+      </c>
+      <c r="B38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F38" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G38" s="1">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/정보처리기사/필기.xlsx
+++ b/정보처리기사/필기.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\유미\자격증\정처기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E484C44F-EB0F-47F1-934C-59A8FBF1FAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863967A4-16DD-493F-A742-D14339405CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30804" yWindow="8808" windowWidth="16980" windowHeight="17808" activeTab="1" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
   </bookViews>
   <sheets>
     <sheet name="1과목" sheetId="1" r:id="rId1"/>
     <sheet name="2과목" sheetId="2" r:id="rId2"/>
     <sheet name="3과목" sheetId="3" r:id="rId3"/>
+    <sheet name="4과목" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1과목'!$B$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2과목'!$B$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3과목'!$B$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4과목'!$B$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="454">
   <si>
     <t>문제</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -19103,65 +19105,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;물리적 데이터 베이스 설계&gt;
-- 물리적 설계의 목적은 효울적인 방법으로 데이터를 저장하는 것 (O/X)
-- 트랜잭션 처리량과 응답 시간, 디스크 용량 등을 고려 (O/X)
-- 저장 레코드의 형식, 순서, 접근 경로와 같은 정보를 사용하여 설계 (O/X)
-- 트랜잭션의 인터페이스를 설계하며, 데이터 타입 및 데이터 타입들 간의 관계로 표현 (O/X)
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;무결성 제약 조건&gt;
-- ㅇㅇ 무결성; 기본 테이블의 기본키를 구성하는 어떤 속성도 Null 값이나 중복 값을 가질 수 없음.
-- ㅇㅇㅇ 무결성; 주어진 속성 값이 정의된 도메인에 속한 값이어야 한다는 규정
-- ㅇㅇ 무결성; 외래키 값은 Null이거나 참조 릴레이션의 기본키 값과 동일해야 하고, 릴레이션은 참조할 수 없는 외래키 값을 가질 수 없다는 규정
-- ㅇㅇㅇ 정의 무결성; 속성 값들이 사용자가 정의한 제약 조건에 만족
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>개체, 도메인, 참조, 사용자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">관계 데이터베이스에 있어서 관계 대수 연산이 아닌 것은?
-1)디비전(Division) 2)프로젝트(Project) 3)조인(Join) 4)포크(Fork)
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>병행, 있다, 병행, 오버헤드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;로킹 단위&gt;                                                      정답 기입 예시) 유미, 있다, 개발, 이클립스
-- ㅇㅇ제어에서 한꺼번에 로킹할 수 있는 객체의 크기
-- 데이터베이스, 파일, 레코드, 필드 등은 로킹 단위가 될 수 (있다/없다).
-- 로킹 단위가 크면 로크 수가 작아 관리하기 쉽지만 ㅇㅇ성 수준이 낮아지고 데이터베이스 공유도가 저하됨.
-- 로킹 단위가 작으면 로크 수가 많아 관리하기 복잡해 ㅇㅇㅇㅇ가 증가함.
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>비절차, 릴레이션, 순서</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;관계 대수&gt;                                                          정답 기입 예시) 비절차, 고구마켓, 감자
-- 원하는 릴레이션을 정의하는 방법을 제공하며 (비절차/절차)적 언어
-- 릴레이션 조작을 위한 연산의 집합으로 피연산자와 결과가 모두 ㅇㅇㅇㅇ임.
-- 일반 집합 연산과 순수 관계 연산으로 구분됨.
-- 질의에 대한 해를 구하기 위해 수행해야 할 연산의 ㅇㅇ를 명시
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ㅇㅇㅇㅇㅇ 기법; 동시성 제어를 위한 직렬화 기법으로 트랜잭션 간의 처리 순서를 미리 정하는 방법
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>타임스탬프</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -19170,43 +19125,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;정규화 과정&gt;
-- 제1정규형; 도메인이 ㅇㅇ값
-- 제2정규형; ㅇㅇ적 함수 종속 제거로 기본키가 아닌 모든 속성이 기본키에 완전 함수 종속
-- 제3정규형; ㅇㅇ적 함수 종속 제거
-- 보이스/코드 정규형; ㅇㅇ자이면서 후보키가 아닌 것 제거
-- 제4정규형; ㅇㅇ 종속 제거
-- 제5정규형; 후보키를 통하지 않는 ㅇㅇ 종속 제거
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">어떤 릴레이션 R에서 X와 Y를 각각 R의 애트리뷰트 집합의 부분 집합이라고 할 경우 애트리뷰트 X의 값 각각에 대해 시간에 관계 없이 항상 애트리뷰트 Y의 값이 오직 하나만 연관되어 있을 때 Y는 X에 함수 종속이라고 함. 이 함수 종속의 표기로 옳은 것은?
-1)Y → X    2)X → Y    3)Y ⊂ X    4)X ⊂ Y
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;파티션(분할)의 종류&gt;
-- ㅇㅇ 분할; 지정한 열 값의 기준으로 범위 지정하여 분할
-- ㅇㅇ 분할; 지정한 열 값에 대한 목록을 만들어 이를 기준으로 분할
-- ㅇㅇ 분할; 해시 함수를 적용한 결과 값에 따라 분할하는 것으로 특정 데이터가 어디에 있는지 판단 불가능
-- ㅇㅇ 분할; 범위 분할로 분할한 다음 해시 함수를 적용하여 다시 분할하는 방식
-- 라운드 로빈 분할; ㅇㅇㅇ를 균일하게 분배하는 방식임.
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>범위, 목록, 해시, 조합, 레코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;시스템 카탈로그&gt;
-- 사용자가 직접 시스템 카탈로그의 내용을 갱신하여 데이터베이스 무결성을 유지함. (O/X)
-- 시스템 자신이 필요로 하는 스키마 및 여러 가지 객체에 관한 정보를 포함하고 있는 시스템 데이터베이스 (O/X)
-- 시스템 카탈로그에 저장되는 내용을 메타데이터라고도 함. (O/X)
-- 시스템 카탈로그는 DBMS가 스스로 생성하고 유지함. (O/X)
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -35196,6 +35115,2640 @@
       <t xml:space="preserve">)
 </t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부, 입력, 동일, 순차, 시간, 유사, 없는</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인, 부정, 오류, 효율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;자동 반복 요청&gt;
+- Stop-and-Wait; 수신 측의 ㅇㅇ 신호(ACK)를 받은 후 다음 패킷을 전송하는 방식
+- Go-Back-N ARQ; 여러 블록을 연속적으로 전송하고, 수신 측에서 ㅇㅇ 응답(NAK)를 보내면 송신 측이 오류가 발생한 블록부터 재전송함.
+- Selective-Repeat APQ; 여러 블록을 연속적으로 전송하고, 수신 측에서 부정 응답(NAK)을 보내오면 송신 측이 ㅇㅇ가 발생한 블록만을 재전송함.
+- Adaptive ARQ; 전송 ㅇㅇ을 최대로 하기 위해서 데이터 블록의 길이를 채널의 상태에 따라 그때그때 동적으로 변경하는 방식
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nationalter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다음 C언어 프로그램이 실행되었을 때의 결과는?
+------------------------
+#include &lt;stdio.h&gt;
+#include &lt;string.h&gt;
+int main(void) {
+  char str[50] = "nation";
+  char *p2 = "alter";
+  strcat(str, p2);
+  printf("%s", str);
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다음 C언어의 변수 r1, r2, r3 값은?                   정답 기입 예시) 0, 0, 0
+int r1 = 4 &lt;= 4 || 2 == 2;
+int r2 = (3 &gt; 0) &amp;&amp; (4 &lt; 5);
+int r3 = !2;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 1, 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;SSTF(Shortest Seek Time First)&gt;                                                   정답 기입 예시) 가까운, 98
+- 현재 헤드의 위치에서 가장 (가까운/먼) 거리에 있는 트랙의 요청을 먼저 서비스함.
+- 헤드의 위치가 53이고 큐의 입출력 내용이 [98, 37, 14, 124, 65]이면, SSTF 스케줄링을 사용한 경우 가장 처음 처리 순서는 ㅇㅇ임.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가까운, 65</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.0/24 네트워크를 FLSM 방식을 이용하여 4개의 Subnet으로 나누고 IP Subnet-zero를 적용함. 이 때 Subnetting된 네트워크 중 4번째 네트워크의 4번째 사용 가능한 IP는 192.168.1.ㅇㅇㅇ임.                 정답 기입 예시) 111
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>127, 191, 223, 239</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;IP 주소&gt;                                                                 정답 기입 예시) 111, 111, 111, 111
+- A Class; 국가나 대형 통신망에 사용되며 0 ~ ㅇㅇㅇ로 시작
+- B Class; 중대형 통신망에 사용되며 ( A Class 다음 값 ~ ㅇㅇㅇ)로 시작
+- C Class; 소규모 통신망에 사용되며 ( B Class 다음 값 ~ ㅇㅇㅇ)로 시작
+- D Class; 멀티캐스트용으로 사용되며 ( C Class 다음 값 ~ ㅇㅇㅇ)로 시작
+- E Class; 실험적 주소이며 공용되지 않음.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다음 C언어 프로그램이 실행되었을 때의 결과는?
+----------------------------------------
+#include &lt;stdio.h&gt;
+int main(void) {
+ int n = 4;
+ int* pt = NULL;
+ pt = &amp;n;
+ printf("%d, %d, %d", &amp;n - *&amp;pt, *pt , n);
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 4, 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">귀도 반 로섬이 발표한 언어로 인터프리터 방식이자 객체지향적이며, 배우기 쉽고 이식성이 좋은 것이 특징인 스크립트 언어는?
+1.C++    2.JAVA    3.C#    4.Python
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;프로세스&gt;
+- ㅇㅇㅇㅇ; 프로세스가 준비 상태에서 프로세서가 배당되어 실행 상태로 변화하는 것
+- 프로세스 ㅇㅇ 블록; 프로세스 식별자, 프로세스 상태 등의 정보로 구성
+- ㅇㅇ 교환; 이정 프로세스의 상태 레지스터 내용을 보관하고 다른 프로세스의 레지스터를 적재하는 과정
+- ㅇㅇㅇ; 프로세스 내에서의 작업 단위로서 시스템의 여러 자원을 할당 받아 실행하는 프로그램 단위
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스패치, 제어, 문맥, 스레드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파문, 인터페이스, 변수, 매개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;결합도&gt;
+- 오류가 발생했을 때 전파되어 다른 오류의 원인이 되는 ㅇㅇ 효과(Ripple Effect)를 최소화해야 함.
+- 인터페이스가 정확히 설정되어 있지 않을 경우 불필요한 ㅇㅇㅇㅇㅇ가 나타나 모듈 사이의 의존도는 높아지고 결합도는 증가함.
+- 모듈들이 ㅇㅇ를 공유하여 사용하게 하거나, 제어 정보를 교류하게 함으로써 결합도가 높아짐.
+- 다른 모듈과 데이터 교류가 필요한 경우 전역변수(Global Variable) 보다는 ㅇㅇ변수를 사용하는 것이 결합도를 낮추는 데 도움이 됨.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;TCP 헤더&gt;
+- ㅇㅇ 번호(Sequence Number)는 전달하는 바이트마다 번호가 부여됨.
+- ㅇㅇ 번호 확인(Acknowledgement Number)은 상대편 호스트에서 받으려는 바이트의 번호를 정의함.
+- ㅇㅇㅇ은 데이터를 포함한 세그먼트의 오류를 검사함.
+- 윈도우의 최대 크기는 65,535byte로 ㅇㅇbit임.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서, 수신, 체크섬, 16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;모듈화&gt;
+- 소프트웨어의 모듈은 프로그래밍 언어에서 Subroutine, Function 등으로 표현될 수 있음. (O/X)
+- 모듈의 수가 증가하면 상대적으로 각 모듈의 크기가 커지며, 모듈 사이의 상호 교류가 감소하여 과부하 현상이 나타남. (O/X)
+- 모듈화는 시스템을 지능적으로 관리할 수 있도록 해주며, 복잡도 문제를 해결하는 데 도움을 줌. (O/X)
+- 모듈화는 시스템의 유지보수와 수정을 용이하게 함. (O/X)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;페이지 교체 알고리즘&gt;
+- ㅇㅇㅇ(Optimal replacement, 최적 교체); 앞으로 가장 오랫동안 사용하지 않을 페이지를 교체하는 기법
+- ㅇㅇㅇㅇ(First In First Out); 각 페이지가 주기억장치에 적재될 때마다 그때의 시간을 기억시켜 가장 먼저 들어온 페이지 교체
+- ㅇㅇㅇ(Least Recently Used); 최근에 가장 오랫동안 사용하지 않은 페이지를 교체하는 기법
+- ㅇㅇㅇ(Least Frequently Used); 사용 빈도가 가장 적은 페이지를 교체하는 기법
+- ㅇㅇㅇ(Not Used Recently); 최근에 사용하지 않은 페이지를 교체하는 기법으로 참조 비트(Reference Bit)와 변형 비트(Modified Bit)가 사용됨.
+- ㅇㅇㅇ(Second Chance Replacement, 2차 기회 교체); 가장 오랫동안 주기억장치에 있던 페이지 중 자주 사용되는 페이지의 교체를 방지
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPT, FIFO, LRU, LFU, NUR, SCR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C언어에서 변수 선언으로 틀린 것은?
+1.int else;    2.int Test2;    3.int pc;    4.int True;
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보, 주기억, 참조, 제어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;파일 디스크립터&gt;
+- 파일 관리를 위해 시스템이 필요로 하는 ㅇㅇ를 가지고 있음.
+- 보조기억장치에 저장되어 있다가 파일이 개방되면 ㅇㅇㅇ장치로 이동됨.
+- 사용자가 파일 디스크립터를 확인할 수 있으나, 직접 ㅇㅇ할 수는 없음.
+- 파일 ㅇㅇ 블록이라고도 함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다음 설명에 해당하는 방식은?
+- 무선 랜에서 데이터 전속 시, 매체가 비어 있음을 확인한 뒤 충돌을 회피하기 위해 임의 시간을 기다린 후 데이터를 전송하는 방법
+- 네트워크에 데이터의 전송이 없는 경우라도 동시 전송에 의한 충돌에 대비하여 확인 신호를 전송함.
+1)STA    2)Collision Domain    3)CSMA/CA    4)CSMA/CD
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;결합도의 종류(강함에서 약함 순)&gt;
+- ㅇㅇ 결합도(Content Coupling); 한 모듈이 다른 모듈의 내부 기능 및 그 내부 자료를 직접 참조하거나 수정할 때의 결합도
+- ㅇㅇ 결합도(Common Coupling); 공유되는 공통 데이터 영역을 여러 모듈이 사용할 때의 결합도
+- ㅇㅇ 결합도(External Coupling); 어떤 모듈에서 외부로 선언한 데이터(변수)를 다른 모듈에서 참조할 때의 결합도
+- ㅇㅇ 결합도(Control Coupling); 어떤 모듈이 다른 모듈 내부의 논리적인 흐름을 제어하기 위해 제어 신호를 이용하여 통신하거나 제어 요소를 전달
+- ㅇㅇㅇ 결합도(Stamp Coupling); 모듈 간의 인터페이스로 배열이나 레코드 등의 자료 구조가 전달될 때의 결합도
+- ㅇㅇ 결합도(Data Coupling); 모듈 간의 인터페이스가 자료 요소로만 구성될 때의 결합도
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용, 공통, 외부, 제어, 스탬프, 자료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">#include &lt;stdio.h&gt;
+int main(int argc, char *argv[]) {
+  int a = 4;
+  int b = 7;
+  int c = a | b;
+  printf("%d", c);
+  return 0;
+}
+----------------------------
+코드를 보고 아래의 빈 칸을 채우시오.                          정답 기입 예시) 0, 0000, 0
+C언어에서 |는 두 비트 중 한 비트라도 1이면 ㅇ이 되는 비트 연산자임.
+a = 00000100, b = 00000111이므로 c = 0000ㅇㅇㅇㅇ로 정수로 표현할 경우 ㅇ임.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 0111, 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;교착 상태 해결 방법&gt;
+- ㅇㅇ 기법(Prevention); 교착 상태가 발생하지 않도록 사전에 시스템을 제어하는 방법으로, 교착 상태 발생의 네 가지 조건 중에서 어느 하나를 제거
+- ㅇㅇ 기법(Avoidance); 교착 상태가 발생할 가능성을 배제하지 않고 발생하면 적절히 피해나가는 방법으로, 주로 은행원 알고리즘이 사용됨.
+- ㅇㅇ 기법(Detection); 시스템에 교착 상태가 발생했는지 점검하여 교착 상태에 있는 프로세스와 자원을 발견하는 것으로, 자원 할당 그래프 사용
+- ㅇㅇ 기법(Recovery); 교착 상태를 일으킨 프로세스를 종료하거나 교착 상태의 프로세스에 할당된 자원을 선점하여 프로세스나 자원을 회복하는 것
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예방, 회피, 발견, 회복</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CIDR(Classless Inter-Domain Routing) 표기로 203.241.132.82/27과 같이 사용되었다면, 
+해당 주소의 서브넷 마스크(subnet mask)는?                   정답 기입 예시) 000
+-&gt; 255.255.255.ㅇㅇㅇ
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;프로세스 적재 정책&gt;
+- 반복, 스택, 부프로그램은 ㅇㅇ 지역성과(Temporal Locality)과 관련 있음.
+- ㅇㅇ 지역성(Spatial Locality)은 프로세스가 어떤 페이지를 참조했다면 이후 가상 주소 공간상 그 페이지와 인접한 페이지들을 참조할 가능성 높음.
+- 일반적으로 페이지 수행 시간 보다 교환 시간이 커질 때 ㅇㅇㅇ이 발생함.
+- 스레싱 현상을 방지하기 위해서는 각 프로세스가 필요로 하는 ㅇㅇㅇ을 제공할 수 있어야 함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간, 공간, 스레싱, 프레임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;프레임워크&gt;
+- 소프트웨어 구성에 필요한 기본 구조를 제공함으로써 ㅇㅇㅇ이 가능
+- ㅇㅇ화가 잘 되어 있어 자유로운 ㅇㅇ이 가능한 반제품 형태의 소프트웨어임.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재사용, 모듈, 확장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;리눅스 Bash 쉘에서 export&gt;
+- 변수를 출력하고자 할 때는 export 사용 (O/X)
+- export가 매개 변수 없이 쓰일 경우 현재 설정된 환경 변수들이 출력됨. (O/X)
+- 사용자가 생성하는 변수는 export 명령어 표시하지 않는 한 현재 쉘에 국한됨. (O/X)
+- 변수를 export 시키면 전역 변수처럼 되어 끝까지 기억됨. (O/X)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;페이징 기법에서 페이지 크기가 작아질 경우&gt;
+- 기억장소 이용 효율이 ㅇㅇ함.
+- 입출력 시간이 ㅇㅇ함.
+- 내부 단편화가 ㅇㅇ함.
+- 페이지 맵 테이블의 크기가 ㅇㅇ함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가, 증가, 감소, 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;응집도의 종류(약함에서 강함 순)&gt;
+- 기능적 응집도(Functional Cohesion); 모듈 ㅇㅇ의 모든 기능 요소들이 단일 문제와 연관되어 수행될 경우 응집도
+- 순차적 응집도(Sequential Cohesion); 모듈 내 하나의 활동으로부터 나온 출력 데이터를 그 다음 활동의 ㅇㅇ 데이터로 사용할 경우의 응집도
+- 교환적 응집도(Communication Cohesion); ㅇㅇ한 입력과 출력을 사용하여 서로 다른 기능을 수행하거는 구성 요소들이 모였을 경우의 응집도 
+- 절차적 응집도(Procedural Cohesion); 모듈이 다수의 관련 기능을 가질 때 모듈 안의 구성 요소들이 그 기능을 ㅇㅇ적으로 수행할 경우의 응집도
+- 시간적 응집도(Temporal Cohesion); 특정 ㅇㅇ에 처리되는 몇 개의 기능을 모아 하나의 모듈로 작성할 경우의 응집도
+- 논리적 응집도(Logical Cohesion); ㅇㅇ한 성격을 갖거나 특정 형태로 분류되는 처리 요소들로 하나의 모듈이 형성되는 경우의 응집도
+- 우연적 응집도(Coincidental Cohesion); 모듈 내부의 각 구성 요소들이 서로 관련 ㅇㅇ 요소로만 구성된 경우의 응집도
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다음 중 가장 강한 응집도는?
+1)Sequential Cohesion    2)Procedural Cohesion    3)Logical Cohesion    4)Coincidental Cohesion
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패킷, 흐름, 전이중, 응답</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;TCP 프로토콜&gt;
+- ㅇㅇ의 전송 및 오류를 제어함. 
+- ㅇㅇ 제어의 기능을 수행함.
+- ㅇㅇㅇ(Full Duplex) 방식의 양방향 가상회선을 제공함.
+- 전송 데이터와 ㅇㅇ 데이터를 함께 전송
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄱ, ㄷ, ㄴ, ㄹ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C언어 라이브러리의 설명과 보기의 문자를 올바르게 연결하시오.                       정답 기입 예시) ㄱ, ㄴ, ㄷ, ㄹ
+ㄱ)stdlib.h    ㄴ)string.h    ㄷ)stdio.h    ㄹ)math.h
+-ㅇ; 문자열을 수치 데이터로 바꾸는 문자 변환 함수와 수치를 문자열로 바꿔주는 변환 함수 등이 있음.
+-ㅇ; 표준 입출력 라이브러리임.
+-ㅇ; 문자열 처리 함수로 strlen()이 포함됨.
+-ㅇ; 삼각 함수, 제곱근, 지수 등 수학적인 함수를 내장
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;OSI 7계층 중 네트워크 계층&gt;
+- ㅇㅇ을 발신지로부터 최종 목적지까지 전달하는 책임을 짐.
+- 패킷에 발신지와 목적지의 ㅇㅇ 주소를 추가함.
+- 라우터 또는 교환기는 패킷 전달을 위해 ㅇㅇ를 지정하거나 교환 기능을 제공함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패킷, 논리, 경로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물리적 데이터 베이스 설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+- 물리적 설계의 목적은 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>효율적인 방법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로 데이터를 저장하는 것 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트랜잭션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 처리량과 응답 시간, 디스크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 용량</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 등을 고려 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저장 레코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의 형식, 순서, 접근 경로와 같은 정보를 사용하여 설계 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트랜잭션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인터페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 설계하며, 데이터 타입 및 데이터 타입들 간의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로 표현 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무결성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 제약 조건&gt;
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ㅇㅇ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">무결성; 기본 테이블의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기본키</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 구성하는 어떤 속성도 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Null 값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이나 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중복 값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">을 가질 수 없음.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 무결성; 주어진 속성 값이 정의된 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도메인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에 속한 값이어야 한다는 규정
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 무결성; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>외래키</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 값은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이거나 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참조 릴레이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 기본키 값과 동일해야 하고, 릴레이션은 참조할 수 없는 외래키 값을 가질 수 없다는 규정
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 정의 무결성; 속성 값들이 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 정의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">한 제약 조건에 만족
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">관계 데이터베이스에 있어서 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관계 대수 연산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이 아닌 것은?
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디비전(Division)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트(Project)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조인(Join)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포크(Fork)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로킹 단위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt;                                                      정답 기입 예시) 유미, 있다, 개발, 이클립스
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ제어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에서 한꺼번에 로킹할 수 있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 객체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 크기
+- 데이터베이스, 파일, 레코드, 필드 등은 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로킹 단위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가 될 수 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다/없다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">).
+- 로킹 단위가 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 로크 수가 작아 관리하기 쉽지만 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ㅇㅇ성 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">수준이 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>낮아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">지고 데이터베이스 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공유도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 저하</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">됨.
+- 로킹 단위가 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 로크 수가 많아 관리하기 복잡해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">가 증가함.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관계 대수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>&gt;                                                          정답 기입 예시) 비절차, 고구마켓, 감자
+- 원하는 릴레이션을 정의하는 방법을 제공하며 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비절차/절차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)적 언어
+- 릴레이션 조작을 위한 연산의 집합으로 피연산자와 결과가 모두 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">임.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일반 집합 연산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">과 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순수 관계 연산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로 구분됨.
+- 질의에 대한 해를 구하기 위해 수행해야 할 연산의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 명시
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇㅇ 기법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 동시성 제어를 위한 직렬화 기법으로 트랜잭션 간의 처리 순서를 미리 정하는 방법
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정규화 과정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>&gt;
+- 제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">정규형; 도메인이 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">정규형; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 함수 종속 제거로 기본키가 아닌 모든 속성이 기본키에 완전 함수 종속
+- 제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정규형;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇ적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 함수 종속 제거
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보이스/코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 정규형; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이면서 후보키가 아닌 것 제거
+- 제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">정규형; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 종속</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 제거
+- 제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">정규형; 후보키를 통하지 않는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 종속</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 제거
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">어떤 릴레이션 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 각각 R의 애트리뷰트 집합의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부분 집합</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이라고 할 경우 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>애트리뷰트 X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의 값 각각에 대해 시간에 관계 없이 항상 애트리뷰트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 값이 오직 하나만 연관되어 있을 때 Y는 X에 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함수 종속</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이라고 함. 이 함수 종속의 표기로 옳은 것은?
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Y → X  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">  2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">X → Y  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">  3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Y ⊂ X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>X ⊂ Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;파티션(분할)의 종류&gt;
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ㅇㅇ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">분할; 지정한 열 값의 기준으로 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범위 지정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">하여 분할
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 분할; 지정한 열 값에 대한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">을 만들어 이를 기준으로 분할
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 분할; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해시 함수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 적용한 결과 값에 따라 분할하는 것으로 특정 데이터가 어디에 있는지 판단 불가능
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 분할; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범위 분할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">로 분할한 다음 해시 함수를 적용하여 다시 분할하는 방식
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라운드 로빈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 분할; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 균일하게 분배하는 방식임.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템 카탈로그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+- 사용자가 직접 시스템 카탈로그의 내용을 갱신하여 데이터베이스 무결성을 유지함. (O/X)
+- 시스템 자신이 필요로 하는 스키마 및 여러 가지 객체에 관한 정보를 포함하고 있는 시스템 데이터베이스 (O/X)
+- 시스템 카탈로그에 저장되는 내용을 메타데이터라고도 함. (O/X)
+- 시스템 카탈로그는 DBMS가 스스로 생성하고 유지함. (O/X)
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다음 중 응집도가 가장 높은 것은?
+1)절차적 응집도 2)순차적 응집도 3)우연적 응집도 4)논리적 응집도
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;OSI 계층&gt;
+- ㅇㅇ 계층; 전송에 필요한 두 장치 간의 실제 접속과 절단 등 기계적, 전기적, 기능적, 절차적 특성에 관한 규칙 정의
+- ㅇㅇㅇ 링크 계층; 물리적 연결을 이용해 신뢰성 있는 정보를 전송하려고 동기화, 오류제어, 흐름제어 등의 전송에러를 제어하는 계층
+- ㅇㅇㅇㅇ 계층; 경로 설정, 데이터 교환 및 중계, 트래픽 제어, 패킷 정보 전송을 수행함.
+- ㅇㅇ 계층; 논리적 안정과 균일한 데이터 전송 서비스를 제공함으로써 종단 시스템 간에 투명한 데이터 전송 가능하게 함.
+- ㅇㅇ 계층; 송/수신측 간의 관련성을 유지하고 대화 제어를 담당하는 계층임.
+- ㅇㅇ 계층; 서로 다른 데이터 표현 형태를 갖는 시스템 간의 상호 접속을 위해 필요한 계층임.
+- ㅇㅇ 계층; 사용자가 OSI 환경에 접근할 수 있도록 서비스 제공함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리, 데이터, 네트워크, 전송, 세션, 표현, 응용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ, ㄹ, ㄷ, ㅁ, ㅂ, ㄱ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IEEE 802의 표준 규약을 바르게 연결하시오.                        정답 기입 예시) ㄱ, ㄴ, ㄷ, ㄹ, ㅁ, ㅂ
+ㄱ)CSMA/CA    ㄴ)CSMA/CD    ㄷ)Token RING    ㄹ)Token BUS    ㅁ)Fiber optic LANS    ㅂ)음성/데이터 통합 LAN
+- IEEE 802.3; ㅇ
+- IEEE 802.4; ㅇ
+- IEEE 802.5; ㅇ
+- IEEE 802.8; ㅇ
+- IEEE 802.9; ㅇ
+- IEEE 802.11; ㅇ
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기억 공간이 15K, 23K, 22K, 21K 순으로 빈 공간이 있을 때 기억 장치 배치 전력으로 "First Fit"을 사용하여 17K의 프로그램을 적재할 경우 내부단편화의 크기는?                            정답 기입 예시) 1
+-&gt; ㅇK
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;교착 상태 발생의 필요 충분 조건&gt;
+- 상호 ㅇㅇ(Mutual Exclusion); 한 번에 한 개의 프로세스만이 공유 자원을 사용할 수 있어야 함.
+- ㅇㅇ와 대기(Hold and Wait); 최소한 하나의 자원을 점유하고 있으면서 다른 프로세스에 할당되어 사용되고 있는 자원을 추가로 점유하기 위해 대기하는 프로세스가 있어야 함.
+- ㅇㅇㅇ(Not-preemption); 다른 프로세스에 할당된 자원은 사용이 끝날 때까지 강제로 빼앗을 수 없어야 함.
+- ㅇㅇ 대기(Circular Wait); 공유 자원과 공유 자원을 사용하기 위해 대기하는 프로세스들이 원형으로 구성되어 있어 자신에게 할당된 자원을 점유하면서 앞이나 뒤에 있는 프로세스의 자원을 요구해야 함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배제, 점유, 비선점, 환형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니, 보안, 애니, 128</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;IPv6&gt;
+- 브로드캐스트 대신 ㅇㅇ캐스트를 사용함.
+- 보안과 인증 확장 헤더를 사용함으로써 인터넷 계층의 ㅇㅇ 기능을 강화함.
+- ㅇㅇ 캐스트는 하나의 호스트에서 그룹 내의 가장 가까운 곳에 있는 수신자에게 전달하는 방식임.
+- ㅇㅇㅇ비트 주소체계 사용함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇ 계층; TCP/IP 프로토콜에서 TCP가 해당하는 계층
+ㅇㅇㅇㅇ 계층; TCP/IP 프로토콜에서 IP가 해당하는 계층
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송, 네트워크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;C언어의 형변환 라이브러리 함수&gt;
+- atoi(); 문자열을 ㅇㅇ형으로 변환
+- atof(); 문자열을 ㅇㅇ형으로 변환
+- itoa(); 정수형을 ㅇㅇㅇ로 변환
+- ceil(); 실수를 정수형으로 ㅇㅇ처리하는 함수
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수, 실수, 문자열, 올림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">운영체제의 가상 기억 장치 관리에서 프로세스가 일정 시간 동안 자주 참조하는 페이지들의 집합을 의미하는 것은? 
+1)Locality    2)Deadlock    3)Thrashing    4)Working Set
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">결합도가 낮은 것부터 높은 순으로 나열하시오.                                  정답 기입 예시) ㄱ, ㄴ, ㄷ, ㄹ, ㅁ, ㅂ
+ㄱ)내용 결합도    ㄴ)자료 결합도    ㄷ)공통 결합도    ㄹ)스탬프 결합도   ㅁ)외부 결합도  ㅂ)제어 결합도 
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ, ㄹ, ㅂ, ㅁ, ㄷ, ㄱ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">가상기억장치의 일반적인 구현 방법과 명칭을 바르게 이으시오.              정답 기입 예시) ㄱ, ㄴ
+ㄱ)Paging ㄴ)Allocation ㄷ)Compaction ㄹ)Segmentation ㅁ)Linking
+- ㅇ; 프로그램을 고정된 크기의 일정한 블록으로 나누는 기법
+- ㅇ; 프로그램을 가변적인 크기의 블록으로 나누는 기법
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄱ, ㄹ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C언어에서 산술 연산자가 아닌 것은? 
+1)%    2)*    3)/    4)=
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;UDP&gt;                                                            정답 기입 예시; 이유미, 빠름, 이클립스
+- 데이터 전송 전에 연결을 설정하지 않는 ㅇㅇㅇ형 서비스 제공
+- 흐름제어나 순서제어가 없어 전송 속도가 (빠름/느림).
+- TCP에 비해 상대적으로 단순한 헤더 구조를 가지므로, ㅇㅇㅇㅇ가 적음.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비연결, 빠름, 오버헤드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;JAVA에서 변수와 자료형&gt;
+- 변수는 어떤 값을 주기억 장치에 기억하기 위해서 사용하는 공간임. (O/X)
+- 변수의 자료형에 따라 저장할 수 있는 값의 종류와 범위가 달라짐. (O/X)
+- char 자료형은 나열된 여러 개의 문자를 저장하고자 할 때 사용함. (O/X)
+- boolean 자료형은 조건이 참인지 거짓인지 판단하고자 할 때 사용함. (O/X)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIX SHELL 환경 변수를 출력하는 명령어가 아닌 것은? 
+1)configenv    2)printenv    3)env    4)setenv
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;운영체제에서 커널의 기능&gt;
+- ㅇㅇㅇㅇ 생성, 종료
+- ㅇㅇ 장치 할당, 회수
+- ㅇㅇ 시스템 관리
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스, 기억, 파일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다음 쉘 스크립트의 의미로 옳은 것은?
+----------------------------------------
+until who I grep wow
+do
+sleep 5
+done
+----------------------------------------
+1)wow 사용자가 로그인한 경우에만 반복문 수행
+2)wow 사용자가 로그인할 때까지 반복문 수행
+3)wow 문자열을 복사함.
+4)wow 사용자에 대한 정보를 무한 반복 출력
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;슬라이스&gt;                                                      정답 기입 예시) 0, 0, 0
+- 파이썬의 슬라이스는 문자열이나 리스트와 같은 순차형 객체에서 일부를 잘라 반환하는 기능임.
+- 객체명[초기위치:최종위치:증가값] 으로 표현하며 초기 위치에서 최종 위치 -1까지의 요소들을 가져옴.
+- a[:7:2]의 경우 배열 a의 ㅇ부터 ㅇ번째 위치까지 ㅇ씩 증가하면서 해당 위치의 요소를 출력하라는 의미
+ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 6, 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;재사용 범위에 따른 분류&gt;
+- ㅇㅇ와 객체; 클래스나 메소드 단위의 소스 코드 재사용
+- ㅇㅇㅇㅇ; 수정 없이 인터페이스를 통해 통신하는 방식으로 재사용함.
+- ㅇㅇㅇㅇㅇㅇ; 공통된 기능들을 제공하는 애플리케이션을 공유하는 방식으로 재사용함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수, 컴포넌트, 애플리케이션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;SJF(Shortest Job First)&gt;
+- 준비 상태 큐에서 기다리고 있는 프로세스들 중 실행 기간이 가장 ㅇㅇ 프로세스에게 먼저 CPU를 할당하는 기법
+- P1, P2, P3, P4 프로세스가 차례로 큐에 도착하고, 각 실행 시간은 6, 8, 4, 3일 경우 가장 먼저 처리되는 작업은 Pㅇ임.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>짧은, 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4개의 페이지를 수용할 수 있는 주기억장치가 있으며, 초기에는 모두 비어 있다고 가정함. 
+[페이지 참조 순서 : 1, 2, 3, 1, 2, 4, 5, 1]에서 FIFO 페이지 교체 알고리즘을 사용할 경우 페이지 결함의 발생 횟수는?
+- ㅇ회
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TCP 흐름 제어 기법 중 프레임이 손실되었을 때, 손실된 프레임 1개를 전송하고 수신자의 응답을 기다리는 방식으로 한 번에 프레임 1개만 전송할 수 있는 기법은?
+1)Slow Start    2)Sliding Window    3)Stop and Wait    4)Congestion Avoidance
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;결합도&gt;
+- 결합도; 두 ㅇㅇ 간의 상호작용 또는 의존도 정도
+- ㅇㅇㅇ 결합도; 두 모듈이 매개변수로 자료를 전달할 때, 자료구조 형태로 전달되어 이용될 경우
+- ㅇㅇ 결합도; 하나의 모듈이 직접적으로 다른 모듈의 내용을 참조할 경우
+- ㅇㅇ 결합도; 두 모듈이 동일한 전역 데이터를 접근할 경우
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈, 스탬프, 내용, 공통</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">응집도의 종류 중 서로 간에 어떠한 의미 있는 연관 관계도 지니지 않은 기능 요소로 구성되는 경위며, 서로 다른 상위 모듈에 의해 호출되어 처리 상의 연관성이 없는 서로 다른 기능을 수행하는 경우의 응집도는?
+1)Functional Cohesion    2)Sequential Cohesion    3)Logical Cohesion    4)Coincidental Cohesion
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">세그먼트 테이블에서 2번의 시작 주소는 222, 길이는 198임.
+논리주소(2, 176)에 대한 물리 주소는?
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로, 제어, 그룹, 물리, 논리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;인터넷 계층의 프로토콜&gt;
+- IP; 데이터 주소를 지정하고 ㅇㅇ 설정
+- ICMP; IP와 조합하여 통신 중의 오류 처리와 전송 경로 변경 등을 위한 ㅇㅇ 메시지 관리
+- IGMP; 멀티캐스트를 지원하는 호스트나 라우터 사이에서 멀티캐스트 ㅇㅇ 유지를 위해 사용됨.
+- ARP; 호스트의 IP주소를 네트워크 접속 장치의 ㅇㅇ적 주소로 변환함.
+- RARP; 물리 주소를 ㅇㅇ 주소로 변환함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C언어에서 구조체를 사용하여 데이터를 처리할 때 사용하는 것은?
+1)for 2)scanf 3)struct 4)abstract
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PHP에서 사용 가능한 연산자가 아닌 것은?
+1)@    2)#    3)&lt;&gt;    4)===
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;소프트웨어 취약점&gt;
+- 버퍼 ㅇㅇㅇㅇ; 메모리를 다루는 데 오류가 발생하여 잘못된 동작을 함.
+- ㅇㅇㅇ 바운스 공격; FTP 서버가 목적지를 검사하지 않는 취약점을 이용하여 공격 대상의 열린 포트를 찾아내는 기법
+- ㅇㅇㅇ 삽입; 전문 스캐너 프로그램 혹은 봇넷 등을 이용해 웹사이트를 무차별적으로 공격하는 과정에서 취약한 사이트가 발견되면 데이터베이스 등의 데이터를 조작하는 보안 약점
+- ㅇㅇㅇㅇ 접근 공격; 데이터 입출력 경로를 조작함으로써 허가되지 않은 디렉터리에 접근하여 무단으로 자원을 수정 및 삭제할 수 있음.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오버플로, FTP, SQL, 디렉터리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다음 중 bash 쉘 스크립트에서 사용할 수 있는 제어문이 아닌 것은?
+1)if    2)for    3)repeat_do    4)while
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;IPv6&gt;
+- ㅇㅇㅇ비트의 주소 체계를 사용
+- 멀티미디이어의 ㅇㅇㅇ 처리가 가능
+- IPv4보다 보안성이 (증가/감소)됨.
+- 자동으로 ㅇㅇㅇㅇ 환경 구성이 가능함. 
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>128, 실시간, 증가, 네트워크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;HRN&gt;
+- 우선 순위 계산식: (ㅇㅇ 시간 + ㅇㅇㅇ 시간) / ㅇㅇㅇ 시간
+- 우선순위를 계산하여 그 숫자가 가장 (높은/낮은) 것부터 순차적으로 부여됨.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기, 서비스, 서비스, 높은</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;배치 프로그램의 필수 요소&gt;
+- ㅇㅇㅇ 데이터; 대량의 데이터를 가져오거나, 전달하거나, 계산하는 등의 처리가 가능
+- ㅇㅇ화; 심각한 오류 상황 외에는 사용자의 개입 없이 동작
+- ㅇㅇ성; 잘못된 데이터나 데이터 중복 등의 상황으로 중단되는 일 없이 수행되어야 함.
+- ㅇㅇ성/신뢰성; 오류가 발생하면 오류의 발생 위치, 시간 등을 추적할 수 있어야 함.
+- ㅇㅇ; 다른 응용 프로그램의 수행을 방해하지 않아야 하고, 지정된 시간 내에 처리가 완료
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대용량, 자동, 견고, 안정, 성능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;TCP 프로토콜&gt;
+- 신뢰성이 있는 ㅇㅇ 지향형 전달 서비스
+- 기본 헤더 크기는 20~60byte로 ㅇㅇㅇbyte까지 확장 가능함.
+- ㅇㅇㅇ 전송 기능 제공
+- 순서 제어, 오류 제어, 흐름 제어, ㅇㅇ의 다중화 기능을 제공함.
+- OSI 7계층의 ㅇㅇ 계층에 해당
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결, 160, 스트림, 패킷, 전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇ적 응집도; 모듈이 다수의 관련 기능을 가질 때 모듈 안의 구성 요소들이 그 기능을 순차적으로 수행할 경우의 응집도
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>절차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 작게, 많이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;배치 전략&gt;                                          정답 기입 예시) 0, 작게, 작게
+- 최초 적합(First-Fit); 프로그램이나 데이터가 들어갈 수 있는 크기의 빈 영역 중에서 ㅇ 번째 분할 영역에 배치시키는 방법
+- 최적 적합(Best-Fit); 프로그램이나 데이터가 들어갈 수 있는 크기의 빈 영역 중에서 단변화를 가장 (작게/많이) 남기는 분할 영역에 배치시키는 방법
+- 최악 적합(Worst-Fit); 프로그램이나 데이터가 들어갈 수 있는 크기의 빈 영역 중에서 단편화를 가장 (작게/많이) 남기는 분할 영역에 배치시키는 방법
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">200.1.1.0/24 네트워크를 FLSM 방식을 이용하여 10개의 Subnet으로 나누고 ip subnet-zero를 적용함. 이때 서브네팅된 네트워크 중 10번째 네트워크의 broadcast IP 주소는?
+1)200.1.1.159    2)201.1.5.175    3)202.1.11.254    4)203.1.255.245
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;파이썬의 변수 작성 규칙&gt;
+- 첫 자리에 숫자 사용 불가능 (O/X)
+- 영문 대문자/소문자, 숫자, 밑줄 사용 가능 (O/X)
+- 변수 이름의 중간에 공백 사용 가능 (O/X)
+- 이미 사용되고 있는 예약어 사용 불가능 (O/X)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">어떤 모듈이 다른 모듈의 내부 논리 조직을 제어하기 위한 목적으로 제어 신호를 리용하여 통신하는 경우이며, 하위 모듈에서 상위 모듈로 제어 신호가 이동하여 상위 모듈에게 처리 명령을 부여하는 권리 전도 현상이 발생하게 되는 결합도는?
+1)data coupling    2)stamp coupling    3)control coupling    4)common coupling
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIX에서 새로운 프로세스를 생성하는 명령어는?
+1)ls    2)cat    3)fork    4)chmod
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C언어에서 비트 논리 연산자에 해당하지 않는 것은?
+1)^    2)?    3)&amp;    4)~
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">은행가 알고리즘(Banker's Algorithm)은 교착 상태의 해결 방법 중 어떤 기법에 해당되는가?
+1)Avoidance    2)Detection    3)Prevention    4)Recovery
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;UNIX&gt;
+- (쉘/커널)은 명령어 해석기
+- (쉘/커널)은 시스템과 사용자 간의 인터페이스를 담당함.
+- (단일/여러) 종류의 쉘이 있음.
+- (쉘/커널)은 프로세스, 기억 장치, 입출력 관리를 수행함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉘, 쉘, 여러, 커널</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇ 계층; OSI-7 계층에서 종단간 신뢰성 있고 효율적인 데이터를 전송하기 위해 오류 검출과 복구, 흐름 제어를 수행하는 계층
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">프로세스 상태의 종류가 아닌 것은?
+1)Ready    2)Running    3)Request    4)Exit
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;스레드&gt;
+- 한 개의 프로세스는 여러 개의 스레드를 가질 수 (있음/없음).
+- 스레드를 사용함으로써 하드웨어, 운영체제의 성능과 응용 프로그램의 ㅇㅇ율을 향상 시킬 수 있음.
+- ㅇㅇ 스레드; 운영체제에 의해 스레드 운용
+- ㅇㅇㅇ 스레드; 사용자가 만든 라이브러리를 사용하여 수레드 운용
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>있음, 처리, 커널, 사용자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IEEE 802.11 워킨 그룹의 무선 LAN 표준화 현황 중 QoS 강화를 위해 MAC 지원 가능을 채택한 것은?
+-&gt; 802.11ㅇ
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C언어에서 사용할 수 없는 변수명은?
+1)student2019    2)text-color    3)_korea    4)amount
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스크립트 언어가 아닌 것은?
+1)PHP    2)Cobol    3)Basic    4)Python
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">페이지 참조 열 [7, 0, 1, 2, 0, 3, 0, 4, 2, 3, 0, 3, 2, 1, 2, 0, 1, 7, 0]에 대해 페이지 교체 기법으로 선입선출 알고리즘을 사용할 경우 페이지 부재 횟수는? (단, 할당된 페이지 프레임의 수는 3이고, 처음에는 모든 프레임이 비어 있음.)
+-&gt; ㅇㅇ
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">응집도가 가장 낮은 것은?
+1)기능적 응집도    2)시간적 응집도    3)절차적 응집도    4)우연적 응집도
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -35623,7 +38176,7 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
@@ -35658,7 +38211,7 @@
     <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A33" ca="1" si="0">RAND()</f>
-        <v>0.13111447083022199</v>
+        <v>0.50613724277113015</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B33" si="1">IF(C2=D2,"O","X")</f>
@@ -35680,7 +38233,7 @@
     <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70361924956945077</v>
+        <v>0.97129517700982437</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -35702,7 +38255,7 @@
     <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96767654697830019</v>
+        <v>0.82397000672672149</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -35724,7 +38277,7 @@
     <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9801700376473135E-2</v>
+        <v>0.35025048696854988</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -35746,7 +38299,7 @@
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20310924522935458</v>
+        <v>0.97903210081770498</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -35768,7 +38321,7 @@
     <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68289196467082136</v>
+        <v>0.34674340365020651</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -35790,7 +38343,7 @@
     <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90699118739591822</v>
+        <v>0.7998417742417534</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -35812,7 +38365,7 @@
     <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5216110198687175</v>
+        <v>0.19060920263774972</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -35834,7 +38387,7 @@
     <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58546375822962604</v>
+        <v>0.80638219500304464</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -35856,7 +38409,7 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71409029652066514</v>
+        <v>0.38709270204234347</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -35878,7 +38431,7 @@
     <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94560365044502881</v>
+        <v>0.71807225385661633</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -35900,7 +38453,7 @@
     <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27788031538873648</v>
+        <v>0.51296404140835605</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -35922,7 +38475,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74648452290320322</v>
+        <v>0.22769909508903496</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -35944,7 +38497,7 @@
     <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23552084044294463</v>
+        <v>0.18547994481028374</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -35966,7 +38519,7 @@
     <row r="16" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1451943991621349E-2</v>
+        <v>0.48318499991508956</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -35988,7 +38541,7 @@
     <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1653099294468714</v>
+        <v>0.59492978486540526</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -36010,7 +38563,7 @@
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3201387530867269</v>
+        <v>0.16728665501924178</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -36032,7 +38585,7 @@
     <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57962907845182365</v>
+        <v>0.62171136144394656</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -36054,7 +38607,7 @@
     <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96212605754026004</v>
+        <v>7.2676883736008335E-2</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -36076,7 +38629,7 @@
     <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27491176417326457</v>
+        <v>0.67222055101776057</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -36098,7 +38651,7 @@
     <row r="22" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97207267813720211</v>
+        <v>0.52864823824879648</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -36120,7 +38673,7 @@
     <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.626122755419246</v>
+        <v>0.4335353436679199</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -36142,7 +38695,7 @@
     <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26811810115017254</v>
+        <v>0.54562970404661459</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -36164,7 +38717,7 @@
     <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37214562075464608</v>
+        <v>0.40235284336620925</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -36186,7 +38739,7 @@
     <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46605037154193452</v>
+        <v>0.69017413905529457</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -36208,7 +38761,7 @@
     <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26923609996641951</v>
+        <v>0.23244932003224006</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -36230,7 +38783,7 @@
     <row r="28" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73603983042393595</v>
+        <v>0.61094931135325858</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -36252,7 +38805,7 @@
     <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2830164152864858</v>
+        <v>0.81490241548531483</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -36274,7 +38827,7 @@
     <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51518417011161877</v>
+        <v>0.99651816766128942</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -36296,7 +38849,7 @@
     <row r="31" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90217371130568036</v>
+        <v>0.48514099085776063</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -36318,7 +38871,7 @@
     <row r="32" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77084862744568994</v>
+        <v>0.53518168791661558</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
@@ -36340,7 +38893,7 @@
     <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88180598641330321</v>
+        <v>0.84539497373199002</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -36362,7 +38915,7 @@
     <row r="34" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" ref="A34:A97" ca="1" si="2">RAND()</f>
-        <v>0.18703339838902655</v>
+        <v>2.9303077087214358E-2</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" ref="B34:B49" si="3">IF(C34=D34,"O","X")</f>
@@ -36384,7 +38937,7 @@
     <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28548738136772622</v>
+        <v>0.83184268924297633</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="3"/>
@@ -36406,7 +38959,7 @@
     <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89351540215042824</v>
+        <v>0.39530086535687115</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="3"/>
@@ -36428,7 +38981,7 @@
     <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28908083991703226</v>
+        <v>0.90202461738815853</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="3"/>
@@ -36450,7 +39003,7 @@
     <row r="38" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36443763742981217</v>
+        <v>0.49803603517215178</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="3"/>
@@ -36472,7 +39025,7 @@
     <row r="39" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39630854889390743</v>
+        <v>0.98466144961085611</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="3"/>
@@ -36494,7 +39047,7 @@
     <row r="40" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62295880664467318</v>
+        <v>0.40503704608351987</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" si="3"/>
@@ -36516,7 +39069,7 @@
     <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6606372395585528</v>
+        <v>0.39563135032186847</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" si="3"/>
@@ -36538,7 +39091,7 @@
     <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20361456612665052</v>
+        <v>0.62769889942948909</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="3"/>
@@ -36560,7 +39113,7 @@
     <row r="43" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57313848949605062</v>
+        <v>0.45770207597054646</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="3"/>
@@ -36582,7 +39135,7 @@
     <row r="44" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6130935672506839E-2</v>
+        <v>0.67390386320511808</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="3"/>
@@ -36604,7 +39157,7 @@
     <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14605272831247318</v>
+        <v>0.46717166487646555</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="3"/>
@@ -36626,7 +39179,7 @@
     <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41765099371294179</v>
+        <v>0.34062660221553842</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" si="3"/>
@@ -36648,7 +39201,7 @@
     <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82908834196632941</v>
+        <v>0.66941275465040306</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="3"/>
@@ -36670,7 +39223,7 @@
     <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75157435645661164</v>
+        <v>0.19907989072747756</v>
       </c>
       <c r="B48" s="3" t="str">
         <f t="shared" si="3"/>
@@ -36692,7 +39245,7 @@
     <row r="49" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44021585529399887</v>
+        <v>0.78810920773506077</v>
       </c>
       <c r="B49" s="3" t="str">
         <f t="shared" si="3"/>
@@ -36714,7 +39267,7 @@
     <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25316355008128433</v>
+        <v>0.44859634970364937</v>
       </c>
       <c r="B50" s="3" t="str">
         <f t="shared" ref="B50:B65" si="4">IF(C50=D50,"O","X")</f>
@@ -36736,7 +39289,7 @@
     <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82963417418610907</v>
+        <v>0.10486871090801708</v>
       </c>
       <c r="B51" s="3" t="str">
         <f t="shared" si="4"/>
@@ -36758,7 +39311,7 @@
     <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6868175675412385E-2</v>
+        <v>0.53392501818311044</v>
       </c>
       <c r="B52" s="3" t="str">
         <f t="shared" si="4"/>
@@ -36780,7 +39333,7 @@
     <row r="53" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98782521602635009</v>
+        <v>9.1164796885438326E-2</v>
       </c>
       <c r="B53" s="3" t="str">
         <f t="shared" si="4"/>
@@ -36802,7 +39355,7 @@
     <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64918271739250677</v>
+        <v>0.77776740626605034</v>
       </c>
       <c r="B54" s="3" t="str">
         <f t="shared" si="4"/>
@@ -36824,7 +39377,7 @@
     <row r="55" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82304049409313018</v>
+        <v>0.32594169514051685</v>
       </c>
       <c r="B55" s="3" t="str">
         <f t="shared" si="4"/>
@@ -36846,7 +39399,7 @@
     <row r="56" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.2002907928663227E-3</v>
+        <v>7.1621439611797788E-2</v>
       </c>
       <c r="B56" s="3" t="str">
         <f t="shared" si="4"/>
@@ -36868,7 +39421,7 @@
     <row r="57" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72466131385477572</v>
+        <v>0.44345641713555861</v>
       </c>
       <c r="B57" s="3" t="str">
         <f t="shared" si="4"/>
@@ -36890,7 +39443,7 @@
     <row r="58" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31571543503366539</v>
+        <v>0.75418629612474719</v>
       </c>
       <c r="B58" s="3" t="str">
         <f t="shared" si="4"/>
@@ -36912,7 +39465,7 @@
     <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10836114104385142</v>
+        <v>0.8777530028610343</v>
       </c>
       <c r="B59" s="3" t="str">
         <f t="shared" si="4"/>
@@ -36934,7 +39487,7 @@
     <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99199983897028199</v>
+        <v>2.1312932204545998E-2</v>
       </c>
       <c r="B60" s="3" t="str">
         <f t="shared" si="4"/>
@@ -36956,7 +39509,7 @@
     <row r="61" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85955116944565735</v>
+        <v>0.46651176777531667</v>
       </c>
       <c r="B61" s="3" t="str">
         <f t="shared" si="4"/>
@@ -36978,7 +39531,7 @@
     <row r="62" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24623658100562951</v>
+        <v>0.28432505981935674</v>
       </c>
       <c r="B62" s="3" t="str">
         <f t="shared" si="4"/>
@@ -37000,7 +39553,7 @@
     <row r="63" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6.3576346862502464E-2</v>
+        <v>0.72645948215569889</v>
       </c>
       <c r="B63" s="3" t="str">
         <f t="shared" si="4"/>
@@ -37022,7 +39575,7 @@
     <row r="64" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46821297507120729</v>
+        <v>0.35278425131836466</v>
       </c>
       <c r="B64" s="3" t="str">
         <f t="shared" si="4"/>
@@ -37044,7 +39597,7 @@
     <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68526396733058281</v>
+        <v>0.21134947847333763</v>
       </c>
       <c r="B65" s="3" t="str">
         <f t="shared" si="4"/>
@@ -37066,7 +39619,7 @@
     <row r="66" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22512524982470672</v>
+        <v>0.54715979666396453</v>
       </c>
       <c r="B66" s="3" t="str">
         <f t="shared" ref="B66:B97" si="5">IF(C66=D66,"O","X")</f>
@@ -37088,7 +39641,7 @@
     <row r="67" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99685764889271189</v>
+        <v>0.9537681050883462</v>
       </c>
       <c r="B67" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37110,7 +39663,7 @@
     <row r="68" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91703747267891023</v>
+        <v>0.2058552789933038</v>
       </c>
       <c r="B68" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37132,7 +39685,7 @@
     <row r="69" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1275580043786253</v>
+        <v>0.98189693878468398</v>
       </c>
       <c r="B69" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37154,7 +39707,7 @@
     <row r="70" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39786535983296922</v>
+        <v>0.3063893520411225</v>
       </c>
       <c r="B70" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37176,7 +39729,7 @@
     <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7986533384933323E-2</v>
+        <v>0.70865601290030344</v>
       </c>
       <c r="B71" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37198,7 +39751,7 @@
     <row r="72" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93152223655976663</v>
+        <v>0.60960507567890854</v>
       </c>
       <c r="B72" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37220,7 +39773,7 @@
     <row r="73" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17741056151702173</v>
+        <v>0.7342833755349073</v>
       </c>
       <c r="B73" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37242,7 +39795,7 @@
     <row r="74" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98854163620710744</v>
+        <v>0.3132196602286943</v>
       </c>
       <c r="B74" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37264,7 +39817,7 @@
     <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14741523657308675</v>
+        <v>0.38382001378701935</v>
       </c>
       <c r="B75" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37286,7 +39839,7 @@
     <row r="76" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95485501191713795</v>
+        <v>0.62400468991692315</v>
       </c>
       <c r="B76" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37308,7 +39861,7 @@
     <row r="77" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54685534002617953</v>
+        <v>0.65967292854193116</v>
       </c>
       <c r="B77" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37330,7 +39883,7 @@
     <row r="78" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5361451935950583</v>
+        <v>0.70975742874137959</v>
       </c>
       <c r="B78" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37352,7 +39905,7 @@
     <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39624983883420983</v>
+        <v>0.37471792497846512</v>
       </c>
       <c r="B79" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37374,7 +39927,7 @@
     <row r="80" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69602023625168374</v>
+        <v>0.71093506976328547</v>
       </c>
       <c r="B80" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37396,7 +39949,7 @@
     <row r="81" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39413821449706599</v>
+        <v>0.7889968351790787</v>
       </c>
       <c r="B81" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37418,7 +39971,7 @@
     <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15544630972317997</v>
+        <v>0.18988888646499991</v>
       </c>
       <c r="B82" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37440,7 +39993,7 @@
     <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89674963651504402</v>
+        <v>0.94053809501052454</v>
       </c>
       <c r="B83" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37462,7 +40015,7 @@
     <row r="84" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97462065296462186</v>
+        <v>8.5671149025465354E-2</v>
       </c>
       <c r="B84" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37484,7 +40037,7 @@
     <row r="85" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79412045363143091</v>
+        <v>9.2814075587119516E-2</v>
       </c>
       <c r="B85" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37506,7 +40059,7 @@
     <row r="86" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34769126879887546</v>
+        <v>4.7809763358782065E-2</v>
       </c>
       <c r="B86" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37528,7 +40081,7 @@
     <row r="87" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18608068386717325</v>
+        <v>0.27349075420973801</v>
       </c>
       <c r="B87" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37550,7 +40103,7 @@
     <row r="88" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94310085496138374</v>
+        <v>4.057056166774653E-3</v>
       </c>
       <c r="B88" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37572,7 +40125,7 @@
     <row r="89" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20919333782668859</v>
+        <v>0.58156344646481672</v>
       </c>
       <c r="B89" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37594,7 +40147,7 @@
     <row r="90" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97360569767845651</v>
+        <v>0.95634749039564937</v>
       </c>
       <c r="B90" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37616,7 +40169,7 @@
     <row r="91" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81969776668450589</v>
+        <v>6.2116408546988078E-2</v>
       </c>
       <c r="B91" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37638,7 +40191,7 @@
     <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16496093105602383</v>
+        <v>5.923331104710261E-2</v>
       </c>
       <c r="B92" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37660,7 +40213,7 @@
     <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98513850299879302</v>
+        <v>0.23227118835216853</v>
       </c>
       <c r="B93" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37682,7 +40235,7 @@
     <row r="94" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69844659747103754</v>
+        <v>0.48825571623158326</v>
       </c>
       <c r="B94" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37704,7 +40257,7 @@
     <row r="95" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85644608030111968</v>
+        <v>0.49246029691108684</v>
       </c>
       <c r="B95" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37726,7 +40279,7 @@
     <row r="96" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75252960839856253</v>
+        <v>3.7054041339845689E-2</v>
       </c>
       <c r="B96" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37748,7 +40301,7 @@
     <row r="97" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17040697878447708</v>
+        <v>0.7265949545306194</v>
       </c>
       <c r="B97" s="3" t="str">
         <f t="shared" si="5"/>
@@ -37785,7 +40338,7 @@
   </sheetPr>
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
@@ -37821,7 +40374,7 @@
     <row r="2" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A55" ca="1" si="0">RAND()</f>
-        <v>0.12077671592072436</v>
+        <v>0.36587909504352423</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B55" si="1">IF(C2=D2,"O","X")</f>
@@ -37831,7 +40384,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F2" s="1">
         <v>202108</v>
@@ -37843,7 +40396,7 @@
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45431763165922223</v>
+        <v>0.52800796229718661</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3" si="2">IF(C3=D3,"O","X")</f>
@@ -37853,7 +40406,7 @@
         <v>59</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F3" s="1">
         <v>202108</v>
@@ -37865,7 +40418,7 @@
     <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79054998150341915</v>
+        <v>0.19367422260509259</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -37875,7 +40428,7 @@
         <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F4" s="1">
         <v>202108</v>
@@ -37887,7 +40440,7 @@
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29499119139614083</v>
+        <v>0.78934519338363018</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -37897,7 +40450,7 @@
         <v>61</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F5" s="1">
         <v>202108</v>
@@ -37909,7 +40462,7 @@
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83883523305572838</v>
+        <v>3.0693260889049556E-2</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -37919,7 +40472,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F6" s="1">
         <v>202108</v>
@@ -37931,7 +40484,7 @@
     <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74579886742534729</v>
+        <v>7.4801015498752177E-3</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -37941,7 +40494,7 @@
         <v>62</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F7" s="1">
         <v>202108</v>
@@ -37953,7 +40506,7 @@
     <row r="8" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37926126945480809</v>
+        <v>7.0061512468472809E-2</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -37963,7 +40516,7 @@
         <v>63</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F8" s="1">
         <v>202108</v>
@@ -37975,7 +40528,7 @@
     <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40866525573555612</v>
+        <v>8.9621793431249319E-4</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -37985,7 +40538,7 @@
         <v>64</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F9" s="1">
         <v>202108</v>
@@ -37997,7 +40550,7 @@
     <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85356901476017644</v>
+        <v>0.36831734535474159</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38007,7 +40560,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="F10" s="1">
         <v>202108</v>
@@ -38019,7 +40572,7 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1649229488519286</v>
+        <v>0.50156974386535036</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38029,7 +40582,7 @@
         <v>65</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F11" s="1">
         <v>202108</v>
@@ -38048,7 +40601,7 @@
         <v>66</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F12" s="1">
         <v>202108</v>
@@ -38067,7 +40620,7 @@
         <v>67</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F13" s="1">
         <v>202108</v>
@@ -38079,7 +40632,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10553810671350561</v>
+        <v>0.98544593869594832</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38089,7 +40642,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F14" s="1">
         <v>202108</v>
@@ -38101,7 +40654,7 @@
     <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2517937980633236E-2</v>
+        <v>0.44942959570196517</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38111,7 +40664,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F15" s="1">
         <v>202108</v>
@@ -38123,7 +40676,7 @@
     <row r="16" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9767820050398941</v>
+        <v>0.76666818395465053</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38133,7 +40686,7 @@
         <v>68</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F16" s="1">
         <v>202108</v>
@@ -38145,7 +40698,7 @@
     <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1571747960971176</v>
+        <v>0.60752879339827037</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38155,7 +40708,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F17" s="1">
         <v>202108</v>
@@ -38167,7 +40720,7 @@
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.612497456747084</v>
+        <v>0.87045562253627129</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38177,7 +40730,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F18" s="1">
         <v>202108</v>
@@ -38193,7 +40746,7 @@
         <v>69</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F19" s="1">
         <v>202108</v>
@@ -38205,7 +40758,7 @@
     <row r="20" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25514085747574744</v>
+        <v>0.5851136584641734</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38215,7 +40768,7 @@
         <v>70</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F20" s="1">
         <v>202108</v>
@@ -38227,7 +40780,7 @@
     <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7084495344799393</v>
+        <v>4.4878363065416149E-2</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38237,7 +40790,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F21" s="1">
         <v>202105</v>
@@ -38249,7 +40802,7 @@
     <row r="22" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82784879978458425</v>
+        <v>0.37546041018840681</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38259,7 +40812,7 @@
         <v>8</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F22" s="1">
         <v>202105</v>
@@ -38271,7 +40824,7 @@
     <row r="23" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94887550852210867</v>
+        <v>0.32256937835834543</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38281,7 +40834,7 @@
         <v>71</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F23" s="1">
         <v>202105</v>
@@ -38293,7 +40846,7 @@
     <row r="24" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91276380918095601</v>
+        <v>0.69059692910917803</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38303,7 +40856,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F24" s="1">
         <v>202105</v>
@@ -38315,7 +40868,7 @@
     <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28255614391732109</v>
+        <v>0.45019462134826027</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38325,7 +40878,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F25" s="1">
         <v>202105</v>
@@ -38337,7 +40890,7 @@
     <row r="26" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99043805578795219</v>
+        <v>0.11893037041459509</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38347,7 +40900,7 @@
         <v>72</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F26" s="1">
         <v>202105</v>
@@ -38359,7 +40912,7 @@
     <row r="27" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20915837184101216</v>
+        <v>0.22885954401011355</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ref="B27:B28" si="3">IF(C27=D27,"O","X")</f>
@@ -38369,7 +40922,7 @@
         <v>74</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F27" s="1">
         <v>202105</v>
@@ -38381,7 +40934,7 @@
     <row r="28" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69376602675311105</v>
+        <v>0.81205792071276994</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="3"/>
@@ -38391,7 +40944,7 @@
         <v>75</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F28" s="1">
         <v>202105</v>
@@ -38403,7 +40956,7 @@
     <row r="29" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79267679151194159</v>
+        <v>0.49046333903650219</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38413,7 +40966,7 @@
         <v>73</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F29" s="1">
         <v>202105</v>
@@ -38425,7 +40978,7 @@
     <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65535238404719431</v>
+        <v>0.8163636512209389</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38435,7 +40988,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F30" s="1">
         <v>202105</v>
@@ -38447,7 +41000,7 @@
     <row r="31" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74446931986216747</v>
+        <v>0.35498473741810999</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38457,7 +41010,7 @@
         <v>76</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F31" s="1">
         <v>202105</v>
@@ -38469,7 +41022,7 @@
     <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0184968040002969E-2</v>
+        <v>0.28213704303960907</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38479,7 +41032,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F32" s="1">
         <v>202105</v>
@@ -38491,7 +41044,7 @@
     <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25073878617032896</v>
+        <v>0.93596714514614521</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38501,7 +41054,7 @@
         <v>77</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F33" s="1">
         <v>202105</v>
@@ -38513,7 +41066,7 @@
     <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2702015180984239E-2</v>
+        <v>0.50839104824098069</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" ref="B34" si="4">IF(C34=D34,"O","X")</f>
@@ -38523,7 +41076,7 @@
         <v>78</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F34" s="1">
         <v>202105</v>
@@ -38535,7 +41088,7 @@
     <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52540465262029723</v>
+        <v>0.14547287140313025</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38545,7 +41098,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F35" s="1">
         <v>202105</v>
@@ -38557,7 +41110,7 @@
     <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80165075669132158</v>
+        <v>0.18429979998877621</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38567,7 +41120,7 @@
         <v>79</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F36" s="1">
         <v>202103</v>
@@ -38579,7 +41132,7 @@
     <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78882256687623675</v>
+        <v>0.65391134151661756</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38589,7 +41142,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F37" s="1">
         <v>202103</v>
@@ -38601,7 +41154,7 @@
     <row r="38" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43266226426140653</v>
+        <v>0.50309595353431358</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38611,7 +41164,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F38" s="1">
         <v>202103</v>
@@ -38623,7 +41176,7 @@
     <row r="39" spans="1:7" ht="144" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10009117294843417</v>
+        <v>1.9952440334717103E-2</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38633,7 +41186,7 @@
         <v>80</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F39" s="1">
         <v>202103</v>
@@ -38645,7 +41198,7 @@
     <row r="40" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97528756373287817</v>
+        <v>0.47458725986668959</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38655,7 +41208,7 @@
         <v>81</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F40" s="1">
         <v>202103</v>
@@ -38667,7 +41220,7 @@
     <row r="41" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69103456451652512</v>
+        <v>0.44154136897894691</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" ref="B41:B42" si="5">IF(C41=D41,"O","X")</f>
@@ -38677,7 +41230,7 @@
         <v>82</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F41" s="1">
         <v>202103</v>
@@ -38689,7 +41242,7 @@
     <row r="42" spans="1:7" ht="201.6" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36662894520282585</v>
+        <v>0.7919844812612703</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="5"/>
@@ -38699,7 +41252,7 @@
         <v>83</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F42" s="1">
         <v>202103</v>
@@ -38711,7 +41264,7 @@
     <row r="43" spans="1:7" ht="144" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86902690971139185</v>
+        <v>0.68752635401223339</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38721,7 +41274,7 @@
         <v>84</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F43" s="1">
         <v>202103</v>
@@ -38733,7 +41286,7 @@
     <row r="44" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11730905945055703</v>
+        <v>0.91288578399778841</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38743,7 +41296,7 @@
         <v>85</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F44" s="1">
         <v>202103</v>
@@ -38755,7 +41308,7 @@
     <row r="45" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40843940642136445</v>
+        <v>0.7969593342632102</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38765,7 +41318,7 @@
         <v>5</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F45" s="1">
         <v>202009</v>
@@ -38777,7 +41330,7 @@
     <row r="46" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41386241505691801</v>
+        <v>0.41544552528461554</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38787,7 +41340,7 @@
         <v>4</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F46" s="1">
         <v>202009</v>
@@ -38799,7 +41352,7 @@
     <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63276964134076708</v>
+        <v>0.26352449319139848</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38809,7 +41362,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F47" s="1">
         <v>202009</v>
@@ -38821,7 +41374,7 @@
     <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63113902083746065</v>
+        <v>0.81048343642226217</v>
       </c>
       <c r="B48" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38831,7 +41384,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F48" s="1">
         <v>202009</v>
@@ -38843,7 +41396,7 @@
     <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94289484366950083</v>
+        <v>0.53338629508183877</v>
       </c>
       <c r="B49" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38853,7 +41406,7 @@
         <v>86</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="F49" s="1">
         <v>202009</v>
@@ -38865,7 +41418,7 @@
     <row r="50" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95375518579675855</v>
+        <v>0.62030407170387303</v>
       </c>
       <c r="B50" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38875,7 +41428,7 @@
         <v>87</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F50" s="1">
         <v>202009</v>
@@ -38887,7 +41440,7 @@
     <row r="51" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85722068303418086</v>
+        <v>0.84150394911778659</v>
       </c>
       <c r="B51" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38897,7 +41450,7 @@
         <v>88</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F51" s="1">
         <v>202009</v>
@@ -38909,7 +41462,7 @@
     <row r="52" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63530519670455055</v>
+        <v>0.58743046198017623</v>
       </c>
       <c r="B52" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38919,7 +41472,7 @@
         <v>89</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F52" s="1">
         <v>202009</v>
@@ -38931,7 +41484,7 @@
     <row r="53" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24193941158126231</v>
+        <v>0.71851714852448123</v>
       </c>
       <c r="B53" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38941,7 +41494,7 @@
         <v>90</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F53" s="1">
         <v>202009</v>
@@ -38953,7 +41506,7 @@
     <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53683933459366484</v>
+        <v>0.8440352840620714</v>
       </c>
       <c r="B54" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38963,7 +41516,7 @@
         <v>91</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F54" s="1">
         <v>202009</v>
@@ -38975,7 +41528,7 @@
     <row r="55" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92403557197587194</v>
+        <v>0.30350994168434908</v>
       </c>
       <c r="B55" s="3" t="str">
         <f t="shared" si="1"/>
@@ -38985,7 +41538,7 @@
         <v>8</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F55" s="1">
         <v>202009</v>
@@ -38997,7 +41550,7 @@
     <row r="56" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" ref="A56:A68" ca="1" si="6">RAND()</f>
-        <v>0.64832460782595569</v>
+        <v>0.41044078563684283</v>
       </c>
       <c r="B56" s="3" t="str">
         <f t="shared" ref="B56:B68" si="7">IF(C56=D56,"O","X")</f>
@@ -39007,7 +41560,7 @@
         <v>92</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F56" s="1">
         <v>202008</v>
@@ -39019,7 +41572,7 @@
     <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.4803687946660179</v>
+        <v>0.16092119257974713</v>
       </c>
       <c r="B57" s="3" t="str">
         <f t="shared" si="7"/>
@@ -39029,7 +41582,7 @@
         <v>93</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F57" s="1">
         <v>202008</v>
@@ -39041,7 +41594,7 @@
     <row r="58" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.36953896225301086</v>
+        <v>1.9550436118818904E-2</v>
       </c>
       <c r="B58" s="3" t="str">
         <f t="shared" si="7"/>
@@ -39051,7 +41604,7 @@
         <v>94</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F58" s="1">
         <v>202008</v>
@@ -39063,7 +41616,7 @@
     <row r="59" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.6818798643810392</v>
+        <v>0.79242899054822147</v>
       </c>
       <c r="B59" s="3" t="str">
         <f t="shared" si="7"/>
@@ -39073,7 +41626,7 @@
         <v>95</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F59" s="1">
         <v>202008</v>
@@ -39085,7 +41638,7 @@
     <row r="60" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.27037410636233217</v>
+        <v>5.6427430243486287E-2</v>
       </c>
       <c r="B60" s="3" t="str">
         <f t="shared" si="7"/>
@@ -39095,7 +41648,7 @@
         <v>96</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F60" s="1">
         <v>202008</v>
@@ -39107,7 +41660,7 @@
     <row r="61" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.17418207361750193</v>
+        <v>0.9956408736004474</v>
       </c>
       <c r="B61" s="3" t="str">
         <f t="shared" si="7"/>
@@ -39117,7 +41670,7 @@
         <v>77</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F61" s="1">
         <v>202006</v>
@@ -39129,17 +41682,17 @@
     <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.27911311488090385</v>
+        <v>0.54756305082136547</v>
       </c>
       <c r="B62" s="3" t="str">
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F62" s="1">
         <v>202006</v>
@@ -39151,7 +41704,7 @@
     <row r="63" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.82878145635177702</v>
+        <v>0.58909193631531676</v>
       </c>
       <c r="B63" s="3" t="str">
         <f t="shared" si="7"/>
@@ -39161,7 +41714,7 @@
         <v>2</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F63" s="1">
         <v>202006</v>
@@ -39173,7 +41726,7 @@
     <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.31019299513332832</v>
+        <v>0.21246572946069431</v>
       </c>
       <c r="B64" s="3" t="str">
         <f t="shared" si="7"/>
@@ -39183,7 +41736,7 @@
         <v>97</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F64" s="1">
         <v>202006</v>
@@ -39195,7 +41748,7 @@
     <row r="65" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.28763721282486887</v>
+        <v>0.95678244279565883</v>
       </c>
       <c r="B65" s="3" t="str">
         <f t="shared" si="7"/>
@@ -39205,7 +41758,7 @@
         <v>98</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F65" s="1">
         <v>202006</v>
@@ -39217,7 +41770,7 @@
     <row r="66" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.8590541541291874</v>
+        <v>0.17225785904255564</v>
       </c>
       <c r="B66" s="3" t="str">
         <f t="shared" si="7"/>
@@ -39227,7 +41780,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F66" s="1">
         <v>202006</v>
@@ -39239,7 +41792,7 @@
     <row r="67" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.8004564245669008</v>
+        <v>0.26733459345557775</v>
       </c>
       <c r="B67" s="3" t="str">
         <f t="shared" si="7"/>
@@ -39249,7 +41802,7 @@
         <v>99</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F67" s="1">
         <v>202006</v>
@@ -39261,7 +41814,7 @@
     <row r="68" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.39566791240009702</v>
+        <v>0.64026272327363121</v>
       </c>
       <c r="B68" s="3" t="str">
         <f t="shared" si="7"/>
@@ -39271,7 +41824,7 @@
         <v>100</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F68" s="1">
         <v>202006</v>
@@ -39294,8 +41847,8 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
@@ -39330,7 +41883,7 @@
     <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A38" ca="1" si="0">RAND()</f>
-        <v>0.69267033361992403</v>
+        <v>0.80265918940399805</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B38" si="1">IF(C2=D2,"O","X")</f>
@@ -39340,7 +41893,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>197</v>
+        <v>367</v>
       </c>
       <c r="F2" s="1">
         <v>202108</v>
@@ -39352,17 +41905,17 @@
     <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56480524400338095</v>
+        <v>0.73009277916044391</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>198</v>
+        <v>368</v>
       </c>
       <c r="F3" s="1">
         <v>202108</v>
@@ -39374,7 +41927,7 @@
     <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43796271673790843</v>
+        <v>0.38688546533844792</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -39384,7 +41937,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="F4" s="1">
         <v>202108</v>
@@ -39396,17 +41949,17 @@
     <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17816723557356684</v>
+        <v>0.29917882411043872</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>202</v>
+        <v>370</v>
       </c>
       <c r="F5" s="1">
         <v>202108</v>
@@ -39418,17 +41971,17 @@
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78836406467932019</v>
+        <v>0.45278060650761731</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>204</v>
+        <v>371</v>
       </c>
       <c r="F6" s="1">
         <v>202108</v>
@@ -39440,17 +41993,17 @@
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90475004411492965</v>
+        <v>0.44588837807715309</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>205</v>
+        <v>372</v>
       </c>
       <c r="F7" s="1">
         <v>202108</v>
@@ -39462,17 +42015,17 @@
     <row r="8" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5594916804731811</v>
+        <v>0.99483500917339474</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>208</v>
+        <v>373</v>
       </c>
       <c r="F8" s="1">
         <v>202108</v>
@@ -39484,7 +42037,7 @@
     <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50519704386521169</v>
+        <v>0.38289110921193148</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -39494,7 +42047,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>209</v>
+        <v>374</v>
       </c>
       <c r="F9" s="1">
         <v>202108</v>
@@ -39506,17 +42059,17 @@
     <row r="10" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79576587755217676</v>
+        <v>0.5017480952457225</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>210</v>
+        <v>375</v>
       </c>
       <c r="F10" s="1">
         <v>202105</v>
@@ -39528,7 +42081,7 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47069813071754862</v>
+        <v>0.55588233849162916</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -39538,7 +42091,7 @@
         <v>77</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>212</v>
+        <v>376</v>
       </c>
       <c r="F11" s="1">
         <v>202105</v>
@@ -39550,7 +42103,7 @@
     <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90049178931201623</v>
+        <v>0.10906616135805125</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -39560,7 +42113,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F12" s="1">
         <v>202105</v>
@@ -39572,17 +42125,17 @@
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75912732158136964</v>
+        <v>0.47142313268262792</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F13" s="1">
         <v>202105</v>
@@ -39594,7 +42147,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60495029593831406</v>
+        <v>0.44749523084760712</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -39604,7 +42157,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F14" s="1">
         <v>202105</v>
@@ -39616,17 +42169,17 @@
     <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64840852272358318</v>
+        <v>0.58336972864245329</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F15" s="1">
         <v>202105</v>
@@ -39638,17 +42191,17 @@
     <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72869111850005852</v>
+        <v>0.8259492917711978</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F16" s="1">
         <v>202105</v>
@@ -39660,17 +42213,17 @@
     <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6467759440900267</v>
+        <v>0.21518092976685776</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F17" s="1">
         <v>202105</v>
@@ -39682,17 +42235,17 @@
     <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71427366193823472</v>
+        <v>0.90456711299087056</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F18" s="1">
         <v>202105</v>
@@ -39704,17 +42257,17 @@
     <row r="19" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89699140987625403</v>
+        <v>0.28329066714031081</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F19" s="1">
         <v>202105</v>
@@ -39726,17 +42279,17 @@
     <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70844895314204093</v>
+        <v>0.3583214095357854</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F20" s="1">
         <v>202103</v>
@@ -39748,7 +42301,7 @@
     <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2849897760840157E-2</v>
+        <v>0.35329730388049052</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -39758,7 +42311,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F21" s="1">
         <v>202103</v>
@@ -39770,7 +42323,7 @@
     <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4857598106627784</v>
+        <v>0.82632293401213608</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -39780,7 +42333,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F22" s="1">
         <v>202103</v>
@@ -39792,17 +42345,17 @@
     <row r="23" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45188803622039475</v>
+        <v>0.64513873671823019</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F23" s="1">
         <v>202103</v>
@@ -39814,17 +42367,17 @@
     <row r="24" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79561329508014267</v>
+        <v>0.84632953301048952</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F24" s="1">
         <v>202103</v>
@@ -39836,17 +42389,17 @@
     <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5322989310630053</v>
+        <v>0.37939355977917988</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F25" s="1">
         <v>202103</v>
@@ -39858,17 +42411,17 @@
     <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60992211225065884</v>
+        <v>0.17971435425283011</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F26" s="1">
         <v>202103</v>
@@ -39880,17 +42433,17 @@
     <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.118036618489888</v>
+        <v>3.1474689630345387E-2</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F27" s="1">
         <v>202009</v>
@@ -39902,17 +42455,17 @@
     <row r="28" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36295078124842983</v>
+        <v>1.1086948118071982E-2</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F28" s="1">
         <v>202009</v>
@@ -39924,7 +42477,7 @@
     <row r="29" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44056593614511363</v>
+        <v>0.66141425750849059</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -39934,7 +42487,7 @@
         <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F29" s="1">
         <v>202009</v>
@@ -39946,7 +42499,7 @@
     <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83576945676363856</v>
+        <v>0.1049249954427196</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -39956,7 +42509,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="F30" s="1">
         <v>202009</v>
@@ -39968,17 +42521,17 @@
     <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65140058635171227</v>
+        <v>0.94222397354124954</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F31" s="1">
         <v>202008</v>
@@ -39990,17 +42543,17 @@
     <row r="32" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16432635598654932</v>
+        <v>0.63614074801560516</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F32" s="1">
         <v>202008</v>
@@ -40012,7 +42565,7 @@
     <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79858615669380539</v>
+        <v>0.21374068405349544</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -40022,7 +42575,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F33" s="1">
         <v>202008</v>
@@ -40034,17 +42587,17 @@
     <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81248928917949792</v>
+        <v>6.3193655065680643E-2</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="F34" s="1">
         <v>202008</v>
@@ -40056,17 +42609,17 @@
     <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5038373744902791</v>
+        <v>0.47191667179880181</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F35" s="1">
         <v>202008</v>
@@ -40078,17 +42631,17 @@
     <row r="36" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1983490380005386</v>
+        <v>6.9341638261915084E-2</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F36" s="1">
         <v>202006</v>
@@ -40100,17 +42653,17 @@
     <row r="37" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57064014632871707</v>
+        <v>0.18298194561896264</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F37" s="1">
         <v>202006</v>
@@ -40122,7 +42675,7 @@
     <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25362185195102593</v>
+        <v>0.62041527307382904</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="1"/>
@@ -40132,13 +42685,1817 @@
         <v>4</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F38" s="1">
         <v>202006</v>
       </c>
       <c r="G38" s="1">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4032CB-523E-4127-9F30-29EDAB55A26F}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:G81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="127.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.59765625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <f t="shared" ref="A2:A58" ca="1" si="0">RAND()</f>
+        <v>0.62493708266479198</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:B58" si="1">IF(C2=D2,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F2" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G2" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16928607606431956</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G3" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="158.4" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95764449013140052</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F4" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G4" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70338370896340141</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F5" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G5" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4544452190930125</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F6" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G6" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51012803197628875</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C7" s="2">
+        <v>196</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G7" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32855076218190249</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F8" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G8" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="158.4" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8177686766791139</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F9" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G9" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37010084786407038</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F10" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G10" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9159114137107589</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F11" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G11" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90667443389219471</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F12" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G12" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8027820987429054</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F13" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G13" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42769785076406119</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F14" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G14" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93922389339966539</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F15" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G15" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23630490196802267</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F16" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G16" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78661631289562484</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F17" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G17" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96370820733434748</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F18" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G18" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81912705012126552</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F19" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G19" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="187.2" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1078200376759344</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F20" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G20" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11490279816012572</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F21" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G21" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64311705521557694</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C22" s="2">
+        <v>224</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F22" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G22" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31560127935039528</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F23" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G23" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17509728458183149</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F24" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G24" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3581635587499261E-2</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F25" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G25" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74531632963642491</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F26" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G26" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A27" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4539476980394408E-2</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F27" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G27" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A28" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11693885098502299</v>
+      </c>
+      <c r="B28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F28" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G28" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A29" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2358941880471308</v>
+      </c>
+      <c r="B29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F29" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G29" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A30" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79959425194944866</v>
+      </c>
+      <c r="B30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F30" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G30" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A31" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95493074117271548</v>
+      </c>
+      <c r="B31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F31" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G31" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
+      <c r="A32" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36942241589942171</v>
+      </c>
+      <c r="B32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F32" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G32" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
+      <c r="A33" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4054021242426824</v>
+      </c>
+      <c r="B33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F33" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G33" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A34" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18631802712280143</v>
+      </c>
+      <c r="B34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F34" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G34" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
+      <c r="A35" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14512409328584452</v>
+      </c>
+      <c r="B35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F35" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G35" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A36" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93312979160295884</v>
+      </c>
+      <c r="B36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F36" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G36" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A37" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19343441561779462</v>
+      </c>
+      <c r="B37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F37" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G37" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A38" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95593670960052035</v>
+      </c>
+      <c r="B38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F38" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G38" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A39" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81818355837303069</v>
+      </c>
+      <c r="B39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F39" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G39" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A40" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36781233546055703</v>
+      </c>
+      <c r="B40" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F40" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G40" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A41" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80686325094600164</v>
+      </c>
+      <c r="B41" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F41" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G41" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A42" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18412101035568784</v>
+      </c>
+      <c r="B42" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F42" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G42" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A43" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49054201954518317</v>
+      </c>
+      <c r="B43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F43" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G43" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A44" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79431725060771807</v>
+      </c>
+      <c r="B44" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F44" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G44" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A45" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.840905961948064</v>
+      </c>
+      <c r="B45" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F45" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G45" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A46" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36130181965825503</v>
+      </c>
+      <c r="B46" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F46" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G46" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="172.8" x14ac:dyDescent="0.4">
+      <c r="A47" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4940211899026935</v>
+      </c>
+      <c r="B47" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F47" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G47" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A48" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.55438239906512421</v>
+      </c>
+      <c r="B48" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F48" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G48" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A49" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73557735442423877</v>
+      </c>
+      <c r="B49" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F49" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G49" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A50" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80160967381121317</v>
+      </c>
+      <c r="B50" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F50" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G50" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A51" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30468784339654864</v>
+      </c>
+      <c r="B51" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C51" s="2">
+        <v>6</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F51" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G51" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A52" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38336970218935862</v>
+      </c>
+      <c r="B52" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C52" s="2">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F52" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G52" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A53" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51703784524546192</v>
+      </c>
+      <c r="B53" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F53" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G53" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A54" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87282056044657053</v>
+      </c>
+      <c r="B54" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C54" s="2">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F54" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G54" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A55" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87457866855527411</v>
+      </c>
+      <c r="B55" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C55" s="2">
+        <v>398</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F55" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G55" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A56" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.1594401161154333E-2</v>
+      </c>
+      <c r="B56" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F56" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G56" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A57" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67593918811622822</v>
+      </c>
+      <c r="B57" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F57" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G57" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A58" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51800087570182263</v>
+      </c>
+      <c r="B58" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F58" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G58" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A59" s="3">
+        <f t="shared" ref="A59:A81" ca="1" si="2">RAND()</f>
+        <v>0.92408442807937963</v>
+      </c>
+      <c r="B59" s="3" t="str">
+        <f t="shared" ref="B59:B81" si="3">IF(C59=D59,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F59" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G59" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A60" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.85761825884518661</v>
+      </c>
+      <c r="B60" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C60" s="2">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F60" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G60" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A61" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.22990248876994868</v>
+      </c>
+      <c r="B61" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F61" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G61" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A62" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.13347073937595955</v>
+      </c>
+      <c r="B62" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F62" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G62" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A63" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.82293786358243792</v>
+      </c>
+      <c r="B63" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F63" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G63" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A64" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.6923694885972598E-2</v>
+      </c>
+      <c r="B64" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F64" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G64" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A65" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2272167127664485</v>
+      </c>
+      <c r="B65" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F65" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G65" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A66" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.26464212464643366</v>
+      </c>
+      <c r="B66" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F66" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G66" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A67" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.9589085256284284E-2</v>
+      </c>
+      <c r="B67" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F67" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G67" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A68" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35160037971265912</v>
+      </c>
+      <c r="B68" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F68" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G68" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A69" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.10178588783883014</v>
+      </c>
+      <c r="B69" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C69" s="2">
+        <v>3</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F69" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G69" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A70" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.84094078062292688</v>
+      </c>
+      <c r="B70" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C70" s="2">
+        <v>3</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F70" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G70" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A71" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.55200060207649337</v>
+      </c>
+      <c r="B71" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F71" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G71" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A72" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.13496427205044381</v>
+      </c>
+      <c r="B72" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F72" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G72" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A73" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.54371256165735338</v>
+      </c>
+      <c r="B73" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F73" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G73" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A74" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.6352555177012672</v>
+      </c>
+      <c r="B74" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F74" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G74" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A75" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.12391220391900348</v>
+      </c>
+      <c r="B75" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C75" s="2">
+        <v>3</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="F75" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G75" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A76" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.87040131935418086</v>
+      </c>
+      <c r="B76" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F76" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G76" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A77" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.98516104273352956</v>
+      </c>
+      <c r="B77" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F77" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G77" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A78" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.75560233536613886</v>
+      </c>
+      <c r="B78" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C78" s="2">
+        <v>2</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F78" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G78" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A79" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.69205590087230351</v>
+      </c>
+      <c r="B79" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C79" s="2">
+        <v>2</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F79" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G79" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A80" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.88790099277994905</v>
+      </c>
+      <c r="B80" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C80" s="2">
+        <v>14</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F80" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G80" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A81" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.90653000096781888</v>
+      </c>
+      <c r="B81" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="C81" s="2">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F81" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G81" s="1">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/정보처리기사/필기.xlsx
+++ b/정보처리기사/필기.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\유미\자격증\정처기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83AB9DB-C915-4B80-A39D-16D7C30CD6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2A47CC-1A2C-4837-AA36-D35E0A713F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
   </bookViews>
   <sheets>
     <sheet name="1과목" sheetId="1" r:id="rId1"/>
     <sheet name="2과목" sheetId="2" r:id="rId2"/>
     <sheet name="3과목" sheetId="3" r:id="rId3"/>
     <sheet name="4과목" sheetId="5" r:id="rId4"/>
+    <sheet name="5과목" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1과목'!$B$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2과목'!$B$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3과목'!$B$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4과목'!$B$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'5과목'!$B$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="590">
   <si>
     <t>문제</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -48316,6 +48318,833 @@
       <t xml:space="preserve">적 응집도
 </t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;침입 탐지 시스템(IDS: Intrusion Detection System)&gt;
+- 외부부 인터넷에 서비스를 제공하는 서버가 위치하는 네트워크인 DMZ(Demilitarized Zone)에는 IDS가 설치될 수 있음.
+- ㅇㅇ 탐지 기법(Misuse Detection): Signature Base나 Knowledge Base라 불리며 이미 발견되고 정립된 공격 패턴을 입력해두었다가 탐지 및 차단함.
+- ㅇㅇ 탐지 기법(Anomaly Detection): Behavior, Statistical Detection로 불리며 평균적인 시스템의 상태를 기준으로 비정상적인 행위나 자원 사용이 감지되면 이를 알려줌.
+- HIDS(Host-Based Intrusion Detection)는 운영 체제에 설정된 사용자 계정에 따라 어떤 ㅇㅇㅇ가 어떤 접근을 시도하고 어떤 작업을 했는지에 대한 기록을 남기고 추적함.
+- NIDS(Network-Based Intrusion Detection System)로는 대표적으로 Snort가 있음.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오용, 이상, 사용자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;접근 통제 기술&gt;
+- 임의 접근 통제(Discretionary Access Control); 데이터에 접근하는 사용자의 ㅇㅇ에 따라 접근 권한을 부여하는 방식
+- 강제 접근 통제(Mandatory Access Control); 주체와 객체의 ㅇㅇ을 비교하여 접근 권한을 부여하는 방식
+- 역할 기반 접근 통제(Role Based Access Control); 사용자의 ㅇㅇ에 따라 접근 권한을 부여하는 방식
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신원, 등급, 역할</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">구글의 구글 브레인 팀이 제작하여 공개한 기계 학습(Machine Leaming)을 위한 오픈 소스 소프트웨어 라이브러리는?
+1)타조(Tajo)    2)원 세그(One Seg)    3)포스퀘어(Foursquare)    4)텐서플로(TensorFlow)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">국내 IT 서비스 경쟁력 강화를 목표로 개발되었으며 인프라 제어 및 관리 환경, 실행 환경, 개발 환경, 서비스 환경, 운영 환경으로 구성되어 있는 개방형 클라우드 컴퓨팅 플랫폼은?
+1)N20S    2)PaaS-TA    3)KAWS    4)Metaverse
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;정보 보안을 위한 접근 제어&gt;
+- 적절한 권한을 가진 인가자만 특정 시스템이나 정보에 접근할 수 있도록 ㅇㅇ하는 것임.
+- 시스템 및 네트워크에 대한 접근 제어의 가장 기본적인 수단은 IP와 서비스 ㅇㅇ로 볼 수 있음.
+- ㅇㅇㅇㅇ 장비에서 수행하는 IP에 대한 접근 제어로는 관리 인터페이스의 접근제어와 ACL(Access Control List)등이 있음.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통제, 포트, 네트워크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">물리적 배치와 상관 없이 논리적으로 LAN을 구성하여 Broadcast Domain을 구분할 수 있게 해주는 기술로 접속된 장비들의 성능 향상 및 보안성 증대 효과가 있는 것은?
+1)VLAN    2)STP    3)L2AN    4)ARP
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;SQL Injection 공격&gt;
+- 임의로 작성한 SQL 구문을 애플리케이션에 ㅇㅇ하는 공격 방식
+- 취약점이 발생하는 곳은 주로 웹 애플리케이션과 데이터페이스가 ㅇㅇ되는 부분임.
+- ㅇㅇㅇㅇ의 종류에 따라 공격 기법이 다름.
+- 로그인과 같이 웹에서 사용자의 ㅇㅇ 값을 받아 데이터베이스 SQL문으로 데이터를 요청하는 경우 SQL Injection을 수행할 수 있음.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삽입, 연동, DBMS, 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비대칭 암호화 방식으로 소수를 활용한 암호화 알고리즘은?
+1)DES    2)AES    3)SMT    4)RSA
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;스토리지&gt;
+- SDS(Software Defined Storage); 컴퓨팅 소프트웨어로 규정하는 데이터 스토리지 체계이며, 일정 조직 내 ㅇㅇ 스토리지를 하나처럼 관리하고 운용함.
+- DAS(Direct Attached Storage); 서버와 저장 장치를 전용 ㅇㅇㅇ로 직접 연결하는 방식으로, 일반 가정에서 컴퓨터에 외장 하드를 연결하는 것
+- NAS(Network Attached Storage); 서버와 저장 장치를 ㅇㅇㅇㅇ를 통해 연결하는 방식
+- SAN(Storage Area Network); DAS의 빠른 처리와 NAS의 파일 공유 장점을 혼합한 방식으로, 서버와 저장 장치를 연결하는 전용 ㅇㅇㅇㅇ를 별도 구성
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러, 케이블, 네트워크, 네트워크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5, 30, 30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;COCOMO의 소프트웨어 개발 유형&gt;                      정답 기입 예시) 1, 11, 11
+- 조직형(Organic Mode); 기관 내부에서 개발된 중/소 규모의 소프트웨어로 일괄 자료 처리 등 ㅇ만 라인 이하의 소프트웨어를 개발하는 유형
+- 반분리형(Semi-Detached Mode); 조직형과 내장형의 중간형으로, 트랜잭션 처리 시스템이나 운영체제, 데이터베이스 관리 시스템 등의 ㅇㅇ만 라인 이하의 소프트웨어 개발 
+- 내장형(Embedded Mode); 최대형 규모의 트랜잭션 처리 시스템이나 운영체제 등의 ㅇㅇ만 라인 이상의 소프트웨어 개발하는 유형
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">개인과 기업, 국가적으로 큰 위협이 되고 있는 주요 사이버 범죄 중 하나로 Snake, Darkside 등 시스템을 잠그거나 데이터를 암호화해 사용할 수 없도록 하고 이를 인질로 금전을 요구하는 데 사용되는 악성 프로그램
+1)Format String    2)Ransomware    3)Buffer Overflow    4)Adware
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전, 예측, 완벽, 소통</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Spiral Model&gt;
+- 비교적 ㅇㅇㅇ 시스템에 적합함.
+- 개발 순서는 계획 및 정의, ㅇㅇ 분석, 공학적 개발, 고객 평가 순으로 진행됨.
+- 소프트웨어를 개발하면서 발생할 수 있는 위험을 관리하고 ㅇㅇ화하는 것을 목적으로 함.
+- 계획 수립, 위험 분석, 개발 및 검증, 고객 평가 과정을 ㅇㅇ하며 수행
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대규모, 위험, 최소, 반복</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">특정 사이트에 매우 많은 ICMP Echo를 보내면, 이에 대한 응답을 하기 위해 시스템 자원을 모두 사용해버려 시스템이 정상적으로 동작하지 못하도록 하는 공격 방법은?
+1)Role-Based Access Control    2)Ping Flood    3)Brute-force    4)Trojan Horses
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇㅇㅇ; TCP/IP 기반 네트워크에서 동작하는 발행/구독 기반의 메시징 프로토콜로 최근 IoT 환경에서 자주 사용되고 있는 프로토콜
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MQTT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇㅇ; 시스템이 몇 대가 되어도 하나의 시스템에서 인증에 성공하면 다른 시스템에 대한 접근 권한도 얻는 시스템
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇㅇㅇ; 시스템에 저장되는 패스워드들은 Hash 또는 암호화 알고리즘의 결과 값으로 저장됨. 이때 암호공격을 막기 위해 똑같은 패스워드들이 다른 암호 값으로 저장되도록 추가하는 값을 의미함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;비용 산정 방법&gt;
+- LOC 기법; S/W 각 기능의 원시 코드 라인 수의 비관치, 낙관치, 기대치를 측정하여 ㅇㅇ치를 구하고 이를 이용하여 비용을 산정
+- Effort Per Task 기법; 각 기능을 구현시키는 데 필요한 노력을 ㅇㅇ 주기의 각 단계별로 산정
+- 전문가 감정 기법; 두 명 이상의 ㅇㅇㅇ에게 비용 산정을 의뢰하는 기법으로 주관적이나 가장 편리하고 신속함.
+- 델파이 기법; 전문가 기법의 주관적인 편견을 보완하기 위해 많은 전문가의 의견을 ㅇㅇ하여 선정하는 기법
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측, 생명, 전문가, 종합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇㅇㅇㅇ; 오픈소스 웹 애플리케이션 보안 프로젝트로서 주로 웹을 통한 정보 유출, 악성 파일 및 스크립트, 보안 취약점 등을 연구하는 곳
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OWASP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다음 내용이 설명하는 것은?
+- 네트워크상에 광채널 스위치의 이점인 고속 전송과 장거리 연결 및 멀티 프로토콜 기능을 활용
+- 각기 다른 운영체제를 가진 여러 기종들이 네트워크상에서 동일 저장 장치의 데이터를 공유하게 함으로써, 여러 개의 저장 장치나 백업 장비를 단일화시킨 시스템
+1)SAN    2)MBR    3)NAC    4)NIC
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;SSH(Secure Shell)&gt;
+- 기본 네트워크 포트는 ㅇㅇ번을 사용함.
+- 전송되는 데이터는 ㅇㅇ화됨.
+- 키를 통한 인증은 클라이언트의 공개키를 ㅇㅇ에 등록해야 함.
+- 서로 연결되어 있는 컴퓨터 간 ㅇㅇ 명령 실행이나 셀 서비스 등을 수행함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22, 암호, 서버, 원격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다음 내용이 설명하는 접근 제어 모델은?
+- 군대의 보안 레벨처럼 정보의 기밀성에 따라 상하 관계가 구분된 정보를 보호하기 위해 사용
+- 자신의 권한 보다 낮은 보안 레벨 권한을 가진 경우에는 높은 보안 레벨의 문서를 읽을 수 없고 자신의 권한보다 낮은 수준의 문서만 읽을 수 있음.
+- 자신의 권한보다 높은 보안 레벨의 문서에는 쓰기가 가능하지만 보안 레벨이 낮은 문서의 쓰기 권한은 제한함.
+1)Clark-Wilson Integrity Model
+2)PDCA Model
+3)Bell-Lapadula Model
+4)Chinese Wall Model
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇㅇㅇㅇ; 하둡(Hadoop)과 관계형 데이터베이스 간에 데이터를 전송할 수 있도록 설계된 도구
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sqoop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;라우팅 프로토콜인 OSPF(Open Shortest Path First)&gt;
+- ㅇㅇㅇㅇ 변화에 신속하게 대처할 수 있음.
+- ㅇㅇ캐스팅을 지원함.
+- ㅇ 수에 재한이 없으므로 대규모 네트워크에서 많이 사용함.
+- 최단 ㅇㅇ 탐색에 Dijkstra 알고리즘 사용
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크, 멀티, 홉, 경로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;소프트웨어 비용 추정 모형&gt;
+- COCOMO 모형; 개발할 소프트웨어의 ㅇㅇ(LOC)를 예측한 후 이를 소프트웨어 종류에 따라 다르게 책정되는 비용 산정 방정식에 대입함.
+- Putnam 모형; 소프트웨어 생명 주기의 전 과정 동안에 사용될 ㅇㅇ의 분포를 가정해 주는 모형으로 생명 주기 예측 모형이라고도 함.
+- 기능점수(Function-Point) 모형; 소프트웨어의 ㅇㅇ을 증대시키는 요인별로 가중치를 부여하고, 요인별 가중치를 합산하여 총 점수를 산출한 것과 영향도를 이용하여 기능 점수(FP)를 구한 후 이를 이용해서 비용을 산정
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>규모, 노력, 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;코드의 오류&gt;
+- ㅇㅇ 오류(Transcription Error); 입력시 임의의 한 자리를 잘못 기록(12345 -&gt; 12745)
+- ㅇㅇ 오류(Transpoision Error); 입력시 좌우 자리를 바꾸어 기록한 경우(12345 -&gt; 12435)
+- ㅇㅇ 오류(Double Transpoision Error); 전위 오류가 2개 이상 발생한 경우(12345 -&gt; 13254)
+- ㅇㅇ 오류(Omission Error); 입력시 한 자리를 빼놓고 기록한 경우(12345 -&gt; 1245)
+- ㅇㅇ 오류(Addition Error); 입력시 한 자리를 더 추가하여 기록(12345 -&gt; 123456)
+- ㅇㅇ 오류(Random Error); 오류가 두 가지 이상 결합하여 발생한 경우(12345 -&gt; 127435)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필사, 전위, 이중, 생략, 추가, 임의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ISO/IEC 12207&gt;
+- ㅇㅇ 생명 주기 프로세스; 획득, 공급, 개발, 운영, 유지보수 프로세스
+- ㅇㅇ 생명 주기 프로세스; 품질 보증, 검증 확인, 활동 검토, 감사, 문서화, 형상 관리, 문제 해결 프로세스
+- ㅇㅇ 생명 주기 프로세스; 관리, 기반 구조, 훈련, 개선 프로세스
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본, 지원, 조직</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소프트웨어 비용 산정 기법 중 개발 유형으로 Organic, Semi-Detached, Embedded로 구분되는 것은?
+1)PUTNAM    2)COCOMO    3)FP    4)SLIM
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅁ, ㅂ, ㅅ, ㄹ, ㄷ, ㄴ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SPICE 모델의 프로세스 수행 능력 단계를 수준 0부터 수준 5까지 순서대로 말하시오.         정답 기입 예시) ㄱ, ㄴ, ㄷ, ㄹ, ㅁ, ㅂ
+ㄱ)미완성 ㄴ)최적화 ㄷ)예측 ㄹ)확립 ㅁ)불완전 ㅂ)수행 ㅅ)관리
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;하드웨어 관련 신기술&gt;
+- Memristor; Memory와 Register의 합성어로 전원 공급이 끊어져도 다시 전원이 공급되면 기존의 상태가 그대로 ㅇㅇ됨.
+- MEMS; 초정밀 반도체 제조 기술을 바탕으로 센서, 액추에이터 등 기계 구조를 다양한 기술로 미세 가공하여 전기기계적 동작을 할 수 있도록 한 ㅇㅇㅇ 장치
+- N-Screen; PC, TV, 휴대폰에서 원하는 ㅇㅇㅇ를 끊임없이 자유롭게 이용할 수 있는 서비스
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복원, 초미세, 콘텐츠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;해쉬 기법&gt;
+- 임의의 길이의 입력 데이터를 받아 ㅇㅇ된 길이의 해쉬 값으로 변환함.
+- 대표적인 해쉬 알고리즘으로 HAVAL, SHA-1 등이 있음.
+- 해시 함수는 ㅇ방향 함수임.
+- 데이터의 암호화, 무결성 검증을 위해 사용될 뿐만 아니라 정보 ㅇㅇ의 다양한 분야에서 활용됨.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정, 일, 보호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;IPSec&gt;
+- 암호화와 복호화가 모두 가능한 ㅇ방향 암호 방식
+- ESP는 발신지 인증, 데이터 무결성, ㅇㅇ성 모두를 보장함.
+- ㅇㅇ 모드는 Tunnel 모드와 Transport 모드로 분류됨.
+- AH는 발신지 호스트를 인증하고, IP 패킷의 ㅇㅇ성을 보장함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양, 기밀, 운영, 무결</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">메모리상에서 프로그램의 복귀 주소와 변수 사이에 특정 값을 저장해 두었다가 그 값이 변경되었을 경우 오버플로우 상태로 가정하여 프로그램 실행을 중단하는 기술은?
+1)Stack Guard    2)Bridge    3)ASLR    4)FIN
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Secure OS의 보안 기능&gt;
+- 식별 및 ㅇㅇ
+- 임의적/강제적 ㅇㅇ 통제
+- ㅇㅇ 재사용 보호
+- 신뢰 ㅇㅇ
+- 감사 및 감사 기록 ㅇㅇ
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증, 접근, 객체, 경로, 축소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇㅇㅇ; 서버에 열린 포트 정보를 스캐닝해서 보안 취약점을 찾는데 사용하는 도구
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nmap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇㅇ; 서로 다른 네트워크 대역에 있는 호스트들 상호 간에 통신할 수 있도록 해주는 네트워크 장비
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;암호화 기법&gt;
+- ㅇㅇ키 암호화 기법은 동일한 키로 데이터를 암호화하고 복호화함.
+- ㅇㅇ키 암호화 기법은 암호화는 데이터베이스 사용자에게 공개하는 공개키, 복호화는 관리자가 비밀리에 관리하는 비밀키 사용함.
+- RSA, ECC는 ㅇㅇ키 기법임.
+- AES는 ㅇㅇ키 기법임.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인, 공개, 공개, 개인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">크래커가 침입하여 백도어를 만들어 놓거나, 설정 파일을 변경했을 때 분석하는 도구는?
+1)tripwire    2)tcpdump    3)cron    4)netcat
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다음 내용이 설명하는 것은?
+- 사물 통신, 사물 인터넷과 같이 대역폭이 제한된 통신 환경에 최적화하여 개발된 푸시기술 기반의 경량 메시지 전송 프로토콜
+- 메시지 매개자(Broker)를 통해 송신자가 틍정 메시지를 발행하고 수신자가 메시지를 구독하는 방식
+- IBM이 주도하는 개발
+1)GRID    2)TELNET    3)GPN    4)MQTT
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;나선형 모형의 수행 과정&gt;
+ㅇㅇ 및 정의 -&gt; ㅇㅇ 분석 -&gt; 공학적 ㅇㅇ -&gt; 고객 ㅇㅇ
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획, 위험, 개발, 평가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LOC 기법에 의하여 예측된 총 라인수가 36,000라인, 개발에 참여할 프로그래머가 6명, 프로그래머들의 평균 생산성이 월간 300라인일 때 개발에 소요되는 기간은?                         정답 기입 예시) 11
+-&gt; ㅇㅇ개월
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;개발 방법론&gt;
+- ㅇㅇ적 방법론; 정형화된 분석 절차에 따라 사용자 요구 사항을 파악하여 문서화하는 처리 중심의 방법론
+- ㅇㅇ 지향 방법론; 현실 세계의 개체를 기계의 부품처럼 하나의 객체로 만들어, 소프트웨어를 개발할 때 기계의 부품을 조립하듯이 객체들을 조립해서 필요한 소프트웨어를 구현
+- ㅇㅇ 공학 방법론; 정보 시스템의 개발을 위해 계획, 분석, 설계, 구축에 정형화된 기법들을 상호 연관성 있게 통합 및 적용하는 자료 중심의 방법론
+- ㅇㅇㅇㅇ 기반 방법론(CBD); 기존의 시스템이나 소프트웨어를 구성하는 컴포넌트를 조합하여 하나의 새로운 애플리케이션을 만드는 방법론
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조, 객체, 정보, 컴포넌트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ㅇㅇㅇㅇ&gt;                                             정답 기입 예시) Yumi
+- 블록체인(Blockchain) 개발 환경을 클라우드로 서비스하는 개념
+- 블록체인 네트워크에 노드의 추가 및 제거가 용이
+- 블록체인의 기본 인프라를 추상화하여 블록체인 응용 프로그램을 만들 수 있는 클라우드 컴퓨팅 플랫폼
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;통신망의 구성 형태&gt;
+- ㅇ형(중앙 집중형); 중앙에 중앙 컴퓨터가 있고, 이를 중심으로 단말 장치들이 연결되는 중앙 집중식의 네트워크 구성 형태
+- ㅇ형(루프형); 컴퓨터와 단말 장치들을 서로 이웃하는 것끼리 포인트 투 포인트(Point-to-Point) 방식으로 연결시킨 형태
+- ㅇㅇ형; 한 개의 통신 회선에 여러 대의 단말 장치가 연결되어 있는 형태
+- ㅇㅇ형(분산형); 중앙 컴퓨터와 일정 지역의 단말 장치까지는 하나의 통신 회선으로 연결시키고, 이웃하는 단말 장치는 일정 지역 내에 설치된 중간 단말 장치로 부터 다시 연결시키는 형태
+- ㅇ형(Mesh); 모든 지점의 컴퓨터와 단말 장치를 서로 연결한 형태로, 노드의 연결성이 높음.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성, 링, 버스, 계층, 망</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드, 사물, 아카이빙, 빅뱅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스마트 ㅇㅇㅇ;전기 및 정보 통신 기술을 활용하여 전력망을 지능화, 고도화함으로써 고품질의 전력 서비스를 제공하고 에너지 이용 효율을 극대화하는 전력망
+ㅇㅇ 인터넷; 정보 통신 기술을 기반으로 실세계와 가상 세계의 다양한 사물들을 인터넷으로 서로 연결하여 진보된 서비스를 제공하기 위한 서비스 기반 기술
+디지털 ㅇㅇㅇㅇ; 디지털 정보 자원을 장기적으로 보존하기 위한 작업. 아날로그는 디지털로 변환 후 압축해서 저장하고 디지털은 체계적으로 분류하고 메타 데이터를 만들어 DB화함.
+미디어 ㅇㅇ; 새로운 미디어의 등장 및 시장의 변화로 기존의 미디어 질서가 변화하는 것을 비유한 것.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;소프트웨어 생명 주기 모형&gt;
+- 폭포수 모형(Waterfall Model); 폭포에서 한 번 떨어진 물은 거슬러 올라갈 수 없듯이 소프트웨어 개발도 ㅇㅇ 단계로 돌아갈 수 없다는 전제하에 각 단계를 확실히 매듭짓고 그 결과를 철저하게 검토하여 승인 과정을 거친 후에 다음 단계를 진행하는 개발 방법론.
+- 프로토타입 모형(Prototype Model); 사용자의 요구 사항을 정확히 파악하기 위해 실제 개발될 소프트웨어에 대한 견본품을 만들어 최종 결과물을 ㅇㅇ하는 모형
+- 나선형 모형(Spiral Model); 폭포수 모형과 프로토타입 모형의 장점에 위험 분석 기능을 추가한 모형으로, 나선을 따라 돌듯이 여러 번의 소프트웨어 개발 과정을 거쳐 점진적으로 ㅇㅇ한 최종 소프트웨어를 개발함.
+- 애자일 모형(Agile Model); 고객의 요구사항 변화에 유연하게 대응할 수 있도록 일정한 주기를 반복하면서 개발 과정을 진행하는 모형으로, 어느 특정 개발 방법론이 아니라 좋은 것을 빠르고 낭비 없게 만들기 위해 고객과의 ㅇㅇ에 초점을 맞춘 방법론
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;소프트웨어 개발 모형&gt;
+- ㅇㅇㅇ 모형; Boehm이 제시한 고전적 생명주기 모형으로서 선형 순차적 모델이라고도 하며, 타당성 검토, 계획, 요구사항 분석, 설계, 구현, 테스트 유지보수의 단계를 통해 소프트웨어를 개발하는 모형
+- ㅇㅇㅇㅇㅇ 모형; 사용자의 요구 사항을 정확히 파악하기 위해 실제 개발될 소프트웨어에 대한 견본품을 만들어 최종 결과물을 예측하는 모형
+- ㅇㅇ형 모형; 폭포수 모형과 프로토타입 모형의 장점에 위험 분석 기능을 추가한 모형으로, 나선을 따라 돌듯이 여러 번의 소프트웨어 개발 과정을 거쳐 점진적으로 완벽한 최종 소프트웨어를 개발함.
+- ㅇㅇㅇ 모형; 고객의 요구사항 변화에 유연하게 대응할 수 있도록 일정한 주기를 반복하면서 개발 과정을 진행하는 모형으로, 어느 특정 개발 방법론이 아니라 좋은 것을 빠르고 낭비 없게 만들기 위해 고객과의 소통에 초점을 맞춘 방법론
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭포수, 프로토타입, 나선, 애자일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;스트림 암호화 방식&gt;
+- 비트/바이트/단어들을 ㅇㅇ적으로 암호화
+- ㅇㅇ4, LFSR가 대표적임.
+- 개인키 암호화 기법으로 단일키 암호화 기법 또는 ㅇㅇ 암호 기법이라고도 함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순차, RC, 대칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;세션 하이재킹 탐지 방법&gt;
+- ㅇㅇㅇ화 상태 탐지
+- ㅇㅇㅇ Storm 탐지
+- ㅇㅇ의 유실과 재전송 증가 탐지
+- 예상치 못한 접속의 ㅇㅇ 탐지
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비동기, ACK, 패킷, 리셋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;CMM(Capability Maturity Model)의 단계&gt;
+- ㅇㅇ 단계; 정의된 프로세스가 없으며 작업자 능력에 따라 성공 여부가 결정됨.
+- ㅇㅇ 단계; 규칙화된 프로세스로 특정한 프로세스 내의 프로세스 정의 및 수행
+- ㅇㅇ 단계; 표준화된 프로세스로 조직의 표준 프로세스를 활용하여 업무 수행
+- ㅇㅇ적 관리 단계; 예측 가능한 프로세스로 프로젝트를 정량적으로 관리 및 통제함.
+- ㅇㅇ화 단계; 지속적 개선 프로세스. 프로세스 역량 향상을 위해 지속적인 프로세스 개선
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기, 관리, 정의, 정량, 최적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">서비스 지향 아키텍처(SOA)의 계층
+-&gt; ㅇㅇ층, ㅇㅇㅇㅇ 프로세스층, ㅇㅇㅇ층, ㅇㅇ적 요소층, ㅇㅇ 시스템층
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표현, 비즈니스, 서비스, 전사, 운영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;스토리지 시스템의 종류&gt;
+- ㅇㅇㅇ; 서버와 저장 장치를 전용 케이블로 직접 연결하는 방식으로, 일반 가정 컴퓨터에 외장하드를 연결하는 것
+- ㅇㅇㅇ; 서버와 저장 장치를 네트워크를 통해 연결하는 방식
+- ㅇㅇㅇ; DAS의 빠른 처리와 NAS의 파일 공유 장점을 혼합한 방식으로, 서버와 저장 장치를 연결하는 전용 네트워크를 별도로 구성하는 방식
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAS, NAS, SAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;구조적 분석 도구&gt;
+- 자료 흐름도(ㅇㅇㅇ); 요구사항 분석에서 자료의 흐름 및 변환 과정과 기능을 도형 중심으로 서술하는 방법으로 자료 흐름 그래프, 버블 차트라고도 함.
+- 자료 사전(ㅇㅇ); 자료 흐름도에 있는 자료를 더 자세히 정의하고 기록한 것이며, 이처럼 데이터를 설명하는 데이터를 데이터의 데이터, 또는 메타 데이터라고 함.
+- 소단위 명세서(Mini-Spec.); 세분화된 자료 흐름도에서 최하위 단계 버블(프로세스)의 처리 절차를 기술한 것으로 ㅇㅇㅇㅇ 명세서라고도 함.
+- 개체 관계도(ㅇㅇㅇ); 시스템에서 처리되는 개체와 개체의 구성과 속성, 개체 간의 관계를 표현하여 자료를 모델화하는 데 사용됨.
+- 상태전이도(ㅇㅇㅇ); 시스템에 어떤 일이 발생할 경우 시스템의 상태와 상태 간의 전이를 모델화한 것으로, 상태 전이도를 통해 개발자는 시스템의 행위를 정의할 수 있음.
+- ㅇㅇㅇㅇ; 미국의 SoftTech사에서 만든 기법으로, 청사진이라고 하는 다이어그램을 사용하여 소프트웨어 시스템을 설계하고, 이 다이어그램을 계층 구조적으로 전개해 감으로써 시스템의 논리를 구체화해 가는 특징이 있음.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFD, DD, 프로세스, ERD, STD, SADT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC, MAC, RBAC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;접근 통제 기술&gt;                           정답 기입 예시) ABC, DEF, GHIJ
+- 임의 접근 통제(ㅇㅇㅇ); 데이터에 접근하는 사용자의 신원에 따라 접근 권한을 부여하며, 정책 변경이 어렵지만 안정적이고 집중적임.
+- 강제 접근 통제(ㅇㅇㅇ); 주체와 객체의 등급을 비교하여 접근 권한을 부여하는 방식으로, 정책 변경이 용이하고 유연함.
+- 역할 기반 접근 통제(ㅇㅇㅇㅇ); 사용자의 역할에 따라 접근 권한을 부여하는 방식이며 정책 변경이 용이하고 관리가 용이함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇㅇㅇ; 인터넷 사용자의 컴퓨터에 잠입해 내부 문서나 파일 등을 암호화해 사용자가 열지 못하게 하는 프로그램으로, 암호 해독용 프로그램의 전달을 조건으로 사용자에게 돈을 요규하기도 함.
+ㅇㅇ; 합법적으로 소유하고 있던 사용자의 도메인을 탈취하거나 DNS 이름을 속여 사용자들이 진짜 사이트로 오인하도록 유도하여 개인 정보를 훔치는 신종 인터넷 사기 수법
+ㅇㅇ; 낚시라는 뜻의 은어로, 허위 웹 사이트를 내세워 사용자의 개인 신용 정보를 빼내는 수법
+크로스사이트 스크립팅(ㅇㅇㅇ); 웹페이지에 악의적인 스크립트를 삽입하여 방문자들의 정보를 탈취하거나, 비정상적인 기능 수행을 유발하는 취약점
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜섬웨어, 파밍, 피싱, XSS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;소프트웨어 정의 데이터센터(SDDC:Software Defined Data Center)&gt;
+- 컴퓨팅, 네트워킹, 스토리지, 관리 등을 모두 ㅇㅇㅇㅇㅇ로 정의함.
+- 인력 개입 없이 소프트웨어 조작만으로 ㅇㅇ 제어 관리
+- 데이터 센터 내 모든 자원을 ㅇㅇ화하여 서비스
+- 특정 ㅇㅇㅇㅇ와 상관없이 독립적으로 서비스 제공
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어, 자동, 가상, 하드웨어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리, 제어, X, 시각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;NS(Nassi-Scheniderman) chart&gt;
+- ㅇㅇ의 기술에 중점을 둔 도형식 표현 방법
+- 연속, 선택 및 다중 선택, 반복 등의 ㅇㅇ 논리 구조로 표현
+- GOTO나 화살표를 사용 (O/X)
+- 조건이 복합되어 있는 곳의 처리를 ㅇㅇ적으로 명확히 식별하는데 적합함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다음 내용에 적합한 용어는?
+- 대용량 데이터를 분산 처리하기 위한 목적으로 개발된 프로그래밍 모델
+- Google에 의해 고안된 기술로써 대표적인 대용량 데이터 처리를 위한 병렬 처리 기법을 제공함.
+- 임의의 순서로 정렬된 데이터를 분산 처리하고 이를 다시 합치는 과정을 거침.
+1)MapReduce    2)SQL    3)Hijacking    4)Logs
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소프트웨어 프로세스에 대한 개선 및 능력 측정 기준에 대한 국제 표준은?
+1)ISO 14001    2)IEEE 802.5    3)IEEE 488    4)SPICE
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">물리적인 사물과 컴퓨터에 동일하게 표현되는 가상의 모델로, 실제 물리적인 자산 대신 소프트웨어로 가상화함으로써 실제 자산의 특성에 대한 정확한 정보를 얻을 수 있고, 자산 최적화, 돌발 사고 최소화, 생산성 증가 등 설계부터 제조, 서비스에 이르는 모든 과정의 효율성을 향상시킬 수 있는 모델은?
+-&gt; ㅇㅇㅇ ㅇㅇ
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 트윈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다음 빈 칸에 알맞은 기술은?
+- ( )은/는 웹에서 제공하는 정보 및 서비스를 이용하여 새로운 소프트웨어나 서비스, 데이터베이스 등을 만드는 기술
+1)Quantum Key Distribution    2)Digital Rights Management    3)Grayware    4)Mashup
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;기능 점수 모형의 비용 산정 요소&gt;
+- ㅇㅇ 입력(입력 양식)
+- ㅇㅇ 출력(출력 보고서)
+- ㅇㅇㅇ(사용자 질의수)
+- ㅇㅇㅇ 파일
+- 필요한 외부 루틴과의 ㅇㅇㅇㅇㅇ
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료, 정보, 명령어, 데이터, 인터페이스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇㅇㅇ; Putnam 모형을 기초로 해서 만든 자동화 추정 도구
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLIM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;주요 암호화 알고리즘&gt;
+- ㅇㅇㅇㅇ; 1999년 한국인터넷진흥원에서 개발한 블록 암호화 알고리즘
+- ㅇㅇㅇㅇ; 2004년 국가정보원과 산학연협회가 개발한 블록 암호화 알고리즘
+- ㅇㅇㅇ; 1975년 미국 NBS에서 발표한 개인키 암호화 알고리즘
+- ㅇㅇㅇ; 2001년 미국 표준 기술 연구소에서 발표한 개인키 암호화 알고리즘
+- ㅇㅇㅇ; 1978년 MIT의 라이베스트, 샤미르, 애들먼에 의해 제안된 공개키 암호화 알고리즘
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEED, ARIA, DES, AES, RSA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">빅데이터 분석 기술 중 대량의 데이터를 분석하여 데이터 속에 내재되어 있는 변수 사이의 상호 관례를 규명하여 일정한 패턴을 찾아내는 기법은?
+1)Data Mining    2)Wm-Bus    3)Digital Twin    4)Zigbee
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기존 무선 랜의 한계 극복을 위해 등장하였으며, 대규모 디바이스의 네트워크 생성에 최적화되어 차세대 이동 통신, 홈네트워킹, 공공 안전 등의 특수 목적을 위한 새로운 방식의 네트워크 기술을 의미하는 것은?
+1)Software Defined Perimeter         2)Virtual Private Network 
+3)Local Area Network                 4)Mesh Network
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;DDoS 공격의 종류&gt;
+- ㅇㅇㅇㅇ00: 가장 초기 형태의 데몬으로, 주로 UDP Flooding 공격을 수행함.
+- ㅇㅇㅇ(Tribe Flooding Network); UDP Flooding 뿐만 아니라 TCP SYN Flood 공격, ICMP 응답 요청, 스머핑 공격 등을 수행함.
+- Stacheldraht; 이전 툴들의 기능을 유지하면서, 공격자, 마스터, 에이전트가 쉽게 노출되지 않도록 ㅇㅇ화된 통신을 수행하며, 툴이 자동으로 업데이트되도록 설계됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trin, TFN, 암호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇ 경로; 최장 경로를 의미함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리, 소, 15, 최단</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;RIP(Routing Information Protocol)&gt;
+- ㅇㅇ 벡터 라우팅 프로토콜이라고도 함.
+- ㅇ규모 네트워크 환경에 적합함.
+- 최대 홉 카운트를 ㅇㅇ홉 이하로 한정함.
+- ㅇㅇ 경로 탐색에는 Bellman-Ford 알고리즘 사용
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;재사용 방법&gt;
+- ㅇㅇ 중심; 전자 칩과 같은 소프트웨어 부품, 즉 블록(모듈)을 만들어 끼워 맞추는 방법으로 소프트웨어를 완성시키는 방법. 블록 구성 방법이라고도 함.
+- ㅇㅇ 중심; 추상화 형태로 쓰여진 명세를 구체화하여 프로그램을 만드는 방법으로, 패턴 구성 방법이라고도 함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합성, 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">실무적으로 검증된 개발 보안 방법론 중 하나로, SW 보안의 모범 사례를 SDLC(Software Development Life Cycle)에 통합한 소프트웨어 개발 보안 생명주기 방법론은?
+1)CLASP    2)CWE    3)PIMS    4)Seven Touchpoints
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Rayleigh-Norden 곡선의 노력 분포도를 이용한 프로젝트 비용 산정 기법은? 
+1)Putnam 모형    2)델파이 모형    3)COCOMO 모형    4)기능 점수 모형
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">메모리상에서 프로그램의 복귀 주소와 변수 사이에 특정 값을 저장해 두었다가 그 값이 변경되었을 경우 오버플로우 상태로 가정하여 프로그램 실행을 중단하는 기술은?
+-&gt; ㅇㅇㅇㅇ
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스택가드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;백도어 탐지 방법&gt;
+- ㅇㅇㅇ 검사
+- ㅇㅇ 분석
+- SetUID ㅇㅇ 검사
+- ㅇㅇ 포트 검사
+- 바이러스 및 ㅇㅇㅇ 탐지 툴 이용
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무결성, 로그, 파일, 열린, 백도어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IP 또는 ICMP의 특성을 악용하여 특정 사이트에 집중적으로 데이터를 보내 네트워크 또는 시스템의 상태를 불능으로 만드는 공격 방법은?
+1)TearDrop    2)Smishing    3)Qshing    4)Smurfing
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CMM 모델의 레벨로 옳지 않은 것은?
+1)최적 단계    2)관리 단계    3)정의 단계    4)계획 단계
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">크래커가 침입하여 백도어를 만들어 놓거나, 설정 파일을 변경했을 때 분석하는 도구는?
+1)trace    2)tripwire    3)udpdump    4)cron
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">COCOMO model 중 기관 내부에서 개발된 중소 규모의 소프트웨어로 일괄 자료 처리나 과학 기술 계산용, 비즈니스 자료 처리용으로 5만 라인 이하의 소프트웨어를 개발하는 유형은?
+1)embeded    2)organic    3)semi-detached    4)semi-embeded
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">여러 개의 독립된 통신 장치가 UWB(Ultra Wideband) 기술 또는 블루투스 기술을 사용하여 통신망을 형성하는 무선 네트워크 기술은?
+1)PICONET    2)SCRUM    3)NFC    4)WI-SUN
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ㅇㅇ&gt;
+- 오픈 소스를 기반으로 한 분산 컴퓨팅 플랫폼
+- 일반 PC급 컴퓨터들로 가상화된 대형 스토리지 형성
+- 다양한 소스를 통해 생성된 빅데이터를 효율적으로 저장하고 처리함.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하둡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;테일러링 개발 방법론&gt;
+- 내부적 요건; ㅇㅇ 환경, 요구사항, 프로젝트 ㅇㅇ, 보유 ㅇㅇ
+- 외부적 요건; 법적 ㅇㅇ 사항, 표준 ㅇㅇ 기준
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표, 규모, 기술, 제약, 품질</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅇㅇ성; 시스템 내의 정보는 오직 인가된 사용자만 수정할 수 있는 보안 요소
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무결</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -48778,7 +49607,7 @@
     <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A33" ca="1" si="0">RAND()</f>
-        <v>0.11913024335152023</v>
+        <v>0.95981732844977707</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B33" si="1">IF(C2=D2,"O","X")</f>
@@ -48800,7 +49629,7 @@
     <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20505256755585377</v>
+        <v>0.87885494052157431</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -48822,7 +49651,7 @@
     <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.240641271561473E-2</v>
+        <v>0.65002435805561654</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -48844,7 +49673,7 @@
     <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4470076041359986</v>
+        <v>0.7120645923679938</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -48866,7 +49695,7 @@
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23611418276674667</v>
+        <v>6.5958712223464833E-2</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -48888,7 +49717,7 @@
     <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29800617574461197</v>
+        <v>0.48412582294612194</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -48910,7 +49739,7 @@
     <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61962371491474211</v>
+        <v>0.71566514758107891</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -48932,7 +49761,7 @@
     <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25982802819522333</v>
+        <v>0.45390298233528314</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -48954,7 +49783,7 @@
     <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3417200847618731E-2</v>
+        <v>0.21241787897155973</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -48976,7 +49805,7 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81528969380930538</v>
+        <v>0.65678933161449471</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -48998,7 +49827,7 @@
     <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27232500885985589</v>
+        <v>0.96795234845665512</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49020,7 +49849,7 @@
     <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9166863260503884E-2</v>
+        <v>9.4698749012331329E-2</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49042,7 +49871,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76645051212261517</v>
+        <v>0.84683148991753243</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49064,7 +49893,7 @@
     <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5447834428294569E-2</v>
+        <v>0.32715006946636571</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49086,7 +49915,7 @@
     <row r="16" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89611186035002954</v>
+        <v>0.22937310666549415</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49108,7 +49937,7 @@
     <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94888228649111384</v>
+        <v>0.76789109398225519</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49130,7 +49959,7 @@
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2271753366112208</v>
+        <v>4.6991825303330126E-2</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49152,7 +49981,7 @@
     <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68534007012225429</v>
+        <v>0.73655088743831199</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49174,7 +50003,7 @@
     <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7600943415786573</v>
+        <v>0.99889020577646892</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49196,7 +50025,7 @@
     <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18275674266882314</v>
+        <v>0.70110545161242221</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49218,7 +50047,7 @@
     <row r="22" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13217998486722238</v>
+        <v>0.83231260322798806</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49240,7 +50069,7 @@
     <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72748395283452139</v>
+        <v>9.4046250923721653E-2</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49262,7 +50091,7 @@
     <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97076196858888264</v>
+        <v>0.77199931326933036</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49284,7 +50113,7 @@
     <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7113890456667239</v>
+        <v>0.68952292224137257</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49306,7 +50135,7 @@
     <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9248909708686979E-2</v>
+        <v>0.81209754027380987</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49328,7 +50157,7 @@
     <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53722468859805594</v>
+        <v>0.11887389372937129</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49350,7 +50179,7 @@
     <row r="28" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8280324012056709</v>
+        <v>0.95254461994930284</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49372,7 +50201,7 @@
     <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.349552139387606E-2</v>
+        <v>0.20034033350029323</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49394,7 +50223,7 @@
     <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74129247171330748</v>
+        <v>0.12165321841801713</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49416,7 +50245,7 @@
     <row r="31" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7838923480313289</v>
+        <v>0.42234308656066644</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49438,7 +50267,7 @@
     <row r="32" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95914393408159437</v>
+        <v>0.99862190043436438</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49460,7 +50289,7 @@
     <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6076150431528831E-2</v>
+        <v>4.1934252780516212E-2</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49482,7 +50311,7 @@
     <row r="34" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" ref="A34:A97" ca="1" si="2">RAND()</f>
-        <v>0.6217193911434038</v>
+        <v>0.56244072054503025</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" ref="B34:B49" si="3">IF(C34=D34,"O","X")</f>
@@ -49504,7 +50333,7 @@
     <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42005603363430821</v>
+        <v>0.82685156399034365</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49526,7 +50355,7 @@
     <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65601890406018004</v>
+        <v>0.60214485081844482</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49548,7 +50377,7 @@
     <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72077201734338137</v>
+        <v>0.85556693034547671</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49570,7 +50399,7 @@
     <row r="38" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86918672969934774</v>
+        <v>0.34961817085988556</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49592,7 +50421,7 @@
     <row r="39" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37914524279791217</v>
+        <v>0.14938946781325657</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49614,7 +50443,7 @@
     <row r="40" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11723638574336248</v>
+        <v>0.10305822815494148</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49636,7 +50465,7 @@
     <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6217930444457499</v>
+        <v>6.0103697478975371E-2</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49658,7 +50487,7 @@
     <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41389688453006379</v>
+        <v>0.57406566506648304</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49680,7 +50509,7 @@
     <row r="43" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69399864322570104</v>
+        <v>0.33600291762632228</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49702,7 +50531,7 @@
     <row r="44" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.664157024798808</v>
+        <v>0.82434890484153744</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49724,7 +50553,7 @@
     <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33576168728611266</v>
+        <v>0.95906075043045436</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49746,7 +50575,7 @@
     <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24774440311836787</v>
+        <v>0.82750542021820428</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49768,7 +50597,7 @@
     <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24504178054398262</v>
+        <v>0.98599722025683323</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49790,7 +50619,7 @@
     <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71728481184896331</v>
+        <v>0.13822315567234511</v>
       </c>
       <c r="B48" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49812,7 +50641,7 @@
     <row r="49" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47818173939905384</v>
+        <v>0.87592029444344099</v>
       </c>
       <c r="B49" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49834,7 +50663,7 @@
     <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58495718734460234</v>
+        <v>0.1278443810172083</v>
       </c>
       <c r="B50" s="3" t="str">
         <f t="shared" ref="B50:B65" si="4">IF(C50=D50,"O","X")</f>
@@ -49856,7 +50685,7 @@
     <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10837128026061971</v>
+        <v>0.48484207712260596</v>
       </c>
       <c r="B51" s="3" t="str">
         <f t="shared" si="4"/>
@@ -49878,7 +50707,7 @@
     <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33065463751792268</v>
+        <v>0.33685440285244084</v>
       </c>
       <c r="B52" s="3" t="str">
         <f t="shared" si="4"/>
@@ -49900,7 +50729,7 @@
     <row r="53" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46280519563433264</v>
+        <v>0.54631604186231697</v>
       </c>
       <c r="B53" s="3" t="str">
         <f t="shared" si="4"/>
@@ -49922,7 +50751,7 @@
     <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88119049707619701</v>
+        <v>0.93164192720182548</v>
       </c>
       <c r="B54" s="3" t="str">
         <f t="shared" si="4"/>
@@ -49944,7 +50773,7 @@
     <row r="55" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22961562998519747</v>
+        <v>0.6504382644296588</v>
       </c>
       <c r="B55" s="3" t="str">
         <f t="shared" si="4"/>
@@ -49966,7 +50795,7 @@
     <row r="56" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18738324584191302</v>
+        <v>0.60996455586021825</v>
       </c>
       <c r="B56" s="3" t="str">
         <f t="shared" si="4"/>
@@ -49988,7 +50817,7 @@
     <row r="57" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2885513231495842</v>
+        <v>0.28375246761541495</v>
       </c>
       <c r="B57" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50010,7 +50839,7 @@
     <row r="58" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58609898867666754</v>
+        <v>0.73641975140590632</v>
       </c>
       <c r="B58" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50032,7 +50861,7 @@
     <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76755282217886622</v>
+        <v>0.28774663813909629</v>
       </c>
       <c r="B59" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50054,7 +50883,7 @@
     <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99284512824264315</v>
+        <v>0.84645669269058788</v>
       </c>
       <c r="B60" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50076,7 +50905,7 @@
     <row r="61" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1121967927156764</v>
+        <v>0.569076019522053</v>
       </c>
       <c r="B61" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50098,7 +50927,7 @@
     <row r="62" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54398998342922011</v>
+        <v>0.86773149841449437</v>
       </c>
       <c r="B62" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50120,7 +50949,7 @@
     <row r="63" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82331621056867021</v>
+        <v>2.0421220573536458E-2</v>
       </c>
       <c r="B63" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50142,7 +50971,7 @@
     <row r="64" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22866653185544217</v>
+        <v>0.17753953175612702</v>
       </c>
       <c r="B64" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50164,7 +50993,7 @@
     <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16777212084830906</v>
+        <v>0.3782217502791676</v>
       </c>
       <c r="B65" s="3" t="str">
         <f t="shared" si="4"/>
@@ -50186,7 +51015,7 @@
     <row r="66" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72033014364387749</v>
+        <v>0.15909429462268365</v>
       </c>
       <c r="B66" s="3" t="str">
         <f t="shared" ref="B66:B97" si="5">IF(C66=D66,"O","X")</f>
@@ -50208,7 +51037,7 @@
     <row r="67" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25060621443249032</v>
+        <v>0.35165806086394413</v>
       </c>
       <c r="B67" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50230,7 +51059,7 @@
     <row r="68" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17187583965127806</v>
+        <v>0.88492960150763844</v>
       </c>
       <c r="B68" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50252,7 +51081,7 @@
     <row r="69" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16117800211960298</v>
+        <v>0.61564659997019999</v>
       </c>
       <c r="B69" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50274,7 +51103,7 @@
     <row r="70" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14972450855966291</v>
+        <v>4.7403266803401789E-2</v>
       </c>
       <c r="B70" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50296,7 +51125,7 @@
     <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15479604684633053</v>
+        <v>0.58216683122682078</v>
       </c>
       <c r="B71" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50318,7 +51147,7 @@
     <row r="72" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83179728370731287</v>
+        <v>0.42405165702790837</v>
       </c>
       <c r="B72" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50340,7 +51169,7 @@
     <row r="73" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86644125334909727</v>
+        <v>0.63233342504946644</v>
       </c>
       <c r="B73" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50362,7 +51191,7 @@
     <row r="74" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9.9343459955075208E-2</v>
+        <v>3.1366938065574557E-3</v>
       </c>
       <c r="B74" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50384,7 +51213,7 @@
     <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34062985924649225</v>
+        <v>0.67868505856136763</v>
       </c>
       <c r="B75" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50406,7 +51235,7 @@
     <row r="76" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29776035245534715</v>
+        <v>0.74559383825563141</v>
       </c>
       <c r="B76" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50428,7 +51257,7 @@
     <row r="77" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18198656303304861</v>
+        <v>0.81965505268986738</v>
       </c>
       <c r="B77" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50450,7 +51279,7 @@
     <row r="78" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88614739382586383</v>
+        <v>0.1774503524913047</v>
       </c>
       <c r="B78" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50472,7 +51301,7 @@
     <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.945370194496999E-2</v>
+        <v>0.96824497347669491</v>
       </c>
       <c r="B79" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50494,7 +51323,7 @@
     <row r="80" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92021191280831083</v>
+        <v>0.14577548481342073</v>
       </c>
       <c r="B80" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50516,7 +51345,7 @@
     <row r="81" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81802775017260243</v>
+        <v>0.11548905663443554</v>
       </c>
       <c r="B81" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50538,7 +51367,7 @@
     <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91774532252393881</v>
+        <v>0.21086236134768543</v>
       </c>
       <c r="B82" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50560,7 +51389,7 @@
     <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73322369737007065</v>
+        <v>0.3666992125354166</v>
       </c>
       <c r="B83" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50582,7 +51411,7 @@
     <row r="84" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10203528615042945</v>
+        <v>0.41933731880943326</v>
       </c>
       <c r="B84" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50604,7 +51433,7 @@
     <row r="85" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60410413535371066</v>
+        <v>0.38123746410033799</v>
       </c>
       <c r="B85" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50626,7 +51455,7 @@
     <row r="86" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60705050371544267</v>
+        <v>0.94132915888135071</v>
       </c>
       <c r="B86" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50648,7 +51477,7 @@
     <row r="87" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56413961973444227</v>
+        <v>0.1807616301521745</v>
       </c>
       <c r="B87" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50670,7 +51499,7 @@
     <row r="88" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82566839404511583</v>
+        <v>0.62235259397726583</v>
       </c>
       <c r="B88" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50692,7 +51521,7 @@
     <row r="89" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2203359958813822</v>
+        <v>0.49827259328373796</v>
       </c>
       <c r="B89" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50714,7 +51543,7 @@
     <row r="90" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47408846225227996</v>
+        <v>0.41574422339087824</v>
       </c>
       <c r="B90" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50736,7 +51565,7 @@
     <row r="91" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34350686668509989</v>
+        <v>0.914640834815315</v>
       </c>
       <c r="B91" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50758,7 +51587,7 @@
     <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51014733640529764</v>
+        <v>0.57887628547862147</v>
       </c>
       <c r="B92" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50780,7 +51609,7 @@
     <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71979106664075798</v>
+        <v>0.53233183783704252</v>
       </c>
       <c r="B93" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50802,7 +51631,7 @@
     <row r="94" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10488641907081064</v>
+        <v>8.7168742547098832E-2</v>
       </c>
       <c r="B94" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50824,7 +51653,7 @@
     <row r="95" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83971939866327583</v>
+        <v>0.95643982088485247</v>
       </c>
       <c r="B95" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50846,7 +51675,7 @@
     <row r="96" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79255629237890257</v>
+        <v>0.80072737253934745</v>
       </c>
       <c r="B96" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50868,7 +51697,7 @@
     <row r="97" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18056033525305792</v>
+        <v>0.3463537137721846</v>
       </c>
       <c r="B97" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50941,7 +51770,7 @@
     <row r="2" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A55" ca="1" si="0">RAND()</f>
-        <v>0.50484365123048613</v>
+        <v>0.73208600572035998</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B55" si="1">IF(C2=D2,"O","X")</f>
@@ -50963,7 +51792,7 @@
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81247105706287692</v>
+        <v>0.97350099278506497</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3" si="2">IF(C3=D3,"O","X")</f>
@@ -50985,7 +51814,7 @@
     <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26102567455208125</v>
+        <v>0.90644273209860404</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51007,7 +51836,7 @@
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10910468254260952</v>
+        <v>0.7244674046913524</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51029,7 +51858,7 @@
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49721162916149808</v>
+        <v>0.64279907044666162</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51051,7 +51880,7 @@
     <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25869656332789681</v>
+        <v>0.33406502276322458</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51073,7 +51902,7 @@
     <row r="8" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75282255901362005</v>
+        <v>0.60265967244430896</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51095,7 +51924,7 @@
     <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19168259038063606</v>
+        <v>0.69435756263336879</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51117,7 +51946,7 @@
     <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93873212111159654</v>
+        <v>0.37605451754974462</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51139,7 +51968,7 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25368250900867506</v>
+        <v>0.67563017451599727</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51199,7 +52028,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69097651277767791</v>
+        <v>3.3224971265534475E-2</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51221,7 +52050,7 @@
     <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23932911978879945</v>
+        <v>0.7803898926875017</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51243,7 +52072,7 @@
     <row r="16" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4762018239877277</v>
+        <v>0.40853360701830732</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51265,7 +52094,7 @@
     <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9394129184924731</v>
+        <v>0.40733051425723155</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51287,7 +52116,7 @@
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73423425292548139</v>
+        <v>6.8595897535425054E-3</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51325,7 +52154,7 @@
     <row r="20" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5032482279389584</v>
+        <v>0.25528551603276028</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51347,7 +52176,7 @@
     <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95738301845365181</v>
+        <v>0.3461296099929051</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51369,7 +52198,7 @@
     <row r="22" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66968250811694818</v>
+        <v>0.25252042261438046</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51391,7 +52220,7 @@
     <row r="23" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94929809911602347</v>
+        <v>6.3948447053308266E-2</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51413,7 +52242,7 @@
     <row r="24" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92321062062387471</v>
+        <v>0.70061046509122171</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51435,7 +52264,7 @@
     <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46149486790641558</v>
+        <v>0.45122429419870669</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51457,7 +52286,7 @@
     <row r="26" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85098431174815292</v>
+        <v>0.22726530851611892</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51479,7 +52308,7 @@
     <row r="27" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8166685517181995E-2</v>
+        <v>0.51564116815226058</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ref="B27:B28" si="3">IF(C27=D27,"O","X")</f>
@@ -51501,7 +52330,7 @@
     <row r="28" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72247595584476709</v>
+        <v>0.33306128609574892</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="3"/>
@@ -51523,7 +52352,7 @@
     <row r="29" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52769252717525139</v>
+        <v>0.99731953253924388</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51545,7 +52374,7 @@
     <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.761936392374014</v>
+        <v>0.11447182314438731</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51567,7 +52396,7 @@
     <row r="31" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47883333460709965</v>
+        <v>0.80625323262631621</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51589,7 +52418,7 @@
     <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40081858720731489</v>
+        <v>0.4677796297583372</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51611,7 +52440,7 @@
     <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8583744504253188E-2</v>
+        <v>0.53162224926027035</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51633,7 +52462,7 @@
     <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37268095150977221</v>
+        <v>9.2955349531103293E-2</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" ref="B34" si="4">IF(C34=D34,"O","X")</f>
@@ -51655,7 +52484,7 @@
     <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89142305785484921</v>
+        <v>0.82262960060449375</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51677,7 +52506,7 @@
     <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70800960034392157</v>
+        <v>0.25155196256471812</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51699,7 +52528,7 @@
     <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64328394343848461</v>
+        <v>0.98571493279925637</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51721,7 +52550,7 @@
     <row r="38" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74742071417526545</v>
+        <v>0.18318424445730741</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51743,7 +52572,7 @@
     <row r="39" spans="1:7" ht="144" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7445718577765964</v>
+        <v>0.14503833404578215</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51765,7 +52594,7 @@
     <row r="40" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4707458491708546</v>
+        <v>0.9135985083889272</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51787,7 +52616,7 @@
     <row r="41" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71252670359257242</v>
+        <v>8.6313855626863889E-2</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" ref="B41:B42" si="5">IF(C41=D41,"O","X")</f>
@@ -51809,7 +52638,7 @@
     <row r="42" spans="1:7" ht="201.6" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8593620036294887E-2</v>
+        <v>0.30952151872392486</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="5"/>
@@ -51831,7 +52660,7 @@
     <row r="43" spans="1:7" ht="144" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78620747497412868</v>
+        <v>0.44546886197450331</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51853,7 +52682,7 @@
     <row r="44" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41014681186298652</v>
+        <v>0.8135159084330057</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51875,7 +52704,7 @@
     <row r="45" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10561304561560958</v>
+        <v>0.90535891435858062</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51897,7 +52726,7 @@
     <row r="46" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77819814330787773</v>
+        <v>0.4812605032463303</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51919,7 +52748,7 @@
     <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6074121109643531</v>
+        <v>0.46952648484130433</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51941,7 +52770,7 @@
     <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40289878002845658</v>
+        <v>0.63935946058571147</v>
       </c>
       <c r="B48" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51963,7 +52792,7 @@
     <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4554009674970303</v>
+        <v>0.52491204590293905</v>
       </c>
       <c r="B49" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51985,7 +52814,7 @@
     <row r="50" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56499602733613075</v>
+        <v>0.9712102513823806</v>
       </c>
       <c r="B50" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52007,7 +52836,7 @@
     <row r="51" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96577437852807557</v>
+        <v>9.5226309501113104E-2</v>
       </c>
       <c r="B51" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52029,7 +52858,7 @@
     <row r="52" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17490078961297006</v>
+        <v>0.93258291558994422</v>
       </c>
       <c r="B52" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52051,7 +52880,7 @@
     <row r="53" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15111097183607014</v>
+        <v>0.42172102926186528</v>
       </c>
       <c r="B53" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52073,7 +52902,7 @@
     <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37405346092490099</v>
+        <v>0.18141733272925775</v>
       </c>
       <c r="B54" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52095,7 +52924,7 @@
     <row r="55" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12019417198208093</v>
+        <v>0.28991763594837783</v>
       </c>
       <c r="B55" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52117,7 +52946,7 @@
     <row r="56" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" ref="A56:A68" ca="1" si="6">RAND()</f>
-        <v>0.30336760493172488</v>
+        <v>0.10692867074848666</v>
       </c>
       <c r="B56" s="3" t="str">
         <f t="shared" ref="B56:B68" si="7">IF(C56=D56,"O","X")</f>
@@ -52139,7 +52968,7 @@
     <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.43479755618644977</v>
+        <v>0.20794719996777988</v>
       </c>
       <c r="B57" s="3" t="str">
         <f t="shared" si="7"/>
@@ -52161,7 +52990,7 @@
     <row r="58" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.69727356492196191</v>
+        <v>0.35056273761200996</v>
       </c>
       <c r="B58" s="3" t="str">
         <f t="shared" si="7"/>
@@ -52183,7 +53012,7 @@
     <row r="59" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.37249470021097886</v>
+        <v>9.146869447185213E-2</v>
       </c>
       <c r="B59" s="3" t="str">
         <f t="shared" si="7"/>
@@ -52205,7 +53034,7 @@
     <row r="60" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.9604705543337746</v>
+        <v>0.92186342039454261</v>
       </c>
       <c r="B60" s="3" t="str">
         <f t="shared" si="7"/>
@@ -52227,7 +53056,7 @@
     <row r="61" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83031044294257905</v>
+        <v>0.12138020623465706</v>
       </c>
       <c r="B61" s="3" t="str">
         <f t="shared" si="7"/>
@@ -52249,7 +53078,7 @@
     <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.12611570785584914</v>
+        <v>0.53721614507244209</v>
       </c>
       <c r="B62" s="3" t="str">
         <f t="shared" si="7"/>
@@ -52271,7 +53100,7 @@
     <row r="63" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.4184091676028262</v>
+        <v>0.73923993739532756</v>
       </c>
       <c r="B63" s="3" t="str">
         <f t="shared" si="7"/>
@@ -52293,7 +53122,7 @@
     <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.13134380729778494</v>
+        <v>0.63127629013159836</v>
       </c>
       <c r="B64" s="3" t="str">
         <f t="shared" si="7"/>
@@ -52315,7 +53144,7 @@
     <row r="65" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7360937892569446E-2</v>
+        <v>0.42633003990696072</v>
       </c>
       <c r="B65" s="3" t="str">
         <f t="shared" si="7"/>
@@ -52337,7 +53166,7 @@
     <row r="66" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.72230958187750305</v>
+        <v>0.47416297717335409</v>
       </c>
       <c r="B66" s="3" t="str">
         <f t="shared" si="7"/>
@@ -52359,7 +53188,7 @@
     <row r="67" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55944049352157088</v>
+        <v>0.31846777671982007</v>
       </c>
       <c r="B67" s="3" t="str">
         <f t="shared" si="7"/>
@@ -52381,7 +53210,7 @@
     <row r="68" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.73221428527279653</v>
+        <v>0.51941464128521364</v>
       </c>
       <c r="B68" s="3" t="str">
         <f t="shared" si="7"/>
@@ -52450,7 +53279,7 @@
     <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A38" ca="1" si="0">RAND()</f>
-        <v>0.13054069124458356</v>
+        <v>0.79672330608984709</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B38" si="1">IF(C2=D2,"O","X")</f>
@@ -52472,7 +53301,7 @@
     <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53711894048347897</v>
+        <v>0.67869911610897105</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52494,7 +53323,7 @@
     <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18483660980779415</v>
+        <v>0.28899792965558002</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52516,7 +53345,7 @@
     <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.180903239510263E-3</v>
+        <v>0.12469467012378765</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52538,7 +53367,7 @@
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14388841793227336</v>
+        <v>0.36014370463438761</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52560,7 +53389,7 @@
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91181667496673635</v>
+        <v>0.3009610567483727</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52582,7 +53411,7 @@
     <row r="8" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56666360254900272</v>
+        <v>0.27021153355970873</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52604,7 +53433,7 @@
     <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47426178948118836</v>
+        <v>0.81514653342263887</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52626,7 +53455,7 @@
     <row r="10" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4415080033987908E-2</v>
+        <v>8.259029279618002E-2</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52648,7 +53477,7 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4401811361454262</v>
+        <v>0.53287955690572486</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52670,7 +53499,7 @@
     <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84406794898155901</v>
+        <v>0.12251864148908509</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52692,7 +53521,7 @@
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6135915642413079</v>
+        <v>8.9550104552978405E-2</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52714,7 +53543,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65587151091910745</v>
+        <v>3.7961948893624031E-2</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52736,7 +53565,7 @@
     <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.548730561956583E-2</v>
+        <v>0.6246289186216496</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52758,7 +53587,7 @@
     <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26625943499254667</v>
+        <v>0.6151751488698719</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52780,7 +53609,7 @@
     <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6994649592329254</v>
+        <v>0.54151094837757396</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52802,7 +53631,7 @@
     <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30602039409199533</v>
+        <v>0.16377295096481714</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52824,7 +53653,7 @@
     <row r="19" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4387977425972003E-2</v>
+        <v>0.64820137774618214</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52846,7 +53675,7 @@
     <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23370297608121138</v>
+        <v>0.77389974575017251</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52868,7 +53697,7 @@
     <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58738842790676771</v>
+        <v>0.43832600488053564</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52890,7 +53719,7 @@
     <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9880264478062567</v>
+        <v>0.7283819189473385</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52912,7 +53741,7 @@
     <row r="23" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36368457001075138</v>
+        <v>0.8142506085980753</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52934,7 +53763,7 @@
     <row r="24" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30275044296361686</v>
+        <v>0.73067428846150317</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52956,7 +53785,7 @@
     <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2185979047594675</v>
+        <v>0.62438407509096261</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52978,7 +53807,7 @@
     <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15694989091102185</v>
+        <v>0.56234949711378046</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53000,7 +53829,7 @@
     <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70907595666335155</v>
+        <v>0.85318158043623593</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53022,7 +53851,7 @@
     <row r="28" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41283142917255777</v>
+        <v>0.66395645135983783</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53044,7 +53873,7 @@
     <row r="29" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8984529084232965</v>
+        <v>0.64566631916361739</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53066,7 +53895,7 @@
     <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67389012131947423</v>
+        <v>9.8163247604287851E-2</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53088,7 +53917,7 @@
     <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29970117806373797</v>
+        <v>6.7487685474180159E-3</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53110,7 +53939,7 @@
     <row r="32" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89415698398650123</v>
+        <v>2.2925824114026216E-3</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53132,7 +53961,7 @@
     <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66970663962545085</v>
+        <v>0.75878403036306419</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53154,7 +53983,7 @@
     <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81606875634179932</v>
+        <v>0.66032457027761149</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53176,7 +54005,7 @@
     <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57900775607704735</v>
+        <v>9.3677327067263505E-2</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53198,7 +54027,7 @@
     <row r="36" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77694755016428096</v>
+        <v>0.32759065156435085</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53220,7 +54049,7 @@
     <row r="37" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38409991937404331</v>
+        <v>0.5948203402113077</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53242,7 +54071,7 @@
     <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9321031155918611</v>
+        <v>0.96083048689958139</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53275,7 +54104,7 @@
   </sheetPr>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
@@ -53311,7 +54140,7 @@
     <row r="2" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A58" ca="1" si="0">RAND()</f>
-        <v>0.71331427373860468</v>
+        <v>0.10414642883604519</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B58" si="1">IF(C2=D2,"O","X")</f>
@@ -53333,7 +54162,7 @@
     <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63081092806089212</v>
+        <v>0.5510374616102679</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53355,7 +54184,7 @@
     <row r="4" spans="1:7" ht="158.4" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91506131671187318</v>
+        <v>0.59582191186943367</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53377,7 +54206,7 @@
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53986362320727843</v>
+        <v>0.4693332672281334</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53399,7 +54228,7 @@
     <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52947343674941372</v>
+        <v>0.72357731205124787</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53421,7 +54250,7 @@
     <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44165532904281946</v>
+        <v>0.51031958358430551</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53443,7 +54272,7 @@
     <row r="8" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71064477527735426</v>
+        <v>0.2554944705228428</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53465,7 +54294,7 @@
     <row r="9" spans="1:7" ht="158.4" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10644939780333373</v>
+        <v>0.8298496333331199</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53487,7 +54316,7 @@
     <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59473537956806077</v>
+        <v>0.42376516740658121</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53509,7 +54338,7 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35247565914363499</v>
+        <v>0.7948741842463235</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53531,7 +54360,7 @@
     <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18174209281057963</v>
+        <v>0.11386419810213322</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53553,7 +54382,7 @@
     <row r="13" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52292174089691179</v>
+        <v>0.91280902559764443</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53575,7 +54404,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12002224284399199</v>
+        <v>8.0662295705043796E-2</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53597,7 +54426,7 @@
     <row r="15" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7201921503669344</v>
+        <v>0.17979060457306839</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53619,7 +54448,7 @@
     <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78100771723774431</v>
+        <v>0.64118777896645263</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53638,7 +54467,7 @@
     <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39237789682754243</v>
+        <v>0.40829141434082139</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53660,7 +54489,7 @@
     <row r="18" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53237788929400987</v>
+        <v>0.39352687976957124</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53682,7 +54511,7 @@
     <row r="19" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87413053497372917</v>
+        <v>0.90096824608782178</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53704,7 +54533,7 @@
     <row r="20" spans="1:7" ht="187.2" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64052048091167202</v>
+        <v>0.84195594097309256</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53726,7 +54555,7 @@
     <row r="21" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20368425551850844</v>
+        <v>0.86730046049872722</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53748,7 +54577,7 @@
     <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47726235367811587</v>
+        <v>0.9575235254377974</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53770,7 +54599,7 @@
     <row r="23" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96366065149061853</v>
+        <v>0.22603976847310725</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53792,7 +54621,7 @@
     <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88956614281765944</v>
+        <v>0.34646070503952087</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53814,7 +54643,7 @@
     <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16092744321502328</v>
+        <v>0.53902538483061035</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53836,7 +54665,7 @@
     <row r="26" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33008965041011074</v>
+        <v>0.52086546160216285</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53858,7 +54687,7 @@
     <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66907134095618492</v>
+        <v>0.53374401467727806</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53880,7 +54709,7 @@
     <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23957564796097708</v>
+        <v>0.41003808017051746</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53902,7 +54731,7 @@
     <row r="29" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45749202656680221</v>
+        <v>0.22507737038986131</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53924,7 +54753,7 @@
     <row r="30" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95144238453405527</v>
+        <v>0.45087580039625441</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53946,7 +54775,7 @@
     <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44699636891429129</v>
+        <v>0.56020242943191656</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53968,7 +54797,7 @@
     <row r="32" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16987426645934933</v>
+        <v>0.94680582694876581</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53990,7 +54819,7 @@
     <row r="33" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85863839194848313</v>
+        <v>0.74649669725109713</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54012,7 +54841,7 @@
     <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38179706140399539</v>
+        <v>0.79342460839181206</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54034,7 +54863,7 @@
     <row r="35" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99397863988319146</v>
+        <v>0.45672766744156734</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54056,7 +54885,7 @@
     <row r="36" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97790162052807006</v>
+        <v>0.81185643084774295</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54078,7 +54907,7 @@
     <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75311903862349128</v>
+        <v>0.67955853362970042</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54100,7 +54929,7 @@
     <row r="38" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2135932295969836E-2</v>
+        <v>0.79321437449521537</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54122,7 +54951,7 @@
     <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35873516316515963</v>
+        <v>0.88363873346621336</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54144,7 +54973,7 @@
     <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86068164618688781</v>
+        <v>0.21494530086246888</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54166,7 +54995,7 @@
     <row r="41" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47049217369531837</v>
+        <v>1.0234789341111217E-2</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54188,7 +55017,7 @@
     <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46932829336112247</v>
+        <v>0.95487605848425616</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54210,7 +55039,7 @@
     <row r="43" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4183842647459475E-2</v>
+        <v>0.47280357543322582</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54232,7 +55061,7 @@
     <row r="44" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22196311809916591</v>
+        <v>0.91488893971517593</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54254,7 +55083,7 @@
     <row r="45" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10714631991216217</v>
+        <v>0.51320420146296564</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54276,7 +55105,7 @@
     <row r="46" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26965912675173875</v>
+        <v>0.31954395730556517</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54298,7 +55127,7 @@
     <row r="47" spans="1:7" ht="172.8" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63668137026503402</v>
+        <v>0.35435125182725324</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54320,7 +55149,7 @@
     <row r="48" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10182332050260157</v>
+        <v>9.4950964236197866E-3</v>
       </c>
       <c r="B48" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54342,7 +55171,7 @@
     <row r="49" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68373506136572659</v>
+        <v>0.96316151059117217</v>
       </c>
       <c r="B49" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54364,7 +55193,7 @@
     <row r="50" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5032169217369542</v>
+        <v>0.15056797272657996</v>
       </c>
       <c r="B50" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54386,7 +55215,7 @@
     <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35404207276502775</v>
+        <v>0.40211220437726214</v>
       </c>
       <c r="B51" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54408,7 +55237,7 @@
     <row r="52" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40592096244584852</v>
+        <v>0.20311770555142894</v>
       </c>
       <c r="B52" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54430,7 +55259,7 @@
     <row r="53" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51467208991413449</v>
+        <v>0.47512303919315602</v>
       </c>
       <c r="B53" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54452,7 +55281,7 @@
     <row r="54" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82262228469726906</v>
+        <v>0.7488365302124359</v>
       </c>
       <c r="B54" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54474,7 +55303,7 @@
     <row r="55" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91139840565885544</v>
+        <v>0.99495343921257939</v>
       </c>
       <c r="B55" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54496,7 +55325,7 @@
     <row r="56" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35857758736373846</v>
+        <v>0.56898008665628741</v>
       </c>
       <c r="B56" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54518,7 +55347,7 @@
     <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69220431240803604</v>
+        <v>0.2401811950895526</v>
       </c>
       <c r="B57" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54540,7 +55369,7 @@
     <row r="58" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48736704160854616</v>
+        <v>0.40206408653578418</v>
       </c>
       <c r="B58" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54562,7 +55391,7 @@
     <row r="59" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" ref="A59:A81" ca="1" si="2">RAND()</f>
-        <v>0.83017862129790543</v>
+        <v>6.3406143423577865E-2</v>
       </c>
       <c r="B59" s="3" t="str">
         <f t="shared" ref="B59:B81" si="3">IF(C59=D59,"O","X")</f>
@@ -54584,7 +55413,7 @@
     <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.790780624104782</v>
+        <v>0.26321928270444106</v>
       </c>
       <c r="B60" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54606,7 +55435,7 @@
     <row r="61" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97794865265906716</v>
+        <v>0.22932346436622297</v>
       </c>
       <c r="B61" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54628,7 +55457,7 @@
     <row r="62" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54658857619797252</v>
+        <v>0.38766701322545416</v>
       </c>
       <c r="B62" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54650,7 +55479,7 @@
     <row r="63" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14463349475168852</v>
+        <v>0.56406903677856246</v>
       </c>
       <c r="B63" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54672,7 +55501,7 @@
     <row r="64" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7723589900526604</v>
+        <v>0.86976683888429174</v>
       </c>
       <c r="B64" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54694,7 +55523,7 @@
     <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41919839227343836</v>
+        <v>0.95464027119147643</v>
       </c>
       <c r="B65" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54716,7 +55545,7 @@
     <row r="66" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99516474539266009</v>
+        <v>9.9791962746789808E-2</v>
       </c>
       <c r="B66" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54738,7 +55567,7 @@
     <row r="67" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22278804181274026</v>
+        <v>0.40114730241011087</v>
       </c>
       <c r="B67" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54760,7 +55589,7 @@
     <row r="68" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46543040646973732</v>
+        <v>0.94664728712031965</v>
       </c>
       <c r="B68" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54782,7 +55611,7 @@
     <row r="69" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35980557987730821</v>
+        <v>0.30688643758689294</v>
       </c>
       <c r="B69" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54804,7 +55633,7 @@
     <row r="70" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32689177646474443</v>
+        <v>0.19548552368154137</v>
       </c>
       <c r="B70" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54826,7 +55655,7 @@
     <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91187231345967723</v>
+        <v>0.95231597345607266</v>
       </c>
       <c r="B71" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54848,7 +55677,7 @@
     <row r="72" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59728575307972076</v>
+        <v>0.89116989255832024</v>
       </c>
       <c r="B72" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54870,7 +55699,7 @@
     <row r="73" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34389762947840585</v>
+        <v>0.68506482461222695</v>
       </c>
       <c r="B73" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54892,7 +55721,7 @@
     <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57290824720890976</v>
+        <v>0.63147617275772949</v>
       </c>
       <c r="B74" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54914,7 +55743,7 @@
     <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75339281267827052</v>
+        <v>2.7604480908384965E-2</v>
       </c>
       <c r="B75" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54936,7 +55765,7 @@
     <row r="76" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51683450222783267</v>
+        <v>0.12749827110158485</v>
       </c>
       <c r="B76" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54958,7 +55787,7 @@
     <row r="77" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2620875936918482</v>
+        <v>0.34422115233742301</v>
       </c>
       <c r="B77" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54980,7 +55809,7 @@
     <row r="78" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83922200574753159</v>
+        <v>0.10622234299093758</v>
       </c>
       <c r="B78" s="3" t="str">
         <f t="shared" si="3"/>
@@ -55002,7 +55831,7 @@
     <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37261765897900723</v>
+        <v>0.58858602747395838</v>
       </c>
       <c r="B79" s="3" t="str">
         <f t="shared" si="3"/>
@@ -55024,7 +55853,7 @@
     <row r="80" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23338863509185859</v>
+        <v>0.95940844270192693</v>
       </c>
       <c r="B80" s="3" t="str">
         <f t="shared" si="3"/>
@@ -55046,7 +55875,7 @@
     <row r="81" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2191847335163799</v>
+        <v>0.22310215725495275</v>
       </c>
       <c r="B81" s="3" t="str">
         <f t="shared" si="3"/>
@@ -55063,6 +55892,1833 @@
       </c>
       <c r="G81" s="1">
         <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD70CC4-C7FE-4B08-8655-8C496BF50D56}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:G82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="127.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.59765625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <f t="shared" ref="A2:A66" ca="1" si="0">RAND()</f>
+        <v>0.58668906867400439</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:B66" si="1">IF(C2=D2,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F2" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G2" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59761110818804875</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F3" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G3" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.94519174656460514</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G4" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83300962086549002</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F5" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G5" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96517369999803637</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F6" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G6" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19993982990198622</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F7" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G7" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76522796730188525</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F8" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G8" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34984736630342705</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F9" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G9" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35595372527298941</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F10" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G10" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47010494996236019</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F11" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G11" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18316745613975982</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="F12" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G12" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="144" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31523434593462019</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F13" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G13" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28904193965221459</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="F14" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G14" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54830835752261242</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F15" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G15" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15849228191257914</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F16" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G16" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33642143828804183</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F17" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G17" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63454263720594262</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="F18" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G18" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4461213991673354E-2</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="F19" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G19" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19868706522635105</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F20" s="1">
+        <v>202108</v>
+      </c>
+      <c r="G20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7132629258461707E-2</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f t="shared" ref="B21:B29" si="2">IF(C21=D21,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="F21" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G21" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45183209585327166</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F22" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G22" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35577462137012827</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="F23" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G23" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88829702542697531</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F24" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G24" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95801826866083406</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F25" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G25" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14154323075482689</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="F26" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G26" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
+      <c r="A27" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26626655740762606</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F27" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G27" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A28" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76424470879695683</v>
+      </c>
+      <c r="B28" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F28" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G28" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A29" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.52589693965415441</v>
+      </c>
+      <c r="B29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F29" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G29" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A30" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.3833324455999421E-2</v>
+      </c>
+      <c r="B30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="F30" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G30" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A31" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.7274133158648191E-2</v>
+      </c>
+      <c r="B31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F31" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G31" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A32" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41512900393725716</v>
+      </c>
+      <c r="B32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="F32" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G32" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A33" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65236973721868097</v>
+      </c>
+      <c r="B33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F33" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G33" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A34" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69447731920577394</v>
+      </c>
+      <c r="B34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F34" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G34" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A35" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79086431247743172</v>
+      </c>
+      <c r="B35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="F35" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G35" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A36" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20110891333642178</v>
+      </c>
+      <c r="B36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F36" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G36" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A37" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22277249149201062</v>
+      </c>
+      <c r="B37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F37" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G37" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A38" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75184350148355894</v>
+      </c>
+      <c r="B38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="F38" s="1">
+        <v>202105</v>
+      </c>
+      <c r="G38" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A39" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2121690360422962</v>
+      </c>
+      <c r="B39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F39" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G39" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A40" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31000382269867566</v>
+      </c>
+      <c r="B40" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F40" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G40" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A41" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39724059693234515</v>
+      </c>
+      <c r="B41" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F41" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G41" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A42" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62005075580327296</v>
+      </c>
+      <c r="B42" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C42" s="2">
+        <f>36000/(300*6)</f>
+        <v>20</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F42" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G42" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
+      <c r="A43" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59048893147351855</v>
+      </c>
+      <c r="B43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F43" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G43" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A44" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39297704256921717</v>
+      </c>
+      <c r="B44" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F44" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G44" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
+      <c r="A45" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63951299077605106</v>
+      </c>
+      <c r="B45" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F45" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G45" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
+      <c r="A46" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22046687609569049</v>
+      </c>
+      <c r="B46" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F46" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G46" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
+      <c r="A47" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81984764966854062</v>
+      </c>
+      <c r="B47" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="F47" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G47" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A48" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65060226324119574</v>
+      </c>
+      <c r="B48" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F48" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G48" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A49" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5083974315431004E-2</v>
+      </c>
+      <c r="B49" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F49" s="1">
+        <v>202103</v>
+      </c>
+      <c r="G49" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A50" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30969021800387853</v>
+      </c>
+      <c r="B50" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F50" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G50" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A51" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37052764819676709</v>
+      </c>
+      <c r="B51" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="F51" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G51" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A52" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60517823294208928</v>
+      </c>
+      <c r="B52" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="F52" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G52" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="172.8" x14ac:dyDescent="0.4">
+      <c r="A53" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74085934100624262</v>
+      </c>
+      <c r="B53" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="F53" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G53" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A54" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95873407918145115</v>
+      </c>
+      <c r="B54" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F54" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G54" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A55" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28652501257942542</v>
+      </c>
+      <c r="B55" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F55" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G55" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A56" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73107627698611855</v>
+      </c>
+      <c r="B56" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F56" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G56" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A57" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38844373975151913</v>
+      </c>
+      <c r="B57" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="F57" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G57" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A58" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25694652139729413</v>
+      </c>
+      <c r="B58" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="F58" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G58" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A59" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30316619117423871</v>
+      </c>
+      <c r="B59" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C59" s="2">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F59" s="1">
+        <v>202009</v>
+      </c>
+      <c r="G59" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A60" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69085865710789385</v>
+      </c>
+      <c r="B60" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F60" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G60" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A61" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5102815024529517E-2</v>
+      </c>
+      <c r="B61" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C61" s="2">
+        <v>4</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="F61" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G61" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A62" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65109523622158105</v>
+      </c>
+      <c r="B62" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="F62" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G62" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A63" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4078993902634237</v>
+      </c>
+      <c r="B63" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F63" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G63" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A64" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.85779945955377812</v>
+      </c>
+      <c r="B64" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F64" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G64" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A65" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78610054928993101</v>
+      </c>
+      <c r="B65" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="F65" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G65" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A66" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59993842932710073</v>
+      </c>
+      <c r="B66" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C66" s="2">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F66" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G66" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A67" s="3">
+        <f t="shared" ref="A67:A82" ca="1" si="3">RAND()</f>
+        <v>0.11220796797795041</v>
+      </c>
+      <c r="B67" s="3" t="str">
+        <f t="shared" ref="B67:B82" si="4">IF(C67=D67,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="F67" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G67" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A68" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.10556902476276431</v>
+      </c>
+      <c r="B68" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>X</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F68" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G68" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A69" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99959273139850868</v>
+      </c>
+      <c r="B69" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>X</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F69" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G69" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A70" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.49698265394892716</v>
+      </c>
+      <c r="B70" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>X</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="F70" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G70" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A71" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.84605009267912112</v>
+      </c>
+      <c r="B71" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>X</v>
+      </c>
+      <c r="C71" s="2">
+        <v>4</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F71" s="1">
+        <v>202008</v>
+      </c>
+      <c r="G71" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A72" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.33623370067136737</v>
+      </c>
+      <c r="B72" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>X</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F72" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G72" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A73" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.52155225815025086</v>
+      </c>
+      <c r="B73" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>X</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="F73" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G73" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
+      <c r="A74" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.91036659767567085</v>
+      </c>
+      <c r="B74" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>X</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F74" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G74" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A75" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.64184642491317878</v>
+      </c>
+      <c r="B75" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>X</v>
+      </c>
+      <c r="C75" s="2">
+        <v>4</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F75" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G75" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A76" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4194241627367723</v>
+      </c>
+      <c r="B76" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>X</v>
+      </c>
+      <c r="C76" s="2">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F76" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G76" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A77" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.24964583569708132</v>
+      </c>
+      <c r="B77" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>X</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F77" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G77" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A78" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.52673718214961462</v>
+      </c>
+      <c r="B78" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>X</v>
+      </c>
+      <c r="C78" s="2">
+        <v>2</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="F78" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G78" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A79" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.93011338079509065</v>
+      </c>
+      <c r="B79" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>X</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="F79" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G79" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+      <c r="A80" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.60786153698342404</v>
+      </c>
+      <c r="B80" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>X</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="F80" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G80" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A81" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.67433818480060126</v>
+      </c>
+      <c r="B81" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>X</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F81" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G81" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A82" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5489584710968192E-2</v>
+      </c>
+      <c r="B82" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>X</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F82" s="1">
+        <v>202006</v>
+      </c>
+      <c r="G82" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/정보처리기사/필기.xlsx
+++ b/정보처리기사/필기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\유미\자격증\정처기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25A9BC5C-4133-49EC-A87E-E05E16AF4FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47A1B2D-0719-46AC-BAEB-EFAB410A1FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
   </bookViews>
   <sheets>
     <sheet name="1과목" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="606">
   <si>
     <t>정답</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -44440,36 +44440,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;침입 탐지 시스템(IDS: Intrusion Detection System)&gt;
-- 외부부 인터넷에 서비스를 제공하는 서버가 위치하는 네트워크인 DMZ(Demilitarized Zone)에는 IDS가 설치될 수 있음.
-- ㅇㅇ 탐지 기법(Misuse Detection): Signature Base나 Knowledge Base라 불리며 이미 발견되고 정립된 공격 패턴을 입력해두었다가 탐지 및 차단함.
-- ㅇㅇ 탐지 기법(Anomaly Detection): Behavior, Statistical Detection로 불리며 평균적인 시스템의 상태를 기준으로 비정상적인 행위나 자원 사용이 감지되면 이를 알려줌.
-- HIDS(Host-Based Intrusion Detection)는 운영 체제에 설정된 사용자 계정에 따라 어떤 ㅇㅇㅇ가 어떤 접근을 시도하고 어떤 작업을 했는지에 대한 기록을 남기고 추적함.
-- NIDS(Network-Based Intrusion Detection System)로는 대표적으로 Snort가 있음.
-</t>
-  </si>
-  <si>
     <t>신원, 등급, 역할</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;접근 통제 기술&gt;
-- 임의 접근 통제(Discretionary Access Control); 데이터에 접근하는 사용자의 ㅇㅇ에 따라 접근 권한을 부여하는 방식
-- 강제 접근 통제(Mandatory Access Control); 주체와 객체의 ㅇㅇ을 비교하여 접근 권한을 부여하는 방식
-- 역할 기반 접근 통제(Role Based Access Control); 사용자의 ㅇㅇ에 따라 접근 권한을 부여하는 방식
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">구글의 구글 브레인 팀이 제작하여 공개한 기계 학습(Machine Leaming)을 위한 오픈 소스 소프트웨어 라이브러리는?
-1)타조(Tajo)    2)원 세그(One Seg)    3)포스퀘어(Foursquare)    4)텐서플로(TensorFlow)
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">국내 IT 서비스 경쟁력 강화를 목표로 개발되었으며 인프라 제어 및 관리 환경, 실행 환경, 개발 환경, 서비스 환경, 운영 환경으로 구성되어 있는 개방형 클라우드 컴퓨팅 플랫폼은?
-1)N20S    2)PaaS-TA    3)KAWS    4)Metaverse
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44477,36 +44448,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;정보 보안을 위한 접근 제어&gt;
-- 적절한 권한을 가진 인가자만 특정 시스템이나 정보에 접근할 수 있도록 ㅇㅇ하는 것임.
-- 시스템 및 네트워크에 대한 접근 제어의 가장 기본적인 수단은 IP와 서비스 ㅇㅇ로 볼 수 있음.
-- ㅇㅇㅇㅇ 장비에서 수행하는 IP에 대한 접근 제어로는 관리 인터페이스의 접근제어와 ACL(Access Control List)등이 있음.
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">물리적 배치와 상관 없이 논리적으로 LAN을 구성하여 Broadcast Domain을 구분할 수 있게 해주는 기술로 접속된 장비들의 성능 향상 및 보안성 증대 효과가 있는 것은?
-1)VLAN    2)STP    3)L2AN    4)ARP
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>삽입, 연동, DBMS, 입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;SQL Injection 공격&gt;
-- 임의로 작성한 SQL 구문을 애플리케이션에 ㅇㅇ하는 공격 방식
-- 취약점이 발생하는 곳은 주로 웹 애플리케이션과 데이터페이스가 ㅇㅇ되는 부분임.
-- ㅇㅇㅇㅇ의 종류에 따라 공격 기법이 다름.
-- 로그인과 같이 웹에서 사용자의 ㅇㅇ 값을 받아 데이터베이스 SQL문으로 데이터를 요청하는 경우 SQL Injection을 수행할 수 있음.
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">비대칭 암호화 방식으로 소수를 활용한 암호화 알고리즘은?
-1)DES    2)AES    3)SMT    4)RSA
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44514,30 +44456,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;스토리지&gt;
-- SDS(Software Defined Storage); 컴퓨팅 소프트웨어로 규정하는 데이터 스토리지 체계이며, 일정 조직 내 ㅇㅇ 스토리지를 하나처럼 관리하고 운용함.
-- DAS(Direct Attached Storage); 서버와 저장 장치를 전용 ㅇㅇㅇ로 직접 연결하는 방식으로, 일반 가정에서 컴퓨터에 외장 하드를 연결하는 것
-- NAS(Network Attached Storage); 서버와 저장 장치를 ㅇㅇㅇㅇ를 통해 연결하는 방식
-- SAN(Storage Area Network); DAS의 빠른 처리와 NAS의 파일 공유 장점을 혼합한 방식으로, 서버와 저장 장치를 연결하는 전용 ㅇㅇㅇㅇ를 별도 구성
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5, 30, 30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;COCOMO의 소프트웨어 개발 유형&gt;                      정답 기입 예시) 1, 11, 11
-- 조직형(Organic Mode); 기관 내부에서 개발된 중/소 규모의 소프트웨어로 일괄 자료 처리 등 ㅇ만 라인 이하의 소프트웨어를 개발하는 유형
-- 반분리형(Semi-Detached Mode); 조직형과 내장형의 중간형으로, 트랜잭션 처리 시스템이나 운영체제, 데이터베이스 관리 시스템 등의 ㅇㅇ만 라인 이하의 소프트웨어 개발 
-- 내장형(Embedded Mode); 최대형 규모의 트랜잭션 처리 시스템이나 운영체제 등의 ㅇㅇ만 라인 이상의 소프트웨어 개발하는 유형
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">개인과 기업, 국가적으로 큰 위협이 되고 있는 주요 사이버 범죄 중 하나로 Snake, Darkside 등 시스템을 잠그거나 데이터를 암호화해 사용할 수 없도록 하고 이를 인질로 금전을 요구하는 데 사용되는 악성 프로그램
-1)Format String    2)Ransomware    3)Buffer Overflow    4)Adware
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44545,31 +44464,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;소프트웨어 생명 주기 모형&gt;
-- 폭포수 모형(Waterfall Model); 폭포에서 한 번 떨어진 물은 거슬러 올라갈 수 없듯이 소프트웨어 개발도 ㅇㅇ 단계로 돌아갈 수 없다는 전제하에 각 단계를 확실히 매듭짓고 그 결과를 철저하게 검토하여 승인 과정을 거친 후에 다음 단계를 진행하는 개발 방법론.
-- 프로토타입 모형(Prototype Model); 사용자의 요구 사항을 정확히 파악하기 위해 실제 개발될 소프트웨어에 대한 견본품을 만들어 최종 결과물을 ㅇㅇ하는 모형
-- 나선형 모형(Spiral Model); 폭포수 모형과 프로토타입 모형의 장점에 위험 분석 기능을 추가한 모형으로, 나선을 따라 돌듯이 여러 번의 소프트웨어 개발 과정을 거쳐 점진적으로 ㅇㅇ한 최종 소프트웨어를 개발함.
-- 애자일 모형(Agile Model); 고객의 요구사항 변화에 유연하게 대응할 수 있도록 일정한 주기를 반복하면서 개발 과정을 진행하는 모형으로, 어느 특정 개발 방법론이 아니라 좋은 것을 빠르고 낭비 없게 만들기 위해 고객과의 ㅇㅇ에 초점을 맞춘 방법론
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>대규모, 위험, 최소, 반복</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Spiral Model&gt;
-- 비교적 ㅇㅇㅇ 시스템에 적합함.
-- 개발 순서는 계획 및 정의, ㅇㅇ 분석, 공학적 개발, 고객 평가 순으로 진행됨.
-- 소프트웨어를 개발하면서 발생할 수 있는 위험을 관리하고 ㅇㅇ화하는 것을 목적으로 함.
-- 계획 수립, 위험 분석, 개발 및 검증, 고객 평가 과정을 ㅇㅇ하며 수행
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">특정 사이트에 매우 많은 ICMP Echo를 보내면, 이에 대한 응답을 하기 위해 시스템 자원을 모두 사용해버려 시스템이 정상적으로 동작하지 못하도록 하는 공격 방법은?
-1)Role-Based Access Control    2)Ping Flood    3)Brute-force    4)Trojan Horses
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44577,17 +44472,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ㅇㅇㅇㅇ; TCP/IP 기반 네트워크에서 동작하는 발행/구독 기반의 메시징 프로토콜로 최근 IoT 환경에서 자주 사용되고 있는 프로토콜
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SSO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ㅇㅇㅇ; 시스템이 몇 대가 되어도 하나의 시스템에서 인증에 성공하면 다른 시스템에 대한 접근 권한도 얻는 시스템
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44595,21 +44480,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ㅇㅇㅇㅇ; 시스템에 저장되는 패스워드들은 Hash 또는 암호화 알고리즘의 결과 값으로 저장됨. 이때 암호공격을 막기 위해 똑같은 패스워드들이 다른 암호 값으로 저장되도록 추가하는 값을 의미함.
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>예측, 생명, 전문가, 종합</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;비용 산정 방법&gt;
-- LOC 기법; S/W 각 기능의 원시 코드 라인 수의 비관치, 낙관치, 기대치를 측정하여 ㅇㅇ치를 구하고 이를 이용하여 비용을 산정
-- Effort Per Task 기법; 각 기능을 구현시키는 데 필요한 노력을 ㅇㅇ 주기의 각 단계별로 산정
-- 전문가 감정 기법; 두 명 이상의 ㅇㅇㅇ에게 비용 산정을 의뢰하는 기법으로 주관적이나 가장 편리하고 신속함.
-- 델파이 기법; 전문가 기법의 주관적인 편견을 보완하기 위해 많은 전문가의 의견을 ㅇㅇ하여 선정하는 기법
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44617,41 +44488,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ㅇㅇㅇㅇㅇ; 오픈소스 웹 애플리케이션 보안 프로젝트로서 주로 웹을 통한 정보 유출, 악성 파일 및 스크립트, 보안 취약점 등을 연구하는 곳
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">다음 내용이 설명하는 것은?
-- 네트워크상에 광채널 스위치의 이점인 고속 전송과 장거리 연결 및 멀티 프로토콜 기능을 활용
-- 각기 다른 운영체제를 가진 여러 기종들이 네트워크상에서 동일 저장 장치의 데이터를 공유하게 함으로써, 여러 개의 저장 장치나 백업 장비를 단일화시킨 시스템
-1)SAN    2)MBR    3)NAC    4)NIC
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>22, 암호, 서버, 원격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;SSH(Secure Shell)&gt;
-- 기본 네트워크 포트는 ㅇㅇ번을 사용함.
-- 전송되는 데이터는 ㅇㅇ화됨.
-- 키를 통한 인증은 클라이언트의 공개키를 ㅇㅇ에 등록해야 함.
-- 서로 연결되어 있는 컴퓨터 간 ㅇㅇ 명령 실행이나 셀 서비스 등을 수행함.
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">다음 내용이 설명하는 접근 제어 모델은?
-- 군대의 보안 레벨처럼 정보의 기밀성에 따라 상하 관계가 구분된 정보를 보호하기 위해 사용
-- 자신의 권한 보다 낮은 보안 레벨 권한을 가진 경우에는 높은 보안 레벨의 문서를 읽을 수 없고 자신의 권한보다 낮은 수준의 문서만 읽을 수 있음.
-- 자신의 권한보다 높은 보안 레벨의 문서에는 쓰기가 가능하지만 보안 레벨이 낮은 문서의 쓰기 권한은 제한함.
-1)Clark-Wilson Integrity Model
-2)PDCA Model
-3)Bell-Lapadula Model
-4)Chinese Wall Model
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44659,21 +44496,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ㅇㅇㅇㅇㅇ; 하둡(Hadoop)과 관계형 데이터베이스 간에 데이터를 전송할 수 있도록 설계된 도구
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>네트워크, 멀티, 홉, 경로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;라우팅 프로토콜인 OSPF(Open Shortest Path First)&gt;
-- ㅇㅇㅇㅇ 변화에 신속하게 대처할 수 있음.
-- ㅇㅇ캐스팅을 지원함.
-- ㅇ 수에 재한이 없으므로 대규모 네트워크에서 많이 사용함.
-- 최단 ㅇㅇ 탐색에 Dijkstra 알고리즘 사용
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44681,26 +44504,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;소프트웨어 비용 추정 모형&gt;
-- COCOMO 모형; 개발할 소프트웨어의 ㅇㅇ(LOC)를 예측한 후 이를 소프트웨어 종류에 따라 다르게 책정되는 비용 산정 방정식에 대입함.
-- Putnam 모형; 소프트웨어 생명 주기의 전 과정 동안에 사용될 ㅇㅇ의 분포를 가정해 주는 모형으로 생명 주기 예측 모형이라고도 함.
-- 기능점수(Function-Point) 모형; 소프트웨어의 ㅇㅇ을 증대시키는 요인별로 가중치를 부여하고, 요인별 가중치를 합산하여 총 점수를 산출한 것과 영향도를 이용하여 기능 점수(FP)를 구한 후 이를 이용해서 비용을 산정
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>필사, 전위, 이중, 생략, 추가, 임의</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;코드의 오류&gt;
-- ㅇㅇ 오류(Transcription Error); 입력시 임의의 한 자리를 잘못 기록(12345 -&gt; 12745)
-- ㅇㅇ 오류(Transpoision Error); 입력시 좌우 자리를 바꾸어 기록한 경우(12345 -&gt; 12435)
-- ㅇㅇ 오류(Double Transpoision Error); 전위 오류가 2개 이상 발생한 경우(12345 -&gt; 13254)
-- ㅇㅇ 오류(Omission Error); 입력시 한 자리를 빼놓고 기록한 경우(12345 -&gt; 1245)
-- ㅇㅇ 오류(Addition Error); 입력시 한 자리를 더 추가하여 기록(12345 -&gt; 123456)
-- ㅇㅇ 오류(Random Error); 오류가 두 가지 이상 결합하여 발생한 경우(12345 -&gt; 127435)
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44708,27 +44512,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;ISO/IEC 12207&gt;
-- ㅇㅇ 생명 주기 프로세스; 획득, 공급, 개발, 운영, 유지보수 프로세스
-- ㅇㅇ 생명 주기 프로세스; 품질 보증, 검증 확인, 활동 검토, 감사, 문서화, 형상 관리, 문제 해결 프로세스
-- ㅇㅇ 생명 주기 프로세스; 관리, 기반 구조, 훈련, 개선 프로세스
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">소프트웨어 비용 산정 기법 중 개발 유형으로 Organic, Semi-Detached, Embedded로 구분되는 것은?
-1)PUTNAM    2)COCOMO    3)FP    4)SLIM
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅁ, ㅂ, ㅅ, ㄹ, ㄷ, ㄴ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SPICE 모델의 프로세스 수행 능력 단계를 수준 0부터 수준 5까지 순서대로 말하시오.         정답 기입 예시) ㄱ, ㄴ, ㄷ, ㄹ, ㅁ, ㅂ
-ㄱ)미완성 ㄴ)최적화 ㄷ)예측 ㄹ)확립 ㅁ)불완전 ㅂ)수행 ㅅ)관리
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44736,24 +44520,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;하드웨어 관련 신기술&gt;
-- Memristor; Memory와 Register의 합성어로 전원 공급이 끊어져도 다시 전원이 공급되면 기존의 상태가 그대로 ㅇㅇ됨.
-- MEMS; 초정밀 반도체 제조 기술을 바탕으로 센서, 액추에이터 등 기계 구조를 다양한 기술로 미세 가공하여 전기기계적 동작을 할 수 있도록 한 ㅇㅇㅇ 장치
-- N-Screen; PC, TV, 휴대폰에서 원하는 ㅇㅇㅇ를 끊임없이 자유롭게 이용할 수 있는 서비스
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>고정, 일, 보호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;해쉬 기법&gt;
-- 임의의 길이의 입력 데이터를 받아 ㅇㅇ된 길이의 해쉬 값으로 변환함.
-- 대표적인 해쉬 알고리즘으로 HAVAL, SHA-1 등이 있음.
-- 해시 함수는 ㅇ방향 함수임.
-- 데이터의 암호화, 무결성 검증을 위해 사용될 뿐만 아니라 정보 ㅇㅇ의 다양한 분야에서 활용됨.
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44761,32 +44528,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;IPSec&gt;
-- 암호화와 복호화가 모두 가능한 ㅇ방향 암호 방식
-- ESP는 발신지 인증, 데이터 무결성, ㅇㅇ성 모두를 보장함.
-- ㅇㅇ 모드는 Tunnel 모드와 Transport 모드로 분류됨.
-- AH는 발신지 호스트를 인증하고, IP 패킷의 ㅇㅇ성을 보장함.
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">메모리상에서 프로그램의 복귀 주소와 변수 사이에 특정 값을 저장해 두었다가 그 값이 변경되었을 경우 오버플로우 상태로 가정하여 프로그램 실행을 중단하는 기술은?
-1)Stack Guard    2)Bridge    3)ASLR    4)FIN
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>인증, 접근, 객체, 경로, 축소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Secure OS의 보안 기능&gt;
-- 식별 및 ㅇㅇ
-- 임의적/강제적 ㅇㅇ 통제
-- ㅇㅇ 재사용 보호
-- 신뢰 ㅇㅇ
-- 감사 및 감사 기록 ㅇㅇ
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44794,41 +44536,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ㅇㅇㅇㅇ; 서버에 열린 포트 정보를 스캐닝해서 보안 취약점을 찾는데 사용하는 도구
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ㅇㅇㅇ; 서로 다른 네트워크 대역에 있는 호스트들 상호 간에 통신할 수 있도록 해주는 네트워크 장비
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>개인, 공개, 공개, 개인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;암호화 기법&gt;
-- ㅇㅇ키 암호화 기법은 동일한 키로 데이터를 암호화하고 복호화함.
-- ㅇㅇ키 암호화 기법은 암호화는 데이터베이스 사용자에게 공개하는 공개키, 복호화는 관리자가 비밀리에 관리하는 비밀키 사용함.
-- RSA, ECC는 ㅇㅇ키 기법임.
-- AES는 ㅇㅇ키 기법임.
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">크래커가 침입하여 백도어를 만들어 놓거나, 설정 파일을 변경했을 때 분석하는 도구는?
-1)tripwire    2)tcpdump    3)cron    4)netcat
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">다음 내용이 설명하는 것은?
-- 사물 통신, 사물 인터넷과 같이 대역폭이 제한된 통신 환경에 최적화하여 개발된 푸시기술 기반의 경량 메시지 전송 프로토콜
-- 메시지 매개자(Broker)를 통해 송신자가 틍정 메시지를 발행하고 수신자가 메시지를 구독하는 방식
-- IBM이 주도하는 개발
-1)GRID    2)TELNET    3)GPN    4)MQTT
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44836,40 +44544,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;나선형 모형의 수행 과정&gt;
-ㅇㅇ 및 정의 -&gt; ㅇㅇ 분석 -&gt; 공학적 ㅇㅇ -&gt; 고객 ㅇㅇ
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LOC 기법에 의하여 예측된 총 라인수가 36,000라인, 개발에 참여할 프로그래머가 6명, 프로그래머들의 평균 생산성이 월간 300라인일 때 개발에 소요되는 기간은?                         정답 기입 예시) 11
--&gt; ㅇㅇ개월
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>구조, 객체, 정보, 컴포넌트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;개발 방법론&gt;
-- ㅇㅇ적 방법론; 정형화된 분석 절차에 따라 사용자 요구 사항을 파악하여 문서화하는 처리 중심의 방법론
-- ㅇㅇ 지향 방법론; 현실 세계의 개체를 기계의 부품처럼 하나의 객체로 만들어, 소프트웨어를 개발할 때 기계의 부품을 조립하듯이 객체들을 조립해서 필요한 소프트웨어를 구현
-- ㅇㅇ 공학 방법론; 정보 시스템의 개발을 위해 계획, 분석, 설계, 구축에 정형화된 기법들을 상호 연관성 있게 통합 및 적용하는 자료 중심의 방법론
-- ㅇㅇㅇㅇ 기반 방법론(CBD); 기존의 시스템이나 소프트웨어를 구성하는 컴포넌트를 조합하여 하나의 새로운 애플리케이션을 만드는 방법론
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Baas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ㅇㅇㅇㅇ&gt;                                             정답 기입 예시) Yumi
-- 블록체인(Blockchain) 개발 환경을 클라우드로 서비스하는 개념
-- 블록체인 네트워크에 노드의 추가 및 제거가 용이
-- 블록체인의 기본 인프라를 추상화하여 블록체인 응용 프로그램을 만들 수 있는 클라우드 컴퓨팅 플랫폼
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -48058,6 +47737,4726 @@
   </si>
   <si>
     <t xml:space="preserve">릴리즈, </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>접근 통제 기술</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+- 임의 접근 통제(Discretionary Access Control); 데이터에 접근하는 사용자의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에 따라 접근 권한을 부여하는 방식
+- 강제 접근 통제(Mandatory Access Control); 주체와 객체의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">을 비교하여 접근 권한을 부여하는 방식
+- 역할 기반 접근 통제(Role Based Access Control); 사용자의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에 따라 접근 권한을 부여하는 방식
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">구글의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구글 브레인 팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이 제작하여 공개한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 기계 학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(Machine Leaming)을 위한 오픈 소스 소프트웨어 라이브러리는?
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">타조(Tajo) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원 세그(One Seg)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">포스퀘어(Foursquare) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">텐서플로(TensorFlow)
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>국내 IT 서비스 경쟁력 강화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 목표로 개발되었으며 인프라 제어 및 관리 환경, 실행 환경, 개발 환경, 서비스 환경, 운영 환경으로 구성되어 있는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개방형 클라우드 컴퓨팅 플랫폼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은?
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>N20S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">PaaS-TA  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">  3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">KAWS  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">  4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Metaverse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;침입 탐지 시스템(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>IDS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: Intrusion Detection System)&gt;
+- 외부 인터넷에 서비스를 제공하는 서버가 위치하는 네트워크인 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>DMZ(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Demilitarized Zone)에는 IDS가 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">될 수 있음.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 탐지 기법(Misuse Detection): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Signature Base</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Knowledge Base</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">라 불리며 이미 발견되고 정립된 공격 패턴을 입력해두었다가 탐지 및 차단함.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 탐지 기법(Anomaly Detection):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Behavior</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Statistical Detection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">로 불리며 평균적인 시스템의 상태를 기준으로 비정상적인 행위나 자원 사용이 감지되면 이를 알려줌.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>HIDS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Host-Based Intrusion Detection)는 운영 체제에 설정된 사용자 계정에 따라 어떤 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">가 어떤 접근을 시도하고 어떤 작업을 했는지에 대한 기록을 남기고 추적함.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>NIDS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Network-Based Intrusion Detection System)로는 대표적으로 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Snort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">가 있음.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;정보 보안을 위한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>접근 제어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+- 적절한 권한을 가진 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인가자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">만 특정 시스템이나 정보에 접근할 수 있도록 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">하는 것임.
+- 시스템 및 네트워크에 대한 접근 제어의 가장 기본적인 수단은 IP와 서비스 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">로 볼 수 있음.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 장비에서 수행하는 IP에 대한 접근 제어로는 관리 인터페이스의 접근제어와 ACL(Access Control List)등이 있음.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>물리적 배치와 상관 없이 논리적으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> LAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">을 구성하여 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Broadcast Domain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을 구분할 수 있게 해주는 기술로 접속된 장비들의 성능 향상 및 보안성 증대 효과가 있는 것은?
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">VLAN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>STP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">L2AN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ARP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>SQL Injection 공격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>&gt;
+- 임의로 작성한 SQL 구문을 애플리케이션에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">하는 공격 방식
+- 취약점이 발생하는 곳은 주로 웹 애플리케이션과 데이터페이스가 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">되는 부분임.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 종류에 따라 공격 기법이 다름.
+- 로그인과 같이 웹에서 사용자의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ㅇㅇ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">값을 받아 데이터베이스 SQL문으로 데이터를 요청하는 경우 SQL Injection을 수행할 수 있음.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비대칭 암호화 방식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로 소수를 활용한 암호화 알고리즘은?
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">DES   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">AES   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>SMT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>RSA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>SDS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Software Defined Storage); 컴퓨팅 소프트웨어로 규정하는 데이터 스토리지 체계이며, 일정 조직 내 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ㅇㅇ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">스토리지를 하나처럼 관리하고 운용함.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>DAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Direct Attached Storage); 서버와 저장 장치를 전용 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">로 직접 연결하는 방식으로, 일반 가정에서 컴퓨터에 외장 하드를 연결하는 것
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>NAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Network Attached Storage); 서버와 저장 장치를 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 통해 연결하는 방식
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>SAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Storage Area Network); DAS의 빠른 처리와 NAS의 파일 공유 장점을 혼합한 방식으로, 서버와 저장 장치를 연결하는 전용 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 별도 구성
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>COCOMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의 소프트웨어 개발 유형&gt;                      정답 기입 예시) 1, 11, 11
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 조직형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Organic Mode); 기관 내부에서 개발된 중/소 규모의 소프트웨어로 일괄 자료 처리 등 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만 라인 이하의 소프트웨어를 개발하는 유형
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 반분리형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Semi-Detached Mode); 조직형과 내장형의 중간형으로, 트랜잭션 처리 시스템이나 운영체제, 데이터베이스 관리 시스템 등의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">만 라인 이하의 소프트웨어 개발 
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내장형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Embedded Mode); 최대형 규모의 트랜잭션 처리 시스템이나 운영체제 등의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">만 라인 이상의 소프트웨어 개발하는 유형
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">개인과 기업, 국가적으로 큰 위협이 되고 있는 주요 사이버 범죄 중 하나로 Snake, Darkside 등 시스템을 잠그거나 데이터를 암호화해 사용할 수 없도록 하고 이를 인질로 금전을 요구하는 데 사용되는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>악성 프로그램</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Format String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Ransomware</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Buffer Overflow </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Adware</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소프트웨어 생명 주기 모형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>폭포수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 모형(Waterfall Model); 폭포에서 한 번 떨어진 물은 거슬러 올라갈 수 없듯이 소프트웨어 개발도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 단계로 돌아갈 수 없다는 전제하에 각 단계를 확실히 매듭짓고 그 결과를 철저하게 검토하여 승인 과정을 거친 후에 다음 단계를 진행하는 개발 방법론.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">프로토타입 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모형(Prototype Model); 사용자의 요구 사항을 정확히 파악하기 위해 실제 개발될 소프트웨어에 대한 견본품을 만들어 최종 결과물을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">하는 모형
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나선형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 모형(Spiral Model); 폭포수 모형과 프로토타입 모형의 장점에 위험 분석 기능을 추가한 모형으로, 나선을 따라 돌듯이 여러 번의 소프트웨어 개발 과정을 거쳐 점진적으로 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">한 최종 소프트웨어를 개발함.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>애자일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 모형(Agile Model); 고객의 요구사항 변화에 유연하게 대응할 수 있도록 일정한 주기를 반복하면서 개발 과정을 진행하는 모형으로, 어느 특정 개발 방법론이 아니라 좋은 것을 빠르고 낭비 없게 만들기 위해 고객과의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에 초점을 맞춘 방법론
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;Spiral Model&gt;
+- 비교적 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 시스템에 적합함.
+- 개발 순서는 계획 및 정의, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ㅇㅇ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">분석, 공학적 개발, 고객 평가 순으로 진행됨.
+- 소프트웨어를 개발하면서 발생할 수 있는 위험을 관리하고 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">하는 것을 목적으로 함.
+- 계획 수립, 위험 분석, 개발 및 검증, 고객 평가 과정을 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">하며 수행
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">특정 사이트에 매우 많은 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ICMP Echo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를 보내면, 이에 대한 응답을 하기 위해 시스템 자원을 모두 사용해버려 시스템이 정상적으로 동작하지 못하도록 하는 공격 방법은?
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Role-Based Access Control</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Ping Flood </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Brute-force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Trojan Horses
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>TCP/IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 기반 네트워크에서 동작하는 발행/구독 기반의 메시징 프로토콜로 최근 IoT 환경에서 자주 사용되고 있는 프로토콜
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 시스템이 몇 대가 되어도 하나의 시스템에서 인증에 성공하면 다른 시스템에 대한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>접근 권한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">도 얻는 시스템
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 시스템에 저장되는 패스워드들은 Hash 또는 암호화 알고리즘의 결과 값으로 저장됨. 이때 암호공격을 막기 위해 똑같은 패스워드들이 다른 암호 값으로 저장되도록 추가하는 값을 의미함.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비용 산정 방법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>&gt;
+- LOC 기법; S/W 각 기능의 원시 코드 라인 수의 비관치, 낙관치, 기대치를 측정하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇ치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 구하고 이를 이용하여 비용을 산정
+- Effort Per Task 기법; 각 기능을 구현시키는 데 필요한 노력을 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 주기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 각 단계별로 산정
+- 전문가 감정 기법; 두 명 이상의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에게 비용 산정을 의뢰하는 기법으로 주관적이나 가장 편리하고 신속함.
+- 델파이 기법; 전문가 기법의 주관적인 편견을 보완하기 위해 많은 전문가의 의견을 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">하여 선정하는 기법
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 오픈소스 웹 애플리케이션 보안 프로젝트로서 주로 웹을 통한 정보 유출, 악성 파일 및 스크립트, 보안 취약점 등을 연구하는 곳
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">다음 내용이 설명하는 것은?
+- 네트워크상에 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>광채널 스위치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의 이점인 고속 전송과 장거리 연결 및 멀티 프로토콜 기능을 활용
+- 각기 다른 운영체제를 가진 여러 기종들이 네트워크상에서 동일 저장 장치의 데이터를 공유하게 함으로써, 여러 개의 저장 장치나 백업 장비를 단일화시킨 시스템
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">SAN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">MBR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>NAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>NIC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>SSH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Secure Shell)&gt;
+- 기본 네트워크 포트는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을 사용함.
+- 전송되는 데이터는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇ화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">됨.
+- 키를 통한 인증은 클라이언트의 공개키를 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에 등록해야 함.
+- 서로 연결되어 있는 컴퓨터 간 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ㅇㅇ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">명령 실행이나 셀 서비스 등을 수행함.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">다음 내용이 설명하는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>접근 제어 모델</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은?
+- 군대의 보안 레벨처럼 정보의 기밀성에 따라 상하 관계가 구분된 정보를 보호하기 위해 사용
+- 자신의 권한 보다 낮은 보안 레벨 권한을 가진 경우에는 높은 보안 레벨의 문서를 읽을 수 없고 자신의 권한보다 낮은 수준의 문서만 읽을 수 있음.
+- 자신의 권한보다 높은 보안 레벨의 문서에는 쓰기가 가능하지만 보안 레벨이 낮은 문서의 쓰기 권한은 제한함.
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Clark-Wilson Integrity Model
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>PDCA Model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Bell-Lapadula Model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Chinese Wall Model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 하둡(Hadoop)과 관계형 데이터베이스 간에 데이터를 전송할 수 있도록 설계된 도구
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;라우팅 프로토콜인 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>OSPF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Open Shortest Path First)&gt;
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ 변화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에 신속하게 대처할 수 있음.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ캐스팅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">을 지원함.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇ 수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에 재한이 없으므로 대규모 네트워크에서 많이 사용함.
+- 최단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇ 탐색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에 Dijkstra 알고리즘 사용
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;소프트웨어 비용 추정 모형&gt;
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">COCOMO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">모형; 개발할 소프트웨어의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ(LOC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 예측한 후 이를 소프트웨어 종류에 따라 다르게 책정되는 비용 산정 방정식에 대입함.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Putnam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 모형; 소프트웨어 생명 주기의 전 과정 동안에 사용될 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 분포를 가정해 주는 모형으로 생명 주기 예측 모형이라고도 함.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능점수(Function-Point)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 모형; 소프트웨어의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">을 증대시키는 요인별로 가중치를 부여하고, 요인별 가중치를 합산하여 총 점수를 산출한 것과 영향도를 이용하여 기능 점수(FP)를 구한 후 이를 이용해서 비용을 산정
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 오류&gt;
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 오류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Transcription Error); 입력시 임의의 한 자리를 잘못 기록(12345 -&gt; 12745)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 오류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Transpoision Error); 입력시 좌우 자리를 바꾸어 기록한 경우(12345 -&gt; 12435)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 오류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Double Transpoision Error); 전위 오류가 2개 이상 발생한 경우(12345 -&gt; 13254)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 오류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Omission Error); 입력시 한 자리를 빼놓고 기록한 경우(12345 -&gt; 1245)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 오류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(Addition Error); 입력시 한 자리를 더 추가하여 기록(12345 -&gt; 123456)
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇ 오류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Random Error); 오류가 두 가지 이상 결합하여 발생한 경우(12345 -&gt; 127435)
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ISO/IEC 12207</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 생명 주기 프로세스; 획득, 공급, 개발, 운영, 유지보수 프로세스
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 생명 주기 프로세스; 품질 보증, 검증 확인, 활동 검토, 감사, 문서화, 형상 관리, 문제 해결 프로세스
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ㅇㅇ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">생명 주기 프로세스; 관리, 기반 구조, 훈련, 개선 프로세스
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">소프트웨어 비용 산정 기법 중 개발 유형으로 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Organic, Semi-Detached, Embedded</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로 구분되는 것은?
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">PUTNAM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">COCOMO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>FP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>SLIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>SPICE 모델</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로세스 수행 능력 단계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를 수준 0부터 수준 5까지 순서대로 말하시오.         정답 기입 예시) ㄱ, ㄴ, ㄷ, ㄹ, ㅁ, ㅂ
+ㄱ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">미완성 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㄴ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">최적화 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㄷ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예측</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㄹ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확립</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅁ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불완전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅂ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅅ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하드웨어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 관련 신기술&gt;
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Memristor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; Memory와 Register의 합성어로 전원 공급이 끊어져도 다시 전원이 공급되면 기존의 상태가 그대로 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">됨.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>MEMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 초정밀 반도체 제조 기술을 바탕으로 센서, 액추에이터 등 기계 구조를 다양한 기술로 미세 가공하여 전기기계적 동작을 할 수 있도록 한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ㅇㅇㅇ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">장치
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>N-Screen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; PC, TV, 휴대폰에서 원하는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">를 끊임없이 자유롭게 이용할 수 있는 서비스
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해쉬 기법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>&gt;
+- 임의의 길이의 입력 데이터를 받아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">된 길이의 해쉬 값으로 변환함.
+- 대표적인 해쉬 알고리즘으로 HAVAL, SHA-1 등이 있음.
+- 해시 함수는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇ방향</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 함수임.
+- 데이터의 암호화, 무결성 검증을 위해 사용될 뿐만 아니라 정보 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 다양한 분야에서 활용됨.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>IPSec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+- 암호화와 복호화가 모두 가능한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ㅇ방향 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>암호 방식
+- ESP는 발신지 인증, 데이터 무결성,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇ성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 모두를 보장함.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 모드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">는 Tunnel 모드와 Transport 모드로 분류됨.
+- AH는 발신지 호스트를 인증하고, IP 패킷의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">을 보장함.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>메모리상에서 프로그램의 복귀 주소와 변수 사이에 특정 값을 저장해 두었다가 그 값이 변경되었을 경우 오버플로우 상태로 가정하여 프로그램 실행을 중단하는 기술은?
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Stack Guard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Bridge </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ASLR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>FIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Secure OS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 보안 기능&gt;
+- 식별 및 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 임의적/강제적 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 통제
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ㅇㅇ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">재사용 보호
+- 신뢰 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 감사 및 감사 기록 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 서버에 열린 포트 정보를 스캐닝해서 보안 취약점을 찾는데 사용하는 도구
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 서로 다른 네트워크 대역에 있는 호스트들 상호 간에 통신할 수 있도록 해주는 네트워크 장비
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;암호화 기법&gt;
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ키</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 암호화 기법은 동일한 키로 데이터를 암호화하고 복호화함.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ㅇㅇ키 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">암호화 기법은 암호화는 데이터베이스 사용자에게 공개하는 공개키, 복호화는 관리자가 비밀리에 관리하는 비밀키 사용함.
+- RSA, ECC는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ키</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 기법임.
+- AES는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇ키</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 기법임.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크래커</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가 침입하여 백도어를 만들어 놓거나, 설정 파일을 변경했을 때 분석하는 도구는?
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>tripwire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>tcpdump</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">cron </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">netcat
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>다음 내용이 설명하는 것은?
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 사물 통신, 사물 인터넷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과 같이 대역폭이 제한된 통신 환경에 최적화하여 개발된 푸시기술 기반의 경량 메시지 전송 프로토콜
+- 메시지 매개자(Broker)를 통해 송신자가 틍정 메시지를 발행하고 수신자가 메시지를 구독하는 방식
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> IBM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이 주도하는 개발
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">GRID  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">  2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>TELNET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>GPN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">MQTT
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나선형 모형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 수행 과정&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ㅇㅇ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">및 정의 -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; 공학적 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; 고객 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>LOC 기법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에 의하여 예측된 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총 라인수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 36,000라인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, 개발에 참여할 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로그래머</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">가 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>6명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, 프로그래머들의 평균</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 생산성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이 월간 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>300라인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일 때 개발에 소요되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 기간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">은?                         정답 기입 예시) 11
+-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ개월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발 방법론</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ적 방법론</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 정형화된 분석 절차에 따라 사용자 요구 사항을 파악하여 문서화하는 처리 중심의 방법론
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 지향 방법론</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 현실 세계의 개체를 기계의 부품처럼 하나의 객체로 만들어, 소프트웨어를 개발할 때 기계의 부품을 조립하듯이 객체들을 조립해서 필요한 소프트웨어를 구현
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 공학 방법론</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 정보 시스템의 개발을 위해 계획, 분석, 설계, 구축에 정형화된 기법들을 상호 연관성 있게 통합 및 적용하는 자료 중심의 방법론
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ 기반 방법론(CBD)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 기존의 시스템이나 소프트웨어를 구성하는 컴포넌트를 조합하여 하나의 새로운 애플리케이션을 만드는 방법론
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt;                                             정답 기입 예시) Yumi
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블록체인(Blockchain)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 개발 환경을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 클라우드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">로 서비스하는 개념
+- 블록체인 네트워크에 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>노드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 추가 및 제거가 용이
+- 블록체인의 기본 인프라를 추상화하여 블록체인 응용 프로그램을 만들 수 있는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클라우드 컴퓨팅 플랫폼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -48484,8 +52883,8 @@
   </sheetPr>
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
@@ -48520,17 +52919,17 @@
     <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A33" ca="1" si="0">RAND()</f>
-        <v>0.7995406999529816</v>
+        <v>1.5634127989886615E-2</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B33" si="1">IF(C2=D2,"O","X")</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
-        <v>2</v>
+      <c r="D2" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>4</v>
@@ -48545,7 +52944,7 @@
     <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45300568610219338</v>
+        <v>0.40533642990961005</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -48570,7 +52969,7 @@
     <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33221240904052063</v>
+        <v>0.59226381983122922</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -48580,7 +52979,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>600</v>
+        <v>557</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -48595,20 +52994,20 @@
     <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20138821771456883</v>
+        <v>5.7545775057221471E-2</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>576</v>
+        <v>533</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>601</v>
+        <v>558</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>575</v>
+        <v>532</v>
       </c>
       <c r="F5" s="1">
         <v>202108</v>
@@ -48620,20 +53019,20 @@
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13536877821774951</v>
+        <v>1.2846888847666826E-2</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>602</v>
+        <v>559</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>577</v>
+        <v>534</v>
       </c>
       <c r="F6" s="1">
         <v>202108</v>
@@ -48645,20 +53044,20 @@
     <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74713125836936056</v>
+        <v>0.64798904805448387</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>O</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>579</v>
+        <v>536</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>579</v>
+        <v>536</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>580</v>
+        <v>537</v>
       </c>
       <c r="F7" s="1">
         <v>202108</v>
@@ -48670,7 +53069,7 @@
     <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14838812660053491</v>
+        <v>0.74550802738348898</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -48695,20 +53094,20 @@
     <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8982505337206477E-2</v>
+        <v>0.42722778574613174</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>O</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>582</v>
+        <v>539</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>582</v>
+        <v>539</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>581</v>
+        <v>538</v>
       </c>
       <c r="F9" s="1">
         <v>202108</v>
@@ -48720,7 +53119,7 @@
     <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28243155834226752</v>
+        <v>0.42246228464275248</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -48745,20 +53144,20 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74298953456426142</v>
+        <v>0.35589459059375939</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>O</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>584</v>
+        <v>541</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>584</v>
+        <v>541</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>583</v>
+        <v>540</v>
       </c>
       <c r="F11" s="1">
         <v>202108</v>
@@ -48770,20 +53169,20 @@
     <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.500938345743414</v>
+        <v>0.89866501282302935</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>586</v>
+        <v>543</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>603</v>
+        <v>560</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>585</v>
+        <v>542</v>
       </c>
       <c r="F12" s="1">
         <v>202108</v>
@@ -48795,7 +53194,7 @@
     <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97842000771047988</v>
+        <v>0.75185940557796471</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -48817,17 +53216,17 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57301678177681736</v>
+        <v>0.78363128924611525</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>587</v>
+        <v>544</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>588</v>
+        <v>545</v>
       </c>
       <c r="F14" s="1">
         <v>202108</v>
@@ -48839,7 +53238,7 @@
     <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28549632089962129</v>
+        <v>9.1696205885578808E-2</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -48861,17 +53260,17 @@
     <row r="16" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58299303969362271</v>
+        <v>0.30001267813769594</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>589</v>
+        <v>546</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>590</v>
+        <v>547</v>
       </c>
       <c r="F16" s="1">
         <v>202108</v>
@@ -48883,7 +53282,7 @@
     <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47095843183952479</v>
+        <v>0.2568635378066696</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -48905,7 +53304,7 @@
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10794675349004401</v>
+        <v>0.55557697686733554</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -48927,17 +53326,17 @@
     <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76991880181091454</v>
+        <v>0.58398063875684125</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>592</v>
+        <v>549</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>591</v>
+        <v>548</v>
       </c>
       <c r="F19" s="1">
         <v>202105</v>
@@ -48949,7 +53348,7 @@
     <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54933020655795839</v>
+        <v>0.35361909688667614</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -48971,7 +53370,7 @@
     <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38450709557023355</v>
+        <v>0.90365143176747487</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -48993,7 +53392,7 @@
     <row r="22" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4782180095559333</v>
+        <v>0.35798847933124123</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49015,7 +53414,7 @@
     <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79480945063152741</v>
+        <v>0.96613704448673865</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49037,7 +53436,7 @@
     <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7081312438698395</v>
+        <v>0.67992333120286552</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49059,7 +53458,7 @@
     <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17274660194152947</v>
+        <v>0.30399685935508891</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49081,7 +53480,7 @@
     <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14738333071650356</v>
+        <v>0.18739964857070157</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49103,7 +53502,7 @@
     <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2810171261604768</v>
+        <v>0.53291416311790185</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49125,7 +53524,7 @@
     <row r="28" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80937172824279335</v>
+        <v>0.60770441775759887</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49147,7 +53546,7 @@
     <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38386150960228471</v>
+        <v>0.90578353934880973</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49169,7 +53568,7 @@
     <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32352401581857348</v>
+        <v>0.91908123182580814</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49191,7 +53590,7 @@
     <row r="31" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53007192411814386</v>
+        <v>0.88577466750461942</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49213,14 +53612,14 @@
     <row r="32" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70941545461477684</v>
+        <v>0.82970916956200247</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>593</v>
+        <v>550</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>41</v>
@@ -49235,7 +53634,7 @@
     <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.505820767224756</v>
+        <v>0.97805116031392636</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -49257,7 +53656,7 @@
     <row r="34" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" ref="A34:A97" ca="1" si="2">RAND()</f>
-        <v>0.65078758007892656</v>
+        <v>0.9775875809362341</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" ref="B34:B49" si="3">IF(C34=D34,"O","X")</f>
@@ -49279,7 +53678,7 @@
     <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6488818976721028</v>
+        <v>8.6687556852563463E-2</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49301,7 +53700,7 @@
     <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70250937125716972</v>
+        <v>0.27812407511446713</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49323,7 +53722,7 @@
     <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87698090115613259</v>
+        <v>0.59942088711791808</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49345,7 +53744,7 @@
     <row r="38" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54127962611458469</v>
+        <v>0.2567745093824253</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49367,17 +53766,17 @@
     <row r="39" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1660836959498051</v>
+        <v>0.85013681602234448</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>594</v>
+        <v>551</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>595</v>
+        <v>552</v>
       </c>
       <c r="F39" s="1">
         <v>202103</v>
@@ -49389,7 +53788,7 @@
     <row r="40" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87034637889734923</v>
+        <v>0.83869075437769181</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49411,7 +53810,7 @@
     <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36556790546107032</v>
+        <v>0.46134889172970994</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49433,7 +53832,7 @@
     <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69784513817612981</v>
+        <v>0.82698757946167223</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49455,17 +53854,17 @@
     <row r="43" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8304961131789734E-2</v>
+        <v>0.20070818993706141</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>596</v>
+        <v>553</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>597</v>
+        <v>554</v>
       </c>
       <c r="F43" s="1">
         <v>202103</v>
@@ -49477,7 +53876,7 @@
     <row r="44" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99507934508820106</v>
+        <v>0.61606723046367085</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49499,7 +53898,7 @@
     <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64262074823199378</v>
+        <v>0.71944994844547605</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49521,7 +53920,7 @@
     <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34875883699814803</v>
+        <v>0.22465502498610235</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49543,7 +53942,7 @@
     <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27584415325520328</v>
+        <v>0.41860504178246116</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49565,7 +53964,7 @@
     <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97235758016721097</v>
+        <v>0.85186182328681437</v>
       </c>
       <c r="B48" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49587,7 +53986,7 @@
     <row r="49" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82382725655506106</v>
+        <v>0.26279320332613276</v>
       </c>
       <c r="B49" s="3" t="str">
         <f t="shared" si="3"/>
@@ -49609,7 +54008,7 @@
     <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27311627921444281</v>
+        <v>8.2583603327359811E-2</v>
       </c>
       <c r="B50" s="3" t="str">
         <f t="shared" ref="B50:B65" si="4">IF(C50=D50,"O","X")</f>
@@ -49631,7 +54030,7 @@
     <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11865968637712387</v>
+        <v>0.54236164635717421</v>
       </c>
       <c r="B51" s="3" t="str">
         <f t="shared" si="4"/>
@@ -49653,7 +54052,7 @@
     <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39105649595286884</v>
+        <v>0.27785661049331223</v>
       </c>
       <c r="B52" s="3" t="str">
         <f t="shared" si="4"/>
@@ -49675,7 +54074,7 @@
     <row r="53" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9240473265486403</v>
+        <v>0.84920696677070318</v>
       </c>
       <c r="B53" s="3" t="str">
         <f t="shared" si="4"/>
@@ -49697,7 +54096,7 @@
     <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46578148715972101</v>
+        <v>0.31959742860213769</v>
       </c>
       <c r="B54" s="3" t="str">
         <f t="shared" si="4"/>
@@ -49719,7 +54118,7 @@
     <row r="55" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.372813806404984E-2</v>
+        <v>0.42988678762749233</v>
       </c>
       <c r="B55" s="3" t="str">
         <f t="shared" si="4"/>
@@ -49741,7 +54140,7 @@
     <row r="56" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32242144865559119</v>
+        <v>0.36865730466674029</v>
       </c>
       <c r="B56" s="3" t="str">
         <f t="shared" si="4"/>
@@ -49763,7 +54162,7 @@
     <row r="57" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87399520150082677</v>
+        <v>0.15796476738724485</v>
       </c>
       <c r="B57" s="3" t="str">
         <f t="shared" si="4"/>
@@ -49785,7 +54184,7 @@
     <row r="58" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81928744983037083</v>
+        <v>0.46390802141810761</v>
       </c>
       <c r="B58" s="3" t="str">
         <f t="shared" si="4"/>
@@ -49807,7 +54206,7 @@
     <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56109344929602933</v>
+        <v>2.6676293201179258E-2</v>
       </c>
       <c r="B59" s="3" t="str">
         <f t="shared" si="4"/>
@@ -49829,7 +54228,7 @@
     <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66261373728158102</v>
+        <v>0.46203741926301556</v>
       </c>
       <c r="B60" s="3" t="str">
         <f t="shared" si="4"/>
@@ -49851,7 +54250,7 @@
     <row r="61" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95823508957529746</v>
+        <v>0.58225371764989819</v>
       </c>
       <c r="B61" s="3" t="str">
         <f t="shared" si="4"/>
@@ -49873,7 +54272,7 @@
     <row r="62" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39112745535412041</v>
+        <v>0.44651624536039192</v>
       </c>
       <c r="B62" s="3" t="str">
         <f t="shared" si="4"/>
@@ -49895,7 +54294,7 @@
     <row r="63" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85195203201824521</v>
+        <v>0.50879837810573203</v>
       </c>
       <c r="B63" s="3" t="str">
         <f t="shared" si="4"/>
@@ -49917,7 +54316,7 @@
     <row r="64" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20286451345629208</v>
+        <v>0.9144050925575562</v>
       </c>
       <c r="B64" s="3" t="str">
         <f t="shared" si="4"/>
@@ -49939,7 +54338,7 @@
     <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93530112854883274</v>
+        <v>0.19339934779814449</v>
       </c>
       <c r="B65" s="3" t="str">
         <f t="shared" si="4"/>
@@ -49961,7 +54360,7 @@
     <row r="66" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36469778715884338</v>
+        <v>0.81724984183256921</v>
       </c>
       <c r="B66" s="3" t="str">
         <f t="shared" ref="B66:B97" si="5">IF(C66=D66,"O","X")</f>
@@ -49983,7 +54382,7 @@
     <row r="67" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31313462114609891</v>
+        <v>0.25552001833865323</v>
       </c>
       <c r="B67" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50005,7 +54404,7 @@
     <row r="68" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63016903198462038</v>
+        <v>0.49301988942281627</v>
       </c>
       <c r="B68" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50027,7 +54426,7 @@
     <row r="69" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70161918774487964</v>
+        <v>0.94485446332442025</v>
       </c>
       <c r="B69" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50049,7 +54448,7 @@
     <row r="70" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69164694505481839</v>
+        <v>0.15963326441559889</v>
       </c>
       <c r="B70" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50071,7 +54470,7 @@
     <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76491092537509164</v>
+        <v>3.5632299260366374E-2</v>
       </c>
       <c r="B71" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50093,7 +54492,7 @@
     <row r="72" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84949413748041447</v>
+        <v>0.72382468587692372</v>
       </c>
       <c r="B72" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50115,7 +54514,7 @@
     <row r="73" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75327238914683625</v>
+        <v>0.82036998463041155</v>
       </c>
       <c r="B73" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50137,7 +54536,7 @@
     <row r="74" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2737114571858088</v>
+        <v>0.81723610309334838</v>
       </c>
       <c r="B74" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50159,7 +54558,7 @@
     <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96099661556718297</v>
+        <v>0.43927246810316867</v>
       </c>
       <c r="B75" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50181,7 +54580,7 @@
     <row r="76" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4392807580660878E-2</v>
+        <v>0.45526369542335576</v>
       </c>
       <c r="B76" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50203,7 +54602,7 @@
     <row r="77" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31627549194948534</v>
+        <v>0.89002622214379989</v>
       </c>
       <c r="B77" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50225,7 +54624,7 @@
     <row r="78" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5118586867585937</v>
+        <v>0.6863047743842956</v>
       </c>
       <c r="B78" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50247,7 +54646,7 @@
     <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33288383995567472</v>
+        <v>0.84624173064296793</v>
       </c>
       <c r="B79" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50269,17 +54668,17 @@
     <row r="80" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32567889921500737</v>
+        <v>0.2680201597401507</v>
       </c>
       <c r="B80" s="3" t="str">
         <f t="shared" si="5"/>
         <v>X</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>598</v>
+        <v>555</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>599</v>
+        <v>556</v>
       </c>
       <c r="F80" s="1">
         <v>202008</v>
@@ -50291,7 +54690,7 @@
     <row r="81" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49103357705009421</v>
+        <v>0.57723927181625545</v>
       </c>
       <c r="B81" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50313,7 +54712,7 @@
     <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8123389943239141</v>
+        <v>5.7659087798160535E-2</v>
       </c>
       <c r="B82" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50335,7 +54734,7 @@
     <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82907387034421165</v>
+        <v>0.3099404478092439</v>
       </c>
       <c r="B83" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50357,7 +54756,7 @@
     <row r="84" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72073151220741127</v>
+        <v>4.2623434847264052E-2</v>
       </c>
       <c r="B84" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50379,7 +54778,7 @@
     <row r="85" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26617368890863635</v>
+        <v>0.91439494805983912</v>
       </c>
       <c r="B85" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50401,7 +54800,7 @@
     <row r="86" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48570546756400002</v>
+        <v>0.4183023335156385</v>
       </c>
       <c r="B86" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50423,7 +54822,7 @@
     <row r="87" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72281782185508126</v>
+        <v>2.7432072795223528E-2</v>
       </c>
       <c r="B87" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50445,7 +54844,7 @@
     <row r="88" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44517086848969711</v>
+        <v>0.99244573848657047</v>
       </c>
       <c r="B88" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50467,7 +54866,7 @@
     <row r="89" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64256557581323337</v>
+        <v>0.64344134301679545</v>
       </c>
       <c r="B89" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50489,7 +54888,7 @@
     <row r="90" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11218103217050279</v>
+        <v>0.13462337070233799</v>
       </c>
       <c r="B90" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50511,7 +54910,7 @@
     <row r="91" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31267239730407559</v>
+        <v>0.58150844692622405</v>
       </c>
       <c r="B91" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50533,7 +54932,7 @@
     <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84831577271340586</v>
+        <v>6.577415800937636E-2</v>
       </c>
       <c r="B92" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50555,7 +54954,7 @@
     <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99133134932386036</v>
+        <v>0.11309067228833869</v>
       </c>
       <c r="B93" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50577,7 +54976,7 @@
     <row r="94" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59610458197916527</v>
+        <v>0.30843821292395279</v>
       </c>
       <c r="B94" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50599,7 +54998,7 @@
     <row r="95" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5033981489496915E-2</v>
+        <v>0.59136332259225277</v>
       </c>
       <c r="B95" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50621,7 +55020,7 @@
     <row r="96" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22449814265440304</v>
+        <v>0.92452328696855113</v>
       </c>
       <c r="B96" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50643,7 +55042,7 @@
     <row r="97" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30266467282701248</v>
+        <v>0.77151745855314857</v>
       </c>
       <c r="B97" s="3" t="str">
         <f t="shared" si="5"/>
@@ -50717,7 +55116,7 @@
     <row r="2" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A55" ca="1" si="0">RAND()</f>
-        <v>0.88054416678302205</v>
+        <v>0.91685199679924179</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B55" si="1">IF(C2=D2,"O","X")</f>
@@ -50739,7 +55138,7 @@
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15195309641399868</v>
+        <v>0.25501363078850203</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3" si="2">IF(C3=D3,"O","X")</f>
@@ -50761,7 +55160,7 @@
     <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16174697917596059</v>
+        <v>0.83066055759228852</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -50783,7 +55182,7 @@
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11471741349912401</v>
+        <v>3.035613879117105E-2</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -50805,7 +55204,7 @@
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39637745518049772</v>
+        <v>0.57316157190390438</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -50827,7 +55226,7 @@
     <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82776153632833172</v>
+        <v>0.41307354889184844</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -50849,7 +55248,7 @@
     <row r="8" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16849872588053982</v>
+        <v>0.22158197174170891</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -50871,7 +55270,7 @@
     <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59014523862664581</v>
+        <v>0.41376365075881605</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -50893,7 +55292,7 @@
     <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39312680424415958</v>
+        <v>5.7533702732617154E-2</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -50915,7 +55314,7 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89085017329211114</v>
+        <v>5.8003567108482423E-2</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -50975,7 +55374,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91102995517032681</v>
+        <v>0.72150187574436853</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -50997,7 +55396,7 @@
     <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82696306163863897</v>
+        <v>0.41697636768294777</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51019,7 +55418,7 @@
     <row r="16" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52251928212297316</v>
+        <v>0.71380572402059217</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51041,7 +55440,7 @@
     <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65349088979053116</v>
+        <v>0.33811942901554115</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51063,7 +55462,7 @@
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90233349661377804</v>
+        <v>0.32772926422888515</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51101,7 +55500,7 @@
     <row r="20" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85094595150839236</v>
+        <v>0.80998338987022023</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51123,7 +55522,7 @@
     <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74676013589577894</v>
+        <v>2.7162269752328605E-2</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51145,7 +55544,7 @@
     <row r="22" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41277019314046015</v>
+        <v>0.79022705628168433</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51167,7 +55566,7 @@
     <row r="23" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19605711059418218</v>
+        <v>0.50534895778264755</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51189,7 +55588,7 @@
     <row r="24" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96496504060813593</v>
+        <v>0.97453749184325655</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51211,7 +55610,7 @@
     <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36721826094270227</v>
+        <v>0.86509268735779599</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51233,7 +55632,7 @@
     <row r="26" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13225151976147287</v>
+        <v>0.53752685351918106</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51255,7 +55654,7 @@
     <row r="27" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83495420993422176</v>
+        <v>0.63845591573109362</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ref="B27:B28" si="3">IF(C27=D27,"O","X")</f>
@@ -51277,7 +55676,7 @@
     <row r="28" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27420173299381634</v>
+        <v>0.96694174622235762</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="3"/>
@@ -51299,7 +55698,7 @@
     <row r="29" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15025618162530119</v>
+        <v>0.44033462611410179</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51321,7 +55720,7 @@
     <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16425371075049899</v>
+        <v>0.69110123484170516</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51343,7 +55742,7 @@
     <row r="31" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48359390172601158</v>
+        <v>0.40964125451889222</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51365,7 +55764,7 @@
     <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2332087112214931E-2</v>
+        <v>0.71976825794707278</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51387,7 +55786,7 @@
     <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94625988804341676</v>
+        <v>0.33822653936332603</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51409,7 +55808,7 @@
     <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32740783066543311</v>
+        <v>6.4659467711164043E-2</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" ref="B34" si="4">IF(C34=D34,"O","X")</f>
@@ -51431,7 +55830,7 @@
     <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63164874502799484</v>
+        <v>0.32792263895111762</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51453,7 +55852,7 @@
     <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33957427422122344</v>
+        <v>0.18622174464495322</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51475,7 +55874,7 @@
     <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18018552798588017</v>
+        <v>0.90332685914222433</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51497,7 +55896,7 @@
     <row r="38" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95092484161041124</v>
+        <v>0.78734577753040391</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51519,7 +55918,7 @@
     <row r="39" spans="1:7" ht="144" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59069903793948519</v>
+        <v>0.48364641905759587</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51541,7 +55940,7 @@
     <row r="40" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97024599786435106</v>
+        <v>0.44878226553211276</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51563,7 +55962,7 @@
     <row r="41" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19216016201458508</v>
+        <v>0.95712646369963816</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" ref="B41:B42" si="5">IF(C41=D41,"O","X")</f>
@@ -51585,7 +55984,7 @@
     <row r="42" spans="1:7" ht="201.6" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8390636687539152E-2</v>
+        <v>0.44696176871174342</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="5"/>
@@ -51607,7 +56006,7 @@
     <row r="43" spans="1:7" ht="144" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25076768580379272</v>
+        <v>0.47589686451128876</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51629,7 +56028,7 @@
     <row r="44" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9381389265554676</v>
+        <v>0.5995730589687629</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51651,7 +56050,7 @@
     <row r="45" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8259128127132715E-3</v>
+        <v>0.51944942518819903</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51673,7 +56072,7 @@
     <row r="46" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42188830271481814</v>
+        <v>0.38096197559048761</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51695,7 +56094,7 @@
     <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37758222570041355</v>
+        <v>0.59540079973067717</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51717,7 +56116,7 @@
     <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9799211039242164E-2</v>
+        <v>0.60703018345046778</v>
       </c>
       <c r="B48" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51739,7 +56138,7 @@
     <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93220022080409026</v>
+        <v>0.19050458437029461</v>
       </c>
       <c r="B49" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51761,7 +56160,7 @@
     <row r="50" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7139324394805633E-2</v>
+        <v>0.62613376594174097</v>
       </c>
       <c r="B50" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51783,7 +56182,7 @@
     <row r="51" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98228954214004116</v>
+        <v>0.24275996042410386</v>
       </c>
       <c r="B51" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51805,7 +56204,7 @@
     <row r="52" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39520223431088308</v>
+        <v>0.40616866606029278</v>
       </c>
       <c r="B52" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51827,7 +56226,7 @@
     <row r="53" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37467239157453602</v>
+        <v>0.52495285578634254</v>
       </c>
       <c r="B53" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51849,7 +56248,7 @@
     <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5076956349229396E-2</v>
+        <v>0.91557116002280126</v>
       </c>
       <c r="B54" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51871,7 +56270,7 @@
     <row r="55" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4962836640630609</v>
+        <v>0.77512816087568237</v>
       </c>
       <c r="B55" s="3" t="str">
         <f t="shared" si="1"/>
@@ -51893,7 +56292,7 @@
     <row r="56" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" ref="A56:A68" ca="1" si="6">RAND()</f>
-        <v>0.57307377355496225</v>
+        <v>0.36783946479723639</v>
       </c>
       <c r="B56" s="3" t="str">
         <f t="shared" ref="B56:B68" si="7">IF(C56=D56,"O","X")</f>
@@ -51915,7 +56314,7 @@
     <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.45019993915348744</v>
+        <v>0.53316775351920853</v>
       </c>
       <c r="B57" s="3" t="str">
         <f t="shared" si="7"/>
@@ -51937,7 +56336,7 @@
     <row r="58" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.10041779187259003</v>
+        <v>0.82591432714637969</v>
       </c>
       <c r="B58" s="3" t="str">
         <f t="shared" si="7"/>
@@ -51959,7 +56358,7 @@
     <row r="59" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44412826485542489</v>
+        <v>3.951615054571489E-2</v>
       </c>
       <c r="B59" s="3" t="str">
         <f t="shared" si="7"/>
@@ -51981,7 +56380,7 @@
     <row r="60" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44166416590472868</v>
+        <v>5.7825289380084244E-2</v>
       </c>
       <c r="B60" s="3" t="str">
         <f t="shared" si="7"/>
@@ -52003,7 +56402,7 @@
     <row r="61" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.91177762035355892</v>
+        <v>0.97728816213647385</v>
       </c>
       <c r="B61" s="3" t="str">
         <f t="shared" si="7"/>
@@ -52025,7 +56424,7 @@
     <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.4145467892655619E-3</v>
+        <v>0.89678445983548039</v>
       </c>
       <c r="B62" s="3" t="str">
         <f t="shared" si="7"/>
@@ -52047,7 +56446,7 @@
     <row r="63" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.75692946268242534</v>
+        <v>0.36092075021965897</v>
       </c>
       <c r="B63" s="3" t="str">
         <f t="shared" si="7"/>
@@ -52069,7 +56468,7 @@
     <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.61742562058711281</v>
+        <v>8.7490741034471964E-2</v>
       </c>
       <c r="B64" s="3" t="str">
         <f t="shared" si="7"/>
@@ -52091,7 +56490,7 @@
     <row r="65" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.7907913846020711</v>
+        <v>0.82133661350714926</v>
       </c>
       <c r="B65" s="3" t="str">
         <f t="shared" si="7"/>
@@ -52113,7 +56512,7 @@
     <row r="66" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.45313745533589789</v>
+        <v>0.47788626050161598</v>
       </c>
       <c r="B66" s="3" t="str">
         <f t="shared" si="7"/>
@@ -52135,7 +56534,7 @@
     <row r="67" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.90027262559299825</v>
+        <v>0.58516456091611335</v>
       </c>
       <c r="B67" s="3" t="str">
         <f t="shared" si="7"/>
@@ -52157,7 +56556,7 @@
     <row r="68" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.11982177291917095</v>
+        <v>0.32140507773604388</v>
       </c>
       <c r="B68" s="3" t="str">
         <f t="shared" si="7"/>
@@ -52226,7 +56625,7 @@
     <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A38" ca="1" si="0">RAND()</f>
-        <v>0.65610236980575287</v>
+        <v>0.36645024413837779</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B38" si="1">IF(C2=D2,"O","X")</f>
@@ -52248,7 +56647,7 @@
     <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24840673735737262</v>
+        <v>0.56203589417008049</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52270,7 +56669,7 @@
     <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8026842807625081E-2</v>
+        <v>0.73817778567205727</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52292,7 +56691,7 @@
     <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40995442567181062</v>
+        <v>0.21681277973425128</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52314,7 +56713,7 @@
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61315374763422958</v>
+        <v>0.85156532922561279</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52336,7 +56735,7 @@
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46401130043799566</v>
+        <v>0.81636874907567825</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52358,7 +56757,7 @@
     <row r="8" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.229092731599803E-2</v>
+        <v>0.20876655160824742</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52380,7 +56779,7 @@
     <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89207936003109323</v>
+        <v>0.50063647450116611</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52402,7 +56801,7 @@
     <row r="10" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41890561108520274</v>
+        <v>5.4923520910772239E-2</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52424,7 +56823,7 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21906558315417124</v>
+        <v>0.87347219136213405</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52446,7 +56845,7 @@
     <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22629048686730946</v>
+        <v>0.52021208858653645</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52468,7 +56867,7 @@
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50796559676714348</v>
+        <v>0.60038277712619936</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52490,7 +56889,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70063584277692736</v>
+        <v>0.51535961634777283</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52512,7 +56911,7 @@
     <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37670717216399807</v>
+        <v>0.26757534759118673</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52534,7 +56933,7 @@
     <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52016637019683876</v>
+        <v>5.7669554738683848E-2</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52556,7 +56955,7 @@
     <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44845555356755518</v>
+        <v>0.60083552480650848</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52578,7 +56977,7 @@
     <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59347225116162783</v>
+        <v>0.36128703075081758</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52600,7 +56999,7 @@
     <row r="19" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57441871143724399</v>
+        <v>0.12537527741272059</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52622,7 +57021,7 @@
     <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98882588051201592</v>
+        <v>0.55720262671394938</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52644,7 +57043,7 @@
     <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66370535062318436</v>
+        <v>0.67792063988555173</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52666,7 +57065,7 @@
     <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7320466722274519</v>
+        <v>0.383571323417641</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52688,7 +57087,7 @@
     <row r="23" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26403306966231466</v>
+        <v>0.84596236024953808</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52710,7 +57109,7 @@
     <row r="24" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71536438904553978</v>
+        <v>0.62885692717426378</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52732,7 +57131,7 @@
     <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3726493721914097E-2</v>
+        <v>0.64888452946127761</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52754,7 +57153,7 @@
     <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79500880534294305</v>
+        <v>0.97330936545738422</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52776,7 +57175,7 @@
     <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29024867253062392</v>
+        <v>0.90481692081964638</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52798,7 +57197,7 @@
     <row r="28" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5357076738768192E-2</v>
+        <v>0.15043599953025621</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52820,7 +57219,7 @@
     <row r="29" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83997476210324518</v>
+        <v>3.7781516459269415E-2</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52842,7 +57241,7 @@
     <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3902078335575021</v>
+        <v>0.51780710288332232</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52864,7 +57263,7 @@
     <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8895797759934845E-2</v>
+        <v>0.45600748360429266</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52886,7 +57285,7 @@
     <row r="32" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.893029876143177E-2</v>
+        <v>5.3001953627938247E-2</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52908,7 +57307,7 @@
     <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26310920170058349</v>
+        <v>0.43103709287026093</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52930,7 +57329,7 @@
     <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73661266672816417</v>
+        <v>0.74813903502477275</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52952,7 +57351,7 @@
     <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47224745405132962</v>
+        <v>0.57483521715987718</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52974,7 +57373,7 @@
     <row r="36" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18118105745192659</v>
+        <v>0.87899154564059023</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52996,7 +57395,7 @@
     <row r="37" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85720046123451832</v>
+        <v>0.54835811760007058</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53018,7 +57417,7 @@
     <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4632924864840717E-2</v>
+        <v>0.53762362306166389</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53087,7 +57486,7 @@
     <row r="2" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A58" ca="1" si="0">RAND()</f>
-        <v>8.7189560067610916E-2</v>
+        <v>0.7408339146091365</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B58" si="1">IF(C2=D2,"O","X")</f>
@@ -53109,7 +57508,7 @@
     <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59789366686540235</v>
+        <v>0.75932602591416354</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53131,7 +57530,7 @@
     <row r="4" spans="1:7" ht="158.4" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24867083436396697</v>
+        <v>4.3645903669290553E-2</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53153,7 +57552,7 @@
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49636824291481429</v>
+        <v>0.41772486992746205</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53175,7 +57574,7 @@
     <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42366476388372565</v>
+        <v>0.50423157190584877</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53197,7 +57596,7 @@
     <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45109276604157966</v>
+        <v>0.14016637636191076</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53219,7 +57618,7 @@
     <row r="8" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83926040651877265</v>
+        <v>0.24987770028304801</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53241,7 +57640,7 @@
     <row r="9" spans="1:7" ht="158.4" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35290968036950765</v>
+        <v>0.6236494167594665</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53263,7 +57662,7 @@
     <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69410880388805574</v>
+        <v>0.38555974667569881</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53285,7 +57684,7 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11650190008411887</v>
+        <v>0.94994567251558237</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53307,7 +57706,7 @@
     <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67640280805753172</v>
+        <v>0.85743888252869704</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53329,7 +57728,7 @@
     <row r="13" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99101610413169694</v>
+        <v>0.91245980948532857</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53351,7 +57750,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10387066159569835</v>
+        <v>0.92780626060497418</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53373,7 +57772,7 @@
     <row r="15" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55858665194434443</v>
+        <v>0.66935500386429703</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53395,7 +57794,7 @@
     <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86239067398584879</v>
+        <v>0.81331050810366734</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53414,7 +57813,7 @@
     <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66575532190727549</v>
+        <v>0.58793584571782875</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53436,7 +57835,7 @@
     <row r="18" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89355970626053194</v>
+        <v>0.48001463327604155</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53458,7 +57857,7 @@
     <row r="19" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36440344932950774</v>
+        <v>0.54660715202259458</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53480,7 +57879,7 @@
     <row r="20" spans="1:7" ht="187.2" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31075569977498485</v>
+        <v>0.69555026793320807</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53502,7 +57901,7 @@
     <row r="21" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58270696634218544</v>
+        <v>0.912458815553715</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53524,7 +57923,7 @@
     <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23651758805363976</v>
+        <v>0.70926822843020121</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53546,7 +57945,7 @@
     <row r="23" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87820952216326331</v>
+        <v>0.19668634909750571</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53568,7 +57967,7 @@
     <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68522433704877161</v>
+        <v>0.16027900101210679</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53590,7 +57989,7 @@
     <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72240685250383485</v>
+        <v>0.50307408660732011</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53612,7 +58011,7 @@
     <row r="26" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60209001864278378</v>
+        <v>0.33408095165097085</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53634,7 +58033,7 @@
     <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47676092130915182</v>
+        <v>0.70800926277962228</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53656,7 +58055,7 @@
     <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66102775153184179</v>
+        <v>0.24934396631172007</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53678,7 +58077,7 @@
     <row r="29" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7847714317264338E-2</v>
+        <v>0.56640916872340674</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53700,7 +58099,7 @@
     <row r="30" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53251837629824583</v>
+        <v>0.54587203182380617</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53722,7 +58121,7 @@
     <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66699685386459162</v>
+        <v>0.97418533027986964</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53744,7 +58143,7 @@
     <row r="32" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66662620696027919</v>
+        <v>0.81716860569300165</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53766,7 +58165,7 @@
     <row r="33" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0587835893677573E-2</v>
+        <v>0.36035840931565555</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53788,7 +58187,7 @@
     <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38771065549476369</v>
+        <v>0.36020906088281468</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53810,7 +58209,7 @@
     <row r="35" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39500009969305305</v>
+        <v>0.44319488297141518</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53832,7 +58231,7 @@
     <row r="36" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19763040890274364</v>
+        <v>0.52976238670634157</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53854,7 +58253,7 @@
     <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4149697814526028E-2</v>
+        <v>0.18162280275990972</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53876,7 +58275,7 @@
     <row r="38" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58713646977416722</v>
+        <v>0.79677634046464862</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53898,7 +58297,7 @@
     <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21143573269870708</v>
+        <v>0.42472586110163491</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53920,7 +58319,7 @@
     <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10187643449536177</v>
+        <v>0.19488615648516106</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53942,7 +58341,7 @@
     <row r="41" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1135844548644942</v>
+        <v>0.1226429859941609</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53964,7 +58363,7 @@
     <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81115915620176604</v>
+        <v>0.83499090206347992</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53986,7 +58385,7 @@
     <row r="43" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7056516994675639</v>
+        <v>0.51038377360818443</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54008,7 +58407,7 @@
     <row r="44" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25353295731937442</v>
+        <v>0.63109813717610996</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54030,7 +58429,7 @@
     <row r="45" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19512697550850533</v>
+        <v>7.9924943487468036E-2</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54052,7 +58451,7 @@
     <row r="46" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42910181827983007</v>
+        <v>2.9176488216376417E-2</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54074,7 +58473,7 @@
     <row r="47" spans="1:7" ht="172.8" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55146530733415811</v>
+        <v>0.11966032148501748</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54096,7 +58495,7 @@
     <row r="48" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4876451450442546</v>
+        <v>0.96654425195288352</v>
       </c>
       <c r="B48" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54118,7 +58517,7 @@
     <row r="49" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36799103922983933</v>
+        <v>0.13012830585733148</v>
       </c>
       <c r="B49" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54140,7 +58539,7 @@
     <row r="50" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1344916121982433E-2</v>
+        <v>0.90102918449538361</v>
       </c>
       <c r="B50" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54162,7 +58561,7 @@
     <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88939163454207348</v>
+        <v>0.21795654233990347</v>
       </c>
       <c r="B51" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54184,7 +58583,7 @@
     <row r="52" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84880060461245921</v>
+        <v>0.75775821874563176</v>
       </c>
       <c r="B52" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54206,7 +58605,7 @@
     <row r="53" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9993398270249374</v>
+        <v>0.37941242979334244</v>
       </c>
       <c r="B53" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54228,7 +58627,7 @@
     <row r="54" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14063872804195521</v>
+        <v>0.12684291932116987</v>
       </c>
       <c r="B54" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54250,7 +58649,7 @@
     <row r="55" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77490986293164588</v>
+        <v>0.24810657907715983</v>
       </c>
       <c r="B55" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54272,7 +58671,7 @@
     <row r="56" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12526414244312667</v>
+        <v>0.74456235963662987</v>
       </c>
       <c r="B56" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54294,7 +58693,7 @@
     <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46612102318063875</v>
+        <v>0.25052511905329145</v>
       </c>
       <c r="B57" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54316,7 +58715,7 @@
     <row r="58" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82110154304829963</v>
+        <v>0.72182050756357319</v>
       </c>
       <c r="B58" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54338,7 +58737,7 @@
     <row r="59" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" ref="A59:A81" ca="1" si="2">RAND()</f>
-        <v>0.51099441461338035</v>
+        <v>0.36753323800873505</v>
       </c>
       <c r="B59" s="3" t="str">
         <f t="shared" ref="B59:B81" si="3">IF(C59=D59,"O","X")</f>
@@ -54360,7 +58759,7 @@
     <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.203827546016351</v>
+        <v>0.3420874206019483</v>
       </c>
       <c r="B60" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54382,7 +58781,7 @@
     <row r="61" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20757785062091982</v>
+        <v>0.72877546867574816</v>
       </c>
       <c r="B61" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54404,7 +58803,7 @@
     <row r="62" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.7086822734138991E-2</v>
+        <v>0.36302429473111297</v>
       </c>
       <c r="B62" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54426,7 +58825,7 @@
     <row r="63" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13589045239790176</v>
+        <v>0.22084887139147413</v>
       </c>
       <c r="B63" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54448,7 +58847,7 @@
     <row r="64" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10219768864039414</v>
+        <v>1.0394651022830992E-2</v>
       </c>
       <c r="B64" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54470,7 +58869,7 @@
     <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49482276695494742</v>
+        <v>0.28477313109944336</v>
       </c>
       <c r="B65" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54492,7 +58891,7 @@
     <row r="66" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87397745358946299</v>
+        <v>2.4651238970545108E-2</v>
       </c>
       <c r="B66" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54514,7 +58913,7 @@
     <row r="67" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13550791451673705</v>
+        <v>0.23800678865536717</v>
       </c>
       <c r="B67" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54536,7 +58935,7 @@
     <row r="68" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30680731097197333</v>
+        <v>0.32572500611046473</v>
       </c>
       <c r="B68" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54558,7 +58957,7 @@
     <row r="69" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12321358255128434</v>
+        <v>0.97865098264296324</v>
       </c>
       <c r="B69" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54580,7 +58979,7 @@
     <row r="70" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5391357213481941</v>
+        <v>0.34796006748610453</v>
       </c>
       <c r="B70" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54602,7 +59001,7 @@
     <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21971136306328642</v>
+        <v>0.39549045427457186</v>
       </c>
       <c r="B71" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54624,7 +59023,7 @@
     <row r="72" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47403307252214677</v>
+        <v>0.27039111425722318</v>
       </c>
       <c r="B72" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54646,7 +59045,7 @@
     <row r="73" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15697830618186692</v>
+        <v>0.49325025536425637</v>
       </c>
       <c r="B73" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54668,7 +59067,7 @@
     <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39016796730208869</v>
+        <v>0.79312581851752384</v>
       </c>
       <c r="B74" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54690,7 +59089,7 @@
     <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69780764077711244</v>
+        <v>0.13731797277556235</v>
       </c>
       <c r="B75" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54712,7 +59111,7 @@
     <row r="76" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7.4194117798934589E-2</v>
+        <v>0.87359265482435977</v>
       </c>
       <c r="B76" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54734,7 +59133,7 @@
     <row r="77" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10262677821154309</v>
+        <v>0.75379898774192222</v>
       </c>
       <c r="B77" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54756,7 +59155,7 @@
     <row r="78" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95997488460400016</v>
+        <v>0.14029060670132942</v>
       </c>
       <c r="B78" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54778,7 +59177,7 @@
     <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46643106974147142</v>
+        <v>0.11668312086714649</v>
       </c>
       <c r="B79" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54800,7 +59199,7 @@
     <row r="80" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98918749233036962</v>
+        <v>0.42739939167377683</v>
       </c>
       <c r="B80" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54822,7 +59221,7 @@
     <row r="81" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72993714483924699</v>
+        <v>0.85437958084949051</v>
       </c>
       <c r="B81" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54855,8 +59254,8 @@
   </sheetPr>
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
@@ -54864,7 +59263,7 @@
     <col min="1" max="1" width="4.8984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.8984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="2" customWidth="1"/>
     <col min="5" max="5" width="127.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.09765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
@@ -54891,17 +59290,20 @@
     <row r="2" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A66" ca="1" si="0">RAND()</f>
-        <v>0.38218271050174513</v>
+        <v>0.5717555897076062</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B66" si="1">IF(C2=D2,"O","X")</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>439</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>439</v>
+      </c>
       <c r="E2" s="3" t="s">
-        <v>440</v>
+        <v>565</v>
       </c>
       <c r="F2" s="1">
         <v>202108</v>
@@ -54913,17 +59315,17 @@
     <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18333906731992478</v>
+        <v>0.45605920940279943</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>442</v>
+        <v>562</v>
       </c>
       <c r="F3" s="1">
         <v>202108</v>
@@ -54935,7 +59337,7 @@
     <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78413432435691433</v>
+        <v>0.30051422595886501</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54945,7 +59347,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>443</v>
+        <v>563</v>
       </c>
       <c r="F4" s="1">
         <v>202108</v>
@@ -54957,7 +59359,7 @@
     <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9410441574449413E-2</v>
+        <v>0.79772045509553524</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -54967,7 +59369,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>444</v>
+        <v>564</v>
       </c>
       <c r="F5" s="1">
         <v>202108</v>
@@ -54979,17 +59381,20 @@
     <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63499694301897791</v>
+        <v>0.93007242711569116</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>446</v>
+        <v>566</v>
       </c>
       <c r="F6" s="1">
         <v>202108</v>
@@ -55001,7 +59406,7 @@
     <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3179782408596314E-2</v>
+        <v>0.6950453289557782</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55011,7 +59416,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>447</v>
+        <v>567</v>
       </c>
       <c r="F7" s="1">
         <v>202108</v>
@@ -55023,17 +59428,17 @@
     <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15323259984742654</v>
+        <v>0.1224926369751651</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>449</v>
+        <v>568</v>
       </c>
       <c r="F8" s="1">
         <v>202108</v>
@@ -55045,7 +59450,7 @@
     <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38136633271617648</v>
+        <v>0.22475809286644866</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55055,7 +59460,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>450</v>
+        <v>569</v>
       </c>
       <c r="F9" s="1">
         <v>202108</v>
@@ -55067,17 +59472,17 @@
     <row r="10" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4603818199888069</v>
+        <v>0.36272696192450005</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>452</v>
+        <v>570</v>
       </c>
       <c r="F10" s="1">
         <v>202108</v>
@@ -55089,17 +59494,17 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53618298491009797</v>
+        <v>0.43601053969511216</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>454</v>
+        <v>571</v>
       </c>
       <c r="F11" s="1">
         <v>202108</v>
@@ -55111,7 +59516,7 @@
     <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10807402873164451</v>
+        <v>0.1369182896705603</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55121,7 +59526,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>455</v>
+        <v>572</v>
       </c>
       <c r="F12" s="1">
         <v>202108</v>
@@ -55133,17 +59538,17 @@
     <row r="13" spans="1:7" ht="144" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60442467384292531</v>
+        <v>0.11042348603837115</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>457</v>
+        <v>573</v>
       </c>
       <c r="F13" s="1">
         <v>202108</v>
@@ -55155,17 +59560,17 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12672010047922166</v>
+        <v>0.18655938049418175</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>459</v>
+        <v>574</v>
       </c>
       <c r="F14" s="1">
         <v>202108</v>
@@ -55177,7 +59582,7 @@
     <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8257356150776687E-2</v>
+        <v>0.94844266116088793</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55187,7 +59592,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>460</v>
+        <v>575</v>
       </c>
       <c r="F15" s="1">
         <v>202108</v>
@@ -55199,17 +59604,17 @@
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8117883748283972E-2</v>
+        <v>5.8132374173302526E-2</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>462</v>
+        <v>576</v>
       </c>
       <c r="F16" s="1">
         <v>202108</v>
@@ -55221,17 +59626,17 @@
     <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84119446808003517</v>
+        <v>0.60214004060539017</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>464</v>
+        <v>577</v>
       </c>
       <c r="F17" s="1">
         <v>202108</v>
@@ -55243,17 +59648,17 @@
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4558302167898374E-2</v>
+        <v>0.25634965306177826</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>466</v>
+        <v>578</v>
       </c>
       <c r="F18" s="1">
         <v>202108</v>
@@ -55265,17 +59670,17 @@
     <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82884379117982565</v>
+        <v>0.50990310649298931</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>468</v>
+        <v>579</v>
       </c>
       <c r="F19" s="1">
         <v>202108</v>
@@ -55287,17 +59692,17 @@
     <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99966139559786593</v>
+        <v>0.62493614207991111</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="F20" s="1">
         <v>202108</v>
@@ -55309,7 +59714,7 @@
     <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18251564771686435</v>
+        <v>0.88353056697736165</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ref="B21:B29" si="2">IF(C21=D21,"O","X")</f>
@@ -55319,7 +59724,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>471</v>
+        <v>581</v>
       </c>
       <c r="F21" s="1">
         <v>202105</v>
@@ -55331,17 +59736,17 @@
     <row r="22" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92930072332958247</v>
+        <v>0.73357731275926175</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>473</v>
+        <v>582</v>
       </c>
       <c r="F22" s="1">
         <v>202105</v>
@@ -55353,7 +59758,7 @@
     <row r="23" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66993134067349658</v>
+        <v>0.81681611355093509</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="2"/>
@@ -55363,7 +59768,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>474</v>
+        <v>583</v>
       </c>
       <c r="F23" s="1">
         <v>202105</v>
@@ -55375,17 +59780,17 @@
     <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70441460806306022</v>
+        <v>0.78356767855858245</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>476</v>
+        <v>584</v>
       </c>
       <c r="F24" s="1">
         <v>202105</v>
@@ -55397,17 +59802,17 @@
     <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39898306112598358</v>
+        <v>0.41937983292902459</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>478</v>
+        <v>585</v>
       </c>
       <c r="F25" s="1">
         <v>202105</v>
@@ -55419,17 +59824,17 @@
     <row r="26" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19571544462182644</v>
+        <v>0.31235684067974412</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>480</v>
+        <v>586</v>
       </c>
       <c r="F26" s="1">
         <v>202105</v>
@@ -55441,17 +59846,17 @@
     <row r="27" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39605963790067134</v>
+        <v>0.68692754556116609</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>482</v>
+        <v>587</v>
       </c>
       <c r="F27" s="1">
         <v>202105</v>
@@ -55463,17 +59868,17 @@
     <row r="28" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38710052094561054</v>
+        <v>0.7493265969380728</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>484</v>
+        <v>588</v>
       </c>
       <c r="F28" s="1">
         <v>202105</v>
@@ -55485,7 +59890,7 @@
     <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72815896543940373</v>
+        <v>1.0656484395269894E-2</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="2"/>
@@ -55495,7 +59900,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>485</v>
+        <v>589</v>
       </c>
       <c r="F29" s="1">
         <v>202105</v>
@@ -55507,17 +59912,17 @@
     <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6359058284887444E-2</v>
+        <v>0.31998336265242966</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>487</v>
+        <v>590</v>
       </c>
       <c r="F30" s="1">
         <v>202105</v>
@@ -55529,17 +59934,17 @@
     <row r="31" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33089771570439774</v>
+        <v>0.76501184556813684</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>489</v>
+        <v>591</v>
       </c>
       <c r="F31" s="1">
         <v>202105</v>
@@ -55551,17 +59956,17 @@
     <row r="32" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4324393525352104E-2</v>
+        <v>0.54949662036287605</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>491</v>
+        <v>592</v>
       </c>
       <c r="F32" s="1">
         <v>202105</v>
@@ -55573,17 +59978,17 @@
     <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69167224462695842</v>
+        <v>0.47184205002673874</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>493</v>
+        <v>593</v>
       </c>
       <c r="F33" s="1">
         <v>202105</v>
@@ -55595,7 +60000,7 @@
     <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65114464093369662</v>
+        <v>0.90109536207356622</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55605,7 +60010,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>494</v>
+        <v>594</v>
       </c>
       <c r="F34" s="1">
         <v>202105</v>
@@ -55617,17 +60022,17 @@
     <row r="35" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96223926663493686</v>
+        <v>0.13732200703218223</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>496</v>
+        <v>595</v>
       </c>
       <c r="F35" s="1">
         <v>202105</v>
@@ -55639,17 +60044,17 @@
     <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96363214056403212</v>
+        <v>0.49038522955700503</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>498</v>
+        <v>597</v>
       </c>
       <c r="F36" s="1">
         <v>202105</v>
@@ -55661,14 +60066,17 @@
     <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66452246595029618</v>
+        <v>0.84749059963539897</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>O</v>
+        <v>X</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>596</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>499</v>
+        <v>598</v>
       </c>
       <c r="F37" s="1">
         <v>202105</v>
@@ -55680,17 +60088,17 @@
     <row r="38" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38405923555330601</v>
+        <v>0.761172710135544</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>501</v>
+        <v>599</v>
       </c>
       <c r="F38" s="1">
         <v>202105</v>
@@ -55702,7 +60110,7 @@
     <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2982592510956179E-3</v>
+        <v>0.79247500732871523</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55712,7 +60120,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>502</v>
+        <v>600</v>
       </c>
       <c r="F39" s="1">
         <v>202103</v>
@@ -55724,7 +60132,7 @@
     <row r="40" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35669707929472028</v>
+        <v>0.89767107225046328</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55734,7 +60142,7 @@
         <v>4</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>503</v>
+        <v>601</v>
       </c>
       <c r="F40" s="1">
         <v>202103</v>
@@ -55746,17 +60154,17 @@
     <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79973750335610039</v>
+        <v>0.67884789708787174</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>505</v>
+        <v>602</v>
       </c>
       <c r="F41" s="1">
         <v>202103</v>
@@ -55768,7 +60176,7 @@
     <row r="42" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21449922547819</v>
+        <v>0.22243361697687625</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55779,7 +60187,7 @@
         <v>20</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>506</v>
+        <v>603</v>
       </c>
       <c r="F42" s="1">
         <v>202103</v>
@@ -55791,17 +60199,17 @@
     <row r="43" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84994402879869957</v>
+        <v>0.15856497094834698</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>507</v>
+        <v>466</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>508</v>
+        <v>604</v>
       </c>
       <c r="F43" s="1">
         <v>202103</v>
@@ -55813,17 +60221,17 @@
     <row r="44" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43803049929569737</v>
+        <v>0.49093378120480624</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>509</v>
+        <v>467</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>510</v>
+        <v>605</v>
       </c>
       <c r="F44" s="1">
         <v>202103</v>
@@ -55835,17 +60243,17 @@
     <row r="45" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58569622773878871</v>
+        <v>0.5997504536833792</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>511</v>
+        <v>468</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>512</v>
+        <v>469</v>
       </c>
       <c r="F45" s="1">
         <v>202103</v>
@@ -55857,17 +60265,17 @@
     <row r="46" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63514241629989421</v>
+        <v>0.20636990125835564</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>514</v>
+        <v>471</v>
       </c>
       <c r="F46" s="1">
         <v>202103</v>
@@ -55879,17 +60287,17 @@
     <row r="47" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53110010016731413</v>
+        <v>8.8030104046751378E-2</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>515</v>
+        <v>472</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>516</v>
+        <v>473</v>
       </c>
       <c r="F47" s="1">
         <v>202103</v>
@@ -55901,17 +60309,17 @@
     <row r="48" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12408461114393865</v>
+        <v>0.47763077187165048</v>
       </c>
       <c r="B48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>517</v>
+        <v>474</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>518</v>
+        <v>475</v>
       </c>
       <c r="F48" s="1">
         <v>202103</v>
@@ -55923,17 +60331,17 @@
     <row r="49" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19941588296973345</v>
+        <v>0.54250781785468105</v>
       </c>
       <c r="B49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>519</v>
+        <v>476</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>520</v>
+        <v>477</v>
       </c>
       <c r="F49" s="1">
         <v>202103</v>
@@ -55945,17 +60353,17 @@
     <row r="50" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90521020140316277</v>
+        <v>6.6272560681170933E-3</v>
       </c>
       <c r="B50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>521</v>
+        <v>478</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>522</v>
+        <v>479</v>
       </c>
       <c r="F50" s="1">
         <v>202009</v>
@@ -55967,17 +60375,17 @@
     <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93405870336507379</v>
+        <v>0.33342620200809125</v>
       </c>
       <c r="B51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>523</v>
+        <v>480</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>524</v>
+        <v>481</v>
       </c>
       <c r="F51" s="1">
         <v>202009</v>
@@ -55989,17 +60397,17 @@
     <row r="52" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54097410974428073</v>
+        <v>0.72749101906678415</v>
       </c>
       <c r="B52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>525</v>
+        <v>482</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>526</v>
+        <v>483</v>
       </c>
       <c r="F52" s="1">
         <v>202009</v>
@@ -56011,17 +60419,17 @@
     <row r="53" spans="1:7" ht="172.8" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24096853769124094</v>
+        <v>0.79370815994074451</v>
       </c>
       <c r="B53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>527</v>
+        <v>484</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>528</v>
+        <v>485</v>
       </c>
       <c r="F53" s="1">
         <v>202009</v>
@@ -56033,17 +60441,17 @@
     <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62611619972566346</v>
+        <v>0.93282929320493557</v>
       </c>
       <c r="B54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>529</v>
+        <v>486</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>530</v>
+        <v>487</v>
       </c>
       <c r="F54" s="1">
         <v>202009</v>
@@ -56055,17 +60463,17 @@
     <row r="55" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1856413471462877E-2</v>
+        <v>0.5217835158779871</v>
       </c>
       <c r="B55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>531</v>
+        <v>488</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>532</v>
+        <v>489</v>
       </c>
       <c r="F55" s="1">
         <v>202009</v>
@@ -56077,17 +60485,17 @@
     <row r="56" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5145107544074294E-2</v>
+        <v>0.89719755524630163</v>
       </c>
       <c r="B56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>533</v>
+        <v>490</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>534</v>
+        <v>491</v>
       </c>
       <c r="F56" s="1">
         <v>202009</v>
@@ -56099,17 +60507,17 @@
     <row r="57" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19220646737818581</v>
+        <v>9.3893649251852729E-4</v>
       </c>
       <c r="B57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>535</v>
+        <v>492</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>536</v>
+        <v>493</v>
       </c>
       <c r="F57" s="1">
         <v>202009</v>
@@ -56121,7 +60529,7 @@
     <row r="58" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53765300982721198</v>
+        <v>0.33379974773510157</v>
       </c>
       <c r="B58" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56131,7 +60539,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>537</v>
+        <v>494</v>
       </c>
       <c r="F58" s="1">
         <v>202009</v>
@@ -56143,7 +60551,7 @@
     <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4926761427508306</v>
+        <v>0.85083115882432814</v>
       </c>
       <c r="B59" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56153,7 +60561,7 @@
         <v>4</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>538</v>
+        <v>495</v>
       </c>
       <c r="F59" s="1">
         <v>202009</v>
@@ -56165,17 +60573,17 @@
     <row r="60" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53817787925995275</v>
+        <v>0.99256664414244034</v>
       </c>
       <c r="B60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>539</v>
+        <v>496</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>540</v>
+        <v>497</v>
       </c>
       <c r="F60" s="1">
         <v>202008</v>
@@ -56187,7 +60595,7 @@
     <row r="61" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8682851210739807</v>
+        <v>0.4627383258853216</v>
       </c>
       <c r="B61" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56197,7 +60605,7 @@
         <v>4</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>541</v>
+        <v>498</v>
       </c>
       <c r="F61" s="1">
         <v>202008</v>
@@ -56209,17 +60617,17 @@
     <row r="62" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38726600657410537</v>
+        <v>0.17408961524295585</v>
       </c>
       <c r="B62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>542</v>
+        <v>499</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>543</v>
+        <v>500</v>
       </c>
       <c r="F62" s="1">
         <v>202008</v>
@@ -56231,17 +60639,17 @@
     <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28552413374881802</v>
+        <v>0.34100763838938708</v>
       </c>
       <c r="B63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>544</v>
+        <v>501</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>545</v>
+        <v>502</v>
       </c>
       <c r="F63" s="1">
         <v>202008</v>
@@ -56253,17 +60661,17 @@
     <row r="64" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9496711664555075E-2</v>
+        <v>0.13433237520258867</v>
       </c>
       <c r="B64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>546</v>
+        <v>503</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>547</v>
+        <v>504</v>
       </c>
       <c r="F64" s="1">
         <v>202008</v>
@@ -56275,7 +60683,7 @@
     <row r="65" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23258092550306508</v>
+        <v>0.1352154349081327</v>
       </c>
       <c r="B65" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56285,7 +60693,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>548</v>
+        <v>505</v>
       </c>
       <c r="F65" s="1">
         <v>202008</v>
@@ -56297,7 +60705,7 @@
     <row r="66" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86077304427622103</v>
+        <v>0.10580902684815496</v>
       </c>
       <c r="B66" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56307,7 +60715,7 @@
         <v>4</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>549</v>
+        <v>506</v>
       </c>
       <c r="F66" s="1">
         <v>202008</v>
@@ -56319,17 +60727,17 @@
     <row r="67" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" ref="A67:A82" ca="1" si="3">RAND()</f>
-        <v>0.78851073912836356</v>
+        <v>8.911228364136059E-2</v>
       </c>
       <c r="B67" s="3" t="str">
         <f t="shared" ref="B67:B82" si="4">IF(C67=D67,"O","X")</f>
         <v>X</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>550</v>
+        <v>507</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>551</v>
+        <v>508</v>
       </c>
       <c r="F67" s="1">
         <v>202008</v>
@@ -56341,17 +60749,17 @@
     <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92485874488224384</v>
+        <v>0.67190633219587392</v>
       </c>
       <c r="B68" s="3" t="str">
         <f t="shared" si="4"/>
         <v>X</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>552</v>
+        <v>509</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>553</v>
+        <v>510</v>
       </c>
       <c r="F68" s="1">
         <v>202008</v>
@@ -56363,17 +60771,17 @@
     <row r="69" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14849266301117825</v>
+        <v>0.11698851124015142</v>
       </c>
       <c r="B69" s="3" t="str">
         <f t="shared" si="4"/>
         <v>X</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>554</v>
+        <v>511</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>555</v>
+        <v>512</v>
       </c>
       <c r="F69" s="1">
         <v>202008</v>
@@ -56385,17 +60793,17 @@
     <row r="70" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14320972816835642</v>
+        <v>0.61816434914561191</v>
       </c>
       <c r="B70" s="3" t="str">
         <f t="shared" si="4"/>
         <v>X</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>556</v>
+        <v>513</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>557</v>
+        <v>514</v>
       </c>
       <c r="F70" s="1">
         <v>202008</v>
@@ -56407,7 +60815,7 @@
     <row r="71" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27883802608225194</v>
+        <v>0.48470091494456458</v>
       </c>
       <c r="B71" s="3" t="str">
         <f t="shared" si="4"/>
@@ -56417,7 +60825,7 @@
         <v>4</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>558</v>
+        <v>515</v>
       </c>
       <c r="F71" s="1">
         <v>202008</v>
@@ -56429,7 +60837,7 @@
     <row r="72" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6789117604105064E-2</v>
+        <v>0.5850739770174187</v>
       </c>
       <c r="B72" s="3" t="str">
         <f t="shared" si="4"/>
@@ -56439,7 +60847,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>559</v>
+        <v>516</v>
       </c>
       <c r="F72" s="1">
         <v>202006</v>
@@ -56451,17 +60859,17 @@
     <row r="73" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86453401556768938</v>
+        <v>0.95056014601746275</v>
       </c>
       <c r="B73" s="3" t="str">
         <f t="shared" si="4"/>
         <v>X</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>560</v>
+        <v>517</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>561</v>
+        <v>518</v>
       </c>
       <c r="F73" s="1">
         <v>202006</v>
@@ -56473,17 +60881,17 @@
     <row r="74" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41156646461635549</v>
+        <v>0.48614961652602218</v>
       </c>
       <c r="B74" s="3" t="str">
         <f t="shared" si="4"/>
         <v>X</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>562</v>
+        <v>519</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>563</v>
+        <v>520</v>
       </c>
       <c r="F74" s="1">
         <v>202006</v>
@@ -56495,7 +60903,7 @@
     <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93203890657449739</v>
+        <v>0.5662780856704519</v>
       </c>
       <c r="B75" s="3" t="str">
         <f t="shared" si="4"/>
@@ -56505,7 +60913,7 @@
         <v>4</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>564</v>
+        <v>521</v>
       </c>
       <c r="F75" s="1">
         <v>202006</v>
@@ -56517,7 +60925,7 @@
     <row r="76" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13425454219266597</v>
+        <v>0.97932449541879552</v>
       </c>
       <c r="B76" s="3" t="str">
         <f t="shared" si="4"/>
@@ -56527,7 +60935,7 @@
         <v>4</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>565</v>
+        <v>522</v>
       </c>
       <c r="F76" s="1">
         <v>202006</v>
@@ -56539,7 +60947,7 @@
     <row r="77" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24280680488131889</v>
+        <v>0.43434626988088432</v>
       </c>
       <c r="B77" s="3" t="str">
         <f t="shared" si="4"/>
@@ -56549,7 +60957,7 @@
         <v>2</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>566</v>
+        <v>523</v>
       </c>
       <c r="F77" s="1">
         <v>202006</v>
@@ -56561,7 +60969,7 @@
     <row r="78" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94048139089715077</v>
+        <v>0.4130079691038514</v>
       </c>
       <c r="B78" s="3" t="str">
         <f t="shared" si="4"/>
@@ -56571,7 +60979,7 @@
         <v>2</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>567</v>
+        <v>524</v>
       </c>
       <c r="F78" s="1">
         <v>202006</v>
@@ -56583,7 +60991,7 @@
     <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84080790488636137</v>
+        <v>0.31033229760400483</v>
       </c>
       <c r="B79" s="3" t="str">
         <f t="shared" si="4"/>
@@ -56593,7 +61001,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>568</v>
+        <v>525</v>
       </c>
       <c r="F79" s="1">
         <v>202006</v>
@@ -56605,17 +61013,17 @@
     <row r="80" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3849591249332307E-2</v>
+        <v>0.80414324079519495</v>
       </c>
       <c r="B80" s="3" t="str">
         <f t="shared" si="4"/>
         <v>X</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>569</v>
+        <v>526</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>570</v>
+        <v>527</v>
       </c>
       <c r="F80" s="1">
         <v>202006</v>
@@ -56627,17 +61035,17 @@
     <row r="81" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53394452084794009</v>
+        <v>0.73799471327161825</v>
       </c>
       <c r="B81" s="3" t="str">
         <f t="shared" si="4"/>
         <v>X</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>571</v>
+        <v>528</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>572</v>
+        <v>529</v>
       </c>
       <c r="F81" s="1">
         <v>202006</v>
@@ -56649,17 +61057,17 @@
     <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39273303813982796</v>
+        <v>0.42766144655357374</v>
       </c>
       <c r="B82" s="3" t="str">
         <f t="shared" si="4"/>
         <v>X</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>573</v>
+        <v>530</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>574</v>
+        <v>531</v>
       </c>
       <c r="F82" s="1">
         <v>202006</v>

--- a/정보처리기사/필기.xlsx
+++ b/정보처리기사/필기.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\유미\자격증\정처기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47A1B2D-0719-46AC-BAEB-EFAB410A1FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02523A39-1669-456D-8C47-18527469718E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2과목'!$B$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3과목'!$B$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4과목'!$B$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'5과목'!$B$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'5과목'!$B$1:$B$82</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="606">
   <si>
     <t>정답</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -44556,25 +44556,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;통신망의 구성 형태&gt;
-- ㅇ형(중앙 집중형); 중앙에 중앙 컴퓨터가 있고, 이를 중심으로 단말 장치들이 연결되는 중앙 집중식의 네트워크 구성 형태
-- ㅇ형(루프형); 컴퓨터와 단말 장치들을 서로 이웃하는 것끼리 포인트 투 포인트(Point-to-Point) 방식으로 연결시킨 형태
-- ㅇㅇ형; 한 개의 통신 회선에 여러 대의 단말 장치가 연결되어 있는 형태
-- ㅇㅇ형(분산형); 중앙 컴퓨터와 일정 지역의 단말 장치까지는 하나의 통신 회선으로 연결시키고, 이웃하는 단말 장치는 일정 지역 내에 설치된 중간 단말 장치로 부터 다시 연결시키는 형태
-- ㅇ형(Mesh); 모든 지점의 컴퓨터와 단말 장치를 서로 연결한 형태로, 노드의 연결성이 높음.
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>그리드, 사물, 아카이빙, 빅뱅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">스마트 ㅇㅇㅇ;전기 및 정보 통신 기술을 활용하여 전력망을 지능화, 고도화함으로써 고품질의 전력 서비스를 제공하고 에너지 이용 효율을 극대화하는 전력망
-ㅇㅇ 인터넷; 정보 통신 기술을 기반으로 실세계와 가상 세계의 다양한 사물들을 인터넷으로 서로 연결하여 진보된 서비스를 제공하기 위한 서비스 기반 기술
-디지털 ㅇㅇㅇㅇ; 디지털 정보 자원을 장기적으로 보존하기 위한 작업. 아날로그는 디지털로 변환 후 압축해서 저장하고 디지털은 체계적으로 분류하고 메타 데이터를 만들어 DB화함.
-미디어 ㅇㅇ; 새로운 미디어의 등장 및 시장의 변화로 기존의 미디어 질서가 변화하는 것을 비유한 것.
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44582,24 +44564,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;소프트웨어 개발 모형&gt;
-- ㅇㅇㅇ 모형; Boehm이 제시한 고전적 생명주기 모형으로서 선형 순차적 모델이라고도 하며, 타당성 검토, 계획, 요구사항 분석, 설계, 구현, 테스트 유지보수의 단계를 통해 소프트웨어를 개발하는 모형
-- ㅇㅇㅇㅇㅇ 모형; 사용자의 요구 사항을 정확히 파악하기 위해 실제 개발될 소프트웨어에 대한 견본품을 만들어 최종 결과물을 예측하는 모형
-- ㅇㅇ형 모형; 폭포수 모형과 프로토타입 모형의 장점에 위험 분석 기능을 추가한 모형으로, 나선을 따라 돌듯이 여러 번의 소프트웨어 개발 과정을 거쳐 점진적으로 완벽한 최종 소프트웨어를 개발함.
-- ㅇㅇㅇ 모형; 고객의 요구사항 변화에 유연하게 대응할 수 있도록 일정한 주기를 반복하면서 개발 과정을 진행하는 모형으로, 어느 특정 개발 방법론이 아니라 좋은 것을 빠르고 낭비 없게 만들기 위해 고객과의 소통에 초점을 맞춘 방법론
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>순차, RC, 대칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;스트림 암호화 방식&gt;
-- 비트/바이트/단어들을 ㅇㅇ적으로 암호화
-- ㅇㅇ4, LFSR가 대표적임.
-- 개인키 암호화 기법으로 단일키 암호화 기법 또는 ㅇㅇ 암호 기법이라고도 함.
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44607,26 +44572,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;세션 하이재킹 탐지 방법&gt;
-- ㅇㅇㅇ화 상태 탐지
-- ㅇㅇㅇ Storm 탐지
-- ㅇㅇ의 유실과 재전송 증가 탐지
-- 예상치 못한 접속의 ㅇㅇ 탐지
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>초기, 관리, 정의, 정량, 최적</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;CMM(Capability Maturity Model)의 단계&gt;
-- ㅇㅇ 단계; 정의된 프로세스가 없으며 작업자 능력에 따라 성공 여부가 결정됨.
-- ㅇㅇ 단계; 규칙화된 프로세스로 특정한 프로세스 내의 프로세스 정의 및 수행
-- ㅇㅇ 단계; 표준화된 프로세스로 조직의 표준 프로세스를 활용하여 업무 수행
-- ㅇㅇ적 관리 단계; 예측 가능한 프로세스로 프로젝트를 정량적으로 관리 및 통제함.
-- ㅇㅇ화 단계; 지속적 개선 프로세스. 프로세스 역량 향상을 위해 지속적인 프로세스 개선
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44634,21 +44580,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">서비스 지향 아키텍처(SOA)의 계층
--&gt; ㅇㅇ층, ㅇㅇㅇㅇ 프로세스층, ㅇㅇㅇ층, ㅇㅇ적 요소층, ㅇㅇ 시스템층
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DAS, NAS, SAN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;스토리지 시스템의 종류&gt;
-- ㅇㅇㅇ; 서버와 저장 장치를 전용 케이블로 직접 연결하는 방식으로, 일반 가정 컴퓨터에 외장하드를 연결하는 것
-- ㅇㅇㅇ; 서버와 저장 장치를 네트워크를 통해 연결하는 방식
-- ㅇㅇㅇ; DAS의 빠른 처리와 NAS의 파일 공유 장점을 혼합한 방식으로, 서버와 저장 장치를 연결하는 전용 네트워크를 별도로 구성하는 방식
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44656,26 +44588,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;구조적 분석 도구&gt;
-- 자료 흐름도(ㅇㅇㅇ); 요구사항 분석에서 자료의 흐름 및 변환 과정과 기능을 도형 중심으로 서술하는 방법으로 자료 흐름 그래프, 버블 차트라고도 함.
-- 자료 사전(ㅇㅇ); 자료 흐름도에 있는 자료를 더 자세히 정의하고 기록한 것이며, 이처럼 데이터를 설명하는 데이터를 데이터의 데이터, 또는 메타 데이터라고 함.
-- 소단위 명세서(Mini-Spec.); 세분화된 자료 흐름도에서 최하위 단계 버블(프로세스)의 처리 절차를 기술한 것으로 ㅇㅇㅇㅇ 명세서라고도 함.
-- 개체 관계도(ㅇㅇㅇ); 시스템에서 처리되는 개체와 개체의 구성과 속성, 개체 간의 관계를 표현하여 자료를 모델화하는 데 사용됨.
-- 상태전이도(ㅇㅇㅇ); 시스템에 어떤 일이 발생할 경우 시스템의 상태와 상태 간의 전이를 모델화한 것으로, 상태 전이도를 통해 개발자는 시스템의 행위를 정의할 수 있음.
-- ㅇㅇㅇㅇ; 미국의 SoftTech사에서 만든 기법으로, 청사진이라고 하는 다이어그램을 사용하여 소프트웨어 시스템을 설계하고, 이 다이어그램을 계층 구조적으로 전개해 감으로써 시스템의 논리를 구체화해 가는 특징이 있음.
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DAC, MAC, RBAC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;접근 통제 기술&gt;                           정답 기입 예시) ABC, DEF, GHIJ
-- 임의 접근 통제(ㅇㅇㅇ); 데이터에 접근하는 사용자의 신원에 따라 접근 권한을 부여하며, 정책 변경이 어렵지만 안정적이고 집중적임.
-- 강제 접근 통제(ㅇㅇㅇ); 주체와 객체의 등급을 비교하여 접근 권한을 부여하는 방식으로, 정책 변경이 용이하고 유연함.
-- 역할 기반 접근 통제(ㅇㅇㅇㅇ); 사용자의 역할에 따라 접근 권한을 부여하는 방식이며 정책 변경이 용이하고 관리가 용이함.
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44683,24 +44596,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ㅇㅇㅇㅇ; 인터넷 사용자의 컴퓨터에 잠입해 내부 문서나 파일 등을 암호화해 사용자가 열지 못하게 하는 프로그램으로, 암호 해독용 프로그램의 전달을 조건으로 사용자에게 돈을 요규하기도 함.
-ㅇㅇ; 합법적으로 소유하고 있던 사용자의 도메인을 탈취하거나 DNS 이름을 속여 사용자들이 진짜 사이트로 오인하도록 유도하여 개인 정보를 훔치는 신종 인터넷 사기 수법
-ㅇㅇ; 낚시라는 뜻의 은어로, 허위 웹 사이트를 내세워 사용자의 개인 신용 정보를 빼내는 수법
-크로스사이트 스크립팅(ㅇㅇㅇ); 웹페이지에 악의적인 스크립트를 삽입하여 방문자들의 정보를 탈취하거나, 비정상적인 기능 수행을 유발하는 취약점
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>소프트웨어, 자동, 가상, 하드웨어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;소프트웨어 정의 데이터센터(SDDC:Software Defined Data Center)&gt;
-- 컴퓨팅, 네트워킹, 스토리지, 관리 등을 모두 ㅇㅇㅇㅇㅇ로 정의함.
-- 인력 개입 없이 소프트웨어 조작만으로 ㅇㅇ 제어 관리
-- 데이터 센터 내 모든 자원을 ㅇㅇ화하여 서비스
-- 특정 ㅇㅇㅇㅇ와 상관없이 독립적으로 서비스 제공
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44708,44 +44604,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;NS(Nassi-Scheniderman) chart&gt;
-- ㅇㅇ의 기술에 중점을 둔 도형식 표현 방법
-- 연속, 선택 및 다중 선택, 반복 등의 ㅇㅇ 논리 구조로 표현
-- GOTO나 화살표를 사용 (O/X)
-- 조건이 복합되어 있는 곳의 처리를 ㅇㅇ적으로 명확히 식별하는데 적합함.
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">다음 내용에 적합한 용어는?
-- 대용량 데이터를 분산 처리하기 위한 목적으로 개발된 프로그래밍 모델
-- Google에 의해 고안된 기술로써 대표적인 대용량 데이터 처리를 위한 병렬 처리 기법을 제공함.
-- 임의의 순서로 정렬된 데이터를 분산 처리하고 이를 다시 합치는 과정을 거침.
-1)MapReduce    2)SQL    3)Hijacking    4)Logs
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">소프트웨어 프로세스에 대한 개선 및 능력 측정 기준에 대한 국제 표준은?
-1)ISO 14001    2)IEEE 802.5    3)IEEE 488    4)SPICE
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>디지털 트윈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">물리적인 사물과 컴퓨터에 동일하게 표현되는 가상의 모델로, 실제 물리적인 자산 대신 소프트웨어로 가상화함으로써 실제 자산의 특성에 대한 정확한 정보를 얻을 수 있고, 자산 최적화, 돌발 사고 최소화, 생산성 증가 등 설계부터 제조, 서비스에 이르는 모든 과정의 효율성을 향상시킬 수 있는 모델은?
--&gt; ㅇㅇㅇ ㅇㅇ
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">다음 빈 칸에 알맞은 기술은?
-- ( )은/는 웹에서 제공하는 정보 및 서비스를 이용하여 새로운 소프트웨어나 서비스, 데이터베이스 등을 만드는 기술
-1)Quantum Key Distribution    2)Digital Rights Management    3)Grayware    4)Mashup
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44753,22 +44612,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;기능 점수 모형의 비용 산정 요소&gt;
-- ㅇㅇ 입력(입력 양식)
-- ㅇㅇ 출력(출력 보고서)
-- ㅇㅇㅇ(사용자 질의수)
-- ㅇㅇㅇ 파일
-- 필요한 외부 루틴과의 ㅇㅇㅇㅇㅇ
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SLIM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ㅇㅇㅇㅇ; Putnam 모형을 기초로 해서 만든 자동화 추정 도구
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44776,37 +44620,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;주요 암호화 알고리즘&gt;
-- ㅇㅇㅇㅇ; 1999년 한국인터넷진흥원에서 개발한 블록 암호화 알고리즘
-- ㅇㅇㅇㅇ; 2004년 국가정보원과 산학연협회가 개발한 블록 암호화 알고리즘
-- ㅇㅇㅇ; 1975년 미국 NBS에서 발표한 개인키 암호화 알고리즘
-- ㅇㅇㅇ; 2001년 미국 표준 기술 연구소에서 발표한 개인키 암호화 알고리즘
-- ㅇㅇㅇ; 1978년 MIT의 라이베스트, 샤미르, 애들먼에 의해 제안된 공개키 암호화 알고리즘
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">빅데이터 분석 기술 중 대량의 데이터를 분석하여 데이터 속에 내재되어 있는 변수 사이의 상호 관례를 규명하여 일정한 패턴을 찾아내는 기법은?
-1)Data Mining    2)Wm-Bus    3)Digital Twin    4)Zigbee
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">기존 무선 랜의 한계 극복을 위해 등장하였으며, 대규모 디바이스의 네트워크 생성에 최적화되어 차세대 이동 통신, 홈네트워킹, 공공 안전 등의 특수 목적을 위한 새로운 방식의 네트워크 기술을 의미하는 것은?
-1)Software Defined Perimeter         2)Virtual Private Network 
-3)Local Area Network                 4)Mesh Network
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Trin, TFN, 암호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;DDoS 공격의 종류&gt;
-- ㅇㅇㅇㅇ00: 가장 초기 형태의 데몬으로, 주로 UDP Flooding 공격을 수행함.
-- ㅇㅇㅇ(Tribe Flooding Network); UDP Flooding 뿐만 아니라 TCP SYN Flood 공격, ICMP 응답 요청, 스머핑 공격 등을 수행함.
-- Stacheldraht; 이전 툴들의 기능을 유지하면서, 공격자, 마스터, 에이전트가 쉽게 노출되지 않도록 ㅇㅇ화된 통신을 수행하며, 툴이 자동으로 업데이트되도록 설계됨.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44814,21 +44628,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ㅇㅇ 경로; 최장 경로를 의미함.
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>거리, 소, 15, 최단</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;RIP(Routing Information Protocol)&gt;
-- ㅇㅇ 벡터 라우팅 프로토콜이라고도 함.
-- ㅇ규모 네트워크 환경에 적합함.
-- 최대 홉 카운트를 ㅇㅇ홉 이하로 한정함.
-- ㅇㅇ 경로 탐색에는 Bellman-Ford 알고리즘 사용
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44836,70 +44636,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;재사용 방법&gt;
-- ㅇㅇ 중심; 전자 칩과 같은 소프트웨어 부품, 즉 블록(모듈)을 만들어 끼워 맞추는 방법으로 소프트웨어를 완성시키는 방법. 블록 구성 방법이라고도 함.
-- ㅇㅇ 중심; 추상화 형태로 쓰여진 명세를 구체화하여 프로그램을 만드는 방법으로, 패턴 구성 방법이라고도 함.
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">실무적으로 검증된 개발 보안 방법론 중 하나로, SW 보안의 모범 사례를 SDLC(Software Development Life Cycle)에 통합한 소프트웨어 개발 보안 생명주기 방법론은?
-1)CLASP    2)CWE    3)PIMS    4)Seven Touchpoints
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Rayleigh-Norden 곡선의 노력 분포도를 이용한 프로젝트 비용 산정 기법은? 
-1)Putnam 모형    2)델파이 모형    3)COCOMO 모형    4)기능 점수 모형
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>스택가드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">메모리상에서 프로그램의 복귀 주소와 변수 사이에 특정 값을 저장해 두었다가 그 값이 변경되었을 경우 오버플로우 상태로 가정하여 프로그램 실행을 중단하는 기술은?
--&gt; ㅇㅇㅇㅇ
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>무결성, 로그, 파일, 열린, 백도어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;백도어 탐지 방법&gt;
-- ㅇㅇㅇ 검사
-- ㅇㅇ 분석
-- SetUID ㅇㅇ 검사
-- ㅇㅇ 포트 검사
-- 바이러스 및 ㅇㅇㅇ 탐지 툴 이용
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">IP 또는 ICMP의 특성을 악용하여 특정 사이트에 집중적으로 데이터를 보내 네트워크 또는 시스템의 상태를 불능으로 만드는 공격 방법은?
-1)TearDrop    2)Smishing    3)Qshing    4)Smurfing
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CMM 모델의 레벨로 옳지 않은 것은?
-1)최적 단계    2)관리 단계    3)정의 단계    4)계획 단계
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">크래커가 침입하여 백도어를 만들어 놓거나, 설정 파일을 변경했을 때 분석하는 도구는?
-1)trace    2)tripwire    3)udpdump    4)cron
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">COCOMO model 중 기관 내부에서 개발된 중소 규모의 소프트웨어로 일괄 자료 처리나 과학 기술 계산용, 비즈니스 자료 처리용으로 5만 라인 이하의 소프트웨어를 개발하는 유형은?
-1)embeded    2)organic    3)semi-detached    4)semi-embeded
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -44913,22 +44654,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;ㅇㅇ&gt;
-- 오픈 소스를 기반으로 한 분산 컴퓨팅 플랫폼
-- 일반 PC급 컴퓨터들로 가상화된 대형 스토리지 형성
-- 다양한 소스를 통해 생성된 빅데이터를 효율적으로 저장하고 처리함.
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>목표, 규모, 기술, 제약, 품질</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;테일러링 개발 방법론&gt;
-- 내부적 요건; ㅇㅇ 환경, 요구사항, 프로젝트 ㅇㅇ, 보유 ㅇㅇ
-- 외부적 요건; 법적 ㅇㅇ 사항, 표준 ㅇㅇ 기준
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -48350,116 +48076,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">&lt;정보 보안을 위한 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="D2Coding"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>접근 제어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="D2Coding"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">&gt;
-- 적절한 권한을 가진 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="D2Coding"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인가자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="D2Coding"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">만 특정 시스템이나 정보에 접근할 수 있도록 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="D2Coding"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ㅇㅇ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="D2Coding"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">하는 것임.
-- 시스템 및 네트워크에 대한 접근 제어의 가장 기본적인 수단은 IP와 서비스 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="D2Coding"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ㅇㅇ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="D2Coding"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">로 볼 수 있음.
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="D2Coding"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ㅇㅇㅇㅇ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="D2Coding"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 장비에서 수행하는 IP에 대한 접근 제어로는 관리 인터페이스의 접근제어와 ACL(Access Control List)등이 있음.
-</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>물리적 배치와 상관 없이 논리적으로</t>
     </r>
     <r>
@@ -52455,6 +52071,3695 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통신망</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 구성 형태&gt;
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇ형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(중앙 집중형); 중앙에 중앙 컴퓨터가 있고, 이를 중심으로 단말 장치들이 연결되는 중앙 집중식의 네트워크 구성 형태
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇ형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(루프형); 컴퓨터와 단말 장치들을 서로 이웃하는 것끼리 포인트 투 포인트(Point-to-Point) 방식으로 연결시킨 형태
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 한 개의 통신 회선에 여러 대의 단말 장치가 연결되어 있는 형태
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(분산형); 중앙 컴퓨터와 일정 지역의 단말 장치까지는 하나의 통신 회선으로 연결시키고, 이웃하는 단말 장치는 일정 지역 내에 설치된 중간 단말 장치로 부터 다시 연결시키는 형태
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇ형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Mesh); 모든 지점의 컴퓨터와 단말 장치를 서로 연결한 형태로, 노드의 연결성이 높음.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">스마트 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">;전기 및 정보 통신 기술을 활용하여 전력망을 지능화, 고도화함으로써 고품질의 전력 서비스를 제공하고 에너지 이용 효율을 극대화하는 전력망
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 인터넷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 정보 통신 기술을 기반으로 실세계와 가상 세계의 다양한 사물들을 인터넷으로 서로 연결하여 진보된 서비스를 제공하기 위한 서비스 기반 기술
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디지털 ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 디지털 정보 자원을 장기적으로 보존하기 위한 작업. 아날로그는 디지털로 변환 후 압축해서 저장하고 디지털은 체계적으로 분류하고 메타 데이터를 만들어 DB화함.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미디어 ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 새로운 미디어의 등장 및 시장의 변화로 기존의 미디어 질서가 변화하는 것을 비유한 것.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;소프트웨어 개발 모형&gt;
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇㅇ 모형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; Boehm이 제시한 고전적 생명주기 모형으로서 선형 순차적 모델이라고도 하며, 타당성 검토, 계획, 요구사항 분석, 설계, 구현, 테스트 유지보수의 단계를 통해 소프트웨어를 개발하는 모형
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇㅇ 모형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 사용자의 요구 사항을 정확히 파악하기 위해 실제 개발될 소프트웨어에 대한 견본품을 만들어 최종 결과물을 예측하는 모형
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ형 모형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>; 폭포수 모형과 프로토타입 모형의 장점에 위험 분석 기능을 추가한 모형으로, 나선을 따라 돌듯이 여러 번의 소프트웨어 개발 과정을 거쳐 점진적으로 완벽한 최종 소프트웨어를 개발함.
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇㅇ 모형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 고객의 요구사항 변화에 유연하게 대응할 수 있도록 일정한 주기를 반복하면서 개발 과정을 진행하는 모형으로, 어느 특정 개발 방법론이 아니라 좋은 것을 빠르고 낭비 없게 만들기 위해 고객과의 소통에 초점을 맞춘 방법론
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;스트림 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">암호화 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">방식&gt;
+- 비트/바이트/단어들을 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">으로 암호화
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ4, LFSR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">가 대표적임.
+- 개인키 암호화 기법으로 단일키 암호화 기법 또는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 암호 기법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이라고도 함.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세션 하이재킹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 탐지 방법&gt;
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 상태 탐지
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Storm 탐지
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 유실과 재전송 증가 탐지
+- 예상치 못한 접속의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ㅇㅇ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">탐지
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>CMM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Capability Maturity Model)의 단계&gt;
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 단계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 정의된 프로세스가 없으며 작업자 능력에 따라 성공 여부가 결정됨.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 단계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 규칙화된 프로세스로 특정한 프로세스 내의 프로세스 정의 및 수행
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 단계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 표준화된 프로세스로 조직의 표준 프로세스를 활용하여 업무 수행
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ적 관리 단계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>; 예측 가능한 프로세스로 프로젝트를 정량적으로 관리 및 통제함.
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇ화 단계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 지속적 개선 프로세스. 프로세스 역량 향상을 위해 지속적인 프로세스 개선
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서비스 지향 아키텍처(SOA)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 계층
+-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">층, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ 프로세스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">층, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">층, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ적 요소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">층, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">층
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리지 시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 종류&gt;
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 서버와 저장 장치를 전용 케이블로 직접 연결하는 방식으로, 일반 가정 컴퓨터에 외장하드를 연결하는 것
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 서버와 저장 장치를 네트워크를 통해 연결하는 방식
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; DAS의 빠른 처리와 NAS의 파일 공유 장점을 혼합한 방식으로, 서버와 저장 장치를 연결하는 전용 네트워크를 별도로 구성하는 방식
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구조적 분석 도구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>&gt;
+- 자료 흐름도(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>); 요구사항 분석에서 자료의 흐름 및 변환 과정과 기능을 도형 중심으로 서술하는 방법으로 자료 흐름 그래프, 버블 차트라고도 함.
+- 자료 사전(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>); 자료 흐름도에 있는 자료를 더 자세히 정의하고 기록한 것이며, 이처럼 데이터를 설명하는 데이터를 데이터의 데이터, 또는 메타 데이터라고 함.
+- 소단위 명세서(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Mini-Spec.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>); 세분화된 자료 흐름도에서 최하위 단계 버블(프로세스)의 처리 절차를 기술한 것으로 ㅇㅇㅇㅇ 명세서라고도 함.
+- 개체 관계도(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>); 시스템에서 처리되는 개체와 개체의 구성과 속성, 개체 간의 관계를 표현하여 자료를 모델화하는 데 사용됨.
+- 상태전이도(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>); 시스템에 어떤 일이 발생할 경우 시스템의 상태와 상태 간의 전이를 모델화한 것으로, 상태 전이도를 통해 개발자는 시스템의 행위를 정의할 수 있음.
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 미국의 SoftTech사에서 만든 기법으로, 청사진이라고 하는 다이어그램을 사용하여 소프트웨어 시스템을 설계하고, 이 다이어그램을 계층 구조적으로 전개해 감으로써 시스템의 논리를 구체화해 가는 특징이 있음.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>접근 통제 기술</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>&gt;                           정답 기입 예시) ABC, DEF, GHIJ
+- 임의 접근 통제(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>); 데이터에 접근하는 사용자의 신원에 따라 접근 권한을 부여하며, 정책 변경이 어렵지만 안정적이고 집중적임.
+- 강제 접근 통제(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>); 주체와 객체의 등급을 비교하여 접근 권한을 부여하는 방식으로, 정책 변경이 용이하고 유연함.
+- 역할 기반 접근 통제(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">); 사용자의 역할에 따라 접근 권한을 부여하는 방식이며 정책 변경이 용이하고 관리가 용이함.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 인터넷 사용자의 컴퓨터에 잠입해 내부 문서나 파일 등을 암호화해 사용자가 열지 못하게 하는 프로그램으로, 암호 해독용 프로그램의 전달을 조건으로 사용자에게 돈을 요규하기도 함.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 합법적으로 소유하고 있던 사용자의 도메인을 탈취하거나 DNS 이름을 속여 사용자들이 진짜 사이트로 오인하도록 유도하여 개인 정보를 훔치는 신종 인터넷 사기 수법
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>; 낚시라는 뜻의 은어로, 허위 웹 사이트를 내세워 사용자의 개인 신용 정보를 빼내는 수법
+크로스사이트 스크립팅(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">); 웹페이지에 악의적인 스크립트를 삽입하여 방문자들의 정보를 탈취하거나, 비정상적인 기능 수행을 유발하는 취약점
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소프트웨어 정의 데이터센터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(SDDC:Software Defined Data Center)&gt;
+- 컴퓨팅, 네트워킹, 스토리지, 관리 등을 모두 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로 정의함.
+- 인력 개입 없이 소프트웨어 조작만으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇ 제어 관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 데이터 센터 내 모든 자원을 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">하여 서비스
+- 특정 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">와 상관없이 독립적으로 서비스 제공
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>NS(Nassi-Scheniderman) chart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 기술에 중점을 둔 도형식 표현 방법
+- 연속, 선택 및 다중 선택, 반복 등의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 논리 구조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로 표현
+- GOTO나 화살표를 사용 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+- 조건이 복합되어 있는 곳의 처리를 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">으로 명확히 식별하는데 적합함.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">다음 내용에 적합한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">는?
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대용량 데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를 분산 처리하기 위한 목적으로 개발된 프로그래밍 모델
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Google</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에 의해 고안된 기술로써 대표적인 대용량 데이터 처리를 위한 병렬 처리 기법을 제공함.
+- 임의의 순서로 정렬된 데이터를 분산 처리하고 이를 다시 합치는 과정을 거침.
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">MapReduce </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Hijacking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Logs
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>소프트웨어 프로세스에 대한 개선 및 능력 측정 기준에 대한 국제 표준은?
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ISO 14001 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">IEEE 802.5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">IEEE 488 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>SPICE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">물리적인 사물과 컴퓨터에 동일하게 표현되는 가상의 모델로, 실제 물리적인 자산 대신 소프트웨어로 가상화함으로써 실제 자산의 특성에 대한 정확한 정보를 얻을 수 있고, 자산 최적화, 돌발 사고 최소화, 생산성 증가 등 설계부터 제조, 서비스에 이르는 모든 과정의 효율성을 향상시킬 수 있는 모델은?
+-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ㅇㅇㅇ ㅇㅇ
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">다음 빈 칸에 알맞은 기술은?
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>( )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은/는 웹에서 제공하는 정보 및 서비스를 이용하여 새로운 소프트웨어나 서비스, 데이터베이스 등을 만드는 기술
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Quantum Key Distribution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Digital Rights Management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Grayware</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Mashup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;기능 점수 모형의 비용 산정 요소&gt;
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(입력 양식)
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇ 출력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(출력 보고서)
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(사용자 질의수)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ 파일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 필요한 외부 루틴과의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Putnam 모형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">을 기초로 해서 만든 자동화 추정 도구
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;주요 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>암호화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 알고리즘&gt;
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 1999년 한국인터넷진흥원에서 개발한 블록 암호화 알고리즘
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 2004년 국가정보원과 산학연협회가 개발한 블록 암호화 알고리즘
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>; 1975년 미국 NBS에서 발표한 개인키 암호화 알고리즘
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 2001년 미국 표준 기술 연구소에서 발표한 개인키 암호화 알고리즘
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 1978년 MIT의 라이베스트, 샤미르, 애들먼에 의해 제안된 공개키 암호화 알고리즘
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>빅데이터 분석 기술 중 대량의 데이터를 분석하여 데이터 속에 내재되어 있는 변수 사이의 상호 관례를 규명하여 일정한 패턴을 찾아내는 기법은?
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Data Mining   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Wm-Bus  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">  3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Digital Twin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Zigbee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>기존 무선 랜의 한계 극복을 위해 등장하였으며, 대규모 디바이스의 네트워크 생성에 최적화되어 차세대 이동 통신, 홈네트워킹, 공공 안전 등의 특수 목적을 위한 새로운 방식의 네트워크 기술을 의미하는 것은?
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Software Defined Perimeter  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">       2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Virtual Private Network </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Local Area Network         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">        4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Mesh Network</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">DDoS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">공격의 종류&gt;
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: 가장 초기 형태의 데몬으로, 주로 UDP Flooding 공격을 수행함.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Tribe Flooding Network); UDP Flooding 뿐만 아니라 TCP SYN Flood 공격, ICMP 응답 요청, 스머핑 공격 등을 수행함.
+- Stacheldraht; 이전 툴들의 기능을 유지하면서, 공격자, 마스터, 에이전트가 쉽게 노출되지 않도록 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>된 통신을 수행하며, 툴이 자동으로 업데이트되도록 설계됨.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 경로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 최장 경로를 의미함.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>RIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Routing Information Protocol)&gt;
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 벡터 라우팅 프로토콜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이라고도 함.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇ규모</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 네트워크 환경에 적합함.
+- 최대 홉 카운트를 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ홉 이하</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">로 한정함.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 경로 탐색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에는 Bellman-Ford 알고리즘 사용
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재사용 방법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 중심</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 전자 칩과 같은 소프트웨어 부품, 즉 블록(모듈)을 만들어 끼워 맞추는 방법으로 소프트웨어를 완성시키는 방법. 블록 구성 방법이라고도 함.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 중심</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">; 추상화 형태로 쓰여진 명세를 구체화하여 프로그램을 만드는 방법으로, 패턴 구성 방법이라고도 함.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>실무적으로 검증된 개발 보안 방법론 중 하나로,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> SW 보안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 모범 사례를 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>SDLC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Software Development Life Cycle)에 통합한 소프트웨어 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발 보안 생명주기 방법론</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은?
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">CLASP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>CWE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">PIMS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Seven Touchpoints</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Rayleigh-Norden 곡선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의 노력 분포도를 이용한 프로젝트 비용 산정 기법은? 
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Putnam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 모형    2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>델파이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 모형    3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>COCOMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 모형    4)기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">능 점수 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">모형
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">메모리상에서 프로그램의 복귀 주소와 변수 사이에 특정 값을 저장해 두었다가 그 값이 변경되었을 경우 오버플로우 상태로 가정하여 프로그램 실행을 중단하는 기술은?
+-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>백도어 탐지 방법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 검사
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 분석
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>SetUID ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 검사
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ 포트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 검사
+- 바이러스 및 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇ 탐지 툴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 이용
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">IP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ICMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의 특성을 악용하여 특정 사이트에 집중적으로 데이터를 보내 네트워크 또는 시스템의 상태를 불능으로 만드는 공격 방법은?
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">TearDrop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Smishing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Qshing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Smurfing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>CMM 모델</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의 레벨로 옳지 않은 것은?
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 단계    2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">관리 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단계    3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 단계    4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 단계
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크래커</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가 침입하여 백도어를 만들어 놓거나, 설정 파일을 변경했을 때 분석하는 도구는?
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">trace  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">  2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>tripwire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>udpdump</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>cron</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>COCOMO model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 중 기관 내부에서 개발된 중소 규모의 소프트웨어로 일괄 자료 처리나 과학 기술 계산용, 비즈니스 자료 처리용으로 5만 라인 이하의 소프트웨어를 개발하는 유형은?
+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>embeded</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">organic </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">   3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>semi-detached</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">    4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>semi-embeded</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+- 오픈 소스를 기반으로 한 분산 컴퓨팅 플랫폼
+- 일반 PC급 컴퓨터들로 가상화된 대형 스토리지 형성
+- 다양한 소스를 통해 생성된 빅데이터를 효율적으로 저장하고 처리함.
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">테일러링 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">개발 방법론&gt;
+- 내부적 요건; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ㅇㅇ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">환경, 요구사항, 프로젝트 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, 보유 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 외부적 요건; 법적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 사항, 표준</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 기준
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;정보 보안을 위한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>접근 제어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+- 적절한 권한을 가진 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인가자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">만 특정 시스템이나 정보에 접근할 수 있도록 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">하는 것임.
+- 시스템 및 네트워크에 대한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>접근 제어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 가장 기본적인 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">은 IP와 서비스 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">로 볼 수 있음.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇㅇㅇㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 장비에서 수행하는 IP에 대한 접근 제어로는 관리 인터페이스의 접근제어와 ACL(Access Control List)등이 있음.
 </t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -52919,7 +56224,7 @@
     <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A33" ca="1" si="0">RAND()</f>
-        <v>1.5634127989886615E-2</v>
+        <v>0.19539455683140183</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B33" si="1">IF(C2=D2,"O","X")</f>
@@ -52929,7 +56234,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>561</v>
+        <v>525</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>4</v>
@@ -52944,7 +56249,7 @@
     <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40533642990961005</v>
+        <v>0.79554615160432041</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52969,7 +56274,7 @@
     <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59226381983122922</v>
+        <v>0.21406703019748585</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -52979,7 +56284,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -52994,20 +56299,20 @@
     <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7545775057221471E-2</v>
+        <v>0.12818393998267386</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="F5" s="1">
         <v>202108</v>
@@ -53019,20 +56324,20 @@
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2846888847666826E-2</v>
+        <v>0.87218130949426687</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="F6" s="1">
         <v>202108</v>
@@ -53044,20 +56349,20 @@
     <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64798904805448387</v>
+        <v>0.34302676420223721</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>O</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="F7" s="1">
         <v>202108</v>
@@ -53069,7 +56374,7 @@
     <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74550802738348898</v>
+        <v>0.50401304534612179</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53094,20 +56399,20 @@
     <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42722778574613174</v>
+        <v>0.23468159688442092</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>O</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>539</v>
+        <v>503</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>539</v>
+        <v>503</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="F9" s="1">
         <v>202108</v>
@@ -53119,7 +56424,7 @@
     <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42246228464275248</v>
+        <v>0.23248622058285406</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53144,20 +56449,20 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35589459059375939</v>
+        <v>5.1500473435115435E-2</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>O</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="F11" s="1">
         <v>202108</v>
@@ -53169,20 +56474,20 @@
     <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89866501282302935</v>
+        <v>0.95848086393980525</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
       <c r="F12" s="1">
         <v>202108</v>
@@ -53194,7 +56499,7 @@
     <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75185940557796471</v>
+        <v>0.92311511102446908</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53216,17 +56521,17 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78363128924611525</v>
+        <v>0.97966100393183475</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="F14" s="1">
         <v>202108</v>
@@ -53238,7 +56543,7 @@
     <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1696205885578808E-2</v>
+        <v>8.2139131765686324E-2</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53260,17 +56565,17 @@
     <row r="16" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30001267813769594</v>
+        <v>0.94349401272848832</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="F16" s="1">
         <v>202108</v>
@@ -53282,7 +56587,7 @@
     <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2568635378066696</v>
+        <v>0.21413716948366701</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53304,7 +56609,7 @@
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55557697686733554</v>
+        <v>0.18417104175888377</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53326,17 +56631,17 @@
     <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58398063875684125</v>
+        <v>0.42039651692820845</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>549</v>
+        <v>513</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="F19" s="1">
         <v>202105</v>
@@ -53348,7 +56653,7 @@
     <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35361909688667614</v>
+        <v>0.50079972802783534</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53370,7 +56675,7 @@
     <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90365143176747487</v>
+        <v>0.9496130128729463</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53392,7 +56697,7 @@
     <row r="22" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35798847933124123</v>
+        <v>6.760933107197864E-2</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53414,7 +56719,7 @@
     <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96613704448673865</v>
+        <v>0.73053008480236747</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53436,7 +56741,7 @@
     <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67992333120286552</v>
+        <v>0.79526357439940942</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53458,7 +56763,7 @@
     <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30399685935508891</v>
+        <v>0.89130676747029169</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53480,7 +56785,7 @@
     <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18739964857070157</v>
+        <v>0.2335663892823312</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53502,7 +56807,7 @@
     <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53291416311790185</v>
+        <v>0.30724031399037832</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53524,7 +56829,7 @@
     <row r="28" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60770441775759887</v>
+        <v>0.37287381471279502</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53546,7 +56851,7 @@
     <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90578353934880973</v>
+        <v>0.68097529414860691</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53568,7 +56873,7 @@
     <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91908123182580814</v>
+        <v>0.55514506196798763</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53590,7 +56895,7 @@
     <row r="31" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88577466750461942</v>
+        <v>0.70644865759144282</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53612,14 +56917,14 @@
     <row r="32" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82970916956200247</v>
+        <v>0.23766317328459141</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>41</v>
@@ -53634,7 +56939,7 @@
     <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97805116031392636</v>
+        <v>0.51948369521168791</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -53656,7 +56961,7 @@
     <row r="34" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" ref="A34:A97" ca="1" si="2">RAND()</f>
-        <v>0.9775875809362341</v>
+        <v>0.1597099252023958</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" ref="B34:B49" si="3">IF(C34=D34,"O","X")</f>
@@ -53678,7 +56983,7 @@
     <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6687556852563463E-2</v>
+        <v>0.95496842539042859</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="3"/>
@@ -53700,7 +57005,7 @@
     <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27812407511446713</v>
+        <v>0.663388584179884</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="3"/>
@@ -53722,7 +57027,7 @@
     <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59942088711791808</v>
+        <v>0.34680389160114067</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="3"/>
@@ -53744,7 +57049,7 @@
     <row r="38" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2567745093824253</v>
+        <v>0.68127791006227068</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="3"/>
@@ -53766,17 +57071,17 @@
     <row r="39" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85013681602234448</v>
+        <v>0.98074808879913944</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>551</v>
+        <v>515</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>552</v>
+        <v>516</v>
       </c>
       <c r="F39" s="1">
         <v>202103</v>
@@ -53788,7 +57093,7 @@
     <row r="40" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83869075437769181</v>
+        <v>1.1461982110915203E-2</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" si="3"/>
@@ -53810,7 +57115,7 @@
     <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46134889172970994</v>
+        <v>0.7732210447976221</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" si="3"/>
@@ -53832,7 +57137,7 @@
     <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82698757946167223</v>
+        <v>0.23912588638861665</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="3"/>
@@ -53854,17 +57159,17 @@
     <row r="43" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20070818993706141</v>
+        <v>0.44765579703520886</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>553</v>
+        <v>517</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>554</v>
+        <v>518</v>
       </c>
       <c r="F43" s="1">
         <v>202103</v>
@@ -53876,7 +57181,7 @@
     <row r="44" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61606723046367085</v>
+        <v>0.96954050786799395</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="3"/>
@@ -53898,7 +57203,7 @@
     <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71944994844547605</v>
+        <v>0.46915727595013978</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="3"/>
@@ -53920,7 +57225,7 @@
     <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22465502498610235</v>
+        <v>0.51025097614326154</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" si="3"/>
@@ -53942,7 +57247,7 @@
     <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41860504178246116</v>
+        <v>0.69367735051344637</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="3"/>
@@ -53964,7 +57269,7 @@
     <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85186182328681437</v>
+        <v>0.36490481935354291</v>
       </c>
       <c r="B48" s="3" t="str">
         <f t="shared" si="3"/>
@@ -53986,7 +57291,7 @@
     <row r="49" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26279320332613276</v>
+        <v>0.87616269175876094</v>
       </c>
       <c r="B49" s="3" t="str">
         <f t="shared" si="3"/>
@@ -54008,7 +57313,7 @@
     <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.2583603327359811E-2</v>
+        <v>0.3637825181273634</v>
       </c>
       <c r="B50" s="3" t="str">
         <f t="shared" ref="B50:B65" si="4">IF(C50=D50,"O","X")</f>
@@ -54030,7 +57335,7 @@
     <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54236164635717421</v>
+        <v>0.78138469863368243</v>
       </c>
       <c r="B51" s="3" t="str">
         <f t="shared" si="4"/>
@@ -54052,7 +57357,7 @@
     <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27785661049331223</v>
+        <v>0.91564990719902906</v>
       </c>
       <c r="B52" s="3" t="str">
         <f t="shared" si="4"/>
@@ -54074,7 +57379,7 @@
     <row r="53" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84920696677070318</v>
+        <v>0.35177602817893072</v>
       </c>
       <c r="B53" s="3" t="str">
         <f t="shared" si="4"/>
@@ -54096,7 +57401,7 @@
     <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31959742860213769</v>
+        <v>0.55885514394462033</v>
       </c>
       <c r="B54" s="3" t="str">
         <f t="shared" si="4"/>
@@ -54118,7 +57423,7 @@
     <row r="55" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42988678762749233</v>
+        <v>5.9595365238618414E-2</v>
       </c>
       <c r="B55" s="3" t="str">
         <f t="shared" si="4"/>
@@ -54140,7 +57445,7 @@
     <row r="56" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36865730466674029</v>
+        <v>0.22338005375406333</v>
       </c>
       <c r="B56" s="3" t="str">
         <f t="shared" si="4"/>
@@ -54162,7 +57467,7 @@
     <row r="57" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15796476738724485</v>
+        <v>0.70626672223308307</v>
       </c>
       <c r="B57" s="3" t="str">
         <f t="shared" si="4"/>
@@ -54184,7 +57489,7 @@
     <row r="58" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46390802141810761</v>
+        <v>0.15334296709714834</v>
       </c>
       <c r="B58" s="3" t="str">
         <f t="shared" si="4"/>
@@ -54206,7 +57511,7 @@
     <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.6676293201179258E-2</v>
+        <v>0.55771498996136992</v>
       </c>
       <c r="B59" s="3" t="str">
         <f t="shared" si="4"/>
@@ -54228,7 +57533,7 @@
     <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46203741926301556</v>
+        <v>0.85988733849993726</v>
       </c>
       <c r="B60" s="3" t="str">
         <f t="shared" si="4"/>
@@ -54250,7 +57555,7 @@
     <row r="61" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58225371764989819</v>
+        <v>0.68593219719075349</v>
       </c>
       <c r="B61" s="3" t="str">
         <f t="shared" si="4"/>
@@ -54272,7 +57577,7 @@
     <row r="62" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44651624536039192</v>
+        <v>0.6156862338463136</v>
       </c>
       <c r="B62" s="3" t="str">
         <f t="shared" si="4"/>
@@ -54294,7 +57599,7 @@
     <row r="63" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50879837810573203</v>
+        <v>0.29762138641703373</v>
       </c>
       <c r="B63" s="3" t="str">
         <f t="shared" si="4"/>
@@ -54316,7 +57621,7 @@
     <row r="64" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9144050925575562</v>
+        <v>0.38689177572985145</v>
       </c>
       <c r="B64" s="3" t="str">
         <f t="shared" si="4"/>
@@ -54338,7 +57643,7 @@
     <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19339934779814449</v>
+        <v>0.21917016441699977</v>
       </c>
       <c r="B65" s="3" t="str">
         <f t="shared" si="4"/>
@@ -54360,7 +57665,7 @@
     <row r="66" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81724984183256921</v>
+        <v>0.81752433084845177</v>
       </c>
       <c r="B66" s="3" t="str">
         <f t="shared" ref="B66:B97" si="5">IF(C66=D66,"O","X")</f>
@@ -54382,7 +57687,7 @@
     <row r="67" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25552001833865323</v>
+        <v>0.20571626544300248</v>
       </c>
       <c r="B67" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54404,7 +57709,7 @@
     <row r="68" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49301988942281627</v>
+        <v>0.1808514075396721</v>
       </c>
       <c r="B68" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54426,7 +57731,7 @@
     <row r="69" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94485446332442025</v>
+        <v>0.72455453763491062</v>
       </c>
       <c r="B69" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54448,7 +57753,7 @@
     <row r="70" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15963326441559889</v>
+        <v>0.37597914791578391</v>
       </c>
       <c r="B70" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54470,7 +57775,7 @@
     <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5632299260366374E-2</v>
+        <v>0.6554492876659278</v>
       </c>
       <c r="B71" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54492,7 +57797,7 @@
     <row r="72" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72382468587692372</v>
+        <v>0.31324580825468074</v>
       </c>
       <c r="B72" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54514,7 +57819,7 @@
     <row r="73" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82036998463041155</v>
+        <v>0.27485606005514718</v>
       </c>
       <c r="B73" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54536,7 +57841,7 @@
     <row r="74" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81723610309334838</v>
+        <v>0.46909733063825876</v>
       </c>
       <c r="B74" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54558,7 +57863,7 @@
     <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43927246810316867</v>
+        <v>0.55909062779590379</v>
       </c>
       <c r="B75" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54580,7 +57885,7 @@
     <row r="76" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45526369542335576</v>
+        <v>0.73571520831468351</v>
       </c>
       <c r="B76" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54602,7 +57907,7 @@
     <row r="77" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89002622214379989</v>
+        <v>0.68982273296286167</v>
       </c>
       <c r="B77" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54624,7 +57929,7 @@
     <row r="78" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6863047743842956</v>
+        <v>0.95116404206965788</v>
       </c>
       <c r="B78" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54646,7 +57951,7 @@
     <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84624173064296793</v>
+        <v>0.20389373159223245</v>
       </c>
       <c r="B79" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54668,17 +57973,17 @@
     <row r="80" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2680201597401507</v>
+        <v>0.47677360367348809</v>
       </c>
       <c r="B80" s="3" t="str">
         <f t="shared" si="5"/>
         <v>X</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>555</v>
+        <v>519</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="F80" s="1">
         <v>202008</v>
@@ -54690,7 +57995,7 @@
     <row r="81" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57723927181625545</v>
+        <v>5.5951489579517899E-2</v>
       </c>
       <c r="B81" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54712,7 +58017,7 @@
     <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7659087798160535E-2</v>
+        <v>0.1821869985538016</v>
       </c>
       <c r="B82" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54734,7 +58039,7 @@
     <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3099404478092439</v>
+        <v>0.62071079180036104</v>
       </c>
       <c r="B83" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54756,7 +58061,7 @@
     <row r="84" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4.2623434847264052E-2</v>
+        <v>0.33992201963571311</v>
       </c>
       <c r="B84" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54778,7 +58083,7 @@
     <row r="85" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91439494805983912</v>
+        <v>0.74775136927689989</v>
       </c>
       <c r="B85" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54800,7 +58105,7 @@
     <row r="86" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4183023335156385</v>
+        <v>0.54554051129737735</v>
       </c>
       <c r="B86" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54822,7 +58127,7 @@
     <row r="87" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7432072795223528E-2</v>
+        <v>3.9978292033122975E-2</v>
       </c>
       <c r="B87" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54844,7 +58149,7 @@
     <row r="88" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99244573848657047</v>
+        <v>0.75653280125370959</v>
       </c>
       <c r="B88" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54866,7 +58171,7 @@
     <row r="89" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64344134301679545</v>
+        <v>0.92322246230261606</v>
       </c>
       <c r="B89" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54888,7 +58193,7 @@
     <row r="90" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13462337070233799</v>
+        <v>0.77649077633943631</v>
       </c>
       <c r="B90" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54910,7 +58215,7 @@
     <row r="91" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58150844692622405</v>
+        <v>0.74226946348868161</v>
       </c>
       <c r="B91" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54932,7 +58237,7 @@
     <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6.577415800937636E-2</v>
+        <v>0.61829936100838023</v>
       </c>
       <c r="B92" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54954,7 +58259,7 @@
     <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11309067228833869</v>
+        <v>0.20776481244522871</v>
       </c>
       <c r="B93" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54976,7 +58281,7 @@
     <row r="94" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30843821292395279</v>
+        <v>0.69583733003706727</v>
       </c>
       <c r="B94" s="3" t="str">
         <f t="shared" si="5"/>
@@ -54998,7 +58303,7 @@
     <row r="95" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59136332259225277</v>
+        <v>0.67901484997246897</v>
       </c>
       <c r="B95" s="3" t="str">
         <f t="shared" si="5"/>
@@ -55020,7 +58325,7 @@
     <row r="96" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92452328696855113</v>
+        <v>0.52608794090808764</v>
       </c>
       <c r="B96" s="3" t="str">
         <f t="shared" si="5"/>
@@ -55042,7 +58347,7 @@
     <row r="97" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77151745855314857</v>
+        <v>0.8651893812917234</v>
       </c>
       <c r="B97" s="3" t="str">
         <f t="shared" si="5"/>
@@ -55116,7 +58421,7 @@
     <row r="2" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A55" ca="1" si="0">RAND()</f>
-        <v>0.91685199679924179</v>
+        <v>0.34944541598014156</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B55" si="1">IF(C2=D2,"O","X")</f>
@@ -55138,7 +58443,7 @@
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25501363078850203</v>
+        <v>0.67294414895843624</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3" si="2">IF(C3=D3,"O","X")</f>
@@ -55160,7 +58465,7 @@
     <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83066055759228852</v>
+        <v>0.29328510726007451</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55182,7 +58487,7 @@
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.035613879117105E-2</v>
+        <v>0.69156404671198823</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55204,7 +58509,7 @@
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57316157190390438</v>
+        <v>0.66068173981423661</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55226,7 +58531,7 @@
     <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41307354889184844</v>
+        <v>0.43090960070394868</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55248,7 +58553,7 @@
     <row r="8" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22158197174170891</v>
+        <v>0.10389689872172603</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55270,7 +58575,7 @@
     <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41376365075881605</v>
+        <v>0.44551688080881047</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55292,7 +58597,7 @@
     <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7533702732617154E-2</v>
+        <v>0.47687896690352993</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55314,7 +58619,7 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8003567108482423E-2</v>
+        <v>0.66852061371566618</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55374,7 +58679,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72150187574436853</v>
+        <v>0.73055590912208668</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55396,7 +58701,7 @@
     <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41697636768294777</v>
+        <v>0.6804920452113854</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55418,7 +58723,7 @@
     <row r="16" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71380572402059217</v>
+        <v>0.27885476807352971</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55440,7 +58745,7 @@
     <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33811942901554115</v>
+        <v>0.32325340390392321</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55462,7 +58767,7 @@
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32772926422888515</v>
+        <v>8.3956998699985519E-4</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55500,7 +58805,7 @@
     <row r="20" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80998338987022023</v>
+        <v>0.61661138842424879</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55522,7 +58827,7 @@
     <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7162269752328605E-2</v>
+        <v>0.90810667760878394</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55544,7 +58849,7 @@
     <row r="22" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79022705628168433</v>
+        <v>0.1925817978802834</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55566,7 +58871,7 @@
     <row r="23" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50534895778264755</v>
+        <v>0.62784317571860815</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55588,7 +58893,7 @@
     <row r="24" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97453749184325655</v>
+        <v>0.9156293554679994</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55610,7 +58915,7 @@
     <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86509268735779599</v>
+        <v>0.92099508034524602</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55632,7 +58937,7 @@
     <row r="26" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53752685351918106</v>
+        <v>0.82529152336119505</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55654,7 +58959,7 @@
     <row r="27" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63845591573109362</v>
+        <v>0.35156591855881525</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ref="B27:B28" si="3">IF(C27=D27,"O","X")</f>
@@ -55676,7 +58981,7 @@
     <row r="28" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96694174622235762</v>
+        <v>0.65056572316518613</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="3"/>
@@ -55698,7 +59003,7 @@
     <row r="29" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44033462611410179</v>
+        <v>0.6483028531488797</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55720,7 +59025,7 @@
     <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69110123484170516</v>
+        <v>0.49358958452782942</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55742,7 +59047,7 @@
     <row r="31" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40964125451889222</v>
+        <v>0.64298850363037252</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55764,7 +59069,7 @@
     <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71976825794707278</v>
+        <v>3.3183892514975666E-2</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55786,7 +59091,7 @@
     <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33822653936332603</v>
+        <v>0.17668720069996746</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55808,7 +59113,7 @@
     <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4659467711164043E-2</v>
+        <v>0.87583987702291421</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" ref="B34" si="4">IF(C34=D34,"O","X")</f>
@@ -55830,7 +59135,7 @@
     <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32792263895111762</v>
+        <v>0.91059936562157251</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55852,7 +59157,7 @@
     <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18622174464495322</v>
+        <v>0.14657021585544072</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55874,7 +59179,7 @@
     <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90332685914222433</v>
+        <v>0.29617124779947812</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55896,7 +59201,7 @@
     <row r="38" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78734577753040391</v>
+        <v>0.85500651956439389</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55918,7 +59223,7 @@
     <row r="39" spans="1:7" ht="144" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48364641905759587</v>
+        <v>0.11762739620048857</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55940,7 +59245,7 @@
     <row r="40" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44878226553211276</v>
+        <v>0.56337044077694687</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" si="1"/>
@@ -55962,7 +59267,7 @@
     <row r="41" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95712646369963816</v>
+        <v>0.24311497023495587</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" ref="B41:B42" si="5">IF(C41=D41,"O","X")</f>
@@ -55984,7 +59289,7 @@
     <row r="42" spans="1:7" ht="201.6" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44696176871174342</v>
+        <v>0.77327336147199599</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="5"/>
@@ -56006,7 +59311,7 @@
     <row r="43" spans="1:7" ht="144" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47589686451128876</v>
+        <v>0.88771276849007419</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56028,7 +59333,7 @@
     <row r="44" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5995730589687629</v>
+        <v>0.58282348308933229</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56050,7 +59355,7 @@
     <row r="45" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51944942518819903</v>
+        <v>0.246653291953842</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56072,7 +59377,7 @@
     <row r="46" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38096197559048761</v>
+        <v>0.78146583202796815</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56094,7 +59399,7 @@
     <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59540079973067717</v>
+        <v>0.81384893402591862</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56116,7 +59421,7 @@
     <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60703018345046778</v>
+        <v>0.47646494286682894</v>
       </c>
       <c r="B48" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56138,7 +59443,7 @@
     <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19050458437029461</v>
+        <v>5.6156127381770005E-2</v>
       </c>
       <c r="B49" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56160,7 +59465,7 @@
     <row r="50" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62613376594174097</v>
+        <v>2.5240416209840633E-2</v>
       </c>
       <c r="B50" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56182,7 +59487,7 @@
     <row r="51" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24275996042410386</v>
+        <v>7.4605139855760227E-2</v>
       </c>
       <c r="B51" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56204,7 +59509,7 @@
     <row r="52" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40616866606029278</v>
+        <v>0.52114052866471638</v>
       </c>
       <c r="B52" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56226,7 +59531,7 @@
     <row r="53" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52495285578634254</v>
+        <v>0.65063153739503132</v>
       </c>
       <c r="B53" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56248,7 +59553,7 @@
     <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91557116002280126</v>
+        <v>0.30103440653264968</v>
       </c>
       <c r="B54" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56270,7 +59575,7 @@
     <row r="55" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77512816087568237</v>
+        <v>0.47043532662201881</v>
       </c>
       <c r="B55" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56292,7 +59597,7 @@
     <row r="56" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" ref="A56:A68" ca="1" si="6">RAND()</f>
-        <v>0.36783946479723639</v>
+        <v>0.58368800459034753</v>
       </c>
       <c r="B56" s="3" t="str">
         <f t="shared" ref="B56:B68" si="7">IF(C56=D56,"O","X")</f>
@@ -56314,7 +59619,7 @@
     <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.53316775351920853</v>
+        <v>2.1286237995619905E-2</v>
       </c>
       <c r="B57" s="3" t="str">
         <f t="shared" si="7"/>
@@ -56336,7 +59641,7 @@
     <row r="58" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.82591432714637969</v>
+        <v>0.10167377990420678</v>
       </c>
       <c r="B58" s="3" t="str">
         <f t="shared" si="7"/>
@@ -56358,7 +59663,7 @@
     <row r="59" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>3.951615054571489E-2</v>
+        <v>0.3734355155102197</v>
       </c>
       <c r="B59" s="3" t="str">
         <f t="shared" si="7"/>
@@ -56380,7 +59685,7 @@
     <row r="60" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.7825289380084244E-2</v>
+        <v>0.14293353515162088</v>
       </c>
       <c r="B60" s="3" t="str">
         <f t="shared" si="7"/>
@@ -56402,7 +59707,7 @@
     <row r="61" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.97728816213647385</v>
+        <v>0.54192918310427018</v>
       </c>
       <c r="B61" s="3" t="str">
         <f t="shared" si="7"/>
@@ -56424,7 +59729,7 @@
     <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.89678445983548039</v>
+        <v>0.88729061205089665</v>
       </c>
       <c r="B62" s="3" t="str">
         <f t="shared" si="7"/>
@@ -56446,7 +59751,7 @@
     <row r="63" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.36092075021965897</v>
+        <v>0.7075621861951773</v>
       </c>
       <c r="B63" s="3" t="str">
         <f t="shared" si="7"/>
@@ -56468,7 +59773,7 @@
     <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>8.7490741034471964E-2</v>
+        <v>0.9507037590739521</v>
       </c>
       <c r="B64" s="3" t="str">
         <f t="shared" si="7"/>
@@ -56490,7 +59795,7 @@
     <row r="65" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.82133661350714926</v>
+        <v>0.71284000268834824</v>
       </c>
       <c r="B65" s="3" t="str">
         <f t="shared" si="7"/>
@@ -56512,7 +59817,7 @@
     <row r="66" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.47788626050161598</v>
+        <v>2.8709396568769474E-2</v>
       </c>
       <c r="B66" s="3" t="str">
         <f t="shared" si="7"/>
@@ -56534,7 +59839,7 @@
     <row r="67" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.58516456091611335</v>
+        <v>0.53647432220479974</v>
       </c>
       <c r="B67" s="3" t="str">
         <f t="shared" si="7"/>
@@ -56556,7 +59861,7 @@
     <row r="68" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.32140507773604388</v>
+        <v>0.14091392000626879</v>
       </c>
       <c r="B68" s="3" t="str">
         <f t="shared" si="7"/>
@@ -56625,7 +59930,7 @@
     <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A38" ca="1" si="0">RAND()</f>
-        <v>0.36645024413837779</v>
+        <v>0.9332870496268677</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B38" si="1">IF(C2=D2,"O","X")</f>
@@ -56647,7 +59952,7 @@
     <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56203589417008049</v>
+        <v>0.859199103309223</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56669,7 +59974,7 @@
     <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73817778567205727</v>
+        <v>4.4051706160439408E-2</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56691,7 +59996,7 @@
     <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21681277973425128</v>
+        <v>0.38885945045886194</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56713,7 +60018,7 @@
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85156532922561279</v>
+        <v>0.14445849371442931</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56735,7 +60040,7 @@
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81636874907567825</v>
+        <v>0.79501198629161673</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56757,7 +60062,7 @@
     <row r="8" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20876655160824742</v>
+        <v>7.0623320059147399E-2</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56779,7 +60084,7 @@
     <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50063647450116611</v>
+        <v>0.38351632710558103</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56801,7 +60106,7 @@
     <row r="10" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4923520910772239E-2</v>
+        <v>0.86800955807249647</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56823,7 +60128,7 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87347219136213405</v>
+        <v>0.65839982464009539</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56845,7 +60150,7 @@
     <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52021208858653645</v>
+        <v>0.6854443517032246</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56867,7 +60172,7 @@
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60038277712619936</v>
+        <v>0.40509653688585578</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56889,7 +60194,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51535961634777283</v>
+        <v>0.44746984154723712</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56911,7 +60216,7 @@
     <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26757534759118673</v>
+        <v>0.37973767744906484</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56933,7 +60238,7 @@
     <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7669554738683848E-2</v>
+        <v>0.91141353001596748</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56955,7 +60260,7 @@
     <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60083552480650848</v>
+        <v>0.94266657739557846</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56977,7 +60282,7 @@
     <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36128703075081758</v>
+        <v>0.37056066056922832</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -56999,7 +60304,7 @@
     <row r="19" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12537527741272059</v>
+        <v>0.45358789123160592</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57021,7 +60326,7 @@
     <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55720262671394938</v>
+        <v>0.42916182137038961</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57043,7 +60348,7 @@
     <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67792063988555173</v>
+        <v>0.27938526256748586</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57065,7 +60370,7 @@
     <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.383571323417641</v>
+        <v>0.67731451879517612</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57087,7 +60392,7 @@
     <row r="23" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84596236024953808</v>
+        <v>0.67491354937029358</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57109,7 +60414,7 @@
     <row r="24" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62885692717426378</v>
+        <v>0.48134740150557143</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57131,7 +60436,7 @@
     <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64888452946127761</v>
+        <v>0.67624674578314714</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57153,7 +60458,7 @@
     <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97330936545738422</v>
+        <v>1.6158273914741006E-2</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57175,7 +60480,7 @@
     <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90481692081964638</v>
+        <v>0.57425773097021815</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57197,7 +60502,7 @@
     <row r="28" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15043599953025621</v>
+        <v>0.61747034130857348</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57219,7 +60524,7 @@
     <row r="29" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7781516459269415E-2</v>
+        <v>0.69942881817481328</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57241,7 +60546,7 @@
     <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51780710288332232</v>
+        <v>2.5012375893765371E-2</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57263,7 +60568,7 @@
     <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45600748360429266</v>
+        <v>0.78178205239263643</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57285,7 +60590,7 @@
     <row r="32" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3001953627938247E-2</v>
+        <v>0.90071504343307895</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57307,7 +60612,7 @@
     <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43103709287026093</v>
+        <v>0.95399728881213841</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57329,7 +60634,7 @@
     <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74813903502477275</v>
+        <v>0.73830537312358102</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57351,7 +60656,7 @@
     <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57483521715987718</v>
+        <v>2.36788662720544E-2</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57373,7 +60678,7 @@
     <row r="36" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87899154564059023</v>
+        <v>0.75907463663776087</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57395,7 +60700,7 @@
     <row r="37" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54835811760007058</v>
+        <v>0.90462517133524922</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57417,7 +60722,7 @@
     <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53762362306166389</v>
+        <v>0.49956424548205458</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57486,7 +60791,7 @@
     <row r="2" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A58" ca="1" si="0">RAND()</f>
-        <v>0.7408339146091365</v>
+        <v>0.78123189668283977</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B58" si="1">IF(C2=D2,"O","X")</f>
@@ -57508,7 +60813,7 @@
     <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75932602591416354</v>
+        <v>0.6341760365206105</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57530,7 +60835,7 @@
     <row r="4" spans="1:7" ht="158.4" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3645903669290553E-2</v>
+        <v>0.44477294275146984</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57552,7 +60857,7 @@
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41772486992746205</v>
+        <v>0.56303381360245708</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57574,7 +60879,7 @@
     <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50423157190584877</v>
+        <v>0.86751338621617768</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57596,7 +60901,7 @@
     <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14016637636191076</v>
+        <v>0.50618715716014406</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57618,7 +60923,7 @@
     <row r="8" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24987770028304801</v>
+        <v>0.81342480707170461</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57640,7 +60945,7 @@
     <row r="9" spans="1:7" ht="158.4" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6236494167594665</v>
+        <v>0.79303962706745001</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57662,7 +60967,7 @@
     <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38555974667569881</v>
+        <v>6.7557692728217322E-2</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57684,7 +60989,7 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94994567251558237</v>
+        <v>0.10376494773081046</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57706,7 +61011,7 @@
     <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85743888252869704</v>
+        <v>0.68225776436997165</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57728,7 +61033,7 @@
     <row r="13" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91245980948532857</v>
+        <v>0.70948561919249886</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57750,7 +61055,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92780626060497418</v>
+        <v>0.75612769735933727</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57772,7 +61077,7 @@
     <row r="15" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66935500386429703</v>
+        <v>0.3749927149936555</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57794,7 +61099,7 @@
     <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81331050810366734</v>
+        <v>0.50802898364362026</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57813,7 +61118,7 @@
     <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58793584571782875</v>
+        <v>0.1469840403414</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57835,7 +61140,7 @@
     <row r="18" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48001463327604155</v>
+        <v>0.13850956838872897</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57857,7 +61162,7 @@
     <row r="19" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54660715202259458</v>
+        <v>2.4817568879783591E-3</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57879,7 +61184,7 @@
     <row r="20" spans="1:7" ht="187.2" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69555026793320807</v>
+        <v>0.29718415380617647</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57901,7 +61206,7 @@
     <row r="21" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.912458815553715</v>
+        <v>0.53867116363044176</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57923,7 +61228,7 @@
     <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70926822843020121</v>
+        <v>0.52503704543253626</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57945,7 +61250,7 @@
     <row r="23" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19668634909750571</v>
+        <v>1.8108478213290424E-2</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57967,7 +61272,7 @@
     <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16027900101210679</v>
+        <v>0.97708665670431605</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -57989,7 +61294,7 @@
     <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50307408660732011</v>
+        <v>0.62667383021340317</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58011,7 +61316,7 @@
     <row r="26" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33408095165097085</v>
+        <v>0.46741965008315267</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58033,7 +61338,7 @@
     <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70800926277962228</v>
+        <v>0.18150962919497449</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58055,7 +61360,7 @@
     <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24934396631172007</v>
+        <v>0.80782032821098326</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58077,7 +61382,7 @@
     <row r="29" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56640916872340674</v>
+        <v>0.52072352945308553</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58099,7 +61404,7 @@
     <row r="30" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54587203182380617</v>
+        <v>3.883583752300479E-2</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58121,7 +61426,7 @@
     <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97418533027986964</v>
+        <v>0.5330570218348486</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58143,7 +61448,7 @@
     <row r="32" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81716860569300165</v>
+        <v>0.31262372899586066</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58165,7 +61470,7 @@
     <row r="33" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36035840931565555</v>
+        <v>0.51671703791023704</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58187,7 +61492,7 @@
     <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36020906088281468</v>
+        <v>0.67090662565799986</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58209,7 +61514,7 @@
     <row r="35" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44319488297141518</v>
+        <v>0.34660043799532647</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58231,7 +61536,7 @@
     <row r="36" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52976238670634157</v>
+        <v>0.70401795668273626</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58253,7 +61558,7 @@
     <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18162280275990972</v>
+        <v>0.16976410794393837</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58275,7 +61580,7 @@
     <row r="38" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79677634046464862</v>
+        <v>0.3874018650981742</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58297,7 +61602,7 @@
     <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42472586110163491</v>
+        <v>0.37774019478915355</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58319,7 +61624,7 @@
     <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19488615648516106</v>
+        <v>0.61507186180942541</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58341,7 +61646,7 @@
     <row r="41" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1226429859941609</v>
+        <v>0.38651536833132794</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58363,7 +61668,7 @@
     <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83499090206347992</v>
+        <v>0.21205075921302596</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58385,7 +61690,7 @@
     <row r="43" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51038377360818443</v>
+        <v>5.3841153199007619E-2</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58407,7 +61712,7 @@
     <row r="44" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63109813717610996</v>
+        <v>0.13666679509628188</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58429,7 +61734,7 @@
     <row r="45" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9924943487468036E-2</v>
+        <v>0.48508690627849971</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58451,7 +61756,7 @@
     <row r="46" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9176488216376417E-2</v>
+        <v>0.6636981293281945</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58473,7 +61778,7 @@
     <row r="47" spans="1:7" ht="172.8" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11966032148501748</v>
+        <v>0.85742260958048877</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58495,7 +61800,7 @@
     <row r="48" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96654425195288352</v>
+        <v>0.17579328639369074</v>
       </c>
       <c r="B48" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58517,7 +61822,7 @@
     <row r="49" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13012830585733148</v>
+        <v>0.75244839738829294</v>
       </c>
       <c r="B49" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58539,7 +61844,7 @@
     <row r="50" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90102918449538361</v>
+        <v>0.76219289958486858</v>
       </c>
       <c r="B50" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58561,7 +61866,7 @@
     <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21795654233990347</v>
+        <v>0.12218155558285682</v>
       </c>
       <c r="B51" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58583,7 +61888,7 @@
     <row r="52" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75775821874563176</v>
+        <v>0.18434470949303339</v>
       </c>
       <c r="B52" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58605,7 +61910,7 @@
     <row r="53" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37941242979334244</v>
+        <v>0.55073432995531435</v>
       </c>
       <c r="B53" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58627,7 +61932,7 @@
     <row r="54" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12684291932116987</v>
+        <v>0.95928831797821856</v>
       </c>
       <c r="B54" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58649,7 +61954,7 @@
     <row r="55" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24810657907715983</v>
+        <v>0.83918639409337314</v>
       </c>
       <c r="B55" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58671,7 +61976,7 @@
     <row r="56" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74456235963662987</v>
+        <v>0.68175676709659783</v>
       </c>
       <c r="B56" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58693,7 +61998,7 @@
     <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25052511905329145</v>
+        <v>0.20212692514001529</v>
       </c>
       <c r="B57" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58715,7 +62020,7 @@
     <row r="58" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72182050756357319</v>
+        <v>0.46709177618665709</v>
       </c>
       <c r="B58" s="3" t="str">
         <f t="shared" si="1"/>
@@ -58737,7 +62042,7 @@
     <row r="59" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" ref="A59:A81" ca="1" si="2">RAND()</f>
-        <v>0.36753323800873505</v>
+        <v>0.24551445227175384</v>
       </c>
       <c r="B59" s="3" t="str">
         <f t="shared" ref="B59:B81" si="3">IF(C59=D59,"O","X")</f>
@@ -58759,7 +62064,7 @@
     <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3420874206019483</v>
+        <v>0.11375578757910287</v>
       </c>
       <c r="B60" s="3" t="str">
         <f t="shared" si="3"/>
@@ -58781,7 +62086,7 @@
     <row r="61" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72877546867574816</v>
+        <v>0.78117549867450065</v>
       </c>
       <c r="B61" s="3" t="str">
         <f t="shared" si="3"/>
@@ -58803,7 +62108,7 @@
     <row r="62" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36302429473111297</v>
+        <v>0.82797527777142199</v>
       </c>
       <c r="B62" s="3" t="str">
         <f t="shared" si="3"/>
@@ -58825,7 +62130,7 @@
     <row r="63" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22084887139147413</v>
+        <v>0.74510343923753386</v>
       </c>
       <c r="B63" s="3" t="str">
         <f t="shared" si="3"/>
@@ -58847,7 +62152,7 @@
     <row r="64" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0394651022830992E-2</v>
+        <v>0.66738574919715299</v>
       </c>
       <c r="B64" s="3" t="str">
         <f t="shared" si="3"/>
@@ -58869,7 +62174,7 @@
     <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28477313109944336</v>
+        <v>0.2726596912772481</v>
       </c>
       <c r="B65" s="3" t="str">
         <f t="shared" si="3"/>
@@ -58891,7 +62196,7 @@
     <row r="66" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4651238970545108E-2</v>
+        <v>0.25593142330851992</v>
       </c>
       <c r="B66" s="3" t="str">
         <f t="shared" si="3"/>
@@ -58913,7 +62218,7 @@
     <row r="67" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23800678865536717</v>
+        <v>0.38653970879460642</v>
       </c>
       <c r="B67" s="3" t="str">
         <f t="shared" si="3"/>
@@ -58935,7 +62240,7 @@
     <row r="68" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32572500611046473</v>
+        <v>8.9688170470983652E-2</v>
       </c>
       <c r="B68" s="3" t="str">
         <f t="shared" si="3"/>
@@ -58957,7 +62262,7 @@
     <row r="69" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97865098264296324</v>
+        <v>0.45224638697567265</v>
       </c>
       <c r="B69" s="3" t="str">
         <f t="shared" si="3"/>
@@ -58979,7 +62284,7 @@
     <row r="70" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34796006748610453</v>
+        <v>0.76880992001115478</v>
       </c>
       <c r="B70" s="3" t="str">
         <f t="shared" si="3"/>
@@ -59001,7 +62306,7 @@
     <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39549045427457186</v>
+        <v>2.467949587928997E-2</v>
       </c>
       <c r="B71" s="3" t="str">
         <f t="shared" si="3"/>
@@ -59023,7 +62328,7 @@
     <row r="72" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27039111425722318</v>
+        <v>0.21448667415687095</v>
       </c>
       <c r="B72" s="3" t="str">
         <f t="shared" si="3"/>
@@ -59045,7 +62350,7 @@
     <row r="73" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49325025536425637</v>
+        <v>0.27146485657573138</v>
       </c>
       <c r="B73" s="3" t="str">
         <f t="shared" si="3"/>
@@ -59067,7 +62372,7 @@
     <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79312581851752384</v>
+        <v>0.15401655346930732</v>
       </c>
       <c r="B74" s="3" t="str">
         <f t="shared" si="3"/>
@@ -59089,7 +62394,7 @@
     <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13731797277556235</v>
+        <v>2.9452894271036145E-2</v>
       </c>
       <c r="B75" s="3" t="str">
         <f t="shared" si="3"/>
@@ -59111,7 +62416,7 @@
     <row r="76" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87359265482435977</v>
+        <v>0.56723678613783102</v>
       </c>
       <c r="B76" s="3" t="str">
         <f t="shared" si="3"/>
@@ -59133,7 +62438,7 @@
     <row r="77" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75379898774192222</v>
+        <v>0.14533683537199027</v>
       </c>
       <c r="B77" s="3" t="str">
         <f t="shared" si="3"/>
@@ -59155,7 +62460,7 @@
     <row r="78" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14029060670132942</v>
+        <v>0.42138138189221597</v>
       </c>
       <c r="B78" s="3" t="str">
         <f t="shared" si="3"/>
@@ -59177,7 +62482,7 @@
     <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11668312086714649</v>
+        <v>1.8638141411886133E-2</v>
       </c>
       <c r="B79" s="3" t="str">
         <f t="shared" si="3"/>
@@ -59199,7 +62504,7 @@
     <row r="80" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42739939167377683</v>
+        <v>0.30595638028214511</v>
       </c>
       <c r="B80" s="3" t="str">
         <f t="shared" si="3"/>
@@ -59221,7 +62526,7 @@
     <row r="81" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85437958084949051</v>
+        <v>0.62793031871141536</v>
       </c>
       <c r="B81" s="3" t="str">
         <f t="shared" si="3"/>
@@ -59249,20 +62554,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD70CC4-C7FE-4B08-8655-8C496BF50D56}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.8984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.8984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" style="2" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="16.19921875" style="2" customWidth="1"/>
     <col min="5" max="5" width="127.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.09765625" style="1" customWidth="1"/>
@@ -59290,20 +62595,17 @@
     <row r="2" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A66" ca="1" si="0">RAND()</f>
-        <v>0.5717555897076062</v>
+        <v>0.39778458474205969</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B66" si="1">IF(C2=D2,"O","X")</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="F2" s="1">
         <v>202108</v>
@@ -59315,7 +62617,7 @@
     <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45605920940279943</v>
+        <v>0.26962611320633334</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -59325,7 +62627,7 @@
         <v>440</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="F3" s="1">
         <v>202108</v>
@@ -59334,20 +62636,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30051422595886501</v>
+        <v>0.76865087687045808</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C4" s="2">
         <v>4</v>
       </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
       <c r="E4" s="3" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="F4" s="1">
         <v>202108</v>
@@ -59356,20 +62661,23 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79772045509553524</v>
+        <v>0.89767127504576583</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="F5" s="1">
         <v>202108</v>
@@ -59381,20 +62689,17 @@
     <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93007242711569116</v>
+        <v>0.94599472778955651</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>441</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>566</v>
+        <v>605</v>
       </c>
       <c r="F6" s="1">
         <v>202108</v>
@@ -59406,7 +62711,7 @@
     <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6950453289557782</v>
+        <v>0.81682819551478991</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -59416,7 +62721,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>567</v>
+        <v>530</v>
       </c>
       <c r="F7" s="1">
         <v>202108</v>
@@ -59428,7 +62733,7 @@
     <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1224926369751651</v>
+        <v>0.34802267172606816</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -59438,7 +62743,7 @@
         <v>442</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>568</v>
+        <v>531</v>
       </c>
       <c r="F8" s="1">
         <v>202108</v>
@@ -59447,20 +62752,23 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22475809286644866</v>
+        <v>0.76424702594689409</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
       </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
       <c r="E9" s="3" t="s">
-        <v>569</v>
+        <v>532</v>
       </c>
       <c r="F9" s="1">
         <v>202108</v>
@@ -59472,7 +62780,7 @@
     <row r="10" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36272696192450005</v>
+        <v>0.26980485891628048</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -59482,7 +62790,7 @@
         <v>443</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>570</v>
+        <v>533</v>
       </c>
       <c r="F10" s="1">
         <v>202108</v>
@@ -59491,20 +62799,23 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="86.4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43601053969511216</v>
+        <v>0.46148418913704004</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>444</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>444</v>
+      </c>
       <c r="E11" s="3" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="F11" s="1">
         <v>202108</v>
@@ -59513,20 +62824,23 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1369182896705603</v>
+        <v>0.54043544086195017</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
       </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
       <c r="E12" s="3" t="s">
-        <v>572</v>
+        <v>535</v>
       </c>
       <c r="F12" s="1">
         <v>202108</v>
@@ -59538,7 +62852,7 @@
     <row r="13" spans="1:7" ht="144" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11042348603837115</v>
+        <v>0.60595152813526654</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -59548,7 +62862,7 @@
         <v>445</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>573</v>
+        <v>536</v>
       </c>
       <c r="F13" s="1">
         <v>202108</v>
@@ -59560,7 +62874,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18655938049418175</v>
+        <v>3.7082994429743166E-2</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -59570,7 +62884,7 @@
         <v>446</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>574</v>
+        <v>537</v>
       </c>
       <c r="F14" s="1">
         <v>202108</v>
@@ -59579,20 +62893,23 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94844266116088793</v>
+        <v>0.96194167477031356</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
       </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
       <c r="E15" s="3" t="s">
-        <v>575</v>
+        <v>538</v>
       </c>
       <c r="F15" s="1">
         <v>202108</v>
@@ -59604,7 +62921,7 @@
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8132374173302526E-2</v>
+        <v>6.3117799869986224E-2</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -59614,7 +62931,7 @@
         <v>447</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>576</v>
+        <v>539</v>
       </c>
       <c r="F16" s="1">
         <v>202108</v>
@@ -59626,7 +62943,7 @@
     <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60214004060539017</v>
+        <v>0.8525462489329283</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -59636,7 +62953,7 @@
         <v>448</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>577</v>
+        <v>540</v>
       </c>
       <c r="F17" s="1">
         <v>202108</v>
@@ -59648,7 +62965,7 @@
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25634965306177826</v>
+        <v>0.6027337275599125</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -59658,7 +62975,7 @@
         <v>449</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>578</v>
+        <v>541</v>
       </c>
       <c r="F18" s="1">
         <v>202108</v>
@@ -59670,7 +62987,7 @@
     <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50990310649298931</v>
+        <v>0.57210319775808394</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -59680,7 +62997,7 @@
         <v>450</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>579</v>
+        <v>542</v>
       </c>
       <c r="F19" s="1">
         <v>202108</v>
@@ -59692,7 +63009,7 @@
     <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62493614207991111</v>
+        <v>0.74324562819859785</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -59702,7 +63019,7 @@
         <v>451</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>580</v>
+        <v>543</v>
       </c>
       <c r="F20" s="1">
         <v>202108</v>
@@ -59711,20 +63028,23 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="86.4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88353056697736165</v>
+        <v>0.20610167268738067</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ref="B21:B29" si="2">IF(C21=D21,"O","X")</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
       <c r="E21" s="3" t="s">
-        <v>581</v>
+        <v>544</v>
       </c>
       <c r="F21" s="1">
         <v>202105</v>
@@ -59736,7 +63056,7 @@
     <row r="22" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73357731275926175</v>
+        <v>0.76896295593958286</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="2"/>
@@ -59746,7 +63066,7 @@
         <v>452</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>582</v>
+        <v>545</v>
       </c>
       <c r="F22" s="1">
         <v>202105</v>
@@ -59755,20 +63075,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="129.6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81681611355093509</v>
+        <v>0.82530493500034463</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
       </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
       <c r="E23" s="3" t="s">
-        <v>583</v>
+        <v>546</v>
       </c>
       <c r="F23" s="1">
         <v>202105</v>
@@ -59780,7 +63103,7 @@
     <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78356767855858245</v>
+        <v>0.11551093373116206</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="2"/>
@@ -59790,7 +63113,7 @@
         <v>453</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>584</v>
+        <v>547</v>
       </c>
       <c r="F24" s="1">
         <v>202105</v>
@@ -59802,7 +63125,7 @@
     <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41937983292902459</v>
+        <v>4.3067148276931255E-2</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="2"/>
@@ -59812,7 +63135,7 @@
         <v>454</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>585</v>
+        <v>548</v>
       </c>
       <c r="F25" s="1">
         <v>202105</v>
@@ -59824,7 +63147,7 @@
     <row r="26" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31235684067974412</v>
+        <v>0.80632093297113827</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="2"/>
@@ -59834,7 +63157,7 @@
         <v>455</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>586</v>
+        <v>549</v>
       </c>
       <c r="F26" s="1">
         <v>202105</v>
@@ -59846,7 +63169,7 @@
     <row r="27" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68692754556116609</v>
+        <v>0.58769864547988127</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="2"/>
@@ -59856,7 +63179,7 @@
         <v>456</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>587</v>
+        <v>550</v>
       </c>
       <c r="F27" s="1">
         <v>202105</v>
@@ -59868,7 +63191,7 @@
     <row r="28" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7493265969380728</v>
+        <v>0.15703593252195314</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="2"/>
@@ -59878,7 +63201,7 @@
         <v>457</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>588</v>
+        <v>551</v>
       </c>
       <c r="F28" s="1">
         <v>202105</v>
@@ -59887,20 +63210,23 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0656484395269894E-2</v>
+        <v>0.64454369243091081</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C29" s="2">
         <v>2</v>
       </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
       <c r="E29" s="3" t="s">
-        <v>589</v>
+        <v>552</v>
       </c>
       <c r="F29" s="1">
         <v>202105</v>
@@ -59912,7 +63238,7 @@
     <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31998336265242966</v>
+        <v>0.51854055466105564</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -59922,7 +63248,7 @@
         <v>458</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>590</v>
+        <v>553</v>
       </c>
       <c r="F30" s="1">
         <v>202105</v>
@@ -59934,7 +63260,7 @@
     <row r="31" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76501184556813684</v>
+        <v>1.6768175903474236E-2</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -59944,7 +63270,7 @@
         <v>459</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>591</v>
+        <v>554</v>
       </c>
       <c r="F31" s="1">
         <v>202105</v>
@@ -59956,7 +63282,7 @@
     <row r="32" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54949662036287605</v>
+        <v>0.50442626705704796</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
@@ -59966,7 +63292,7 @@
         <v>460</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>592</v>
+        <v>555</v>
       </c>
       <c r="F32" s="1">
         <v>202105</v>
@@ -59978,7 +63304,7 @@
     <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47184205002673874</v>
+        <v>0.76168961054970485</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -59988,7 +63314,7 @@
         <v>461</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>593</v>
+        <v>556</v>
       </c>
       <c r="F33" s="1">
         <v>202105</v>
@@ -59997,20 +63323,23 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90109536207356622</v>
+        <v>0.30455150147608612</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
       </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
       <c r="E34" s="3" t="s">
-        <v>594</v>
+        <v>557</v>
       </c>
       <c r="F34" s="1">
         <v>202105</v>
@@ -60022,7 +63351,7 @@
     <row r="35" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13732200703218223</v>
+        <v>0.7116632441555425</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="1"/>
@@ -60032,7 +63361,7 @@
         <v>462</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>595</v>
+        <v>558</v>
       </c>
       <c r="F35" s="1">
         <v>202105</v>
@@ -60044,7 +63373,7 @@
     <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49038522955700503</v>
+        <v>0.17618743557430305</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="1"/>
@@ -60054,7 +63383,7 @@
         <v>463</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>597</v>
+        <v>560</v>
       </c>
       <c r="F36" s="1">
         <v>202105</v>
@@ -60066,17 +63395,17 @@
     <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84749059963539897</v>
+        <v>0.5753056307894242</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>596</v>
+        <v>559</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>598</v>
+        <v>561</v>
       </c>
       <c r="F37" s="1">
         <v>202105</v>
@@ -60088,7 +63417,7 @@
     <row r="38" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.761172710135544</v>
+        <v>0.40627568143023218</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="1"/>
@@ -60098,7 +63427,7 @@
         <v>464</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>599</v>
+        <v>562</v>
       </c>
       <c r="F38" s="1">
         <v>202105</v>
@@ -60107,20 +63436,23 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79247500732871523</v>
+        <v>0.80609421262105474</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
       </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
       <c r="E39" s="3" t="s">
-        <v>600</v>
+        <v>563</v>
       </c>
       <c r="F39" s="1">
         <v>202103</v>
@@ -60129,20 +63461,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="86.4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89767107225046328</v>
+        <v>0.62642227305335252</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C40" s="2">
         <v>4</v>
       </c>
+      <c r="D40" s="2">
+        <v>4</v>
+      </c>
       <c r="E40" s="3" t="s">
-        <v>601</v>
+        <v>564</v>
       </c>
       <c r="F40" s="1">
         <v>202103</v>
@@ -60154,7 +63489,7 @@
     <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67884789708787174</v>
+        <v>0.61443759514612339</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" si="1"/>
@@ -60164,7 +63499,7 @@
         <v>465</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>602</v>
+        <v>565</v>
       </c>
       <c r="F41" s="1">
         <v>202103</v>
@@ -60173,21 +63508,25 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22243361697687625</v>
+        <v>4.398087570867093E-2</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C42" s="2">
         <f>36000/(300*6)</f>
         <v>20</v>
       </c>
+      <c r="D42" s="2">
+        <f>36000/1800</f>
+        <v>20</v>
+      </c>
       <c r="E42" s="3" t="s">
-        <v>603</v>
+        <v>566</v>
       </c>
       <c r="F42" s="1">
         <v>202103</v>
@@ -60199,7 +63538,7 @@
     <row r="43" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15856497094834698</v>
+        <v>0.22274407115062789</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="1"/>
@@ -60209,7 +63548,7 @@
         <v>466</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>604</v>
+        <v>567</v>
       </c>
       <c r="F43" s="1">
         <v>202103</v>
@@ -60221,7 +63560,7 @@
     <row r="44" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49093378120480624</v>
+        <v>1.4675667004820037E-2</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="1"/>
@@ -60231,7 +63570,7 @@
         <v>467</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>605</v>
+        <v>568</v>
       </c>
       <c r="F44" s="1">
         <v>202103</v>
@@ -60243,7 +63582,7 @@
     <row r="45" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5997504536833792</v>
+        <v>0.3289497187945426</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="1"/>
@@ -60253,7 +63592,7 @@
         <v>468</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>469</v>
+        <v>569</v>
       </c>
       <c r="F45" s="1">
         <v>202103</v>
@@ -60265,17 +63604,17 @@
     <row r="46" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20636990125835564</v>
+        <v>0.63170882326973987</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>471</v>
+        <v>570</v>
       </c>
       <c r="F46" s="1">
         <v>202103</v>
@@ -60284,20 +63623,23 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="129.6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="129.6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8030104046751378E-2</v>
+        <v>0.79990656169592989</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>473</v>
+        <v>571</v>
       </c>
       <c r="F47" s="1">
         <v>202103</v>
@@ -60309,17 +63651,17 @@
     <row r="48" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47763077187165048</v>
+        <v>0.60042724354710941</v>
       </c>
       <c r="B48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>475</v>
+        <v>572</v>
       </c>
       <c r="F48" s="1">
         <v>202103</v>
@@ -60331,17 +63673,17 @@
     <row r="49" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54250781785468105</v>
+        <v>0.80660660105233595</v>
       </c>
       <c r="B49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>477</v>
+        <v>573</v>
       </c>
       <c r="F49" s="1">
         <v>202103</v>
@@ -60353,17 +63695,17 @@
     <row r="50" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6272560681170933E-3</v>
+        <v>0.3958890595638096</v>
       </c>
       <c r="B50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>479</v>
+        <v>574</v>
       </c>
       <c r="F50" s="1">
         <v>202009</v>
@@ -60375,17 +63717,17 @@
     <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33342620200809125</v>
+        <v>0.20242395679594993</v>
       </c>
       <c r="B51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>481</v>
+        <v>575</v>
       </c>
       <c r="F51" s="1">
         <v>202009</v>
@@ -60397,17 +63739,17 @@
     <row r="52" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72749101906678415</v>
+        <v>0.31092463287303473</v>
       </c>
       <c r="B52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>483</v>
+        <v>576</v>
       </c>
       <c r="F52" s="1">
         <v>202009</v>
@@ -60419,17 +63761,17 @@
     <row r="53" spans="1:7" ht="172.8" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79370815994074451</v>
+        <v>0.6644105772443023</v>
       </c>
       <c r="B53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>485</v>
+        <v>577</v>
       </c>
       <c r="F53" s="1">
         <v>202009</v>
@@ -60441,17 +63783,17 @@
     <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93282929320493557</v>
+        <v>0.54005757193203785</v>
       </c>
       <c r="B54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>487</v>
+        <v>578</v>
       </c>
       <c r="F54" s="1">
         <v>202009</v>
@@ -60463,17 +63805,17 @@
     <row r="55" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5217835158779871</v>
+        <v>0.11442815639977422</v>
       </c>
       <c r="B55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>489</v>
+        <v>579</v>
       </c>
       <c r="F55" s="1">
         <v>202009</v>
@@ -60485,17 +63827,17 @@
     <row r="56" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89719755524630163</v>
+        <v>0.47936674912804966</v>
       </c>
       <c r="B56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>491</v>
+        <v>580</v>
       </c>
       <c r="F56" s="1">
         <v>202009</v>
@@ -60507,17 +63849,17 @@
     <row r="57" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3893649251852729E-4</v>
+        <v>0.96641410519553628</v>
       </c>
       <c r="B57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>493</v>
+        <v>581</v>
       </c>
       <c r="F57" s="1">
         <v>202009</v>
@@ -60529,7 +63871,7 @@
     <row r="58" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33379974773510157</v>
+        <v>0.67848129627893061</v>
       </c>
       <c r="B58" s="3" t="str">
         <f t="shared" si="1"/>
@@ -60539,7 +63881,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>494</v>
+        <v>582</v>
       </c>
       <c r="F58" s="1">
         <v>202009</v>
@@ -60551,7 +63893,7 @@
     <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85083115882432814</v>
+        <v>0.86840369442418752</v>
       </c>
       <c r="B59" s="3" t="str">
         <f t="shared" si="1"/>
@@ -60561,7 +63903,7 @@
         <v>4</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>495</v>
+        <v>583</v>
       </c>
       <c r="F59" s="1">
         <v>202009</v>
@@ -60573,17 +63915,17 @@
     <row r="60" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99256664414244034</v>
+        <v>0.23288813656546115</v>
       </c>
       <c r="B60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>497</v>
+        <v>584</v>
       </c>
       <c r="F60" s="1">
         <v>202008</v>
@@ -60592,20 +63934,23 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4627383258853216</v>
+        <v>0.41818170267155497</v>
       </c>
       <c r="B61" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C61" s="2">
         <v>4</v>
       </c>
+      <c r="D61" s="2">
+        <v>4</v>
+      </c>
       <c r="E61" s="3" t="s">
-        <v>498</v>
+        <v>585</v>
       </c>
       <c r="F61" s="1">
         <v>202008</v>
@@ -60617,17 +63962,17 @@
     <row r="62" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17408961524295585</v>
+        <v>0.44398826312232531</v>
       </c>
       <c r="B62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>500</v>
+        <v>586</v>
       </c>
       <c r="F62" s="1">
         <v>202008</v>
@@ -60639,17 +63984,17 @@
     <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34100763838938708</v>
+        <v>0.17490731252226543</v>
       </c>
       <c r="B63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>502</v>
+        <v>587</v>
       </c>
       <c r="F63" s="1">
         <v>202008</v>
@@ -60661,17 +64006,17 @@
     <row r="64" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13433237520258867</v>
+        <v>0.24065126789899582</v>
       </c>
       <c r="B64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>504</v>
+        <v>588</v>
       </c>
       <c r="F64" s="1">
         <v>202008</v>
@@ -60680,20 +64025,23 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1352154349081327</v>
+        <v>0.12662847246896025</v>
       </c>
       <c r="B65" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
       </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
       <c r="E65" s="3" t="s">
-        <v>505</v>
+        <v>589</v>
       </c>
       <c r="F65" s="1">
         <v>202008</v>
@@ -60702,20 +64050,23 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" ht="72" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10580902684815496</v>
+        <v>0.27925534763716209</v>
       </c>
       <c r="B66" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C66" s="2">
         <v>4</v>
       </c>
+      <c r="D66" s="2">
+        <v>4</v>
+      </c>
       <c r="E66" s="3" t="s">
-        <v>506</v>
+        <v>590</v>
       </c>
       <c r="F66" s="1">
         <v>202008</v>
@@ -60727,17 +64078,17 @@
     <row r="67" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" ref="A67:A82" ca="1" si="3">RAND()</f>
-        <v>8.911228364136059E-2</v>
+        <v>0.33352487281499799</v>
       </c>
       <c r="B67" s="3" t="str">
         <f t="shared" ref="B67:B82" si="4">IF(C67=D67,"O","X")</f>
         <v>X</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>508</v>
+        <v>591</v>
       </c>
       <c r="F67" s="1">
         <v>202008</v>
@@ -60746,20 +64097,23 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67190633219587392</v>
+        <v>0.65354188566891391</v>
       </c>
       <c r="B68" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>509</v>
+        <v>486</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>510</v>
+        <v>592</v>
       </c>
       <c r="F68" s="1">
         <v>202008</v>
@@ -60771,17 +64125,17 @@
     <row r="69" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11698851124015142</v>
+        <v>0.20320289413810677</v>
       </c>
       <c r="B69" s="3" t="str">
         <f t="shared" si="4"/>
         <v>X</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>512</v>
+        <v>593</v>
       </c>
       <c r="F69" s="1">
         <v>202008</v>
@@ -60793,17 +64147,17 @@
     <row r="70" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61816434914561191</v>
+        <v>0.97233177428973294</v>
       </c>
       <c r="B70" s="3" t="str">
         <f t="shared" si="4"/>
         <v>X</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>514</v>
+        <v>594</v>
       </c>
       <c r="F70" s="1">
         <v>202008</v>
@@ -60815,7 +64169,7 @@
     <row r="71" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48470091494456458</v>
+        <v>0.22567442316421393</v>
       </c>
       <c r="B71" s="3" t="str">
         <f t="shared" si="4"/>
@@ -60825,7 +64179,7 @@
         <v>4</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>515</v>
+        <v>595</v>
       </c>
       <c r="F71" s="1">
         <v>202008</v>
@@ -60834,20 +64188,23 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5850739770174187</v>
+        <v>0.98769566658175956</v>
       </c>
       <c r="B72" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
       </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
       <c r="E72" s="3" t="s">
-        <v>516</v>
+        <v>596</v>
       </c>
       <c r="F72" s="1">
         <v>202006</v>
@@ -60859,17 +64216,17 @@
     <row r="73" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95056014601746275</v>
+        <v>0.83036152376641792</v>
       </c>
       <c r="B73" s="3" t="str">
         <f t="shared" si="4"/>
         <v>X</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>518</v>
+        <v>597</v>
       </c>
       <c r="F73" s="1">
         <v>202006</v>
@@ -60881,17 +64238,17 @@
     <row r="74" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48614961652602218</v>
+        <v>0.66704341336677964</v>
       </c>
       <c r="B74" s="3" t="str">
         <f t="shared" si="4"/>
         <v>X</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>520</v>
+        <v>598</v>
       </c>
       <c r="F74" s="1">
         <v>202006</v>
@@ -60903,7 +64260,7 @@
     <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5662780856704519</v>
+        <v>0.42740038112262613</v>
       </c>
       <c r="B75" s="3" t="str">
         <f t="shared" si="4"/>
@@ -60913,7 +64270,7 @@
         <v>4</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>521</v>
+        <v>599</v>
       </c>
       <c r="F75" s="1">
         <v>202006</v>
@@ -60922,20 +64279,23 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97932449541879552</v>
+        <v>0.56438141835950717</v>
       </c>
       <c r="B76" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C76" s="2">
         <v>4</v>
       </c>
+      <c r="D76" s="2">
+        <v>4</v>
+      </c>
       <c r="E76" s="3" t="s">
-        <v>522</v>
+        <v>600</v>
       </c>
       <c r="F76" s="1">
         <v>202006</v>
@@ -60944,20 +64304,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43434626988088432</v>
+        <v>8.77401725192819E-2</v>
       </c>
       <c r="B77" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C77" s="2">
         <v>2</v>
       </c>
+      <c r="D77" s="2">
+        <v>2</v>
+      </c>
       <c r="E77" s="3" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="F77" s="1">
         <v>202006</v>
@@ -60966,20 +64329,23 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4130079691038514</v>
+        <v>0.86983770172668906</v>
       </c>
       <c r="B78" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C78" s="2">
         <v>2</v>
       </c>
+      <c r="D78" s="2">
+        <v>2</v>
+      </c>
       <c r="E78" s="3" t="s">
-        <v>524</v>
+        <v>602</v>
       </c>
       <c r="F78" s="1">
         <v>202006</v>
@@ -60988,20 +64354,23 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31033229760400483</v>
+        <v>7.7794667587990363E-3</v>
       </c>
       <c r="B79" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
       </c>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
       <c r="E79" s="3" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="F79" s="1">
         <v>202006</v>
@@ -61010,20 +64379,23 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="72" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" ht="72" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80414324079519495</v>
+        <v>0.55896840558784655</v>
       </c>
       <c r="B80" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>526</v>
+        <v>492</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>527</v>
+        <v>603</v>
       </c>
       <c r="F80" s="1">
         <v>202006</v>
@@ -61035,17 +64407,17 @@
     <row r="81" spans="1:7" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73799471327161825</v>
+        <v>0.88427319650963021</v>
       </c>
       <c r="B81" s="3" t="str">
         <f t="shared" si="4"/>
         <v>X</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>528</v>
+        <v>493</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>529</v>
+        <v>604</v>
       </c>
       <c r="F81" s="1">
         <v>202006</v>
@@ -61057,17 +64429,17 @@
     <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42766144655357374</v>
+        <v>0.91115975390011106</v>
       </c>
       <c r="B82" s="3" t="str">
         <f t="shared" si="4"/>
         <v>X</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>530</v>
+        <v>494</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="F82" s="1">
         <v>202006</v>
@@ -61077,6 +64449,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B82" xr:uid="{ECD70CC4-C7FE-4B08-8655-8C496BF50D56}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="X"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
